--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD89BC8-68A1-4968-A842-298FC57AE238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35238F9-6EB0-40CA-9CD8-A340D1675304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -487,7 +487,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +673,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -834,7 +840,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -843,6 +849,13 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1200,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1223,7 @@
     <col min="2" max="2" width="21.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="11" style="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="76.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11" style="1"/>
   </cols>
@@ -1308,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="3">
-        <v>111999</v>
+        <v>46256</v>
       </c>
       <c r="I3" s="2">
         <v>100</v>
@@ -1670,38 +1683,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>44441</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>46632</v>
       </c>
-      <c r="G14" s="2">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="4">
+        <v>6</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1775,38 +1788,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5">
         <v>45084</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>45998</v>
       </c>
-      <c r="G17" s="2">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="4">
+        <v>6</v>
+      </c>
+      <c r="H17" s="5">
         <v>45998</v>
       </c>
-      <c r="I17" s="2">
-        <v>100</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="4">
+        <v>100</v>
+      </c>
+      <c r="J17" s="4">
         <v>0.05</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1880,38 +1893,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>44750</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>46926</v>
       </c>
-      <c r="G20" s="2">
-        <v>6</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="4">
+        <v>6</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2300,38 +2313,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="5">
         <v>44316</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="5">
         <v>46507</v>
       </c>
-      <c r="G32" s="2">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="4">
+        <v>6</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="4">
         <v>9.1249999999999998E-2</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2405,38 +2418,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="5">
         <v>45050</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="5">
         <v>45965</v>
       </c>
-      <c r="G35" s="2">
-        <v>6</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="G35" s="4">
+        <v>6</v>
+      </c>
+      <c r="H35" s="5">
         <v>45965</v>
       </c>
-      <c r="I35" s="2">
-        <v>100</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="I35" s="4">
+        <v>100</v>
+      </c>
+      <c r="J35" s="4">
         <v>0.05</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2510,38 +2523,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="5">
         <v>44781</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="5">
         <v>46364</v>
       </c>
-      <c r="G38" s="2">
-        <v>6</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="G38" s="4">
+        <v>6</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2860,38 +2873,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="5">
         <v>45415</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="5">
         <v>47241</v>
       </c>
-      <c r="G48" s="2">
-        <v>6</v>
-      </c>
-      <c r="H48" s="3" t="s">
+      <c r="G48" s="4">
+        <v>6</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="4">
         <v>0.08</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3000,38 +3013,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="5">
         <v>45636</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="5">
         <v>49653</v>
       </c>
-      <c r="G52" s="2">
-        <v>6</v>
-      </c>
-      <c r="H52" s="3" t="s">
+      <c r="G52" s="4">
+        <v>6</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="4">
         <v>7.6249999999999998E-2</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3315,38 +3328,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="5">
         <v>45555</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="5">
         <v>48102</v>
       </c>
-      <c r="G61" s="2">
-        <v>6</v>
-      </c>
-      <c r="H61" s="3" t="s">
+      <c r="G61" s="4">
+        <v>6</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="4">
         <v>2</v>
       </c>
     </row>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35238F9-6EB0-40CA-9CD8-A340D1675304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670A1A77-915C-4B53-A8CE-3C0CC0331B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1907,7 +1907,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="5">
-        <v>44750</v>
+        <v>44720</v>
       </c>
       <c r="F20" s="5">
         <v>46926</v>
@@ -2537,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="5">
-        <v>44781</v>
+        <v>44903</v>
       </c>
       <c r="F38" s="5">
         <v>46364</v>
@@ -3342,7 +3342,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="5">
-        <v>45555</v>
+        <v>47372</v>
       </c>
       <c r="F61" s="5">
         <v>48102</v>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670A1A77-915C-4B53-A8CE-3C0CC0331B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1940C9E5-ABAB-4A73-9752-756A9891ADE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>rate</t>
   </si>
   <si>
-    <t>fr</t>
-  </si>
-  <si>
     <t>BF35D</t>
   </si>
   <si>
@@ -362,6 +359,15 @@
   </si>
   <si>
     <t>30/9/2030;30/9/2031;30/9/2032;30/9/2033</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t>calificación</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,11 +1230,11 @@
     <col min="3" max="6" width="11" style="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="76.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="77.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1260,21 +1266,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3">
         <v>45811</v>
@@ -1295,21 +1304,24 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="K2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3">
         <v>45891</v>
@@ -1330,21 +1342,24 @@
         <v>0.06</v>
       </c>
       <c r="K3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3">
         <v>45709</v>
@@ -1365,21 +1380,24 @@
         <v>7.9500000000000001E-2</v>
       </c>
       <c r="K4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="3">
         <v>45183</v>
@@ -1400,21 +1418,24 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3">
         <v>45216</v>
@@ -1435,21 +1456,24 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3">
         <v>44750</v>
@@ -1470,21 +1494,24 @@
         <v>0.08</v>
       </c>
       <c r="K7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3">
         <v>45308</v>
@@ -1505,21 +1532,24 @@
         <v>0.06</v>
       </c>
       <c r="K8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3">
         <v>45611</v>
@@ -1540,21 +1570,24 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E10" s="3">
         <v>45876</v>
@@ -1575,21 +1608,24 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="K10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3">
         <v>45358</v>
@@ -1610,21 +1646,24 @@
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="K11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3">
         <v>45509</v>
@@ -1645,21 +1684,24 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="K12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E13" s="3">
         <v>45589</v>
@@ -1671,30 +1713,33 @@
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" s="2">
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="K13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E14" s="5">
         <v>44441</v>
@@ -1706,30 +1751,33 @@
         <v>6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="2">
+        <v>100</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3">
         <v>45721</v>
@@ -1750,21 +1798,24 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3">
         <v>45582</v>
@@ -1785,21 +1836,24 @@
         <v>0.06</v>
       </c>
       <c r="K16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5">
         <v>45084</v>
@@ -1819,22 +1873,25 @@
       <c r="J17" s="4">
         <v>0.05</v>
       </c>
-      <c r="K17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="2">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3">
         <v>45453</v>
@@ -1855,21 +1912,24 @@
         <v>0.06</v>
       </c>
       <c r="K18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3">
         <v>45350</v>
@@ -1890,56 +1950,62 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44720</v>
+      </c>
+      <c r="F20" s="3">
+        <v>46926</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5">
-        <v>44720</v>
-      </c>
-      <c r="F20" s="5">
-        <v>46926</v>
-      </c>
-      <c r="G20" s="4">
-        <v>6</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="4">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="K20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="3">
         <v>45588</v>
@@ -1960,21 +2026,24 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="K21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E22" s="3">
         <v>45747</v>
@@ -1986,30 +2055,33 @@
         <v>6</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" s="2">
         <v>0.08</v>
       </c>
       <c r="K22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="3">
         <v>45588</v>
@@ -2030,21 +2102,24 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="K23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="3">
         <v>45098</v>
@@ -2065,21 +2140,24 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="3">
         <v>45180</v>
@@ -2100,21 +2178,24 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3">
         <v>45862</v>
@@ -2135,21 +2216,24 @@
         <v>0.08</v>
       </c>
       <c r="K26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="3">
         <v>45699</v>
@@ -2170,21 +2254,24 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="3">
         <v>45562</v>
@@ -2205,21 +2292,24 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="3">
         <v>45562</v>
@@ -2240,21 +2330,24 @@
         <v>0.05</v>
       </c>
       <c r="K29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="3">
         <v>45609</v>
@@ -2275,21 +2368,24 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="K30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="3">
         <v>45609</v>
@@ -2310,56 +2406,62 @@
         <v>6.25E-2</v>
       </c>
       <c r="K31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="3">
+        <v>44316</v>
+      </c>
+      <c r="F32" s="3">
+        <v>46507</v>
+      </c>
+      <c r="G32" s="2">
+        <v>6</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="2">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="K32" s="2">
+        <v>100</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="5">
-        <v>44316</v>
-      </c>
-      <c r="F32" s="5">
-        <v>46507</v>
-      </c>
-      <c r="G32" s="4">
-        <v>6</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J32" s="4">
-        <v>9.1249999999999998E-2</v>
-      </c>
-      <c r="K32" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="3">
         <v>45412</v>
@@ -2371,30 +2473,33 @@
         <v>6</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J33" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="K33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="3">
         <v>45569</v>
@@ -2415,21 +2520,24 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="K34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="5">
         <v>45050</v>
@@ -2449,22 +2557,25 @@
       <c r="J35" s="4">
         <v>0.05</v>
       </c>
-      <c r="K35" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="2">
+        <v>100</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E36" s="3">
         <v>45545</v>
@@ -2485,21 +2596,24 @@
         <v>7.9500000000000001E-2</v>
       </c>
       <c r="K36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E37" s="3">
         <v>45642</v>
@@ -2520,21 +2634,24 @@
         <v>7.8750000000000001E-2</v>
       </c>
       <c r="K37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E38" s="5">
         <v>44903</v>
@@ -2546,30 +2663,33 @@
         <v>6</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J38" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="K38" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2">
+        <v>100</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="3">
         <v>45404</v>
@@ -2590,21 +2710,24 @@
         <v>0.06</v>
       </c>
       <c r="K39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="3">
         <v>45589</v>
@@ -2625,21 +2748,24 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="K40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="3">
         <v>45589</v>
@@ -2660,21 +2786,24 @@
         <v>0.05</v>
       </c>
       <c r="K41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E42" s="3">
         <v>45679</v>
@@ -2686,30 +2815,33 @@
         <v>6</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J42" s="2">
         <v>7.6249999999999998E-2</v>
       </c>
       <c r="K42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E43" s="3">
         <v>45309</v>
@@ -2730,21 +2862,24 @@
         <v>0.08</v>
       </c>
       <c r="K43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="3">
         <v>45840</v>
@@ -2765,21 +2900,24 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K44" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="3">
         <v>45624</v>
@@ -2800,21 +2938,24 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E46" s="3">
         <v>45491</v>
@@ -2826,65 +2967,71 @@
         <v>6</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J46" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="K46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="5">
+        <v>45497</v>
+      </c>
+      <c r="F47" s="5">
+        <v>48053</v>
+      </c>
+      <c r="G47" s="4">
+        <v>6</v>
+      </c>
+      <c r="H47" s="5">
+        <v>48053</v>
+      </c>
+      <c r="I47" s="4">
+        <v>100</v>
+      </c>
+      <c r="J47" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K47" s="2">
+        <v>100</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="3">
-        <v>45497</v>
-      </c>
-      <c r="F47" s="3">
-        <v>48053</v>
-      </c>
-      <c r="G47" s="2">
-        <v>6</v>
-      </c>
-      <c r="H47" s="3">
-        <v>48053</v>
-      </c>
-      <c r="I47" s="2">
-        <v>100</v>
-      </c>
-      <c r="J47" s="2">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="5">
         <v>45415</v>
@@ -2896,30 +3043,33 @@
         <v>6</v>
       </c>
       <c r="H48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="J48" s="4">
         <v>0.08</v>
       </c>
-      <c r="K48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="2">
+        <v>100</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="3">
         <v>45723</v>
@@ -2940,21 +3090,24 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="3">
         <v>45575</v>
@@ -2966,30 +3119,33 @@
         <v>6</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J50" s="2">
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="K50" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="3">
         <v>45818</v>
@@ -3010,21 +3166,24 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K51" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E52" s="5">
         <v>45636</v>
@@ -3036,30 +3195,33 @@
         <v>6</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J52" s="4">
         <v>7.6249999999999998E-2</v>
       </c>
-      <c r="K52" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="2">
+        <v>100</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="3">
         <v>45090</v>
@@ -3080,21 +3242,24 @@
         <v>0.05</v>
       </c>
       <c r="K53" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="3">
         <v>45624</v>
@@ -3115,21 +3280,24 @@
         <v>0.06</v>
       </c>
       <c r="K54" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" s="3">
         <v>45715</v>
@@ -3150,21 +3318,24 @@
         <v>6.25E-2</v>
       </c>
       <c r="K55" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3">
         <v>45784</v>
@@ -3185,21 +3356,24 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K56" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" s="3">
         <v>45860</v>
@@ -3220,21 +3394,24 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K57" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E58" s="3">
         <v>44239</v>
@@ -3246,30 +3423,33 @@
         <v>6</v>
       </c>
       <c r="H58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="J58" s="2">
         <v>0.09</v>
       </c>
       <c r="K58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" s="3">
         <v>45575</v>
@@ -3290,21 +3470,24 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K59" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" s="3">
         <v>45860</v>
@@ -3325,21 +3508,24 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="K60" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E61" s="5">
         <v>47372</v>
@@ -3351,30 +3537,33 @@
         <v>6</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J61" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K61" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="2">
+        <v>100</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E62" s="3">
         <v>45674</v>
@@ -3386,30 +3575,33 @@
         <v>6</v>
       </c>
       <c r="H62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="J62" s="2">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="K62" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E63" s="3">
         <v>45199</v>
@@ -3421,16 +3613,19 @@
         <v>6</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J63" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K63" s="2">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1940C9E5-ABAB-4A73-9752-756A9891ADE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03593AB0-32CD-474F-9759-6E32C39706FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03593AB0-32CD-474F-9759-6E32C39706FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8B710-08B0-4AB5-8405-89453F248ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="172">
   <si>
     <t>name</t>
   </si>
@@ -368,12 +368,183 @@
   </si>
   <si>
     <t>AAA</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>LMS7D</t>
+  </si>
+  <si>
+    <t>LMS9D</t>
+  </si>
+  <si>
+    <t>ALUAR</t>
+  </si>
+  <si>
+    <t>12/10/2025;12/1/2026;12/4/2026;12/7/2026;12/10/2026;12/1/2027;12/4/2027;12/7/2027;12/10/2027;12/1/2028;12/4/2028;12/7/2028;12/10/2028</t>
+  </si>
+  <si>
+    <t>RC1CD</t>
+  </si>
+  <si>
+    <t>RCCMD</t>
+  </si>
+  <si>
+    <t>RCCRD</t>
+  </si>
+  <si>
+    <t>ARCOR</t>
+  </si>
+  <si>
+    <t>RCCJD</t>
+  </si>
+  <si>
+    <t>31/7/2031;31/7/2032;31/7/2033</t>
+  </si>
+  <si>
+    <t>33;33;33</t>
+  </si>
+  <si>
+    <t>7,69230769230769;7,69230769230769;7,69230769230769;7,69230769230769;7,69230769230769;7,69230769230769;7,69230769230769;7,69230769230769;7,69230769230769;7,69230769230769;7,69230769230769;7,69230769230769;7,69230769230769</t>
+  </si>
+  <si>
+    <t>9/10/2024;9/4/2025;9/10/2025;9/4/2026;9/10/2026;9/4/2027;9/10/2027</t>
+  </si>
+  <si>
+    <t>14,285;14,285;14,285;14,285;14,285;14,285;14,29</t>
+  </si>
+  <si>
+    <t>BYCHD</t>
+  </si>
+  <si>
+    <t>BYCTD</t>
+  </si>
+  <si>
+    <t>GALICIA</t>
+  </si>
+  <si>
+    <t>BYCVD</t>
+  </si>
+  <si>
+    <t>BAGCD</t>
+  </si>
+  <si>
+    <t>MACRO</t>
+  </si>
+  <si>
+    <t>BPCPD</t>
+  </si>
+  <si>
+    <t>SUPERVIELLE</t>
+  </si>
+  <si>
+    <t>Sin Califiación</t>
+  </si>
+  <si>
+    <t>JOHN DEERE</t>
+  </si>
+  <si>
+    <t>HJCFD</t>
+  </si>
+  <si>
+    <t>HJCGD</t>
+  </si>
+  <si>
+    <t>HJCHD</t>
+  </si>
+  <si>
+    <t>HJCID</t>
+  </si>
+  <si>
+    <t>HJCJD</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>MSSED</t>
+  </si>
+  <si>
+    <t>MSSFD</t>
+  </si>
+  <si>
+    <t>YFC2D</t>
+  </si>
+  <si>
+    <t>YFCGD</t>
+  </si>
+  <si>
+    <t>YFCID</t>
+  </si>
+  <si>
+    <t>YFCJD</t>
+  </si>
+  <si>
+    <t>YFCKD</t>
+  </si>
+  <si>
+    <t>YFCLD</t>
+  </si>
+  <si>
+    <t>YFCMD</t>
+  </si>
+  <si>
+    <t>YPF LUZ</t>
+  </si>
+  <si>
+    <t>13/3/2027;13/6/2027</t>
+  </si>
+  <si>
+    <t>50;50</t>
+  </si>
+  <si>
+    <t>16/10/2030;16/10/2031;16/10/2032</t>
+  </si>
+  <si>
+    <t>T641D</t>
+  </si>
+  <si>
+    <t>TN63D</t>
+  </si>
+  <si>
+    <t>TARJETA NARANJA</t>
+  </si>
+  <si>
+    <t>29/8/2025;2911/2025</t>
+  </si>
+  <si>
+    <t>RUCAD</t>
+  </si>
+  <si>
+    <t>RUCDD</t>
+  </si>
+  <si>
+    <t>MSU ENERGY</t>
+  </si>
+  <si>
+    <t>5/12/2028;5/12/2029;5712/2030</t>
+  </si>
+  <si>
+    <t>17,5;17,5;65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,7 +664,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,12 +850,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -802,7 +967,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -845,8 +1010,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -855,15 +1021,11 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -896,6 +1058,7 @@
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="42" builtinId="3"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -1217,10 +1380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1397,9 @@
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="76.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="77.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="1"/>
+    <col min="10" max="11" width="11" style="1"/>
+    <col min="12" max="12" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1268,16 +1436,16 @@
       <c r="K1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1286,54 +1454,54 @@
         <v>13</v>
       </c>
       <c r="E2" s="3">
-        <v>45811</v>
+        <v>45211</v>
       </c>
       <c r="F2" s="3">
-        <v>46176</v>
+        <v>47038</v>
       </c>
       <c r="G2" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3">
-        <v>46176</v>
-      </c>
-      <c r="I2" s="2">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="J2" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K2" s="2">
         <v>100</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3">
-        <v>45891</v>
+        <v>45456</v>
       </c>
       <c r="F3" s="3">
-        <v>46256</v>
+        <v>46186</v>
       </c>
       <c r="G3" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3">
-        <v>46256</v>
+        <v>46186</v>
       </c>
       <c r="I3" s="2">
         <v>100</v>
@@ -1344,130 +1512,130 @@
       <c r="K3" s="2">
         <v>100</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
-        <v>45709</v>
+        <v>45869</v>
       </c>
       <c r="F4" s="3">
-        <v>46439</v>
+        <v>48791</v>
       </c>
       <c r="G4" s="2">
         <v>6</v>
       </c>
-      <c r="H4" s="3">
-        <v>46439</v>
-      </c>
-      <c r="I4" s="2">
-        <v>100</v>
+      <c r="H4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="J4" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="K4" s="2">
         <v>100</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>45183</v>
+        <v>44874</v>
       </c>
       <c r="F5" s="3">
-        <v>46095</v>
+        <v>46669</v>
       </c>
       <c r="G5" s="2">
         <v>6</v>
       </c>
-      <c r="H5" s="3">
-        <v>46095</v>
-      </c>
-      <c r="I5" s="2">
-        <v>100</v>
+      <c r="H5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="J5" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K5" s="2">
         <v>100</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
-        <v>45216</v>
+        <v>45068</v>
       </c>
       <c r="F6" s="3">
-        <v>45947</v>
+        <v>45983</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="3">
-        <v>45947</v>
+      <c r="H6" s="4">
+        <v>45983</v>
       </c>
       <c r="I6" s="2">
         <v>100</v>
       </c>
       <c r="J6" s="2">
-        <v>0.1</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K6" s="2">
         <v>100</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1476,36 +1644,36 @@
         <v>13</v>
       </c>
       <c r="E7" s="3">
-        <v>44750</v>
+        <v>45786</v>
       </c>
       <c r="F7" s="3">
-        <v>46084</v>
+        <v>46516</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
       </c>
       <c r="H7" s="3">
-        <v>46084</v>
+        <v>46516</v>
       </c>
       <c r="I7" s="2">
         <v>100</v>
       </c>
       <c r="J7" s="2">
-        <v>0.08</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K7" s="2">
         <v>100</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1514,36 +1682,36 @@
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>45308</v>
+        <v>45811</v>
       </c>
       <c r="F8" s="3">
-        <v>46404</v>
+        <v>46176</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="3">
-        <v>46404</v>
+        <v>46176</v>
       </c>
       <c r="I8" s="2">
         <v>100</v>
       </c>
       <c r="J8" s="2">
-        <v>0.06</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1552,226 +1720,226 @@
         <v>13</v>
       </c>
       <c r="E9" s="3">
-        <v>45611</v>
+        <v>45891</v>
       </c>
       <c r="F9" s="3">
-        <v>47072</v>
+        <v>46256</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
       <c r="H9" s="3">
-        <v>47072</v>
+        <v>46256</v>
       </c>
       <c r="I9" s="2">
         <v>100</v>
       </c>
       <c r="J9" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K9" s="2">
         <v>100</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3">
-        <v>45876</v>
+        <v>45709</v>
       </c>
       <c r="F10" s="3">
-        <v>46241</v>
+        <v>46439</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
       </c>
       <c r="H10" s="3">
-        <v>46241</v>
+        <v>46439</v>
       </c>
       <c r="I10" s="2">
         <v>100</v>
       </c>
       <c r="J10" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K10" s="2">
         <v>100</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>115</v>
+      <c r="L10" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3">
-        <v>45358</v>
+        <v>45183</v>
       </c>
       <c r="F11" s="3">
-        <v>46348</v>
+        <v>46095</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
       </c>
       <c r="H11" s="3">
-        <v>46348</v>
+        <v>46095</v>
       </c>
       <c r="I11" s="2">
         <v>100</v>
       </c>
       <c r="J11" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K11" s="2">
         <v>100</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>115</v>
+      <c r="L11" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3">
-        <v>45509</v>
+        <v>45216</v>
       </c>
       <c r="F12" s="3">
-        <v>46970</v>
+        <v>45947</v>
       </c>
       <c r="G12" s="2">
         <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>46970</v>
+        <v>45947</v>
       </c>
       <c r="I12" s="2">
         <v>100</v>
       </c>
       <c r="J12" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K12" s="2">
         <v>100</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>115</v>
+      <c r="L12" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3">
-        <v>45589</v>
+        <v>44750</v>
       </c>
       <c r="F13" s="3">
-        <v>47780</v>
+        <v>46084</v>
       </c>
       <c r="G13" s="2">
         <v>6</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>90</v>
+      <c r="H13" s="3">
+        <v>46084</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
       </c>
       <c r="J13" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K13" s="2">
         <v>100</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5">
-        <v>44441</v>
-      </c>
-      <c r="F14" s="5">
-        <v>46632</v>
-      </c>
-      <c r="G14" s="4">
-        <v>6</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="4">
-        <v>8.7499999999999994E-2</v>
+      <c r="L13" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45308</v>
+      </c>
+      <c r="F14" s="3">
+        <v>46404</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>46404</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.06</v>
       </c>
       <c r="K14" s="2">
         <v>100</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -1780,112 +1948,112 @@
         <v>13</v>
       </c>
       <c r="E15" s="3">
-        <v>45721</v>
+        <v>45611</v>
       </c>
       <c r="F15" s="3">
-        <v>46817</v>
+        <v>47072</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>46817</v>
+        <v>47072</v>
       </c>
       <c r="I15" s="2">
         <v>100</v>
       </c>
       <c r="J15" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K15" s="2">
         <v>100</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3">
-        <v>45582</v>
+        <v>45876</v>
       </c>
       <c r="F16" s="3">
-        <v>47043</v>
+        <v>46241</v>
       </c>
       <c r="G16" s="2">
         <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>47043</v>
+        <v>46241</v>
       </c>
       <c r="I16" s="2">
         <v>100</v>
       </c>
       <c r="J16" s="2">
-        <v>0.06</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K16" s="2">
         <v>100</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5">
-        <v>45084</v>
-      </c>
-      <c r="F17" s="5">
-        <v>45998</v>
-      </c>
-      <c r="G17" s="4">
-        <v>6</v>
-      </c>
-      <c r="H17" s="5">
-        <v>45998</v>
-      </c>
-      <c r="I17" s="4">
-        <v>100</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.05</v>
+      <c r="L16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45358</v>
+      </c>
+      <c r="F17" s="3">
+        <v>46348</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>46348</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+      <c r="J17" s="2">
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K17" s="2">
         <v>100</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>115</v>
+      <c r="L17" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -1894,74 +2062,74 @@
         <v>13</v>
       </c>
       <c r="E18" s="3">
-        <v>45453</v>
+        <v>45509</v>
       </c>
       <c r="F18" s="3">
-        <v>46183</v>
+        <v>46970</v>
       </c>
       <c r="G18" s="2">
         <v>6</v>
       </c>
       <c r="H18" s="3">
-        <v>46183</v>
+        <v>46970</v>
       </c>
       <c r="I18" s="2">
         <v>100</v>
       </c>
       <c r="J18" s="2">
-        <v>0.06</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K18" s="2">
         <v>100</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>115</v>
+      <c r="L18" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3">
-        <v>45350</v>
+        <v>45589</v>
       </c>
       <c r="F19" s="3">
-        <v>46446</v>
+        <v>47780</v>
       </c>
       <c r="G19" s="2">
         <v>6</v>
       </c>
-      <c r="H19" s="3">
-        <v>46446</v>
-      </c>
-      <c r="I19" s="2">
-        <v>100</v>
+      <c r="H19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J19" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K19" s="2">
         <v>100</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>115</v>
+      <c r="L19" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1970,19 +2138,19 @@
         <v>19</v>
       </c>
       <c r="E20" s="3">
-        <v>44720</v>
+        <v>44441</v>
       </c>
       <c r="F20" s="3">
-        <v>46926</v>
+        <v>46632</v>
       </c>
       <c r="G20" s="2">
         <v>6</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J20" s="2">
         <v>8.7499999999999994E-2</v>
@@ -1990,16 +2158,16 @@
       <c r="K20" s="2">
         <v>100</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>115</v>
+      <c r="L20" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -2008,112 +2176,112 @@
         <v>13</v>
       </c>
       <c r="E21" s="3">
-        <v>45588</v>
+        <v>45721</v>
       </c>
       <c r="F21" s="3">
-        <v>46683</v>
+        <v>46817</v>
       </c>
       <c r="G21" s="2">
         <v>6</v>
       </c>
       <c r="H21" s="3">
-        <v>46683</v>
+        <v>46817</v>
       </c>
       <c r="I21" s="2">
         <v>100</v>
       </c>
       <c r="J21" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K21" s="2">
         <v>100</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>115</v>
+      <c r="L21" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E22" s="3">
-        <v>45747</v>
+        <v>45582</v>
       </c>
       <c r="F22" s="3">
-        <v>49399</v>
+        <v>47043</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>90</v>
+      <c r="H22" s="3">
+        <v>47043</v>
+      </c>
+      <c r="I22" s="2">
+        <v>100</v>
       </c>
       <c r="J22" s="2">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="K22" s="2">
         <v>100</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>115</v>
+      <c r="L22" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3">
-        <v>45588</v>
+        <v>45575</v>
       </c>
       <c r="F23" s="3">
-        <v>47414</v>
+        <v>47036</v>
       </c>
       <c r="G23" s="2">
         <v>6</v>
       </c>
       <c r="H23" s="3">
-        <v>47414</v>
+        <v>46975</v>
       </c>
       <c r="I23" s="2">
         <v>100</v>
       </c>
       <c r="J23" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="K23" s="2">
         <v>100</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -2122,36 +2290,36 @@
         <v>13</v>
       </c>
       <c r="E24" s="3">
-        <v>45098</v>
+        <v>45883</v>
       </c>
       <c r="F24" s="3">
-        <v>46012</v>
+        <v>46265</v>
       </c>
       <c r="G24" s="2">
         <v>6</v>
       </c>
       <c r="H24" s="3">
-        <v>46012</v>
+        <v>46265</v>
       </c>
       <c r="I24" s="2">
         <v>100</v>
       </c>
       <c r="J24" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K24" s="2">
         <v>100</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -2160,36 +2328,36 @@
         <v>13</v>
       </c>
       <c r="E25" s="3">
-        <v>45180</v>
+        <v>45804</v>
       </c>
       <c r="F25" s="3">
-        <v>46092</v>
+        <v>46021</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
       </c>
       <c r="H25" s="3">
-        <v>46092</v>
+        <v>46021</v>
       </c>
       <c r="I25" s="2">
         <v>100</v>
       </c>
       <c r="J25" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="K25" s="2">
         <v>100</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -2198,36 +2366,36 @@
         <v>13</v>
       </c>
       <c r="E26" s="3">
-        <v>45862</v>
+        <v>45084</v>
       </c>
       <c r="F26" s="3">
-        <v>46592</v>
+        <v>45998</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
       </c>
       <c r="H26" s="3">
-        <v>46592</v>
+        <v>45998</v>
       </c>
       <c r="I26" s="2">
         <v>100</v>
       </c>
       <c r="J26" s="2">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="K26" s="2">
         <v>100</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -2236,36 +2404,36 @@
         <v>13</v>
       </c>
       <c r="E27" s="3">
-        <v>45699</v>
+        <v>45453</v>
       </c>
       <c r="F27" s="3">
-        <v>46610</v>
+        <v>46183</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>46610</v>
+        <v>46183</v>
       </c>
       <c r="I27" s="2">
         <v>100</v>
       </c>
       <c r="J27" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K27" s="2">
         <v>100</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -2274,16 +2442,16 @@
         <v>13</v>
       </c>
       <c r="E28" s="3">
-        <v>45562</v>
+        <v>45350</v>
       </c>
       <c r="F28" s="3">
-        <v>47388</v>
+        <v>46446</v>
       </c>
       <c r="G28" s="2">
         <v>6</v>
       </c>
       <c r="H28" s="3">
-        <v>47388</v>
+        <v>46446</v>
       </c>
       <c r="I28" s="2">
         <v>100</v>
@@ -2294,54 +2462,54 @@
       <c r="K28" s="2">
         <v>100</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="3">
-        <v>45562</v>
+        <v>44720</v>
       </c>
       <c r="F29" s="3">
-        <v>46657</v>
+        <v>46926</v>
       </c>
       <c r="G29" s="2">
         <v>6</v>
       </c>
-      <c r="H29" s="3">
-        <v>46657</v>
-      </c>
-      <c r="I29" s="2">
-        <v>100</v>
+      <c r="H29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J29" s="2">
-        <v>0.05</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K29" s="2">
         <v>100</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -2350,74 +2518,74 @@
         <v>13</v>
       </c>
       <c r="E30" s="3">
-        <v>45609</v>
+        <v>45588</v>
       </c>
       <c r="F30" s="3">
-        <v>48165</v>
+        <v>46683</v>
       </c>
       <c r="G30" s="2">
         <v>6</v>
       </c>
       <c r="H30" s="3">
-        <v>48165</v>
+        <v>46683</v>
       </c>
       <c r="I30" s="2">
         <v>100</v>
       </c>
       <c r="J30" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K30" s="2">
         <v>100</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E31" s="3">
-        <v>45609</v>
+        <v>45747</v>
       </c>
       <c r="F31" s="3">
-        <v>47070</v>
+        <v>49399</v>
       </c>
       <c r="G31" s="2">
         <v>6</v>
       </c>
-      <c r="H31" s="3">
-        <v>47070</v>
-      </c>
-      <c r="I31" s="2">
-        <v>100</v>
+      <c r="H31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J31" s="2">
-        <v>6.25E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K31" s="2">
         <v>100</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -2426,36 +2594,36 @@
         <v>13</v>
       </c>
       <c r="E32" s="3">
-        <v>44316</v>
+        <v>45588</v>
       </c>
       <c r="F32" s="3">
-        <v>46507</v>
+        <v>47414</v>
       </c>
       <c r="G32" s="2">
         <v>6</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>101</v>
+      <c r="H32" s="3">
+        <v>47414</v>
+      </c>
+      <c r="I32" s="2">
+        <v>100</v>
       </c>
       <c r="J32" s="2">
-        <v>9.1249999999999998E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K32" s="2">
         <v>100</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -2464,36 +2632,36 @@
         <v>13</v>
       </c>
       <c r="E33" s="3">
-        <v>45412</v>
+        <v>45586</v>
       </c>
       <c r="F33" s="3">
-        <v>48334</v>
+        <v>46316</v>
       </c>
       <c r="G33" s="2">
         <v>6</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>90</v>
+      <c r="H33" s="3">
+        <v>46255</v>
+      </c>
+      <c r="I33" s="2">
+        <v>100</v>
       </c>
       <c r="J33" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K33" s="2">
         <v>100</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>115</v>
+      <c r="L33" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -2502,188 +2670,188 @@
         <v>13</v>
       </c>
       <c r="E34" s="3">
-        <v>45569</v>
+        <v>45586</v>
       </c>
       <c r="F34" s="3">
-        <v>47030</v>
+        <v>47047</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
       </c>
       <c r="H34" s="3">
-        <v>47030</v>
+        <v>47047</v>
       </c>
       <c r="I34" s="2">
         <v>100</v>
       </c>
       <c r="J34" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K34" s="2">
         <v>100</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="5">
-        <v>45050</v>
-      </c>
-      <c r="F35" s="5">
-        <v>45965</v>
-      </c>
-      <c r="G35" s="4">
-        <v>6</v>
-      </c>
-      <c r="H35" s="5">
-        <v>45965</v>
-      </c>
-      <c r="I35" s="4">
-        <v>100</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0.05</v>
+      <c r="L34" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F35" s="3">
+        <v>46769</v>
+      </c>
+      <c r="G35" s="2">
+        <v>6</v>
+      </c>
+      <c r="H35" s="3">
+        <v>46769</v>
+      </c>
+      <c r="I35" s="2">
+        <v>100</v>
+      </c>
+      <c r="J35" s="2">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K35" s="2">
         <v>100</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>115</v>
+      <c r="L35" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E36" s="3">
-        <v>45545</v>
+        <v>45804</v>
       </c>
       <c r="F36" s="3">
-        <v>48101</v>
+        <v>46534</v>
       </c>
       <c r="G36" s="2">
         <v>6</v>
       </c>
       <c r="H36" s="3">
-        <v>48101</v>
+        <v>46534</v>
       </c>
       <c r="I36" s="2">
         <v>100</v>
       </c>
       <c r="J36" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K36" s="2">
         <v>100</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>115</v>
+      <c r="L36" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E37" s="3">
-        <v>45642</v>
+        <v>45863</v>
       </c>
       <c r="F37" s="3">
-        <v>49294</v>
+        <v>46593</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
       </c>
       <c r="H37" s="3">
-        <v>49294</v>
+        <v>46593</v>
       </c>
       <c r="I37" s="2">
         <v>100</v>
       </c>
       <c r="J37" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K37" s="2">
         <v>100</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="5">
-        <v>44903</v>
-      </c>
-      <c r="F38" s="5">
-        <v>46364</v>
-      </c>
-      <c r="G38" s="4">
-        <v>6</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J38" s="4">
-        <v>9.5000000000000001E-2</v>
+      <c r="L37" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45098</v>
+      </c>
+      <c r="F38" s="3">
+        <v>46012</v>
+      </c>
+      <c r="G38" s="2">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3">
+        <v>46012</v>
+      </c>
+      <c r="I38" s="2">
+        <v>100</v>
+      </c>
+      <c r="J38" s="2">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K38" s="2">
         <v>100</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -2692,36 +2860,36 @@
         <v>13</v>
       </c>
       <c r="E39" s="3">
-        <v>45404</v>
+        <v>45180</v>
       </c>
       <c r="F39" s="3">
-        <v>46134</v>
+        <v>46092</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
       <c r="H39" s="3">
-        <v>46134</v>
+        <v>46092</v>
       </c>
       <c r="I39" s="2">
         <v>100</v>
       </c>
       <c r="J39" s="2">
-        <v>0.06</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K39" s="2">
         <v>100</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -2730,112 +2898,112 @@
         <v>13</v>
       </c>
       <c r="E40" s="3">
-        <v>45589</v>
+        <v>45862</v>
       </c>
       <c r="F40" s="3">
-        <v>47415</v>
+        <v>46592</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
       <c r="H40" s="3">
-        <v>47415</v>
+        <v>46592</v>
       </c>
       <c r="I40" s="2">
         <v>100</v>
       </c>
       <c r="J40" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K40" s="2">
         <v>100</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E41" s="3">
-        <v>45589</v>
+        <v>45831</v>
       </c>
       <c r="F41" s="3">
-        <v>46684</v>
+        <v>47292</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
       <c r="H41" s="3">
-        <v>46684</v>
+        <v>47292</v>
       </c>
       <c r="I41" s="2">
         <v>100</v>
       </c>
       <c r="J41" s="2">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="K41" s="2">
         <v>100</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>115</v>
+      <c r="L41" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E42" s="3">
-        <v>45679</v>
+        <v>45363</v>
       </c>
       <c r="F42" s="3">
-        <v>48601</v>
+        <v>42441</v>
       </c>
       <c r="G42" s="2">
         <v>6</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>90</v>
+      <c r="H42" s="3">
+        <v>46093</v>
+      </c>
+      <c r="I42" s="2">
+        <v>100</v>
       </c>
       <c r="J42" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K42" s="2">
         <v>100</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>115</v>
+      <c r="L42" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
@@ -2844,36 +3012,36 @@
         <v>19</v>
       </c>
       <c r="E43" s="3">
-        <v>45309</v>
+        <v>45631</v>
       </c>
       <c r="F43" s="3">
-        <v>46221</v>
+        <v>47822</v>
       </c>
       <c r="G43" s="2">
         <v>6</v>
       </c>
-      <c r="H43" s="3">
-        <v>46221</v>
-      </c>
-      <c r="I43" s="2">
-        <v>100</v>
+      <c r="H43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="J43" s="2">
-        <v>0.08</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K43" s="2">
         <v>100</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>115</v>
+      <c r="L43" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -2882,36 +3050,36 @@
         <v>13</v>
       </c>
       <c r="E44" s="3">
-        <v>45840</v>
+        <v>45124</v>
       </c>
       <c r="F44" s="3">
-        <v>46570</v>
+        <v>46220</v>
       </c>
       <c r="G44" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H44" s="3">
-        <v>46570</v>
+        <v>46220</v>
       </c>
       <c r="I44" s="2">
         <v>100</v>
       </c>
       <c r="J44" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K44" s="2">
         <v>100</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>115</v>
+      <c r="L44" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -2920,150 +3088,150 @@
         <v>13</v>
       </c>
       <c r="E45" s="3">
-        <v>45624</v>
+        <v>45496</v>
       </c>
       <c r="F45" s="3">
-        <v>47085</v>
+        <v>46591</v>
       </c>
       <c r="G45" s="2">
         <v>6</v>
       </c>
       <c r="H45" s="3">
-        <v>47085</v>
+        <v>46591</v>
       </c>
       <c r="I45" s="2">
         <v>100</v>
       </c>
       <c r="J45" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K45" s="2">
         <v>100</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>115</v>
+      <c r="L45" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E46" s="3">
-        <v>45491</v>
+        <v>45699</v>
       </c>
       <c r="F46" s="3">
-        <v>48047</v>
+        <v>46610</v>
       </c>
       <c r="G46" s="2">
         <v>6</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>90</v>
+      <c r="H46" s="3">
+        <v>46610</v>
+      </c>
+      <c r="I46" s="2">
+        <v>100</v>
       </c>
       <c r="J46" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K46" s="2">
         <v>100</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="5">
-        <v>45497</v>
-      </c>
-      <c r="F47" s="5">
-        <v>48053</v>
-      </c>
-      <c r="G47" s="4">
-        <v>6</v>
-      </c>
-      <c r="H47" s="5">
-        <v>48053</v>
-      </c>
-      <c r="I47" s="4">
-        <v>100</v>
-      </c>
-      <c r="J47" s="4">
-        <v>8.5000000000000006E-2</v>
+      <c r="L46" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F47" s="3">
+        <v>47388</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6</v>
+      </c>
+      <c r="H47" s="3">
+        <v>47388</v>
+      </c>
+      <c r="I47" s="2">
+        <v>100</v>
+      </c>
+      <c r="J47" s="2">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K47" s="2">
         <v>100</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="5">
-        <v>45415</v>
-      </c>
-      <c r="F48" s="5">
-        <v>47241</v>
-      </c>
-      <c r="G48" s="4">
-        <v>6</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0.08</v>
+      <c r="L47" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F48" s="3">
+        <v>46657</v>
+      </c>
+      <c r="G48" s="2">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3">
+        <v>46657</v>
+      </c>
+      <c r="I48" s="2">
+        <v>100</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.05</v>
       </c>
       <c r="K48" s="2">
         <v>100</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -3072,36 +3240,36 @@
         <v>13</v>
       </c>
       <c r="E49" s="3">
-        <v>45723</v>
+        <v>45609</v>
       </c>
       <c r="F49" s="3">
-        <v>47549</v>
+        <v>48165</v>
       </c>
       <c r="G49" s="2">
         <v>6</v>
       </c>
       <c r="H49" s="3">
-        <v>47549</v>
+        <v>48165</v>
       </c>
       <c r="I49" s="2">
         <v>100</v>
       </c>
       <c r="J49" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K49" s="2">
         <v>100</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -3110,36 +3278,36 @@
         <v>13</v>
       </c>
       <c r="E50" s="3">
-        <v>45575</v>
+        <v>45609</v>
       </c>
       <c r="F50" s="3">
-        <v>48131</v>
+        <v>47070</v>
       </c>
       <c r="G50" s="2">
         <v>6</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>90</v>
+      <c r="H50" s="3">
+        <v>47070</v>
+      </c>
+      <c r="I50" s="2">
+        <v>100</v>
       </c>
       <c r="J50" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K50" s="2">
         <v>100</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -3148,74 +3316,74 @@
         <v>13</v>
       </c>
       <c r="E51" s="3">
-        <v>45818</v>
+        <v>44316</v>
       </c>
       <c r="F51" s="3">
-        <v>48740</v>
+        <v>46507</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
       </c>
-      <c r="H51" s="3">
-        <v>48740</v>
-      </c>
-      <c r="I51" s="2">
-        <v>100</v>
+      <c r="H51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="J51" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>9.1249999999999998E-2</v>
       </c>
       <c r="K51" s="2">
         <v>100</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="5">
-        <v>45636</v>
-      </c>
-      <c r="F52" s="5">
-        <v>49653</v>
-      </c>
-      <c r="G52" s="4">
-        <v>6</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I52" s="4" t="s">
+      <c r="L51" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45412</v>
+      </c>
+      <c r="F52" s="3">
+        <v>48334</v>
+      </c>
+      <c r="G52" s="2">
+        <v>6</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J52" s="4">
-        <v>7.6249999999999998E-2</v>
+      <c r="J52" s="2">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K52" s="2">
         <v>100</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -3224,36 +3392,36 @@
         <v>13</v>
       </c>
       <c r="E53" s="3">
-        <v>45090</v>
+        <v>45569</v>
       </c>
       <c r="F53" s="3">
-        <v>46066</v>
+        <v>47030</v>
       </c>
       <c r="G53" s="2">
         <v>6</v>
       </c>
       <c r="H53" s="3">
-        <v>46066</v>
+        <v>47030</v>
       </c>
       <c r="I53" s="2">
         <v>100</v>
       </c>
       <c r="J53" s="2">
-        <v>0.05</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K53" s="2">
         <v>100</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
@@ -3262,188 +3430,188 @@
         <v>13</v>
       </c>
       <c r="E54" s="3">
-        <v>45624</v>
+        <v>45050</v>
       </c>
       <c r="F54" s="3">
-        <v>46170</v>
+        <v>45965</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
       </c>
       <c r="H54" s="3">
-        <v>46170</v>
+        <v>45965</v>
       </c>
       <c r="I54" s="2">
         <v>100</v>
       </c>
       <c r="J54" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K54" s="2">
         <v>100</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E55" s="3">
-        <v>45715</v>
+        <v>45545</v>
       </c>
       <c r="F55" s="3">
-        <v>46445</v>
+        <v>48101</v>
       </c>
       <c r="G55" s="2">
         <v>6</v>
       </c>
       <c r="H55" s="3">
-        <v>46445</v>
+        <v>48101</v>
       </c>
       <c r="I55" s="2">
         <v>100</v>
       </c>
       <c r="J55" s="2">
-        <v>6.25E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K55" s="2">
         <v>100</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E56" s="3">
-        <v>45784</v>
+        <v>45642</v>
       </c>
       <c r="F56" s="3">
-        <v>46514</v>
+        <v>49294</v>
       </c>
       <c r="G56" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H56" s="3">
-        <v>46514</v>
+        <v>49294</v>
       </c>
       <c r="I56" s="2">
         <v>100</v>
       </c>
       <c r="J56" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K56" s="2">
         <v>100</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E57" s="3">
-        <v>45860</v>
+        <v>44903</v>
       </c>
       <c r="F57" s="3">
-        <v>46590</v>
+        <v>46364</v>
       </c>
       <c r="G57" s="2">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
-        <v>46590</v>
-      </c>
-      <c r="I57" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J57" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K57" s="2">
         <v>100</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E58" s="3">
-        <v>44239</v>
+        <v>45412</v>
       </c>
       <c r="F58" s="3">
-        <v>47299</v>
+        <v>46507</v>
       </c>
       <c r="G58" s="2">
-        <v>6</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>46507</v>
+      </c>
+      <c r="I58" s="2">
+        <v>100</v>
       </c>
       <c r="J58" s="2">
-        <v>0.09</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="K58" s="2">
         <v>100</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>115</v>
+      <c r="L58" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -3452,36 +3620,36 @@
         <v>13</v>
       </c>
       <c r="E59" s="3">
-        <v>45575</v>
+        <v>45622</v>
       </c>
       <c r="F59" s="3">
-        <v>47036</v>
+        <v>45989</v>
       </c>
       <c r="G59" s="2">
-        <v>6</v>
-      </c>
-      <c r="H59" s="3">
-        <v>47036</v>
-      </c>
-      <c r="I59" s="2">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="J59" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K59" s="2">
         <v>100</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>115</v>
+      <c r="L59" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -3490,112 +3658,112 @@
         <v>13</v>
       </c>
       <c r="E60" s="3">
-        <v>45860</v>
+        <v>45404</v>
       </c>
       <c r="F60" s="3">
-        <v>47686</v>
+        <v>46134</v>
       </c>
       <c r="G60" s="2">
         <v>6</v>
       </c>
       <c r="H60" s="3">
-        <v>47686</v>
+        <v>46134</v>
       </c>
       <c r="I60" s="2">
         <v>100</v>
       </c>
       <c r="J60" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K60" s="2">
         <v>100</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="5">
-        <v>47372</v>
-      </c>
-      <c r="F61" s="5">
-        <v>48102</v>
-      </c>
-      <c r="G61" s="4">
-        <v>6</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J61" s="4">
-        <v>8.7499999999999994E-2</v>
+      <c r="L60" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45589</v>
+      </c>
+      <c r="F61" s="3">
+        <v>47415</v>
+      </c>
+      <c r="G61" s="2">
+        <v>6</v>
+      </c>
+      <c r="H61" s="3">
+        <v>47415</v>
+      </c>
+      <c r="I61" s="2">
+        <v>100</v>
+      </c>
+      <c r="J61" s="2">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K61" s="2">
         <v>100</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E62" s="3">
-        <v>45674</v>
+        <v>45589</v>
       </c>
       <c r="F62" s="3">
-        <v>48961</v>
+        <v>46684</v>
       </c>
       <c r="G62" s="2">
         <v>6</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>90</v>
+      <c r="H62" s="3">
+        <v>46684</v>
+      </c>
+      <c r="I62" s="2">
+        <v>100</v>
       </c>
       <c r="J62" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K62" s="2">
         <v>100</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
@@ -3604,27 +3772,1129 @@
         <v>19</v>
       </c>
       <c r="E63" s="3">
+        <v>45679</v>
+      </c>
+      <c r="F63" s="3">
+        <v>48601</v>
+      </c>
+      <c r="G63" s="2">
+        <v>6</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J63" s="2">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="K63" s="2">
+        <v>100</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="3">
+        <v>45309</v>
+      </c>
+      <c r="F64" s="3">
+        <v>46221</v>
+      </c>
+      <c r="G64" s="2">
+        <v>6</v>
+      </c>
+      <c r="H64" s="3">
+        <v>46221</v>
+      </c>
+      <c r="I64" s="2">
+        <v>100</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="K64" s="2">
+        <v>100</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3">
+        <v>45840</v>
+      </c>
+      <c r="F65" s="3">
+        <v>46570</v>
+      </c>
+      <c r="G65" s="2">
+        <v>3</v>
+      </c>
+      <c r="H65" s="3">
+        <v>46570</v>
+      </c>
+      <c r="I65" s="2">
+        <v>100</v>
+      </c>
+      <c r="J65" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K65" s="2">
+        <v>100</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45624</v>
+      </c>
+      <c r="F66" s="3">
+        <v>47085</v>
+      </c>
+      <c r="G66" s="2">
+        <v>6</v>
+      </c>
+      <c r="H66" s="3">
+        <v>47085</v>
+      </c>
+      <c r="I66" s="2">
+        <v>100</v>
+      </c>
+      <c r="J66" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K66" s="2">
+        <v>100</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="3">
+        <v>45491</v>
+      </c>
+      <c r="F67" s="3">
+        <v>48047</v>
+      </c>
+      <c r="G67" s="2">
+        <v>6</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J67" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K67" s="2">
+        <v>100</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="3">
+        <v>45497</v>
+      </c>
+      <c r="F68" s="3">
+        <v>48053</v>
+      </c>
+      <c r="G68" s="2">
+        <v>6</v>
+      </c>
+      <c r="H68" s="3">
+        <v>48053</v>
+      </c>
+      <c r="I68" s="2">
+        <v>100</v>
+      </c>
+      <c r="J68" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K68" s="2">
+        <v>100</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="3">
+        <v>45803</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45987</v>
+      </c>
+      <c r="G69" s="2">
+        <v>6</v>
+      </c>
+      <c r="H69" s="3">
+        <v>45987</v>
+      </c>
+      <c r="I69" s="2">
+        <v>100</v>
+      </c>
+      <c r="J69" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K69" s="2">
+        <v>100</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="3">
+        <v>45415</v>
+      </c>
+      <c r="F70" s="3">
+        <v>47241</v>
+      </c>
+      <c r="G70" s="2">
+        <v>6</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="K70" s="2">
+        <v>100</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="3">
+        <v>45723</v>
+      </c>
+      <c r="F71" s="3">
+        <v>47549</v>
+      </c>
+      <c r="G71" s="2">
+        <v>6</v>
+      </c>
+      <c r="H71" s="3">
+        <v>47549</v>
+      </c>
+      <c r="I71" s="2">
+        <v>100</v>
+      </c>
+      <c r="J71" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K71" s="2">
+        <v>100</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="3">
+        <v>45575</v>
+      </c>
+      <c r="F72" s="3">
+        <v>48131</v>
+      </c>
+      <c r="G72" s="2">
+        <v>6</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J72" s="2">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="K72" s="2">
+        <v>100</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="3">
+        <v>45818</v>
+      </c>
+      <c r="F73" s="3">
+        <v>48740</v>
+      </c>
+      <c r="G73" s="2">
+        <v>6</v>
+      </c>
+      <c r="H73" s="3">
+        <v>48740</v>
+      </c>
+      <c r="I73" s="2">
+        <v>100</v>
+      </c>
+      <c r="J73" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K73" s="2">
+        <v>100</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="3">
+        <v>45636</v>
+      </c>
+      <c r="F74" s="3">
+        <v>49653</v>
+      </c>
+      <c r="G74" s="2">
+        <v>6</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J74" s="2">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="K74" s="2">
+        <v>100</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="3">
+        <v>43671</v>
+      </c>
+      <c r="F75" s="3">
+        <v>46228</v>
+      </c>
+      <c r="G75" s="2">
+        <v>6</v>
+      </c>
+      <c r="H75" s="3">
+        <v>46228</v>
+      </c>
+      <c r="I75" s="2">
+        <v>100</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K75" s="2">
+        <v>100</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45349</v>
+      </c>
+      <c r="F76" s="3">
+        <v>46445</v>
+      </c>
+      <c r="G76" s="2">
+        <v>6</v>
+      </c>
+      <c r="H76" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I76" s="2">
+        <v>100</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K76" s="2">
+        <v>100</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="3">
+        <v>45456</v>
+      </c>
+      <c r="F77" s="3">
+        <v>46551</v>
+      </c>
+      <c r="G77" s="2">
+        <v>3</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K77" s="2">
+        <v>100</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="3">
+        <v>45581</v>
+      </c>
+      <c r="F78" s="3">
+        <v>48503</v>
+      </c>
+      <c r="G78" s="2">
+        <v>6</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J78" s="2">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="K78" s="2">
+        <v>100</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="3">
+        <v>45618</v>
+      </c>
+      <c r="F79" s="3">
+        <v>46348</v>
+      </c>
+      <c r="G79" s="2">
+        <v>6</v>
+      </c>
+      <c r="H79" s="3">
+        <v>46348</v>
+      </c>
+      <c r="I79" s="2">
+        <v>100</v>
+      </c>
+      <c r="J79" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="K79" s="2">
+        <v>100</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="3">
+        <v>45618</v>
+      </c>
+      <c r="F80" s="3">
+        <v>47079</v>
+      </c>
+      <c r="G80" s="2">
+        <v>3</v>
+      </c>
+      <c r="H80" s="3">
+        <v>47079</v>
+      </c>
+      <c r="I80" s="2">
+        <v>100</v>
+      </c>
+      <c r="J80" s="2">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="K80" s="2">
+        <v>100</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F81" s="3">
+        <v>46527</v>
+      </c>
+      <c r="G81" s="2">
+        <v>3</v>
+      </c>
+      <c r="H81" s="3">
+        <v>46527</v>
+      </c>
+      <c r="I81" s="2">
+        <v>100</v>
+      </c>
+      <c r="J81" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K81" s="2">
+        <v>100</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="3">
+        <v>45090</v>
+      </c>
+      <c r="F82" s="3">
+        <v>46066</v>
+      </c>
+      <c r="G82" s="2">
+        <v>6</v>
+      </c>
+      <c r="H82" s="3">
+        <v>46066</v>
+      </c>
+      <c r="I82" s="2">
+        <v>100</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K82" s="2">
+        <v>100</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="3">
+        <v>45624</v>
+      </c>
+      <c r="F83" s="3">
+        <v>46170</v>
+      </c>
+      <c r="G83" s="2">
+        <v>6</v>
+      </c>
+      <c r="H83" s="3">
+        <v>46170</v>
+      </c>
+      <c r="I83" s="2">
+        <v>100</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K83" s="2">
+        <v>100</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="3">
+        <v>45715</v>
+      </c>
+      <c r="F84" s="3">
+        <v>46445</v>
+      </c>
+      <c r="G84" s="2">
+        <v>6</v>
+      </c>
+      <c r="H84" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I84" s="2">
+        <v>100</v>
+      </c>
+      <c r="J84" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K84" s="2">
+        <v>100</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="3">
+        <v>45784</v>
+      </c>
+      <c r="F85" s="3">
+        <v>46514</v>
+      </c>
+      <c r="G85" s="2">
+        <v>3</v>
+      </c>
+      <c r="H85" s="3">
+        <v>46514</v>
+      </c>
+      <c r="I85" s="2">
+        <v>100</v>
+      </c>
+      <c r="J85" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K85" s="2">
+        <v>100</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="3">
+        <v>45860</v>
+      </c>
+      <c r="F86" s="3">
+        <v>46590</v>
+      </c>
+      <c r="G86" s="2">
+        <v>3</v>
+      </c>
+      <c r="H86" s="3">
+        <v>46590</v>
+      </c>
+      <c r="I86" s="2">
+        <v>100</v>
+      </c>
+      <c r="J86" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K86" s="2">
+        <v>100</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="3">
+        <v>44239</v>
+      </c>
+      <c r="F87" s="3">
+        <v>47299</v>
+      </c>
+      <c r="G87" s="2">
+        <v>6</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="K87" s="2">
+        <v>100</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="3">
+        <v>45575</v>
+      </c>
+      <c r="F88" s="3">
+        <v>47036</v>
+      </c>
+      <c r="G88" s="2">
+        <v>6</v>
+      </c>
+      <c r="H88" s="3">
+        <v>47036</v>
+      </c>
+      <c r="I88" s="2">
+        <v>100</v>
+      </c>
+      <c r="J88" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K88" s="2">
+        <v>100</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="3">
+        <v>45860</v>
+      </c>
+      <c r="F89" s="3">
+        <v>47686</v>
+      </c>
+      <c r="G89" s="2">
+        <v>6</v>
+      </c>
+      <c r="H89" s="3">
+        <v>47686</v>
+      </c>
+      <c r="I89" s="2">
+        <v>100</v>
+      </c>
+      <c r="J89" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K89" s="2">
+        <v>100</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="3">
+        <v>47372</v>
+      </c>
+      <c r="F90" s="3">
+        <v>48102</v>
+      </c>
+      <c r="G90" s="2">
+        <v>6</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J90" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K90" s="2">
+        <v>100</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F91" s="3">
+        <v>48961</v>
+      </c>
+      <c r="G91" s="2">
+        <v>6</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J91" s="2">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K91" s="2">
+        <v>100</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="3">
         <v>45199</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F92" s="3">
         <v>48852</v>
       </c>
-      <c r="G63" s="2">
-        <v>6</v>
-      </c>
-      <c r="H63" s="3" t="s">
+      <c r="G92" s="2">
+        <v>6</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J92" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K63" s="2">
-        <v>100</v>
-      </c>
-      <c r="L63" s="1" t="s">
+      <c r="K92" s="2">
+        <v>100</v>
+      </c>
+      <c r="L92" s="2" t="s">
         <v>115</v>
       </c>
     </row>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8B710-08B0-4AB5-8405-89453F248ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2957BC-C46F-4D78-A614-29E86AF10D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,10 +532,10 @@
     <t>MSU ENERGY</t>
   </si>
   <si>
-    <t>5/12/2028;5/12/2029;5712/2030</t>
-  </si>
-  <si>
     <t>17,5;17,5;65</t>
+  </si>
+  <si>
+    <t>5/12/2028;5/12/2029;5/12/2030</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1386,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3021,10 +3021,10 @@
         <v>6</v>
       </c>
       <c r="H43" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="J43" s="2">
         <v>9.7500000000000003E-2</v>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2957BC-C46F-4D78-A614-29E86AF10D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0CCF58-66FF-4BE2-AFDB-87E4E5C3F901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,9 +520,6 @@
     <t>TARJETA NARANJA</t>
   </si>
   <si>
-    <t>29/8/2025;2911/2025</t>
-  </si>
-  <si>
     <t>RUCAD</t>
   </si>
   <si>
@@ -536,6 +533,9 @@
   </si>
   <si>
     <t>5/12/2028;5/12/2029;5/12/2030</t>
+  </si>
+  <si>
+    <t>29/8/2025;2/11/2025</t>
   </si>
 </sst>
 </file>
@@ -1383,10 +1383,10 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2962,10 +2962,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
@@ -3021,10 +3021,10 @@
         <v>6</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J43" s="2">
         <v>9.7500000000000003E-2</v>
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>161</v>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0CCF58-66FF-4BE2-AFDB-87E4E5C3F901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6239D80-FCF1-4CA6-9F1F-24CA4B9210D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
     <t>5/12/2028;5/12/2029;5/12/2030</t>
   </si>
   <si>
-    <t>29/8/2025;2/11/2025</t>
+    <t>28/8/2025;28/11/2025</t>
   </si>
 </sst>
 </file>
@@ -1383,10 +1383,10 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2977,7 +2977,7 @@
         <v>45363</v>
       </c>
       <c r="F42" s="3">
-        <v>42441</v>
+        <v>46093</v>
       </c>
       <c r="G42" s="2">
         <v>6</v>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6239D80-FCF1-4CA6-9F1F-24CA4B9210D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A943889-46C4-4B99-9487-DC8DBBD87F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10000"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="0.01"/>
 </workbook>
 </file>
 
@@ -1383,10 +1383,10 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2261,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="H23" s="3">
-        <v>46975</v>
+        <v>47036</v>
       </c>
       <c r="I23" s="2">
         <v>100</v>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A943889-46C4-4B99-9487-DC8DBBD87F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFF9D28-B834-4F72-B3D9-B197D39C3A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="0.01"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="174">
   <si>
     <t>name</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>28/8/2025;28/11/2025</t>
+  </si>
+  <si>
+    <t>AERBD</t>
+  </si>
+  <si>
+    <t>AEROPUERTOS ARGENTINA</t>
   </si>
 </sst>
 </file>
@@ -1380,19 +1386,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="2" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="11" style="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="76.875" style="1" bestFit="1" customWidth="1"/>
@@ -1442,10 +1448,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1454,60 +1460,60 @@
         <v>13</v>
       </c>
       <c r="E2" s="3">
-        <v>45211</v>
+        <v>45639</v>
       </c>
       <c r="F2" s="3">
-        <v>47038</v>
+        <v>46371</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>131</v>
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>46373</v>
+      </c>
+      <c r="I2" s="2">
+        <v>100</v>
       </c>
       <c r="J2" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K2" s="2">
         <v>100</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3">
-        <v>45456</v>
+        <v>45211</v>
       </c>
       <c r="F3" s="3">
-        <v>46186</v>
+        <v>47038</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="3">
-        <v>46186</v>
-      </c>
-      <c r="I3" s="2">
-        <v>100</v>
+      <c r="H3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="J3" s="2">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K3" s="2">
         <v>100</v>
@@ -1518,34 +1524,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3">
-        <v>45869</v>
+        <v>45456</v>
       </c>
       <c r="F4" s="3">
-        <v>48791</v>
+        <v>46186</v>
       </c>
       <c r="G4" s="2">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>130</v>
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>46186</v>
+      </c>
+      <c r="I4" s="2">
+        <v>100</v>
       </c>
       <c r="J4" s="2">
-        <v>7.5999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K4" s="2">
         <v>100</v>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>127</v>
@@ -1565,25 +1571,25 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
-        <v>44874</v>
+        <v>45869</v>
       </c>
       <c r="F5" s="3">
-        <v>46669</v>
+        <v>48791</v>
       </c>
       <c r="G5" s="2">
         <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J5" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="K5" s="2">
         <v>100</v>
@@ -1594,34 +1600,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3">
-        <v>45068</v>
+        <v>44874</v>
       </c>
       <c r="F6" s="3">
-        <v>45983</v>
+        <v>46669</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="4">
-        <v>45983</v>
-      </c>
-      <c r="I6" s="2">
-        <v>100</v>
+      <c r="H6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="J6" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K6" s="2">
         <v>100</v>
@@ -1632,7 +1638,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>127</v>
@@ -1644,22 +1650,22 @@
         <v>13</v>
       </c>
       <c r="E7" s="3">
-        <v>45786</v>
+        <v>45068</v>
       </c>
       <c r="F7" s="3">
-        <v>46516</v>
+        <v>45983</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
       </c>
-      <c r="H7" s="3">
-        <v>46516</v>
+      <c r="H7" s="4">
+        <v>45983</v>
       </c>
       <c r="I7" s="2">
         <v>100</v>
       </c>
       <c r="J7" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K7" s="2">
         <v>100</v>
@@ -1670,10 +1676,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1682,22 +1688,22 @@
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>45811</v>
+        <v>45786</v>
       </c>
       <c r="F8" s="3">
-        <v>46176</v>
+        <v>46516</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="3">
-        <v>46176</v>
+        <v>46516</v>
       </c>
       <c r="I8" s="2">
         <v>100</v>
       </c>
       <c r="J8" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
@@ -1708,7 +1714,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1720,22 +1726,22 @@
         <v>13</v>
       </c>
       <c r="E9" s="3">
-        <v>45891</v>
+        <v>45811</v>
       </c>
       <c r="F9" s="3">
-        <v>46256</v>
+        <v>46176</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
       <c r="H9" s="3">
-        <v>46256</v>
+        <v>46176</v>
       </c>
       <c r="I9" s="2">
         <v>100</v>
       </c>
       <c r="J9" s="2">
-        <v>0.06</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K9" s="2">
         <v>100</v>
@@ -1746,10 +1752,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1758,98 +1764,98 @@
         <v>13</v>
       </c>
       <c r="E10" s="3">
-        <v>45709</v>
+        <v>45891</v>
       </c>
       <c r="F10" s="3">
-        <v>46439</v>
+        <v>46256</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
       </c>
       <c r="H10" s="3">
-        <v>46439</v>
+        <v>46256</v>
       </c>
       <c r="I10" s="2">
         <v>100</v>
       </c>
       <c r="J10" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K10" s="2">
         <v>100</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3">
-        <v>45183</v>
+        <v>45709</v>
       </c>
       <c r="F11" s="3">
-        <v>46095</v>
+        <v>46439</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
       </c>
       <c r="H11" s="3">
-        <v>46095</v>
+        <v>46439</v>
       </c>
       <c r="I11" s="2">
         <v>100</v>
       </c>
       <c r="J11" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K11" s="2">
         <v>100</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3">
-        <v>45216</v>
+        <v>45183</v>
       </c>
       <c r="F12" s="3">
-        <v>45947</v>
+        <v>46095</v>
       </c>
       <c r="G12" s="2">
         <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>45947</v>
+        <v>46095</v>
       </c>
       <c r="I12" s="2">
         <v>100</v>
       </c>
       <c r="J12" s="2">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K12" s="2">
         <v>100</v>
@@ -1860,45 +1866,45 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3">
-        <v>44750</v>
+        <v>45216</v>
       </c>
       <c r="F13" s="3">
-        <v>46084</v>
+        <v>45947</v>
       </c>
       <c r="G13" s="2">
         <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>46084</v>
+        <v>45947</v>
       </c>
       <c r="I13" s="2">
         <v>100</v>
       </c>
       <c r="J13" s="2">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="K13" s="2">
         <v>100</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
@@ -1910,22 +1916,22 @@
         <v>13</v>
       </c>
       <c r="E14" s="3">
-        <v>45308</v>
+        <v>44750</v>
       </c>
       <c r="F14" s="3">
-        <v>46404</v>
+        <v>46084</v>
       </c>
       <c r="G14" s="2">
         <v>6</v>
       </c>
       <c r="H14" s="3">
-        <v>46404</v>
+        <v>46084</v>
       </c>
       <c r="I14" s="2">
         <v>100</v>
       </c>
       <c r="J14" s="2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="K14" s="2">
         <v>100</v>
@@ -1936,7 +1942,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
@@ -1948,22 +1954,22 @@
         <v>13</v>
       </c>
       <c r="E15" s="3">
-        <v>45611</v>
+        <v>45308</v>
       </c>
       <c r="F15" s="3">
-        <v>47072</v>
+        <v>46404</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>47072</v>
+        <v>46404</v>
       </c>
       <c r="I15" s="2">
         <v>100</v>
       </c>
       <c r="J15" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K15" s="2">
         <v>100</v>
@@ -1974,72 +1980,72 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3">
-        <v>45876</v>
+        <v>45611</v>
       </c>
       <c r="F16" s="3">
-        <v>46241</v>
+        <v>47072</v>
       </c>
       <c r="G16" s="2">
         <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>46241</v>
+        <v>47072</v>
       </c>
       <c r="I16" s="2">
         <v>100</v>
       </c>
       <c r="J16" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K16" s="2">
         <v>100</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3">
-        <v>45358</v>
+        <v>45876</v>
       </c>
       <c r="F17" s="3">
-        <v>46348</v>
+        <v>46241</v>
       </c>
       <c r="G17" s="2">
         <v>6</v>
       </c>
       <c r="H17" s="3">
-        <v>46348</v>
+        <v>46241</v>
       </c>
       <c r="I17" s="2">
         <v>100</v>
       </c>
       <c r="J17" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K17" s="2">
         <v>100</v>
@@ -2050,7 +2056,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
@@ -2062,22 +2068,22 @@
         <v>13</v>
       </c>
       <c r="E18" s="3">
-        <v>45509</v>
+        <v>45358</v>
       </c>
       <c r="F18" s="3">
-        <v>46970</v>
+        <v>46348</v>
       </c>
       <c r="G18" s="2">
         <v>6</v>
       </c>
       <c r="H18" s="3">
-        <v>46970</v>
+        <v>46348</v>
       </c>
       <c r="I18" s="2">
         <v>100</v>
       </c>
       <c r="J18" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K18" s="2">
         <v>100</v>
@@ -2088,34 +2094,34 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3">
-        <v>45589</v>
+        <v>45509</v>
       </c>
       <c r="F19" s="3">
-        <v>47780</v>
+        <v>46970</v>
       </c>
       <c r="G19" s="2">
         <v>6</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>90</v>
+      <c r="H19" s="3">
+        <v>46970</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
       </c>
       <c r="J19" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K19" s="2">
         <v>100</v>
@@ -2126,10 +2132,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -2138,60 +2144,60 @@
         <v>19</v>
       </c>
       <c r="E20" s="3">
-        <v>44441</v>
+        <v>45589</v>
       </c>
       <c r="F20" s="3">
-        <v>46632</v>
+        <v>47780</v>
       </c>
       <c r="G20" s="2">
         <v>6</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J20" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K20" s="2">
         <v>100</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3">
-        <v>45721</v>
+        <v>44441</v>
       </c>
       <c r="F21" s="3">
-        <v>46817</v>
+        <v>46632</v>
       </c>
       <c r="G21" s="2">
         <v>6</v>
       </c>
-      <c r="H21" s="3">
-        <v>46817</v>
-      </c>
-      <c r="I21" s="2">
-        <v>100</v>
+      <c r="H21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="J21" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K21" s="2">
         <v>100</v>
@@ -2202,7 +2208,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -2214,22 +2220,22 @@
         <v>13</v>
       </c>
       <c r="E22" s="3">
-        <v>45582</v>
+        <v>45721</v>
       </c>
       <c r="F22" s="3">
-        <v>47043</v>
+        <v>46817</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
       </c>
       <c r="H22" s="3">
-        <v>47043</v>
+        <v>46817</v>
       </c>
       <c r="I22" s="2">
         <v>100</v>
       </c>
       <c r="J22" s="2">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K22" s="2">
         <v>100</v>
@@ -2240,72 +2246,72 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="3">
-        <v>45575</v>
+        <v>45582</v>
       </c>
       <c r="F23" s="3">
-        <v>47036</v>
+        <v>47043</v>
       </c>
       <c r="G23" s="2">
         <v>6</v>
       </c>
       <c r="H23" s="3">
-        <v>47036</v>
+        <v>47043</v>
       </c>
       <c r="I23" s="2">
         <v>100</v>
       </c>
       <c r="J23" s="2">
-        <v>7.7499999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K23" s="2">
         <v>100</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3">
-        <v>45883</v>
+        <v>45575</v>
       </c>
       <c r="F24" s="3">
-        <v>46265</v>
+        <v>47036</v>
       </c>
       <c r="G24" s="2">
         <v>6</v>
       </c>
       <c r="H24" s="3">
-        <v>46265</v>
+        <v>47036</v>
       </c>
       <c r="I24" s="2">
         <v>100</v>
       </c>
       <c r="J24" s="2">
-        <v>6.25E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="K24" s="2">
         <v>100</v>
@@ -2316,7 +2322,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>136</v>
@@ -2328,22 +2334,22 @@
         <v>13</v>
       </c>
       <c r="E25" s="3">
-        <v>45804</v>
+        <v>45883</v>
       </c>
       <c r="F25" s="3">
-        <v>46021</v>
+        <v>46265</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
       </c>
       <c r="H25" s="3">
-        <v>46021</v>
+        <v>46265</v>
       </c>
       <c r="I25" s="2">
         <v>100</v>
       </c>
       <c r="J25" s="2">
-        <v>0.04</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K25" s="2">
         <v>100</v>
@@ -2354,10 +2360,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -2366,22 +2372,22 @@
         <v>13</v>
       </c>
       <c r="E26" s="3">
-        <v>45084</v>
+        <v>45804</v>
       </c>
       <c r="F26" s="3">
-        <v>45998</v>
+        <v>46021</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
       </c>
       <c r="H26" s="3">
-        <v>45998</v>
+        <v>46021</v>
       </c>
       <c r="I26" s="2">
         <v>100</v>
       </c>
       <c r="J26" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="K26" s="2">
         <v>100</v>
@@ -2392,7 +2398,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
@@ -2404,22 +2410,22 @@
         <v>13</v>
       </c>
       <c r="E27" s="3">
-        <v>45453</v>
+        <v>45084</v>
       </c>
       <c r="F27" s="3">
-        <v>46183</v>
+        <v>45998</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>46183</v>
+        <v>45998</v>
       </c>
       <c r="I27" s="2">
         <v>100</v>
       </c>
       <c r="J27" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K27" s="2">
         <v>100</v>
@@ -2430,7 +2436,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>35</v>
@@ -2442,22 +2448,22 @@
         <v>13</v>
       </c>
       <c r="E28" s="3">
-        <v>45350</v>
+        <v>45453</v>
       </c>
       <c r="F28" s="3">
-        <v>46446</v>
+        <v>46183</v>
       </c>
       <c r="G28" s="2">
         <v>6</v>
       </c>
       <c r="H28" s="3">
-        <v>46446</v>
+        <v>46183</v>
       </c>
       <c r="I28" s="2">
         <v>100</v>
       </c>
       <c r="J28" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K28" s="2">
         <v>100</v>
@@ -2468,34 +2474,34 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E29" s="3">
-        <v>44720</v>
+        <v>45350</v>
       </c>
       <c r="F29" s="3">
-        <v>46926</v>
+        <v>46446</v>
       </c>
       <c r="G29" s="2">
         <v>6</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>98</v>
+      <c r="H29" s="3">
+        <v>46446</v>
+      </c>
+      <c r="I29" s="2">
+        <v>100</v>
       </c>
       <c r="J29" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K29" s="2">
         <v>100</v>
@@ -2506,34 +2512,34 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E30" s="3">
-        <v>45588</v>
+        <v>44720</v>
       </c>
       <c r="F30" s="3">
-        <v>46683</v>
+        <v>46926</v>
       </c>
       <c r="G30" s="2">
         <v>6</v>
       </c>
-      <c r="H30" s="3">
-        <v>46683</v>
-      </c>
-      <c r="I30" s="2">
-        <v>100</v>
+      <c r="H30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J30" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K30" s="2">
         <v>100</v>
@@ -2544,34 +2550,34 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E31" s="3">
-        <v>45747</v>
+        <v>45588</v>
       </c>
       <c r="F31" s="3">
-        <v>49399</v>
+        <v>46683</v>
       </c>
       <c r="G31" s="2">
         <v>6</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>90</v>
+      <c r="H31" s="3">
+        <v>46683</v>
+      </c>
+      <c r="I31" s="2">
+        <v>100</v>
       </c>
       <c r="J31" s="2">
-        <v>0.08</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K31" s="2">
         <v>100</v>
@@ -2582,34 +2588,34 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E32" s="3">
-        <v>45588</v>
+        <v>45747</v>
       </c>
       <c r="F32" s="3">
-        <v>47414</v>
+        <v>49399</v>
       </c>
       <c r="G32" s="2">
         <v>6</v>
       </c>
-      <c r="H32" s="3">
-        <v>47414</v>
-      </c>
-      <c r="I32" s="2">
-        <v>100</v>
+      <c r="H32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J32" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K32" s="2">
         <v>100</v>
@@ -2620,10 +2626,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -2632,33 +2638,33 @@
         <v>13</v>
       </c>
       <c r="E33" s="3">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="F33" s="3">
-        <v>46316</v>
+        <v>47414</v>
       </c>
       <c r="G33" s="2">
         <v>6</v>
       </c>
       <c r="H33" s="3">
-        <v>46255</v>
+        <v>47414</v>
       </c>
       <c r="I33" s="2">
         <v>100</v>
       </c>
       <c r="J33" s="2">
-        <v>0.05</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K33" s="2">
         <v>100</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>143</v>
@@ -2673,19 +2679,19 @@
         <v>45586</v>
       </c>
       <c r="F34" s="3">
-        <v>47047</v>
+        <v>46316</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
       </c>
       <c r="H34" s="3">
-        <v>47047</v>
+        <v>46316</v>
       </c>
       <c r="I34" s="2">
         <v>100</v>
       </c>
       <c r="J34" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K34" s="2">
         <v>100</v>
@@ -2696,7 +2702,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>143</v>
@@ -2708,22 +2714,22 @@
         <v>13</v>
       </c>
       <c r="E35" s="3">
-        <v>45674</v>
+        <v>45586</v>
       </c>
       <c r="F35" s="3">
-        <v>46769</v>
+        <v>47047</v>
       </c>
       <c r="G35" s="2">
         <v>6</v>
       </c>
       <c r="H35" s="3">
-        <v>46769</v>
+        <v>47047</v>
       </c>
       <c r="I35" s="2">
         <v>100</v>
       </c>
       <c r="J35" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K35" s="2">
         <v>100</v>
@@ -2734,7 +2740,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>143</v>
@@ -2746,22 +2752,22 @@
         <v>13</v>
       </c>
       <c r="E36" s="3">
-        <v>45804</v>
+        <v>45674</v>
       </c>
       <c r="F36" s="3">
-        <v>46534</v>
+        <v>46769</v>
       </c>
       <c r="G36" s="2">
         <v>6</v>
       </c>
       <c r="H36" s="3">
-        <v>46534</v>
+        <v>46769</v>
       </c>
       <c r="I36" s="2">
         <v>100</v>
       </c>
       <c r="J36" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K36" s="2">
         <v>100</v>
@@ -2772,7 +2778,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>143</v>
@@ -2784,22 +2790,22 @@
         <v>13</v>
       </c>
       <c r="E37" s="3">
-        <v>45863</v>
+        <v>45804</v>
       </c>
       <c r="F37" s="3">
-        <v>46593</v>
+        <v>46534</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
       </c>
       <c r="H37" s="3">
-        <v>46593</v>
+        <v>46534</v>
       </c>
       <c r="I37" s="2">
         <v>100</v>
       </c>
       <c r="J37" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K37" s="2">
         <v>100</v>
@@ -2810,10 +2816,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -2822,33 +2828,33 @@
         <v>13</v>
       </c>
       <c r="E38" s="3">
-        <v>45098</v>
+        <v>45863</v>
       </c>
       <c r="F38" s="3">
-        <v>46012</v>
+        <v>46593</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="H38" s="3">
-        <v>46012</v>
+        <v>46593</v>
       </c>
       <c r="I38" s="2">
         <v>100</v>
       </c>
       <c r="J38" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K38" s="2">
         <v>100</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>43</v>
@@ -2860,22 +2866,22 @@
         <v>13</v>
       </c>
       <c r="E39" s="3">
-        <v>45180</v>
+        <v>45098</v>
       </c>
       <c r="F39" s="3">
-        <v>46092</v>
+        <v>46012</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
       <c r="H39" s="3">
-        <v>46092</v>
+        <v>46012</v>
       </c>
       <c r="I39" s="2">
         <v>100</v>
       </c>
       <c r="J39" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K39" s="2">
         <v>100</v>
@@ -2886,7 +2892,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>43</v>
@@ -2898,22 +2904,22 @@
         <v>13</v>
       </c>
       <c r="E40" s="3">
-        <v>45862</v>
+        <v>45180</v>
       </c>
       <c r="F40" s="3">
-        <v>46592</v>
+        <v>46092</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
       <c r="H40" s="3">
-        <v>46592</v>
+        <v>46092</v>
       </c>
       <c r="I40" s="2">
         <v>100</v>
       </c>
       <c r="J40" s="2">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K40" s="2">
         <v>100</v>
@@ -2924,28 +2930,28 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E41" s="3">
-        <v>45831</v>
+        <v>45862</v>
       </c>
       <c r="F41" s="3">
-        <v>47292</v>
+        <v>46592</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
       <c r="H41" s="3">
-        <v>47292</v>
+        <v>46592</v>
       </c>
       <c r="I41" s="2">
         <v>100</v>
@@ -2957,77 +2963,77 @@
         <v>100</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E42" s="3">
-        <v>45363</v>
+        <v>45831</v>
       </c>
       <c r="F42" s="3">
-        <v>46093</v>
+        <v>47292</v>
       </c>
       <c r="G42" s="2">
         <v>6</v>
       </c>
       <c r="H42" s="3">
-        <v>46093</v>
+        <v>47292</v>
       </c>
       <c r="I42" s="2">
         <v>100</v>
       </c>
       <c r="J42" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K42" s="2">
         <v>100</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E43" s="3">
-        <v>45631</v>
+        <v>45363</v>
       </c>
       <c r="F43" s="3">
-        <v>47822</v>
+        <v>46093</v>
       </c>
       <c r="G43" s="2">
         <v>6</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>169</v>
+      <c r="H43" s="3">
+        <v>46093</v>
+      </c>
+      <c r="I43" s="2">
+        <v>100</v>
       </c>
       <c r="J43" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K43" s="2">
         <v>100</v>
@@ -3038,34 +3044,34 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E44" s="3">
-        <v>45124</v>
+        <v>45631</v>
       </c>
       <c r="F44" s="3">
-        <v>46220</v>
+        <v>47822</v>
       </c>
       <c r="G44" s="2">
         <v>6</v>
       </c>
-      <c r="H44" s="3">
-        <v>46220</v>
-      </c>
-      <c r="I44" s="2">
-        <v>100</v>
+      <c r="H44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="J44" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K44" s="2">
         <v>100</v>
@@ -3076,7 +3082,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>149</v>
@@ -3088,22 +3094,22 @@
         <v>13</v>
       </c>
       <c r="E45" s="3">
-        <v>45496</v>
+        <v>45124</v>
       </c>
       <c r="F45" s="3">
-        <v>46591</v>
+        <v>46220</v>
       </c>
       <c r="G45" s="2">
         <v>6</v>
       </c>
       <c r="H45" s="3">
-        <v>46591</v>
+        <v>46220</v>
       </c>
       <c r="I45" s="2">
         <v>100</v>
       </c>
       <c r="J45" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K45" s="2">
         <v>100</v>
@@ -3114,10 +3120,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -3126,33 +3132,33 @@
         <v>13</v>
       </c>
       <c r="E46" s="3">
-        <v>45699</v>
+        <v>45496</v>
       </c>
       <c r="F46" s="3">
-        <v>46610</v>
+        <v>46591</v>
       </c>
       <c r="G46" s="2">
         <v>6</v>
       </c>
       <c r="H46" s="3">
-        <v>46610</v>
+        <v>46591</v>
       </c>
       <c r="I46" s="2">
         <v>100</v>
       </c>
       <c r="J46" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K46" s="2">
         <v>100</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>47</v>
@@ -3164,22 +3170,22 @@
         <v>13</v>
       </c>
       <c r="E47" s="3">
-        <v>45562</v>
+        <v>45699</v>
       </c>
       <c r="F47" s="3">
-        <v>47388</v>
+        <v>46610</v>
       </c>
       <c r="G47" s="2">
         <v>6</v>
       </c>
       <c r="H47" s="3">
-        <v>47388</v>
+        <v>46610</v>
       </c>
       <c r="I47" s="2">
         <v>100</v>
       </c>
       <c r="J47" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K47" s="2">
         <v>100</v>
@@ -3190,7 +3196,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -3205,19 +3211,19 @@
         <v>45562</v>
       </c>
       <c r="F48" s="3">
-        <v>46657</v>
+        <v>47388</v>
       </c>
       <c r="G48" s="2">
         <v>6</v>
       </c>
       <c r="H48" s="3">
-        <v>46657</v>
+        <v>47388</v>
       </c>
       <c r="I48" s="2">
         <v>100</v>
       </c>
       <c r="J48" s="2">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K48" s="2">
         <v>100</v>
@@ -3228,7 +3234,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -3240,22 +3246,22 @@
         <v>13</v>
       </c>
       <c r="E49" s="3">
-        <v>45609</v>
+        <v>45562</v>
       </c>
       <c r="F49" s="3">
-        <v>48165</v>
+        <v>46657</v>
       </c>
       <c r="G49" s="2">
         <v>6</v>
       </c>
       <c r="H49" s="3">
-        <v>48165</v>
+        <v>46657</v>
       </c>
       <c r="I49" s="2">
         <v>100</v>
       </c>
       <c r="J49" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K49" s="2">
         <v>100</v>
@@ -3266,7 +3272,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>47</v>
@@ -3281,19 +3287,19 @@
         <v>45609</v>
       </c>
       <c r="F50" s="3">
-        <v>47070</v>
+        <v>48165</v>
       </c>
       <c r="G50" s="2">
         <v>6</v>
       </c>
       <c r="H50" s="3">
-        <v>47070</v>
+        <v>48165</v>
       </c>
       <c r="I50" s="2">
         <v>100</v>
       </c>
       <c r="J50" s="2">
-        <v>6.25E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K50" s="2">
         <v>100</v>
@@ -3304,7 +3310,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>47</v>
@@ -3316,22 +3322,22 @@
         <v>13</v>
       </c>
       <c r="E51" s="3">
-        <v>44316</v>
+        <v>45609</v>
       </c>
       <c r="F51" s="3">
-        <v>46507</v>
+        <v>47070</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>101</v>
+      <c r="H51" s="3">
+        <v>47070</v>
+      </c>
+      <c r="I51" s="2">
+        <v>100</v>
       </c>
       <c r="J51" s="2">
-        <v>9.1249999999999998E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K51" s="2">
         <v>100</v>
@@ -3342,7 +3348,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>47</v>
@@ -3354,22 +3360,22 @@
         <v>13</v>
       </c>
       <c r="E52" s="3">
-        <v>45412</v>
+        <v>44316</v>
       </c>
       <c r="F52" s="3">
-        <v>48334</v>
+        <v>46507</v>
       </c>
       <c r="G52" s="2">
         <v>6</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="J52" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>9.1249999999999998E-2</v>
       </c>
       <c r="K52" s="2">
         <v>100</v>
@@ -3380,10 +3386,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -3392,22 +3398,22 @@
         <v>13</v>
       </c>
       <c r="E53" s="3">
-        <v>45569</v>
+        <v>45412</v>
       </c>
       <c r="F53" s="3">
-        <v>47030</v>
+        <v>48334</v>
       </c>
       <c r="G53" s="2">
         <v>6</v>
       </c>
-      <c r="H53" s="3">
-        <v>47030</v>
-      </c>
-      <c r="I53" s="2">
-        <v>100</v>
+      <c r="H53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J53" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K53" s="2">
         <v>100</v>
@@ -3418,7 +3424,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>55</v>
@@ -3430,22 +3436,22 @@
         <v>13</v>
       </c>
       <c r="E54" s="3">
-        <v>45050</v>
+        <v>45569</v>
       </c>
       <c r="F54" s="3">
-        <v>45965</v>
+        <v>47030</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
       </c>
       <c r="H54" s="3">
-        <v>45965</v>
+        <v>47030</v>
       </c>
       <c r="I54" s="2">
         <v>100</v>
       </c>
       <c r="J54" s="2">
-        <v>0.05</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K54" s="2">
         <v>100</v>
@@ -3456,34 +3462,34 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E55" s="3">
-        <v>45545</v>
+        <v>45050</v>
       </c>
       <c r="F55" s="3">
-        <v>48101</v>
+        <v>45965</v>
       </c>
       <c r="G55" s="2">
         <v>6</v>
       </c>
       <c r="H55" s="3">
-        <v>48101</v>
+        <v>45965</v>
       </c>
       <c r="I55" s="2">
         <v>100</v>
       </c>
       <c r="J55" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K55" s="2">
         <v>100</v>
@@ -3494,7 +3500,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>55</v>
@@ -3506,22 +3512,22 @@
         <v>19</v>
       </c>
       <c r="E56" s="3">
-        <v>45642</v>
+        <v>45545</v>
       </c>
       <c r="F56" s="3">
-        <v>49294</v>
+        <v>48101</v>
       </c>
       <c r="G56" s="2">
         <v>6</v>
       </c>
       <c r="H56" s="3">
-        <v>49294</v>
+        <v>48101</v>
       </c>
       <c r="I56" s="2">
         <v>100</v>
       </c>
       <c r="J56" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K56" s="2">
         <v>100</v>
@@ -3532,7 +3538,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>55</v>
@@ -3544,22 +3550,22 @@
         <v>19</v>
       </c>
       <c r="E57" s="3">
-        <v>44903</v>
+        <v>45642</v>
       </c>
       <c r="F57" s="3">
-        <v>46364</v>
+        <v>49294</v>
       </c>
       <c r="G57" s="2">
         <v>6</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>90</v>
+      <c r="H57" s="3">
+        <v>49294</v>
+      </c>
+      <c r="I57" s="2">
+        <v>100</v>
       </c>
       <c r="J57" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K57" s="2">
         <v>100</v>
@@ -3570,45 +3576,45 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E58" s="3">
-        <v>45412</v>
+        <v>44903</v>
       </c>
       <c r="F58" s="3">
-        <v>46507</v>
+        <v>46364</v>
       </c>
       <c r="G58" s="2">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
-        <v>46507</v>
-      </c>
-      <c r="I58" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J58" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K58" s="2">
         <v>100</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>165</v>
@@ -3620,22 +3626,22 @@
         <v>13</v>
       </c>
       <c r="E59" s="3">
-        <v>45622</v>
+        <v>45412</v>
       </c>
       <c r="F59" s="3">
-        <v>45989</v>
+        <v>46507</v>
       </c>
       <c r="G59" s="2">
         <v>3</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>161</v>
+      <c r="H59" s="3">
+        <v>46507</v>
+      </c>
+      <c r="I59" s="2">
+        <v>100</v>
       </c>
       <c r="J59" s="2">
-        <v>6.25E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="K59" s="2">
         <v>100</v>
@@ -3646,10 +3652,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -3658,33 +3664,33 @@
         <v>13</v>
       </c>
       <c r="E60" s="3">
-        <v>45404</v>
+        <v>45622</v>
       </c>
       <c r="F60" s="3">
-        <v>46134</v>
+        <v>45989</v>
       </c>
       <c r="G60" s="2">
-        <v>6</v>
-      </c>
-      <c r="H60" s="3">
-        <v>46134</v>
-      </c>
-      <c r="I60" s="2">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="J60" s="2">
-        <v>0.06</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K60" s="2">
         <v>100</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>60</v>
@@ -3696,22 +3702,22 @@
         <v>13</v>
       </c>
       <c r="E61" s="3">
-        <v>45589</v>
+        <v>45404</v>
       </c>
       <c r="F61" s="3">
-        <v>47415</v>
+        <v>46134</v>
       </c>
       <c r="G61" s="2">
         <v>6</v>
       </c>
       <c r="H61" s="3">
-        <v>47415</v>
+        <v>46134</v>
       </c>
       <c r="I61" s="2">
         <v>100</v>
       </c>
       <c r="J61" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K61" s="2">
         <v>100</v>
@@ -3722,7 +3728,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
@@ -3737,19 +3743,19 @@
         <v>45589</v>
       </c>
       <c r="F62" s="3">
-        <v>46684</v>
+        <v>47415</v>
       </c>
       <c r="G62" s="2">
         <v>6</v>
       </c>
       <c r="H62" s="3">
-        <v>46684</v>
+        <v>47415</v>
       </c>
       <c r="I62" s="2">
         <v>100</v>
       </c>
       <c r="J62" s="2">
-        <v>0.05</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K62" s="2">
         <v>100</v>
@@ -3760,34 +3766,34 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E63" s="3">
-        <v>45679</v>
+        <v>45589</v>
       </c>
       <c r="F63" s="3">
-        <v>48601</v>
+        <v>46684</v>
       </c>
       <c r="G63" s="2">
         <v>6</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>90</v>
+      <c r="H63" s="3">
+        <v>46684</v>
+      </c>
+      <c r="I63" s="2">
+        <v>100</v>
       </c>
       <c r="J63" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K63" s="2">
         <v>100</v>
@@ -3798,10 +3804,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>18</v>
@@ -3810,22 +3816,22 @@
         <v>19</v>
       </c>
       <c r="E64" s="3">
-        <v>45309</v>
+        <v>45679</v>
       </c>
       <c r="F64" s="3">
-        <v>46221</v>
+        <v>48601</v>
       </c>
       <c r="G64" s="2">
         <v>6</v>
       </c>
-      <c r="H64" s="3">
-        <v>46221</v>
-      </c>
-      <c r="I64" s="2">
-        <v>100</v>
+      <c r="H64" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J64" s="2">
-        <v>0.08</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K64" s="2">
         <v>100</v>
@@ -3836,45 +3842,45 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E65" s="3">
-        <v>45840</v>
+        <v>45309</v>
       </c>
       <c r="F65" s="3">
-        <v>46570</v>
+        <v>46221</v>
       </c>
       <c r="G65" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H65" s="3">
-        <v>46570</v>
+        <v>46221</v>
       </c>
       <c r="I65" s="2">
         <v>100</v>
       </c>
       <c r="J65" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K65" s="2">
         <v>100</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>65</v>
@@ -3886,22 +3892,22 @@
         <v>13</v>
       </c>
       <c r="E66" s="3">
-        <v>45624</v>
+        <v>45840</v>
       </c>
       <c r="F66" s="3">
-        <v>47085</v>
+        <v>46570</v>
       </c>
       <c r="G66" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H66" s="3">
-        <v>47085</v>
+        <v>46570</v>
       </c>
       <c r="I66" s="2">
         <v>100</v>
       </c>
       <c r="J66" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K66" s="2">
         <v>100</v>
@@ -3912,34 +3918,34 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E67" s="3">
-        <v>45491</v>
+        <v>45624</v>
       </c>
       <c r="F67" s="3">
-        <v>48047</v>
+        <v>47085</v>
       </c>
       <c r="G67" s="2">
         <v>6</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>90</v>
+      <c r="H67" s="3">
+        <v>47085</v>
+      </c>
+      <c r="I67" s="2">
+        <v>100</v>
       </c>
       <c r="J67" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K67" s="2">
         <v>100</v>
@@ -3950,10 +3956,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>18</v>
@@ -3962,74 +3968,74 @@
         <v>19</v>
       </c>
       <c r="E68" s="3">
-        <v>45497</v>
+        <v>45491</v>
       </c>
       <c r="F68" s="3">
-        <v>48053</v>
+        <v>48047</v>
       </c>
       <c r="G68" s="2">
         <v>6</v>
       </c>
-      <c r="H68" s="3">
-        <v>48053</v>
-      </c>
-      <c r="I68" s="2">
-        <v>100</v>
+      <c r="H68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J68" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K68" s="2">
         <v>100</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E69" s="3">
-        <v>45803</v>
+        <v>45497</v>
       </c>
       <c r="F69" s="3">
-        <v>45987</v>
+        <v>48053</v>
       </c>
       <c r="G69" s="2">
         <v>6</v>
       </c>
       <c r="H69" s="3">
-        <v>45987</v>
+        <v>48053</v>
       </c>
       <c r="I69" s="2">
         <v>100</v>
       </c>
       <c r="J69" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K69" s="2">
         <v>100</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -4038,33 +4044,33 @@
         <v>13</v>
       </c>
       <c r="E70" s="3">
-        <v>45415</v>
+        <v>45803</v>
       </c>
       <c r="F70" s="3">
-        <v>47241</v>
+        <v>45987</v>
       </c>
       <c r="G70" s="2">
         <v>6</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>106</v>
+      <c r="H70" s="3">
+        <v>45987</v>
+      </c>
+      <c r="I70" s="2">
+        <v>100</v>
       </c>
       <c r="J70" s="2">
-        <v>0.08</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K70" s="2">
         <v>100</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>72</v>
@@ -4076,22 +4082,22 @@
         <v>13</v>
       </c>
       <c r="E71" s="3">
-        <v>45723</v>
+        <v>45415</v>
       </c>
       <c r="F71" s="3">
-        <v>47549</v>
+        <v>47241</v>
       </c>
       <c r="G71" s="2">
         <v>6</v>
       </c>
-      <c r="H71" s="3">
-        <v>47549</v>
-      </c>
-      <c r="I71" s="2">
-        <v>100</v>
+      <c r="H71" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="J71" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K71" s="2">
         <v>100</v>
@@ -4102,7 +4108,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>72</v>
@@ -4114,22 +4120,22 @@
         <v>13</v>
       </c>
       <c r="E72" s="3">
-        <v>45575</v>
+        <v>45723</v>
       </c>
       <c r="F72" s="3">
-        <v>48131</v>
+        <v>47549</v>
       </c>
       <c r="G72" s="2">
         <v>6</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>90</v>
+      <c r="H72" s="3">
+        <v>47549</v>
+      </c>
+      <c r="I72" s="2">
+        <v>100</v>
       </c>
       <c r="J72" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K72" s="2">
         <v>100</v>
@@ -4140,7 +4146,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>72</v>
@@ -4152,22 +4158,22 @@
         <v>13</v>
       </c>
       <c r="E73" s="3">
-        <v>45818</v>
+        <v>45575</v>
       </c>
       <c r="F73" s="3">
-        <v>48740</v>
+        <v>48131</v>
       </c>
       <c r="G73" s="2">
         <v>6</v>
       </c>
-      <c r="H73" s="3">
-        <v>48740</v>
-      </c>
-      <c r="I73" s="2">
-        <v>100</v>
+      <c r="H73" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J73" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K73" s="2">
         <v>100</v>
@@ -4178,34 +4184,34 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E74" s="3">
-        <v>45636</v>
+        <v>45818</v>
       </c>
       <c r="F74" s="3">
-        <v>49653</v>
+        <v>48740</v>
       </c>
       <c r="G74" s="2">
         <v>6</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>90</v>
+      <c r="H74" s="3">
+        <v>48740</v>
+      </c>
+      <c r="I74" s="2">
+        <v>100</v>
       </c>
       <c r="J74" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K74" s="2">
         <v>100</v>
@@ -4216,10 +4222,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>18</v>
@@ -4228,22 +4234,22 @@
         <v>19</v>
       </c>
       <c r="E75" s="3">
-        <v>43671</v>
+        <v>45636</v>
       </c>
       <c r="F75" s="3">
-        <v>46228</v>
+        <v>49653</v>
       </c>
       <c r="G75" s="2">
         <v>6</v>
       </c>
-      <c r="H75" s="3">
-        <v>46228</v>
-      </c>
-      <c r="I75" s="2">
-        <v>100</v>
+      <c r="H75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J75" s="2">
-        <v>0.1</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K75" s="2">
         <v>100</v>
@@ -4254,34 +4260,34 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E76" s="3">
-        <v>45349</v>
+        <v>43671</v>
       </c>
       <c r="F76" s="3">
-        <v>46445</v>
+        <v>46228</v>
       </c>
       <c r="G76" s="2">
         <v>6</v>
       </c>
       <c r="H76" s="3">
-        <v>46445</v>
+        <v>46228</v>
       </c>
       <c r="I76" s="2">
         <v>100</v>
       </c>
       <c r="J76" s="2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K76" s="2">
         <v>100</v>
@@ -4292,7 +4298,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>159</v>
@@ -4304,19 +4310,19 @@
         <v>13</v>
       </c>
       <c r="E77" s="3">
-        <v>45456</v>
+        <v>45349</v>
       </c>
       <c r="F77" s="3">
-        <v>46551</v>
+        <v>46445</v>
       </c>
       <c r="G77" s="2">
-        <v>3</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>161</v>
+        <v>6</v>
+      </c>
+      <c r="H77" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I77" s="2">
+        <v>100</v>
       </c>
       <c r="J77" s="2">
         <v>0.06</v>
@@ -4330,34 +4336,34 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E78" s="3">
-        <v>45581</v>
+        <v>45456</v>
       </c>
       <c r="F78" s="3">
-        <v>48503</v>
+        <v>46551</v>
       </c>
       <c r="G78" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="J78" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K78" s="2">
         <v>100</v>
@@ -4368,34 +4374,34 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E79" s="3">
-        <v>45618</v>
+        <v>45581</v>
       </c>
       <c r="F79" s="3">
-        <v>46348</v>
+        <v>48503</v>
       </c>
       <c r="G79" s="2">
         <v>6</v>
       </c>
-      <c r="H79" s="3">
-        <v>46348</v>
-      </c>
-      <c r="I79" s="2">
-        <v>100</v>
+      <c r="H79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J79" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K79" s="2">
         <v>100</v>
@@ -4406,7 +4412,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>159</v>
@@ -4421,19 +4427,19 @@
         <v>45618</v>
       </c>
       <c r="F80" s="3">
-        <v>47079</v>
+        <v>46348</v>
       </c>
       <c r="G80" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H80" s="3">
-        <v>47079</v>
+        <v>46348</v>
       </c>
       <c r="I80" s="2">
         <v>100</v>
       </c>
       <c r="J80" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="K80" s="2">
         <v>100</v>
@@ -4444,7 +4450,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>159</v>
@@ -4456,22 +4462,22 @@
         <v>13</v>
       </c>
       <c r="E81" s="3">
-        <v>45797</v>
+        <v>45618</v>
       </c>
       <c r="F81" s="3">
-        <v>46527</v>
+        <v>47079</v>
       </c>
       <c r="G81" s="2">
         <v>3</v>
       </c>
       <c r="H81" s="3">
-        <v>46527</v>
+        <v>47079</v>
       </c>
       <c r="I81" s="2">
         <v>100</v>
       </c>
       <c r="J81" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K81" s="2">
         <v>100</v>
@@ -4482,10 +4488,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -4494,22 +4500,22 @@
         <v>13</v>
       </c>
       <c r="E82" s="3">
-        <v>45090</v>
+        <v>45797</v>
       </c>
       <c r="F82" s="3">
-        <v>46066</v>
+        <v>46527</v>
       </c>
       <c r="G82" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H82" s="3">
-        <v>46066</v>
+        <v>46527</v>
       </c>
       <c r="I82" s="2">
         <v>100</v>
       </c>
       <c r="J82" s="2">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K82" s="2">
         <v>100</v>
@@ -4520,7 +4526,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>77</v>
@@ -4532,22 +4538,22 @@
         <v>13</v>
       </c>
       <c r="E83" s="3">
-        <v>45624</v>
+        <v>45090</v>
       </c>
       <c r="F83" s="3">
-        <v>46170</v>
+        <v>46066</v>
       </c>
       <c r="G83" s="2">
         <v>6</v>
       </c>
       <c r="H83" s="3">
-        <v>46170</v>
+        <v>46066</v>
       </c>
       <c r="I83" s="2">
         <v>100</v>
       </c>
       <c r="J83" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K83" s="2">
         <v>100</v>
@@ -4558,7 +4564,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>77</v>
@@ -4570,22 +4576,22 @@
         <v>13</v>
       </c>
       <c r="E84" s="3">
-        <v>45715</v>
+        <v>45624</v>
       </c>
       <c r="F84" s="3">
-        <v>46445</v>
+        <v>46170</v>
       </c>
       <c r="G84" s="2">
         <v>6</v>
       </c>
       <c r="H84" s="3">
-        <v>46445</v>
+        <v>46170</v>
       </c>
       <c r="I84" s="2">
         <v>100</v>
       </c>
       <c r="J84" s="2">
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K84" s="2">
         <v>100</v>
@@ -4596,7 +4602,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>77</v>
@@ -4608,22 +4614,22 @@
         <v>13</v>
       </c>
       <c r="E85" s="3">
-        <v>45784</v>
+        <v>45715</v>
       </c>
       <c r="F85" s="3">
-        <v>46514</v>
+        <v>46445</v>
       </c>
       <c r="G85" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H85" s="3">
-        <v>46514</v>
+        <v>46445</v>
       </c>
       <c r="I85" s="2">
         <v>100</v>
       </c>
       <c r="J85" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K85" s="2">
         <v>100</v>
@@ -4634,7 +4640,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>77</v>
@@ -4646,22 +4652,22 @@
         <v>13</v>
       </c>
       <c r="E86" s="3">
-        <v>45860</v>
+        <v>45784</v>
       </c>
       <c r="F86" s="3">
-        <v>46590</v>
+        <v>46514</v>
       </c>
       <c r="G86" s="2">
         <v>3</v>
       </c>
       <c r="H86" s="3">
-        <v>46590</v>
+        <v>46514</v>
       </c>
       <c r="I86" s="2">
         <v>100</v>
       </c>
       <c r="J86" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K86" s="2">
         <v>100</v>
@@ -4672,34 +4678,34 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E87" s="3">
-        <v>44239</v>
+        <v>45860</v>
       </c>
       <c r="F87" s="3">
-        <v>47299</v>
+        <v>46590</v>
       </c>
       <c r="G87" s="2">
-        <v>6</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="H87" s="3">
+        <v>46590</v>
+      </c>
+      <c r="I87" s="2">
+        <v>100</v>
       </c>
       <c r="J87" s="2">
-        <v>0.09</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K87" s="2">
         <v>100</v>
@@ -4710,34 +4716,34 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E88" s="3">
-        <v>45575</v>
+        <v>44239</v>
       </c>
       <c r="F88" s="3">
-        <v>47036</v>
+        <v>47299</v>
       </c>
       <c r="G88" s="2">
         <v>6</v>
       </c>
-      <c r="H88" s="3">
-        <v>47036</v>
-      </c>
-      <c r="I88" s="2">
-        <v>100</v>
+      <c r="H88" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J88" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K88" s="2">
         <v>100</v>
@@ -4748,7 +4754,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>77</v>
@@ -4760,22 +4766,22 @@
         <v>13</v>
       </c>
       <c r="E89" s="3">
-        <v>45860</v>
+        <v>45575</v>
       </c>
       <c r="F89" s="3">
-        <v>47686</v>
+        <v>47036</v>
       </c>
       <c r="G89" s="2">
         <v>6</v>
       </c>
       <c r="H89" s="3">
-        <v>47686</v>
+        <v>47036</v>
       </c>
       <c r="I89" s="2">
         <v>100</v>
       </c>
       <c r="J89" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K89" s="2">
         <v>100</v>
@@ -4786,31 +4792,31 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E90" s="3">
-        <v>47372</v>
+        <v>45860</v>
       </c>
       <c r="F90" s="3">
-        <v>48102</v>
+        <v>47686</v>
       </c>
       <c r="G90" s="2">
         <v>6</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>90</v>
+      <c r="H90" s="3">
+        <v>47686</v>
+      </c>
+      <c r="I90" s="2">
+        <v>100</v>
       </c>
       <c r="J90" s="2">
         <v>8.7499999999999994E-2</v>
@@ -4824,7 +4830,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>77</v>
@@ -4836,22 +4842,22 @@
         <v>19</v>
       </c>
       <c r="E91" s="3">
-        <v>45674</v>
+        <v>47372</v>
       </c>
       <c r="F91" s="3">
-        <v>48961</v>
+        <v>48102</v>
       </c>
       <c r="G91" s="2">
         <v>6</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J91" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K91" s="2">
         <v>100</v>
@@ -4862,7 +4868,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -4874,27 +4880,65 @@
         <v>19</v>
       </c>
       <c r="E92" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F92" s="3">
+        <v>48961</v>
+      </c>
+      <c r="G92" s="2">
+        <v>6</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J92" s="2">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K92" s="2">
+        <v>100</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="3">
         <v>45199</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F93" s="3">
         <v>48852</v>
       </c>
-      <c r="G92" s="2">
-        <v>6</v>
-      </c>
-      <c r="H92" s="3" t="s">
+      <c r="G93" s="2">
+        <v>6</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J93" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K92" s="2">
-        <v>100</v>
-      </c>
-      <c r="L92" s="2" t="s">
+      <c r="K93" s="2">
+        <v>100</v>
+      </c>
+      <c r="L93" s="2" t="s">
         <v>115</v>
       </c>
     </row>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFF9D28-B834-4F72-B3D9-B197D39C3A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B662EC-8994-4EE7-A576-1E90349CB8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="179">
   <si>
     <t>name</t>
   </si>
@@ -542,6 +542,21 @@
   </si>
   <si>
     <t>AEROPUERTOS ARGENTINA</t>
+  </si>
+  <si>
+    <t>HVS1D</t>
+  </si>
+  <si>
+    <t>HAVANNA</t>
+  </si>
+  <si>
+    <t>GYC4D</t>
+  </si>
+  <si>
+    <t>GYC5D</t>
+  </si>
+  <si>
+    <t>360 ENERGY</t>
   </si>
 </sst>
 </file>
@@ -1386,13 +1401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1448,10 +1463,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1460,36 +1475,36 @@
         <v>13</v>
       </c>
       <c r="E2" s="3">
-        <v>45639</v>
+        <v>45595</v>
       </c>
       <c r="F2" s="3">
-        <v>46371</v>
+        <v>46690</v>
       </c>
       <c r="G2" s="2">
         <v>6</v>
       </c>
       <c r="H2" s="3">
-        <v>46373</v>
+        <v>46690</v>
       </c>
       <c r="I2" s="2">
         <v>100</v>
       </c>
       <c r="J2" s="2">
-        <v>5.5E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K2" s="2">
         <v>100</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1498,98 +1513,98 @@
         <v>13</v>
       </c>
       <c r="E3" s="3">
-        <v>45211</v>
+        <v>45721</v>
       </c>
       <c r="F3" s="3">
-        <v>47038</v>
+        <v>46635</v>
       </c>
       <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>131</v>
+        <v>6</v>
+      </c>
+      <c r="H3" s="3">
+        <v>46635</v>
+      </c>
+      <c r="I3" s="2">
+        <v>100</v>
       </c>
       <c r="J3" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K3" s="2">
         <v>100</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3">
-        <v>45456</v>
+        <v>45639</v>
       </c>
       <c r="F4" s="3">
-        <v>46186</v>
+        <v>46371</v>
       </c>
       <c r="G4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3">
-        <v>46186</v>
+        <v>46371</v>
       </c>
       <c r="I4" s="2">
         <v>100</v>
       </c>
       <c r="J4" s="2">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K4" s="2">
         <v>100</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>45869</v>
+        <v>45211</v>
       </c>
       <c r="F5" s="3">
-        <v>48791</v>
+        <v>47038</v>
       </c>
       <c r="G5" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J5" s="2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K5" s="2">
         <v>100</v>
@@ -1600,10 +1615,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1612,22 +1627,22 @@
         <v>13</v>
       </c>
       <c r="E6" s="3">
-        <v>44874</v>
+        <v>45456</v>
       </c>
       <c r="F6" s="3">
-        <v>46669</v>
+        <v>46186</v>
       </c>
       <c r="G6" s="2">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>46186</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
       </c>
       <c r="J6" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K6" s="2">
         <v>100</v>
@@ -1638,34 +1653,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3">
-        <v>45068</v>
+        <v>45869</v>
       </c>
       <c r="F7" s="3">
-        <v>45983</v>
+        <v>48791</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
       </c>
-      <c r="H7" s="4">
-        <v>45983</v>
-      </c>
-      <c r="I7" s="2">
-        <v>100</v>
+      <c r="H7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="J7" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="K7" s="2">
         <v>100</v>
@@ -1676,34 +1691,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>45786</v>
+        <v>44874</v>
       </c>
       <c r="F8" s="3">
-        <v>46516</v>
+        <v>46669</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="3">
-        <v>46516</v>
-      </c>
-      <c r="I8" s="2">
-        <v>100</v>
+      <c r="H8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="J8" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
@@ -1714,10 +1729,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1726,22 +1741,22 @@
         <v>13</v>
       </c>
       <c r="E9" s="3">
-        <v>45811</v>
+        <v>45068</v>
       </c>
       <c r="F9" s="3">
-        <v>46176</v>
+        <v>45983</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
-      <c r="H9" s="3">
-        <v>46176</v>
+      <c r="H9" s="4">
+        <v>45983</v>
       </c>
       <c r="I9" s="2">
         <v>100</v>
       </c>
       <c r="J9" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K9" s="2">
         <v>100</v>
@@ -1752,10 +1767,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1764,22 +1779,22 @@
         <v>13</v>
       </c>
       <c r="E10" s="3">
-        <v>45891</v>
+        <v>45786</v>
       </c>
       <c r="F10" s="3">
-        <v>46256</v>
+        <v>46516</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
       </c>
       <c r="H10" s="3">
-        <v>46256</v>
+        <v>46516</v>
       </c>
       <c r="I10" s="2">
         <v>100</v>
       </c>
       <c r="J10" s="2">
-        <v>0.06</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K10" s="2">
         <v>100</v>
@@ -1790,10 +1805,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1802,185 +1817,185 @@
         <v>13</v>
       </c>
       <c r="E11" s="3">
-        <v>45709</v>
+        <v>45811</v>
       </c>
       <c r="F11" s="3">
-        <v>46439</v>
+        <v>46176</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
       </c>
       <c r="H11" s="3">
-        <v>46439</v>
+        <v>46176</v>
       </c>
       <c r="I11" s="2">
         <v>100</v>
       </c>
       <c r="J11" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K11" s="2">
         <v>100</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3">
-        <v>45183</v>
+        <v>45891</v>
       </c>
       <c r="F12" s="3">
-        <v>46095</v>
+        <v>46256</v>
       </c>
       <c r="G12" s="2">
         <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>46095</v>
+        <v>46256</v>
       </c>
       <c r="I12" s="2">
         <v>100</v>
       </c>
       <c r="J12" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K12" s="2">
         <v>100</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3">
-        <v>45216</v>
+        <v>45709</v>
       </c>
       <c r="F13" s="3">
-        <v>45947</v>
+        <v>46439</v>
       </c>
       <c r="G13" s="2">
         <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>45947</v>
+        <v>46439</v>
       </c>
       <c r="I13" s="2">
         <v>100</v>
       </c>
       <c r="J13" s="2">
-        <v>0.1</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K13" s="2">
         <v>100</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3">
-        <v>44750</v>
+        <v>45183</v>
       </c>
       <c r="F14" s="3">
-        <v>46084</v>
+        <v>46095</v>
       </c>
       <c r="G14" s="2">
         <v>6</v>
       </c>
       <c r="H14" s="3">
-        <v>46084</v>
+        <v>46095</v>
       </c>
       <c r="I14" s="2">
         <v>100</v>
       </c>
       <c r="J14" s="2">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K14" s="2">
         <v>100</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3">
-        <v>45308</v>
+        <v>45216</v>
       </c>
       <c r="F15" s="3">
-        <v>46404</v>
+        <v>45947</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>46404</v>
+        <v>45947</v>
       </c>
       <c r="I15" s="2">
         <v>100</v>
       </c>
       <c r="J15" s="2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="2">
         <v>100</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -1992,22 +2007,22 @@
         <v>13</v>
       </c>
       <c r="E16" s="3">
-        <v>45611</v>
+        <v>44750</v>
       </c>
       <c r="F16" s="3">
-        <v>47072</v>
+        <v>46084</v>
       </c>
       <c r="G16" s="2">
         <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>47072</v>
+        <v>46084</v>
       </c>
       <c r="I16" s="2">
         <v>100</v>
       </c>
       <c r="J16" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K16" s="2">
         <v>100</v>
@@ -2018,48 +2033,48 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3">
-        <v>45876</v>
+        <v>45308</v>
       </c>
       <c r="F17" s="3">
-        <v>46241</v>
+        <v>46404</v>
       </c>
       <c r="G17" s="2">
         <v>6</v>
       </c>
       <c r="H17" s="3">
-        <v>46241</v>
+        <v>46404</v>
       </c>
       <c r="I17" s="2">
         <v>100</v>
       </c>
       <c r="J17" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K17" s="2">
         <v>100</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -2068,60 +2083,60 @@
         <v>13</v>
       </c>
       <c r="E18" s="3">
-        <v>45358</v>
+        <v>45611</v>
       </c>
       <c r="F18" s="3">
-        <v>46348</v>
+        <v>47072</v>
       </c>
       <c r="G18" s="2">
         <v>6</v>
       </c>
       <c r="H18" s="3">
-        <v>46348</v>
+        <v>47072</v>
       </c>
       <c r="I18" s="2">
         <v>100</v>
       </c>
       <c r="J18" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K18" s="2">
         <v>100</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3">
-        <v>45509</v>
+        <v>45876</v>
       </c>
       <c r="F19" s="3">
-        <v>46970</v>
+        <v>46241</v>
       </c>
       <c r="G19" s="2">
         <v>6</v>
       </c>
       <c r="H19" s="3">
-        <v>46970</v>
+        <v>46241</v>
       </c>
       <c r="I19" s="2">
         <v>100</v>
       </c>
       <c r="J19" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K19" s="2">
         <v>100</v>
@@ -2132,31 +2147,31 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20" s="3">
-        <v>45589</v>
+        <v>45358</v>
       </c>
       <c r="F20" s="3">
-        <v>47780</v>
+        <v>46348</v>
       </c>
       <c r="G20" s="2">
         <v>6</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>90</v>
+      <c r="H20" s="3">
+        <v>46348</v>
+      </c>
+      <c r="I20" s="2">
+        <v>100</v>
       </c>
       <c r="J20" s="2">
         <v>9.7500000000000003E-2</v>
@@ -2170,110 +2185,110 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E21" s="3">
-        <v>44441</v>
+        <v>45509</v>
       </c>
       <c r="F21" s="3">
-        <v>46632</v>
+        <v>46970</v>
       </c>
       <c r="G21" s="2">
         <v>6</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>95</v>
+      <c r="H21" s="3">
+        <v>46970</v>
+      </c>
+      <c r="I21" s="2">
+        <v>100</v>
       </c>
       <c r="J21" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K21" s="2">
         <v>100</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3">
-        <v>45721</v>
+        <v>45589</v>
       </c>
       <c r="F22" s="3">
-        <v>46817</v>
+        <v>47780</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
       </c>
-      <c r="H22" s="3">
-        <v>46817</v>
-      </c>
-      <c r="I22" s="2">
-        <v>100</v>
+      <c r="H22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J22" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K22" s="2">
         <v>100</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3">
-        <v>45582</v>
+        <v>44441</v>
       </c>
       <c r="F23" s="3">
-        <v>47043</v>
+        <v>46632</v>
       </c>
       <c r="G23" s="2">
         <v>6</v>
       </c>
-      <c r="H23" s="3">
-        <v>47043</v>
-      </c>
-      <c r="I23" s="2">
-        <v>100</v>
+      <c r="H23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="J23" s="2">
-        <v>0.06</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K23" s="2">
         <v>100</v>
@@ -2284,48 +2299,48 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E24" s="3">
-        <v>45575</v>
+        <v>45721</v>
       </c>
       <c r="F24" s="3">
-        <v>47036</v>
+        <v>46817</v>
       </c>
       <c r="G24" s="2">
         <v>6</v>
       </c>
       <c r="H24" s="3">
-        <v>47036</v>
+        <v>46817</v>
       </c>
       <c r="I24" s="2">
         <v>100</v>
       </c>
       <c r="J24" s="2">
-        <v>7.7499999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K24" s="2">
         <v>100</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -2334,60 +2349,60 @@
         <v>13</v>
       </c>
       <c r="E25" s="3">
-        <v>45883</v>
+        <v>45582</v>
       </c>
       <c r="F25" s="3">
-        <v>46265</v>
+        <v>47043</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
       </c>
       <c r="H25" s="3">
-        <v>46265</v>
+        <v>47043</v>
       </c>
       <c r="I25" s="2">
         <v>100</v>
       </c>
       <c r="J25" s="2">
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K25" s="2">
         <v>100</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="3">
-        <v>45804</v>
+        <v>45575</v>
       </c>
       <c r="F26" s="3">
-        <v>46021</v>
+        <v>47036</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
       </c>
       <c r="H26" s="3">
-        <v>46021</v>
+        <v>47036</v>
       </c>
       <c r="I26" s="2">
         <v>100</v>
       </c>
       <c r="J26" s="2">
-        <v>0.04</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="K26" s="2">
         <v>100</v>
@@ -2398,10 +2413,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -2410,22 +2425,22 @@
         <v>13</v>
       </c>
       <c r="E27" s="3">
-        <v>45084</v>
+        <v>45883</v>
       </c>
       <c r="F27" s="3">
-        <v>45998</v>
+        <v>46265</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>45998</v>
+        <v>46265</v>
       </c>
       <c r="I27" s="2">
         <v>100</v>
       </c>
       <c r="J27" s="2">
-        <v>0.05</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K27" s="2">
         <v>100</v>
@@ -2436,10 +2451,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -2448,22 +2463,22 @@
         <v>13</v>
       </c>
       <c r="E28" s="3">
-        <v>45453</v>
+        <v>45804</v>
       </c>
       <c r="F28" s="3">
-        <v>46183</v>
+        <v>46021</v>
       </c>
       <c r="G28" s="2">
         <v>6</v>
       </c>
       <c r="H28" s="3">
-        <v>46183</v>
+        <v>46021</v>
       </c>
       <c r="I28" s="2">
         <v>100</v>
       </c>
       <c r="J28" s="2">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K28" s="2">
         <v>100</v>
@@ -2474,10 +2489,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -2486,60 +2501,60 @@
         <v>13</v>
       </c>
       <c r="E29" s="3">
-        <v>45350</v>
+        <v>45846</v>
       </c>
       <c r="F29" s="3">
-        <v>46446</v>
+        <v>46942</v>
       </c>
       <c r="G29" s="2">
         <v>6</v>
       </c>
       <c r="H29" s="3">
-        <v>46446</v>
+        <v>46942</v>
       </c>
       <c r="I29" s="2">
         <v>100</v>
       </c>
       <c r="J29" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K29" s="2">
         <v>100</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E30" s="3">
-        <v>44720</v>
+        <v>45084</v>
       </c>
       <c r="F30" s="3">
-        <v>46926</v>
+        <v>45998</v>
       </c>
       <c r="G30" s="2">
         <v>6</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>98</v>
+      <c r="H30" s="3">
+        <v>45998</v>
+      </c>
+      <c r="I30" s="2">
+        <v>100</v>
       </c>
       <c r="J30" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K30" s="2">
         <v>100</v>
@@ -2550,7 +2565,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>35</v>
@@ -2562,22 +2577,22 @@
         <v>13</v>
       </c>
       <c r="E31" s="3">
-        <v>45588</v>
+        <v>45453</v>
       </c>
       <c r="F31" s="3">
-        <v>46683</v>
+        <v>46183</v>
       </c>
       <c r="G31" s="2">
         <v>6</v>
       </c>
       <c r="H31" s="3">
-        <v>46683</v>
+        <v>46183</v>
       </c>
       <c r="I31" s="2">
         <v>100</v>
       </c>
       <c r="J31" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K31" s="2">
         <v>100</v>
@@ -2588,34 +2603,34 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3">
-        <v>45747</v>
+        <v>45350</v>
       </c>
       <c r="F32" s="3">
-        <v>49399</v>
+        <v>46446</v>
       </c>
       <c r="G32" s="2">
         <v>6</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>90</v>
+      <c r="H32" s="3">
+        <v>46446</v>
+      </c>
+      <c r="I32" s="2">
+        <v>100</v>
       </c>
       <c r="J32" s="2">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K32" s="2">
         <v>100</v>
@@ -2626,34 +2641,34 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E33" s="3">
-        <v>45588</v>
+        <v>44720</v>
       </c>
       <c r="F33" s="3">
-        <v>47414</v>
+        <v>46926</v>
       </c>
       <c r="G33" s="2">
         <v>6</v>
       </c>
-      <c r="H33" s="3">
-        <v>47414</v>
-      </c>
-      <c r="I33" s="2">
-        <v>100</v>
+      <c r="H33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J33" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K33" s="2">
         <v>100</v>
@@ -2664,10 +2679,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -2676,74 +2691,74 @@
         <v>13</v>
       </c>
       <c r="E34" s="3">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="F34" s="3">
-        <v>46316</v>
+        <v>46683</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
       </c>
       <c r="H34" s="3">
-        <v>46316</v>
+        <v>46683</v>
       </c>
       <c r="I34" s="2">
         <v>100</v>
       </c>
       <c r="J34" s="2">
-        <v>0.05</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K34" s="2">
         <v>100</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E35" s="3">
-        <v>45586</v>
+        <v>45747</v>
       </c>
       <c r="F35" s="3">
-        <v>47047</v>
+        <v>49399</v>
       </c>
       <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="H35" s="3">
-        <v>47047</v>
-      </c>
-      <c r="I35" s="2">
-        <v>100</v>
+      <c r="H35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J35" s="2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="K35" s="2">
         <v>100</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -2752,33 +2767,33 @@
         <v>13</v>
       </c>
       <c r="E36" s="3">
-        <v>45674</v>
+        <v>45588</v>
       </c>
       <c r="F36" s="3">
-        <v>46769</v>
+        <v>47414</v>
       </c>
       <c r="G36" s="2">
         <v>6</v>
       </c>
       <c r="H36" s="3">
-        <v>46769</v>
+        <v>47414</v>
       </c>
       <c r="I36" s="2">
         <v>100</v>
       </c>
       <c r="J36" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K36" s="2">
         <v>100</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>143</v>
@@ -2790,22 +2805,22 @@
         <v>13</v>
       </c>
       <c r="E37" s="3">
-        <v>45804</v>
+        <v>45586</v>
       </c>
       <c r="F37" s="3">
-        <v>46534</v>
+        <v>46316</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
       </c>
       <c r="H37" s="3">
-        <v>46534</v>
+        <v>46316</v>
       </c>
       <c r="I37" s="2">
         <v>100</v>
       </c>
       <c r="J37" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K37" s="2">
         <v>100</v>
@@ -2816,7 +2831,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>143</v>
@@ -2828,22 +2843,22 @@
         <v>13</v>
       </c>
       <c r="E38" s="3">
-        <v>45863</v>
+        <v>45586</v>
       </c>
       <c r="F38" s="3">
-        <v>46593</v>
+        <v>47047</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="H38" s="3">
-        <v>46593</v>
+        <v>47047</v>
       </c>
       <c r="I38" s="2">
         <v>100</v>
       </c>
       <c r="J38" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K38" s="2">
         <v>100</v>
@@ -2854,10 +2869,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -2866,36 +2881,36 @@
         <v>13</v>
       </c>
       <c r="E39" s="3">
-        <v>45098</v>
+        <v>45674</v>
       </c>
       <c r="F39" s="3">
-        <v>46012</v>
+        <v>46769</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
       <c r="H39" s="3">
-        <v>46012</v>
+        <v>46769</v>
       </c>
       <c r="I39" s="2">
         <v>100</v>
       </c>
       <c r="J39" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K39" s="2">
         <v>100</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -2904,16 +2919,16 @@
         <v>13</v>
       </c>
       <c r="E40" s="3">
-        <v>45180</v>
+        <v>45804</v>
       </c>
       <c r="F40" s="3">
-        <v>46092</v>
+        <v>46534</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
       <c r="H40" s="3">
-        <v>46092</v>
+        <v>46534</v>
       </c>
       <c r="I40" s="2">
         <v>100</v>
@@ -2925,15 +2940,15 @@
         <v>100</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -2942,74 +2957,74 @@
         <v>13</v>
       </c>
       <c r="E41" s="3">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="F41" s="3">
-        <v>46592</v>
+        <v>46593</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
       <c r="H41" s="3">
-        <v>46592</v>
+        <v>46593</v>
       </c>
       <c r="I41" s="2">
         <v>100</v>
       </c>
       <c r="J41" s="2">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K41" s="2">
         <v>100</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E42" s="3">
-        <v>45831</v>
+        <v>45098</v>
       </c>
       <c r="F42" s="3">
-        <v>47292</v>
+        <v>46012</v>
       </c>
       <c r="G42" s="2">
         <v>6</v>
       </c>
       <c r="H42" s="3">
-        <v>47292</v>
+        <v>46012</v>
       </c>
       <c r="I42" s="2">
         <v>100</v>
       </c>
       <c r="J42" s="2">
-        <v>0.08</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K42" s="2">
         <v>100</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -3018,112 +3033,112 @@
         <v>13</v>
       </c>
       <c r="E43" s="3">
-        <v>45363</v>
+        <v>45180</v>
       </c>
       <c r="F43" s="3">
-        <v>46093</v>
+        <v>46092</v>
       </c>
       <c r="G43" s="2">
         <v>6</v>
       </c>
       <c r="H43" s="3">
-        <v>46093</v>
+        <v>46092</v>
       </c>
       <c r="I43" s="2">
         <v>100</v>
       </c>
       <c r="J43" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K43" s="2">
         <v>100</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E44" s="3">
-        <v>45631</v>
+        <v>45862</v>
       </c>
       <c r="F44" s="3">
-        <v>47822</v>
+        <v>46592</v>
       </c>
       <c r="G44" s="2">
         <v>6</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>169</v>
+      <c r="H44" s="3">
+        <v>46592</v>
+      </c>
+      <c r="I44" s="2">
+        <v>100</v>
       </c>
       <c r="J44" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K44" s="2">
         <v>100</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E45" s="3">
-        <v>45124</v>
+        <v>45831</v>
       </c>
       <c r="F45" s="3">
-        <v>46220</v>
+        <v>47292</v>
       </c>
       <c r="G45" s="2">
         <v>6</v>
       </c>
       <c r="H45" s="3">
-        <v>46220</v>
+        <v>47292</v>
       </c>
       <c r="I45" s="2">
         <v>100</v>
       </c>
       <c r="J45" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K45" s="2">
         <v>100</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -3132,22 +3147,22 @@
         <v>13</v>
       </c>
       <c r="E46" s="3">
-        <v>45496</v>
+        <v>45363</v>
       </c>
       <c r="F46" s="3">
-        <v>46591</v>
+        <v>46093</v>
       </c>
       <c r="G46" s="2">
         <v>6</v>
       </c>
       <c r="H46" s="3">
-        <v>46591</v>
+        <v>46093</v>
       </c>
       <c r="I46" s="2">
         <v>100</v>
       </c>
       <c r="J46" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K46" s="2">
         <v>100</v>
@@ -3158,48 +3173,48 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E47" s="3">
-        <v>45699</v>
+        <v>45631</v>
       </c>
       <c r="F47" s="3">
-        <v>46610</v>
+        <v>47822</v>
       </c>
       <c r="G47" s="2">
         <v>6</v>
       </c>
-      <c r="H47" s="3">
-        <v>46610</v>
-      </c>
-      <c r="I47" s="2">
-        <v>100</v>
+      <c r="H47" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="J47" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K47" s="2">
         <v>100</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -3208,36 +3223,36 @@
         <v>13</v>
       </c>
       <c r="E48" s="3">
-        <v>45562</v>
+        <v>45124</v>
       </c>
       <c r="F48" s="3">
-        <v>47388</v>
+        <v>46220</v>
       </c>
       <c r="G48" s="2">
         <v>6</v>
       </c>
       <c r="H48" s="3">
-        <v>47388</v>
+        <v>46220</v>
       </c>
       <c r="I48" s="2">
         <v>100</v>
       </c>
       <c r="J48" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K48" s="2">
         <v>100</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -3246,33 +3261,33 @@
         <v>13</v>
       </c>
       <c r="E49" s="3">
-        <v>45562</v>
+        <v>45496</v>
       </c>
       <c r="F49" s="3">
-        <v>46657</v>
+        <v>46591</v>
       </c>
       <c r="G49" s="2">
         <v>6</v>
       </c>
       <c r="H49" s="3">
-        <v>46657</v>
+        <v>46591</v>
       </c>
       <c r="I49" s="2">
         <v>100</v>
       </c>
       <c r="J49" s="2">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K49" s="2">
         <v>100</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>47</v>
@@ -3284,22 +3299,22 @@
         <v>13</v>
       </c>
       <c r="E50" s="3">
-        <v>45609</v>
+        <v>45699</v>
       </c>
       <c r="F50" s="3">
-        <v>48165</v>
+        <v>46610</v>
       </c>
       <c r="G50" s="2">
         <v>6</v>
       </c>
       <c r="H50" s="3">
-        <v>48165</v>
+        <v>46610</v>
       </c>
       <c r="I50" s="2">
         <v>100</v>
       </c>
       <c r="J50" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K50" s="2">
         <v>100</v>
@@ -3310,7 +3325,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>47</v>
@@ -3322,22 +3337,22 @@
         <v>13</v>
       </c>
       <c r="E51" s="3">
-        <v>45609</v>
+        <v>45562</v>
       </c>
       <c r="F51" s="3">
-        <v>47070</v>
+        <v>47388</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
       </c>
       <c r="H51" s="3">
-        <v>47070</v>
+        <v>47388</v>
       </c>
       <c r="I51" s="2">
         <v>100</v>
       </c>
       <c r="J51" s="2">
-        <v>6.25E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K51" s="2">
         <v>100</v>
@@ -3348,7 +3363,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>47</v>
@@ -3360,22 +3375,22 @@
         <v>13</v>
       </c>
       <c r="E52" s="3">
-        <v>44316</v>
+        <v>45562</v>
       </c>
       <c r="F52" s="3">
-        <v>46507</v>
+        <v>46657</v>
       </c>
       <c r="G52" s="2">
         <v>6</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>101</v>
+      <c r="H52" s="3">
+        <v>46657</v>
+      </c>
+      <c r="I52" s="2">
+        <v>100</v>
       </c>
       <c r="J52" s="2">
-        <v>9.1249999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K52" s="2">
         <v>100</v>
@@ -3386,7 +3401,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>47</v>
@@ -3398,22 +3413,22 @@
         <v>13</v>
       </c>
       <c r="E53" s="3">
-        <v>45412</v>
+        <v>45609</v>
       </c>
       <c r="F53" s="3">
-        <v>48334</v>
+        <v>48165</v>
       </c>
       <c r="G53" s="2">
         <v>6</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>90</v>
+      <c r="H53" s="3">
+        <v>48165</v>
+      </c>
+      <c r="I53" s="2">
+        <v>100</v>
       </c>
       <c r="J53" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K53" s="2">
         <v>100</v>
@@ -3424,10 +3439,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
@@ -3436,22 +3451,22 @@
         <v>13</v>
       </c>
       <c r="E54" s="3">
-        <v>45569</v>
+        <v>45609</v>
       </c>
       <c r="F54" s="3">
-        <v>47030</v>
+        <v>47070</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
       </c>
       <c r="H54" s="3">
-        <v>47030</v>
+        <v>47070</v>
       </c>
       <c r="I54" s="2">
         <v>100</v>
       </c>
       <c r="J54" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K54" s="2">
         <v>100</v>
@@ -3462,10 +3477,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -3474,22 +3489,22 @@
         <v>13</v>
       </c>
       <c r="E55" s="3">
-        <v>45050</v>
+        <v>44316</v>
       </c>
       <c r="F55" s="3">
-        <v>45965</v>
+        <v>46507</v>
       </c>
       <c r="G55" s="2">
         <v>6</v>
       </c>
-      <c r="H55" s="3">
-        <v>45965</v>
-      </c>
-      <c r="I55" s="2">
-        <v>100</v>
+      <c r="H55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="J55" s="2">
-        <v>0.05</v>
+        <v>9.1249999999999998E-2</v>
       </c>
       <c r="K55" s="2">
         <v>100</v>
@@ -3500,34 +3515,34 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3">
-        <v>45545</v>
+        <v>45412</v>
       </c>
       <c r="F56" s="3">
-        <v>48101</v>
+        <v>48334</v>
       </c>
       <c r="G56" s="2">
         <v>6</v>
       </c>
-      <c r="H56" s="3">
-        <v>48101</v>
-      </c>
-      <c r="I56" s="2">
-        <v>100</v>
+      <c r="H56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J56" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K56" s="2">
         <v>100</v>
@@ -3538,34 +3553,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E57" s="3">
-        <v>45642</v>
+        <v>45569</v>
       </c>
       <c r="F57" s="3">
-        <v>49294</v>
+        <v>47030</v>
       </c>
       <c r="G57" s="2">
         <v>6</v>
       </c>
       <c r="H57" s="3">
-        <v>49294</v>
+        <v>47030</v>
       </c>
       <c r="I57" s="2">
         <v>100</v>
       </c>
       <c r="J57" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K57" s="2">
         <v>100</v>
@@ -3576,34 +3591,34 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E58" s="3">
-        <v>44903</v>
+        <v>45050</v>
       </c>
       <c r="F58" s="3">
-        <v>46364</v>
+        <v>45965</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>90</v>
+      <c r="H58" s="3">
+        <v>45965</v>
+      </c>
+      <c r="I58" s="2">
+        <v>100</v>
       </c>
       <c r="J58" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K58" s="2">
         <v>100</v>
@@ -3614,110 +3629,110 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E59" s="3">
-        <v>45412</v>
+        <v>45545</v>
       </c>
       <c r="F59" s="3">
-        <v>46507</v>
+        <v>48101</v>
       </c>
       <c r="G59" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H59" s="3">
-        <v>46507</v>
+        <v>48101</v>
       </c>
       <c r="I59" s="2">
         <v>100</v>
       </c>
       <c r="J59" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K59" s="2">
         <v>100</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E60" s="3">
-        <v>45622</v>
+        <v>45642</v>
       </c>
       <c r="F60" s="3">
-        <v>45989</v>
+        <v>49294</v>
       </c>
       <c r="G60" s="2">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>161</v>
+        <v>6</v>
+      </c>
+      <c r="H60" s="3">
+        <v>49294</v>
+      </c>
+      <c r="I60" s="2">
+        <v>100</v>
       </c>
       <c r="J60" s="2">
-        <v>6.25E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K60" s="2">
         <v>100</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E61" s="3">
-        <v>45404</v>
+        <v>44903</v>
       </c>
       <c r="F61" s="3">
-        <v>46134</v>
+        <v>46364</v>
       </c>
       <c r="G61" s="2">
         <v>6</v>
       </c>
-      <c r="H61" s="3">
-        <v>46134</v>
-      </c>
-      <c r="I61" s="2">
-        <v>100</v>
+      <c r="H61" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J61" s="2">
-        <v>0.06</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K61" s="2">
         <v>100</v>
@@ -3728,10 +3743,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -3740,36 +3755,36 @@
         <v>13</v>
       </c>
       <c r="E62" s="3">
-        <v>45589</v>
+        <v>45412</v>
       </c>
       <c r="F62" s="3">
-        <v>47415</v>
+        <v>46507</v>
       </c>
       <c r="G62" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H62" s="3">
-        <v>47415</v>
+        <v>46507</v>
       </c>
       <c r="I62" s="2">
         <v>100</v>
       </c>
       <c r="J62" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="K62" s="2">
         <v>100</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -3778,60 +3793,60 @@
         <v>13</v>
       </c>
       <c r="E63" s="3">
-        <v>45589</v>
+        <v>45622</v>
       </c>
       <c r="F63" s="3">
-        <v>46684</v>
+        <v>45989</v>
       </c>
       <c r="G63" s="2">
-        <v>6</v>
-      </c>
-      <c r="H63" s="3">
-        <v>46684</v>
-      </c>
-      <c r="I63" s="2">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="J63" s="2">
-        <v>0.05</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K63" s="2">
         <v>100</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E64" s="3">
-        <v>45679</v>
+        <v>45404</v>
       </c>
       <c r="F64" s="3">
-        <v>48601</v>
+        <v>46134</v>
       </c>
       <c r="G64" s="2">
         <v>6</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>90</v>
+      <c r="H64" s="3">
+        <v>46134</v>
+      </c>
+      <c r="I64" s="2">
+        <v>100</v>
       </c>
       <c r="J64" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K64" s="2">
         <v>100</v>
@@ -3842,34 +3857,34 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E65" s="3">
-        <v>45309</v>
+        <v>45589</v>
       </c>
       <c r="F65" s="3">
-        <v>46221</v>
+        <v>47415</v>
       </c>
       <c r="G65" s="2">
         <v>6</v>
       </c>
       <c r="H65" s="3">
-        <v>46221</v>
+        <v>47415</v>
       </c>
       <c r="I65" s="2">
         <v>100</v>
       </c>
       <c r="J65" s="2">
-        <v>0.08</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K65" s="2">
         <v>100</v>
@@ -3880,10 +3895,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -3892,71 +3907,71 @@
         <v>13</v>
       </c>
       <c r="E66" s="3">
-        <v>45840</v>
+        <v>45589</v>
       </c>
       <c r="F66" s="3">
-        <v>46570</v>
+        <v>46684</v>
       </c>
       <c r="G66" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H66" s="3">
-        <v>46570</v>
+        <v>46684</v>
       </c>
       <c r="I66" s="2">
         <v>100</v>
       </c>
       <c r="J66" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K66" s="2">
         <v>100</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E67" s="3">
-        <v>45624</v>
+        <v>45679</v>
       </c>
       <c r="F67" s="3">
-        <v>47085</v>
+        <v>48601</v>
       </c>
       <c r="G67" s="2">
         <v>6</v>
       </c>
-      <c r="H67" s="3">
-        <v>47085</v>
-      </c>
-      <c r="I67" s="2">
-        <v>100</v>
+      <c r="H67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J67" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K67" s="2">
         <v>100</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>65</v>
@@ -3968,74 +3983,74 @@
         <v>19</v>
       </c>
       <c r="E68" s="3">
-        <v>45491</v>
+        <v>45309</v>
       </c>
       <c r="F68" s="3">
-        <v>48047</v>
+        <v>46221</v>
       </c>
       <c r="G68" s="2">
         <v>6</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>90</v>
+      <c r="H68" s="3">
+        <v>46221</v>
+      </c>
+      <c r="I68" s="2">
+        <v>100</v>
       </c>
       <c r="J68" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K68" s="2">
         <v>100</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E69" s="3">
-        <v>45497</v>
+        <v>45840</v>
       </c>
       <c r="F69" s="3">
-        <v>48053</v>
+        <v>46570</v>
       </c>
       <c r="G69" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H69" s="3">
-        <v>48053</v>
+        <v>46570</v>
       </c>
       <c r="I69" s="2">
         <v>100</v>
       </c>
       <c r="J69" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K69" s="2">
         <v>100</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -4044,112 +4059,112 @@
         <v>13</v>
       </c>
       <c r="E70" s="3">
-        <v>45803</v>
+        <v>45624</v>
       </c>
       <c r="F70" s="3">
-        <v>45987</v>
+        <v>47085</v>
       </c>
       <c r="G70" s="2">
         <v>6</v>
       </c>
       <c r="H70" s="3">
-        <v>45987</v>
+        <v>47085</v>
       </c>
       <c r="I70" s="2">
         <v>100</v>
       </c>
       <c r="J70" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K70" s="2">
         <v>100</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E71" s="3">
-        <v>45415</v>
+        <v>45491</v>
       </c>
       <c r="F71" s="3">
-        <v>47241</v>
+        <v>48047</v>
       </c>
       <c r="G71" s="2">
         <v>6</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J71" s="2">
-        <v>0.08</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K71" s="2">
         <v>100</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E72" s="3">
-        <v>45723</v>
+        <v>45497</v>
       </c>
       <c r="F72" s="3">
-        <v>47549</v>
+        <v>48053</v>
       </c>
       <c r="G72" s="2">
         <v>6</v>
       </c>
       <c r="H72" s="3">
-        <v>47549</v>
+        <v>48053</v>
       </c>
       <c r="I72" s="2">
         <v>100</v>
       </c>
       <c r="J72" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K72" s="2">
         <v>100</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -4158,33 +4173,33 @@
         <v>13</v>
       </c>
       <c r="E73" s="3">
-        <v>45575</v>
+        <v>45803</v>
       </c>
       <c r="F73" s="3">
-        <v>48131</v>
+        <v>45987</v>
       </c>
       <c r="G73" s="2">
         <v>6</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>90</v>
+      <c r="H73" s="3">
+        <v>45987</v>
+      </c>
+      <c r="I73" s="2">
+        <v>100</v>
       </c>
       <c r="J73" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K73" s="2">
         <v>100</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>72</v>
@@ -4196,22 +4211,22 @@
         <v>13</v>
       </c>
       <c r="E74" s="3">
-        <v>45818</v>
+        <v>45415</v>
       </c>
       <c r="F74" s="3">
-        <v>48740</v>
+        <v>47241</v>
       </c>
       <c r="G74" s="2">
         <v>6</v>
       </c>
-      <c r="H74" s="3">
-        <v>48740</v>
-      </c>
-      <c r="I74" s="2">
-        <v>100</v>
+      <c r="H74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="J74" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K74" s="2">
         <v>100</v>
@@ -4222,34 +4237,34 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E75" s="3">
-        <v>45636</v>
+        <v>45723</v>
       </c>
       <c r="F75" s="3">
-        <v>49653</v>
+        <v>47549</v>
       </c>
       <c r="G75" s="2">
         <v>6</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>90</v>
+      <c r="H75" s="3">
+        <v>47549</v>
+      </c>
+      <c r="I75" s="2">
+        <v>100</v>
       </c>
       <c r="J75" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K75" s="2">
         <v>100</v>
@@ -4260,34 +4275,34 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E76" s="3">
-        <v>43671</v>
+        <v>45575</v>
       </c>
       <c r="F76" s="3">
-        <v>46228</v>
+        <v>48131</v>
       </c>
       <c r="G76" s="2">
         <v>6</v>
       </c>
-      <c r="H76" s="3">
-        <v>46228</v>
-      </c>
-      <c r="I76" s="2">
-        <v>100</v>
+      <c r="H76" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J76" s="2">
-        <v>0.1</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K76" s="2">
         <v>100</v>
@@ -4298,10 +4313,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -4310,22 +4325,22 @@
         <v>13</v>
       </c>
       <c r="E77" s="3">
-        <v>45349</v>
+        <v>45818</v>
       </c>
       <c r="F77" s="3">
-        <v>46445</v>
+        <v>48740</v>
       </c>
       <c r="G77" s="2">
         <v>6</v>
       </c>
       <c r="H77" s="3">
-        <v>46445</v>
+        <v>48740</v>
       </c>
       <c r="I77" s="2">
         <v>100</v>
       </c>
       <c r="J77" s="2">
-        <v>0.06</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K77" s="2">
         <v>100</v>
@@ -4336,34 +4351,34 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E78" s="3">
-        <v>45456</v>
+        <v>45636</v>
       </c>
       <c r="F78" s="3">
-        <v>46551</v>
+        <v>49653</v>
       </c>
       <c r="G78" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="J78" s="2">
-        <v>0.06</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K78" s="2">
         <v>100</v>
@@ -4374,7 +4389,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>159</v>
@@ -4386,22 +4401,22 @@
         <v>19</v>
       </c>
       <c r="E79" s="3">
-        <v>45581</v>
+        <v>43671</v>
       </c>
       <c r="F79" s="3">
-        <v>48503</v>
+        <v>46228</v>
       </c>
       <c r="G79" s="2">
         <v>6</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>90</v>
+      <c r="H79" s="3">
+        <v>46228</v>
+      </c>
+      <c r="I79" s="2">
+        <v>100</v>
       </c>
       <c r="J79" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K79" s="2">
         <v>100</v>
@@ -4412,7 +4427,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>159</v>
@@ -4424,22 +4439,22 @@
         <v>13</v>
       </c>
       <c r="E80" s="3">
-        <v>45618</v>
+        <v>45349</v>
       </c>
       <c r="F80" s="3">
-        <v>46348</v>
+        <v>46445</v>
       </c>
       <c r="G80" s="2">
         <v>6</v>
       </c>
       <c r="H80" s="3">
-        <v>46348</v>
+        <v>46445</v>
       </c>
       <c r="I80" s="2">
         <v>100</v>
       </c>
       <c r="J80" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K80" s="2">
         <v>100</v>
@@ -4450,7 +4465,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>159</v>
@@ -4462,22 +4477,22 @@
         <v>13</v>
       </c>
       <c r="E81" s="3">
-        <v>45618</v>
+        <v>45456</v>
       </c>
       <c r="F81" s="3">
-        <v>47079</v>
+        <v>46551</v>
       </c>
       <c r="G81" s="2">
         <v>3</v>
       </c>
-      <c r="H81" s="3">
-        <v>47079</v>
-      </c>
-      <c r="I81" s="2">
-        <v>100</v>
+      <c r="H81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="J81" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K81" s="2">
         <v>100</v>
@@ -4488,34 +4503,34 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E82" s="3">
-        <v>45797</v>
+        <v>45581</v>
       </c>
       <c r="F82" s="3">
-        <v>46527</v>
+        <v>48503</v>
       </c>
       <c r="G82" s="2">
-        <v>3</v>
-      </c>
-      <c r="H82" s="3">
-        <v>46527</v>
-      </c>
-      <c r="I82" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J82" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K82" s="2">
         <v>100</v>
@@ -4526,10 +4541,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -4538,22 +4553,22 @@
         <v>13</v>
       </c>
       <c r="E83" s="3">
-        <v>45090</v>
+        <v>45618</v>
       </c>
       <c r="F83" s="3">
-        <v>46066</v>
+        <v>46348</v>
       </c>
       <c r="G83" s="2">
         <v>6</v>
       </c>
       <c r="H83" s="3">
-        <v>46066</v>
+        <v>46348</v>
       </c>
       <c r="I83" s="2">
         <v>100</v>
       </c>
       <c r="J83" s="2">
-        <v>0.05</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="K83" s="2">
         <v>100</v>
@@ -4564,10 +4579,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -4576,22 +4591,22 @@
         <v>13</v>
       </c>
       <c r="E84" s="3">
-        <v>45624</v>
+        <v>45618</v>
       </c>
       <c r="F84" s="3">
-        <v>46170</v>
+        <v>47079</v>
       </c>
       <c r="G84" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H84" s="3">
-        <v>46170</v>
+        <v>47079</v>
       </c>
       <c r="I84" s="2">
         <v>100</v>
       </c>
       <c r="J84" s="2">
-        <v>0.06</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K84" s="2">
         <v>100</v>
@@ -4602,10 +4617,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -4614,22 +4629,22 @@
         <v>13</v>
       </c>
       <c r="E85" s="3">
-        <v>45715</v>
+        <v>45797</v>
       </c>
       <c r="F85" s="3">
-        <v>46445</v>
+        <v>46527</v>
       </c>
       <c r="G85" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H85" s="3">
-        <v>46445</v>
+        <v>46527</v>
       </c>
       <c r="I85" s="2">
         <v>100</v>
       </c>
       <c r="J85" s="2">
-        <v>6.25E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K85" s="2">
         <v>100</v>
@@ -4640,7 +4655,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>77</v>
@@ -4652,22 +4667,22 @@
         <v>13</v>
       </c>
       <c r="E86" s="3">
-        <v>45784</v>
+        <v>45090</v>
       </c>
       <c r="F86" s="3">
-        <v>46514</v>
+        <v>46066</v>
       </c>
       <c r="G86" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H86" s="3">
-        <v>46514</v>
+        <v>46066</v>
       </c>
       <c r="I86" s="2">
         <v>100</v>
       </c>
       <c r="J86" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K86" s="2">
         <v>100</v>
@@ -4678,7 +4693,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>77</v>
@@ -4690,22 +4705,22 @@
         <v>13</v>
       </c>
       <c r="E87" s="3">
-        <v>45860</v>
+        <v>45624</v>
       </c>
       <c r="F87" s="3">
-        <v>46590</v>
+        <v>46170</v>
       </c>
       <c r="G87" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H87" s="3">
-        <v>46590</v>
+        <v>46170</v>
       </c>
       <c r="I87" s="2">
         <v>100</v>
       </c>
       <c r="J87" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K87" s="2">
         <v>100</v>
@@ -4716,34 +4731,34 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E88" s="3">
-        <v>44239</v>
+        <v>45715</v>
       </c>
       <c r="F88" s="3">
-        <v>47299</v>
+        <v>46445</v>
       </c>
       <c r="G88" s="2">
         <v>6</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>110</v>
+      <c r="H88" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I88" s="2">
+        <v>100</v>
       </c>
       <c r="J88" s="2">
-        <v>0.09</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K88" s="2">
         <v>100</v>
@@ -4754,7 +4769,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>77</v>
@@ -4766,22 +4781,22 @@
         <v>13</v>
       </c>
       <c r="E89" s="3">
-        <v>45575</v>
+        <v>45784</v>
       </c>
       <c r="F89" s="3">
-        <v>47036</v>
+        <v>46514</v>
       </c>
       <c r="G89" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>47036</v>
+        <v>46514</v>
       </c>
       <c r="I89" s="2">
         <v>100</v>
       </c>
       <c r="J89" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K89" s="2">
         <v>100</v>
@@ -4792,7 +4807,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>77</v>
@@ -4807,19 +4822,19 @@
         <v>45860</v>
       </c>
       <c r="F90" s="3">
-        <v>47686</v>
+        <v>46590</v>
       </c>
       <c r="G90" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H90" s="3">
-        <v>47686</v>
+        <v>46590</v>
       </c>
       <c r="I90" s="2">
         <v>100</v>
       </c>
       <c r="J90" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K90" s="2">
         <v>100</v>
@@ -4830,7 +4845,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>77</v>
@@ -4842,22 +4857,22 @@
         <v>19</v>
       </c>
       <c r="E91" s="3">
-        <v>47372</v>
+        <v>44239</v>
       </c>
       <c r="F91" s="3">
-        <v>48102</v>
+        <v>47299</v>
       </c>
       <c r="G91" s="2">
         <v>6</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="J91" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K91" s="2">
         <v>100</v>
@@ -4868,34 +4883,34 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E92" s="3">
-        <v>45674</v>
+        <v>45575</v>
       </c>
       <c r="F92" s="3">
-        <v>48961</v>
+        <v>47036</v>
       </c>
       <c r="G92" s="2">
         <v>6</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>90</v>
+      <c r="H92" s="3">
+        <v>47036</v>
+      </c>
+      <c r="I92" s="2">
+        <v>100</v>
       </c>
       <c r="J92" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K92" s="2">
         <v>100</v>
@@ -4906,39 +4921,153 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="3">
+        <v>45860</v>
+      </c>
+      <c r="F93" s="3">
+        <v>47686</v>
+      </c>
+      <c r="G93" s="2">
+        <v>6</v>
+      </c>
+      <c r="H93" s="3">
+        <v>47686</v>
+      </c>
+      <c r="I93" s="2">
+        <v>100</v>
+      </c>
+      <c r="J93" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K93" s="2">
+        <v>100</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E94" s="3">
+        <v>47372</v>
+      </c>
+      <c r="F94" s="3">
+        <v>48102</v>
+      </c>
+      <c r="G94" s="2">
+        <v>6</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J94" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K94" s="2">
+        <v>100</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F95" s="3">
+        <v>48961</v>
+      </c>
+      <c r="G95" s="2">
+        <v>6</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J95" s="2">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K95" s="2">
+        <v>100</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="3">
         <v>45199</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F96" s="3">
         <v>48852</v>
       </c>
-      <c r="G93" s="2">
-        <v>6</v>
-      </c>
-      <c r="H93" s="3" t="s">
+      <c r="G96" s="2">
+        <v>6</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J96" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K93" s="2">
-        <v>100</v>
-      </c>
-      <c r="L93" s="2" t="s">
+      <c r="K96" s="2">
+        <v>100</v>
+      </c>
+      <c r="L96" s="2" t="s">
         <v>115</v>
       </c>
     </row>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B662EC-8994-4EE7-A576-1E90349CB8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F94CB0-447B-4FD8-B5CD-8FACF03F8820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
@@ -436,9 +436,6 @@
     <t>BYCVD</t>
   </si>
   <si>
-    <t>BAGCD</t>
-  </si>
-  <si>
     <t>MACRO</t>
   </si>
   <si>
@@ -557,6 +554,9 @@
   </si>
   <si>
     <t>360 ENERGY</t>
+  </si>
+  <si>
+    <t>BACGD</t>
   </si>
 </sst>
 </file>
@@ -1404,10 +1404,10 @@
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -3097,10 +3097,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
@@ -3194,10 +3194,10 @@
         <v>6</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J47" s="2">
         <v>9.7500000000000003E-2</v>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -3802,10 +3802,10 @@
         <v>3</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J63" s="2">
         <v>6.25E-2</v>
@@ -4161,10 +4161,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -4194,7 +4194,7 @@
         <v>100</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -4389,10 +4389,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>18</v>
@@ -4427,10 +4427,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -4486,10 +4486,10 @@
         <v>3</v>
       </c>
       <c r="H81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="J81" s="2">
         <v>0.06</v>
@@ -4503,10 +4503,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
@@ -4524,7 +4524,7 @@
         <v>6</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>90</v>
@@ -4541,10 +4541,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F94CB0-447B-4FD8-B5CD-8FACF03F8820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E133F11-CD4F-4815-82FC-C746543786E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$96</definedName>
+  </definedNames>
   <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10000"/>
 </workbook>
 </file>
@@ -1404,10 +1407,10 @@
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1928,7 +1931,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3">
         <v>45183</v>
@@ -1963,7 +1966,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -2118,7 +2121,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3">
         <v>45876</v>
@@ -5072,6 +5075,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E133F11-CD4F-4815-82FC-C746543786E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678A20A6-1259-467B-A46B-00B9E169067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$98</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="182">
   <si>
     <t>name</t>
   </si>
@@ -560,6 +560,15 @@
   </si>
   <si>
     <t>BACGD</t>
+  </si>
+  <si>
+    <t>LMS8D</t>
+  </si>
+  <si>
+    <t>21/6/2026;21/9/2026;21/12/2026;21/3/2027</t>
+  </si>
+  <si>
+    <t>BYCRD</t>
   </si>
 </sst>
 </file>
@@ -1404,13 +1413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1618,34 +1627,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3">
-        <v>45456</v>
+        <v>45372</v>
       </c>
       <c r="F6" s="3">
-        <v>46186</v>
+        <v>46467</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="3">
-        <v>46186</v>
-      </c>
-      <c r="I6" s="2">
-        <v>100</v>
+      <c r="H6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="J6" s="2">
-        <v>0.06</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K6" s="2">
         <v>100</v>
@@ -1656,34 +1665,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3">
-        <v>45869</v>
+        <v>45456</v>
       </c>
       <c r="F7" s="3">
-        <v>48791</v>
+        <v>46186</v>
       </c>
       <c r="G7" s="2">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>130</v>
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>46186</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
       </c>
       <c r="J7" s="2">
-        <v>7.5999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K7" s="2">
         <v>100</v>
@@ -1694,7 +1703,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>127</v>
@@ -1703,25 +1712,25 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3">
-        <v>44874</v>
+        <v>45869</v>
       </c>
       <c r="F8" s="3">
-        <v>46669</v>
+        <v>48791</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J8" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
@@ -1732,34 +1741,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3">
-        <v>45068</v>
+        <v>44874</v>
       </c>
       <c r="F9" s="3">
-        <v>45983</v>
+        <v>46669</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
-      <c r="H9" s="4">
-        <v>45983</v>
-      </c>
-      <c r="I9" s="2">
-        <v>100</v>
+      <c r="H9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="J9" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K9" s="2">
         <v>100</v>
@@ -1770,7 +1779,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>127</v>
@@ -1782,22 +1791,22 @@
         <v>13</v>
       </c>
       <c r="E10" s="3">
-        <v>45786</v>
+        <v>45068</v>
       </c>
       <c r="F10" s="3">
-        <v>46516</v>
+        <v>45983</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
       </c>
-      <c r="H10" s="3">
-        <v>46516</v>
+      <c r="H10" s="4">
+        <v>45983</v>
       </c>
       <c r="I10" s="2">
         <v>100</v>
       </c>
       <c r="J10" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K10" s="2">
         <v>100</v>
@@ -1808,10 +1817,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1820,22 +1829,22 @@
         <v>13</v>
       </c>
       <c r="E11" s="3">
-        <v>45811</v>
+        <v>45786</v>
       </c>
       <c r="F11" s="3">
-        <v>46176</v>
+        <v>46516</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
       </c>
       <c r="H11" s="3">
-        <v>46176</v>
+        <v>46516</v>
       </c>
       <c r="I11" s="2">
         <v>100</v>
       </c>
       <c r="J11" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K11" s="2">
         <v>100</v>
@@ -1846,7 +1855,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1858,22 +1867,22 @@
         <v>13</v>
       </c>
       <c r="E12" s="3">
-        <v>45891</v>
+        <v>45811</v>
       </c>
       <c r="F12" s="3">
-        <v>46256</v>
+        <v>46176</v>
       </c>
       <c r="G12" s="2">
         <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>46256</v>
+        <v>46176</v>
       </c>
       <c r="I12" s="2">
         <v>100</v>
       </c>
       <c r="J12" s="2">
-        <v>0.06</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K12" s="2">
         <v>100</v>
@@ -1884,10 +1893,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1896,71 +1905,71 @@
         <v>13</v>
       </c>
       <c r="E13" s="3">
-        <v>45709</v>
+        <v>45891</v>
       </c>
       <c r="F13" s="3">
-        <v>46439</v>
+        <v>46256</v>
       </c>
       <c r="G13" s="2">
         <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>46439</v>
+        <v>46256</v>
       </c>
       <c r="I13" s="2">
         <v>100</v>
       </c>
       <c r="J13" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K13" s="2">
         <v>100</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="3">
-        <v>45183</v>
+        <v>45709</v>
       </c>
       <c r="F14" s="3">
-        <v>46095</v>
+        <v>46439</v>
       </c>
       <c r="G14" s="2">
         <v>6</v>
       </c>
       <c r="H14" s="3">
-        <v>46095</v>
+        <v>46439</v>
       </c>
       <c r="I14" s="2">
         <v>100</v>
       </c>
       <c r="J14" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K14" s="2">
         <v>100</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -1969,25 +1978,25 @@
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3">
-        <v>45216</v>
+        <v>45183</v>
       </c>
       <c r="F15" s="3">
-        <v>45947</v>
+        <v>46095</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>45947</v>
+        <v>46095</v>
       </c>
       <c r="I15" s="2">
         <v>100</v>
       </c>
       <c r="J15" s="2">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K15" s="2">
         <v>100</v>
@@ -1998,45 +2007,45 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3">
-        <v>44750</v>
+        <v>45216</v>
       </c>
       <c r="F16" s="3">
-        <v>46084</v>
+        <v>45947</v>
       </c>
       <c r="G16" s="2">
         <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>46084</v>
+        <v>45947</v>
       </c>
       <c r="I16" s="2">
         <v>100</v>
       </c>
       <c r="J16" s="2">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="K16" s="2">
         <v>100</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -2048,22 +2057,22 @@
         <v>13</v>
       </c>
       <c r="E17" s="3">
-        <v>45308</v>
+        <v>44750</v>
       </c>
       <c r="F17" s="3">
-        <v>46404</v>
+        <v>46084</v>
       </c>
       <c r="G17" s="2">
         <v>6</v>
       </c>
       <c r="H17" s="3">
-        <v>46404</v>
+        <v>46084</v>
       </c>
       <c r="I17" s="2">
         <v>100</v>
       </c>
       <c r="J17" s="2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="K17" s="2">
         <v>100</v>
@@ -2074,7 +2083,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
@@ -2086,22 +2095,22 @@
         <v>13</v>
       </c>
       <c r="E18" s="3">
-        <v>45611</v>
+        <v>45308</v>
       </c>
       <c r="F18" s="3">
-        <v>47072</v>
+        <v>46404</v>
       </c>
       <c r="G18" s="2">
         <v>6</v>
       </c>
       <c r="H18" s="3">
-        <v>47072</v>
+        <v>46404</v>
       </c>
       <c r="I18" s="2">
         <v>100</v>
       </c>
       <c r="J18" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K18" s="2">
         <v>100</v>
@@ -2112,72 +2121,72 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="3">
-        <v>45876</v>
+        <v>45611</v>
       </c>
       <c r="F19" s="3">
-        <v>46241</v>
+        <v>47072</v>
       </c>
       <c r="G19" s="2">
         <v>6</v>
       </c>
       <c r="H19" s="3">
-        <v>46241</v>
+        <v>47072</v>
       </c>
       <c r="I19" s="2">
         <v>100</v>
       </c>
       <c r="J19" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K19" s="2">
         <v>100</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="3">
-        <v>45358</v>
+        <v>45876</v>
       </c>
       <c r="F20" s="3">
-        <v>46348</v>
+        <v>46241</v>
       </c>
       <c r="G20" s="2">
         <v>6</v>
       </c>
       <c r="H20" s="3">
-        <v>46348</v>
+        <v>46241</v>
       </c>
       <c r="I20" s="2">
         <v>100</v>
       </c>
       <c r="J20" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K20" s="2">
         <v>100</v>
@@ -2188,7 +2197,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
@@ -2200,22 +2209,22 @@
         <v>13</v>
       </c>
       <c r="E21" s="3">
-        <v>45509</v>
+        <v>45358</v>
       </c>
       <c r="F21" s="3">
-        <v>46970</v>
+        <v>46348</v>
       </c>
       <c r="G21" s="2">
         <v>6</v>
       </c>
       <c r="H21" s="3">
-        <v>46970</v>
+        <v>46348</v>
       </c>
       <c r="I21" s="2">
         <v>100</v>
       </c>
       <c r="J21" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K21" s="2">
         <v>100</v>
@@ -2226,34 +2235,34 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E22" s="3">
-        <v>45589</v>
+        <v>45509</v>
       </c>
       <c r="F22" s="3">
-        <v>47780</v>
+        <v>46970</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>90</v>
+      <c r="H22" s="3">
+        <v>46970</v>
+      </c>
+      <c r="I22" s="2">
+        <v>100</v>
       </c>
       <c r="J22" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K22" s="2">
         <v>100</v>
@@ -2264,10 +2273,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -2276,60 +2285,60 @@
         <v>19</v>
       </c>
       <c r="E23" s="3">
-        <v>44441</v>
+        <v>45589</v>
       </c>
       <c r="F23" s="3">
-        <v>46632</v>
+        <v>47780</v>
       </c>
       <c r="G23" s="2">
         <v>6</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J23" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K23" s="2">
         <v>100</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3">
-        <v>45721</v>
+        <v>44441</v>
       </c>
       <c r="F24" s="3">
-        <v>46817</v>
+        <v>46632</v>
       </c>
       <c r="G24" s="2">
         <v>6</v>
       </c>
-      <c r="H24" s="3">
-        <v>46817</v>
-      </c>
-      <c r="I24" s="2">
-        <v>100</v>
+      <c r="H24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="J24" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K24" s="2">
         <v>100</v>
@@ -2340,7 +2349,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>31</v>
@@ -2352,22 +2361,22 @@
         <v>13</v>
       </c>
       <c r="E25" s="3">
-        <v>45582</v>
+        <v>45721</v>
       </c>
       <c r="F25" s="3">
-        <v>47043</v>
+        <v>46817</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
       </c>
       <c r="H25" s="3">
-        <v>47043</v>
+        <v>46817</v>
       </c>
       <c r="I25" s="2">
         <v>100</v>
       </c>
       <c r="J25" s="2">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K25" s="2">
         <v>100</v>
@@ -2378,72 +2387,72 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3">
-        <v>45575</v>
+        <v>45582</v>
       </c>
       <c r="F26" s="3">
-        <v>47036</v>
+        <v>47043</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
       </c>
       <c r="H26" s="3">
-        <v>47036</v>
+        <v>47043</v>
       </c>
       <c r="I26" s="2">
         <v>100</v>
       </c>
       <c r="J26" s="2">
-        <v>7.7499999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K26" s="2">
         <v>100</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E27" s="3">
-        <v>45883</v>
+        <v>45575</v>
       </c>
       <c r="F27" s="3">
-        <v>46265</v>
+        <v>47036</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>46265</v>
+        <v>47036</v>
       </c>
       <c r="I27" s="2">
         <v>100</v>
       </c>
       <c r="J27" s="2">
-        <v>6.25E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="K27" s="2">
         <v>100</v>
@@ -2454,7 +2463,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>136</v>
@@ -2466,22 +2475,22 @@
         <v>13</v>
       </c>
       <c r="E28" s="3">
-        <v>45804</v>
+        <v>45883</v>
       </c>
       <c r="F28" s="3">
-        <v>46021</v>
+        <v>46265</v>
       </c>
       <c r="G28" s="2">
         <v>6</v>
       </c>
       <c r="H28" s="3">
-        <v>46021</v>
+        <v>46265</v>
       </c>
       <c r="I28" s="2">
         <v>100</v>
       </c>
       <c r="J28" s="2">
-        <v>0.04</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K28" s="2">
         <v>100</v>
@@ -2492,10 +2501,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -2504,60 +2513,60 @@
         <v>13</v>
       </c>
       <c r="E29" s="3">
-        <v>45846</v>
+        <v>45804</v>
       </c>
       <c r="F29" s="3">
-        <v>46942</v>
+        <v>46021</v>
       </c>
       <c r="G29" s="2">
         <v>6</v>
       </c>
       <c r="H29" s="3">
-        <v>46942</v>
+        <v>46021</v>
       </c>
       <c r="I29" s="2">
         <v>100</v>
       </c>
       <c r="J29" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="K29" s="2">
         <v>100</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="3">
-        <v>45084</v>
+        <v>45785</v>
       </c>
       <c r="F30" s="3">
-        <v>45998</v>
+        <v>45989</v>
       </c>
       <c r="G30" s="2">
         <v>6</v>
       </c>
       <c r="H30" s="3">
-        <v>45998</v>
+        <v>45989</v>
       </c>
       <c r="I30" s="2">
         <v>100</v>
       </c>
       <c r="J30" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
         <v>100</v>
@@ -2568,10 +2577,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -2580,33 +2589,33 @@
         <v>13</v>
       </c>
       <c r="E31" s="3">
-        <v>45453</v>
+        <v>45846</v>
       </c>
       <c r="F31" s="3">
-        <v>46183</v>
+        <v>46942</v>
       </c>
       <c r="G31" s="2">
         <v>6</v>
       </c>
       <c r="H31" s="3">
-        <v>46183</v>
+        <v>46942</v>
       </c>
       <c r="I31" s="2">
         <v>100</v>
       </c>
       <c r="J31" s="2">
-        <v>0.06</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K31" s="2">
         <v>100</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
@@ -2618,22 +2627,22 @@
         <v>13</v>
       </c>
       <c r="E32" s="3">
-        <v>45350</v>
+        <v>45084</v>
       </c>
       <c r="F32" s="3">
-        <v>46446</v>
+        <v>45998</v>
       </c>
       <c r="G32" s="2">
         <v>6</v>
       </c>
       <c r="H32" s="3">
-        <v>46446</v>
+        <v>45998</v>
       </c>
       <c r="I32" s="2">
         <v>100</v>
       </c>
       <c r="J32" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K32" s="2">
         <v>100</v>
@@ -2644,34 +2653,34 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E33" s="3">
-        <v>44720</v>
+        <v>45453</v>
       </c>
       <c r="F33" s="3">
-        <v>46926</v>
+        <v>46183</v>
       </c>
       <c r="G33" s="2">
         <v>6</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>98</v>
+      <c r="H33" s="3">
+        <v>46183</v>
+      </c>
+      <c r="I33" s="2">
+        <v>100</v>
       </c>
       <c r="J33" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K33" s="2">
         <v>100</v>
@@ -2682,7 +2691,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>35</v>
@@ -2694,22 +2703,22 @@
         <v>13</v>
       </c>
       <c r="E34" s="3">
-        <v>45588</v>
+        <v>45350</v>
       </c>
       <c r="F34" s="3">
-        <v>46683</v>
+        <v>46446</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
       </c>
       <c r="H34" s="3">
-        <v>46683</v>
+        <v>46446</v>
       </c>
       <c r="I34" s="2">
         <v>100</v>
       </c>
       <c r="J34" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K34" s="2">
         <v>100</v>
@@ -2720,7 +2729,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>35</v>
@@ -2732,22 +2741,22 @@
         <v>19</v>
       </c>
       <c r="E35" s="3">
-        <v>45747</v>
+        <v>44720</v>
       </c>
       <c r="F35" s="3">
-        <v>49399</v>
+        <v>46926</v>
       </c>
       <c r="G35" s="2">
         <v>6</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J35" s="2">
-        <v>0.08</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K35" s="2">
         <v>100</v>
@@ -2758,7 +2767,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -2773,19 +2782,19 @@
         <v>45588</v>
       </c>
       <c r="F36" s="3">
-        <v>47414</v>
+        <v>46683</v>
       </c>
       <c r="G36" s="2">
         <v>6</v>
       </c>
       <c r="H36" s="3">
-        <v>47414</v>
+        <v>46683</v>
       </c>
       <c r="I36" s="2">
         <v>100</v>
       </c>
       <c r="J36" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K36" s="2">
         <v>100</v>
@@ -2796,48 +2805,48 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E37" s="3">
-        <v>45586</v>
+        <v>45747</v>
       </c>
       <c r="F37" s="3">
-        <v>46316</v>
+        <v>49399</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
       </c>
-      <c r="H37" s="3">
-        <v>46316</v>
-      </c>
-      <c r="I37" s="2">
-        <v>100</v>
+      <c r="H37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J37" s="2">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="K37" s="2">
         <v>100</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -2846,33 +2855,33 @@
         <v>13</v>
       </c>
       <c r="E38" s="3">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="F38" s="3">
-        <v>47047</v>
+        <v>47414</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="H38" s="3">
-        <v>47047</v>
+        <v>47414</v>
       </c>
       <c r="I38" s="2">
         <v>100</v>
       </c>
       <c r="J38" s="2">
-        <v>0.06</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K38" s="2">
         <v>100</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>142</v>
@@ -2884,22 +2893,22 @@
         <v>13</v>
       </c>
       <c r="E39" s="3">
-        <v>45674</v>
+        <v>45586</v>
       </c>
       <c r="F39" s="3">
-        <v>46769</v>
+        <v>46316</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
       <c r="H39" s="3">
-        <v>46769</v>
+        <v>46316</v>
       </c>
       <c r="I39" s="2">
         <v>100</v>
       </c>
       <c r="J39" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K39" s="2">
         <v>100</v>
@@ -2910,7 +2919,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>142</v>
@@ -2922,22 +2931,22 @@
         <v>13</v>
       </c>
       <c r="E40" s="3">
-        <v>45804</v>
+        <v>45586</v>
       </c>
       <c r="F40" s="3">
-        <v>46534</v>
+        <v>47047</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
       <c r="H40" s="3">
-        <v>46534</v>
+        <v>47047</v>
       </c>
       <c r="I40" s="2">
         <v>100</v>
       </c>
       <c r="J40" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K40" s="2">
         <v>100</v>
@@ -2948,7 +2957,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>142</v>
@@ -2960,22 +2969,22 @@
         <v>13</v>
       </c>
       <c r="E41" s="3">
-        <v>45863</v>
+        <v>45674</v>
       </c>
       <c r="F41" s="3">
-        <v>46593</v>
+        <v>46769</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
       <c r="H41" s="3">
-        <v>46593</v>
+        <v>46769</v>
       </c>
       <c r="I41" s="2">
         <v>100</v>
       </c>
       <c r="J41" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K41" s="2">
         <v>100</v>
@@ -2986,10 +2995,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -2998,36 +3007,36 @@
         <v>13</v>
       </c>
       <c r="E42" s="3">
-        <v>45098</v>
+        <v>45804</v>
       </c>
       <c r="F42" s="3">
-        <v>46012</v>
+        <v>46534</v>
       </c>
       <c r="G42" s="2">
         <v>6</v>
       </c>
       <c r="H42" s="3">
-        <v>46012</v>
+        <v>46534</v>
       </c>
       <c r="I42" s="2">
         <v>100</v>
       </c>
       <c r="J42" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K42" s="2">
         <v>100</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -3036,33 +3045,33 @@
         <v>13</v>
       </c>
       <c r="E43" s="3">
-        <v>45180</v>
+        <v>45863</v>
       </c>
       <c r="F43" s="3">
-        <v>46092</v>
+        <v>46593</v>
       </c>
       <c r="G43" s="2">
         <v>6</v>
       </c>
       <c r="H43" s="3">
-        <v>46092</v>
+        <v>46593</v>
       </c>
       <c r="I43" s="2">
         <v>100</v>
       </c>
       <c r="J43" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K43" s="2">
         <v>100</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -3074,22 +3083,22 @@
         <v>13</v>
       </c>
       <c r="E44" s="3">
-        <v>45862</v>
+        <v>45098</v>
       </c>
       <c r="F44" s="3">
-        <v>46592</v>
+        <v>46012</v>
       </c>
       <c r="G44" s="2">
         <v>6</v>
       </c>
       <c r="H44" s="3">
-        <v>46592</v>
+        <v>46012</v>
       </c>
       <c r="I44" s="2">
         <v>100</v>
       </c>
       <c r="J44" s="2">
-        <v>0.08</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K44" s="2">
         <v>100</v>
@@ -3100,48 +3109,48 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E45" s="3">
-        <v>45831</v>
+        <v>45180</v>
       </c>
       <c r="F45" s="3">
-        <v>47292</v>
+        <v>46092</v>
       </c>
       <c r="G45" s="2">
         <v>6</v>
       </c>
       <c r="H45" s="3">
-        <v>47292</v>
+        <v>46092</v>
       </c>
       <c r="I45" s="2">
         <v>100</v>
       </c>
       <c r="J45" s="2">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K45" s="2">
         <v>100</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -3150,36 +3159,36 @@
         <v>13</v>
       </c>
       <c r="E46" s="3">
-        <v>45363</v>
+        <v>45862</v>
       </c>
       <c r="F46" s="3">
-        <v>46093</v>
+        <v>46592</v>
       </c>
       <c r="G46" s="2">
         <v>6</v>
       </c>
       <c r="H46" s="3">
-        <v>46093</v>
+        <v>46592</v>
       </c>
       <c r="I46" s="2">
         <v>100</v>
       </c>
       <c r="J46" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K46" s="2">
         <v>100</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
@@ -3188,36 +3197,36 @@
         <v>19</v>
       </c>
       <c r="E47" s="3">
-        <v>45631</v>
+        <v>45831</v>
       </c>
       <c r="F47" s="3">
-        <v>47822</v>
+        <v>47292</v>
       </c>
       <c r="G47" s="2">
         <v>6</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>168</v>
+      <c r="H47" s="3">
+        <v>47292</v>
+      </c>
+      <c r="I47" s="2">
+        <v>100</v>
       </c>
       <c r="J47" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K47" s="2">
         <v>100</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -3226,22 +3235,22 @@
         <v>13</v>
       </c>
       <c r="E48" s="3">
-        <v>45124</v>
+        <v>45363</v>
       </c>
       <c r="F48" s="3">
-        <v>46220</v>
+        <v>46093</v>
       </c>
       <c r="G48" s="2">
         <v>6</v>
       </c>
       <c r="H48" s="3">
-        <v>46220</v>
+        <v>46093</v>
       </c>
       <c r="I48" s="2">
         <v>100</v>
       </c>
       <c r="J48" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K48" s="2">
         <v>100</v>
@@ -3252,34 +3261,34 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E49" s="3">
-        <v>45496</v>
+        <v>45631</v>
       </c>
       <c r="F49" s="3">
-        <v>46591</v>
+        <v>47822</v>
       </c>
       <c r="G49" s="2">
         <v>6</v>
       </c>
-      <c r="H49" s="3">
-        <v>46591</v>
-      </c>
-      <c r="I49" s="2">
-        <v>100</v>
+      <c r="H49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="J49" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K49" s="2">
         <v>100</v>
@@ -3290,10 +3299,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -3302,16 +3311,16 @@
         <v>13</v>
       </c>
       <c r="E50" s="3">
-        <v>45699</v>
+        <v>45124</v>
       </c>
       <c r="F50" s="3">
-        <v>46610</v>
+        <v>46220</v>
       </c>
       <c r="G50" s="2">
         <v>6</v>
       </c>
       <c r="H50" s="3">
-        <v>46610</v>
+        <v>46220</v>
       </c>
       <c r="I50" s="2">
         <v>100</v>
@@ -3323,15 +3332,15 @@
         <v>100</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -3340,33 +3349,33 @@
         <v>13</v>
       </c>
       <c r="E51" s="3">
-        <v>45562</v>
+        <v>45496</v>
       </c>
       <c r="F51" s="3">
-        <v>47388</v>
+        <v>46591</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
       </c>
       <c r="H51" s="3">
-        <v>47388</v>
+        <v>46591</v>
       </c>
       <c r="I51" s="2">
         <v>100</v>
       </c>
       <c r="J51" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K51" s="2">
         <v>100</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>47</v>
@@ -3378,22 +3387,22 @@
         <v>13</v>
       </c>
       <c r="E52" s="3">
-        <v>45562</v>
+        <v>45699</v>
       </c>
       <c r="F52" s="3">
-        <v>46657</v>
+        <v>46610</v>
       </c>
       <c r="G52" s="2">
         <v>6</v>
       </c>
       <c r="H52" s="3">
-        <v>46657</v>
+        <v>46610</v>
       </c>
       <c r="I52" s="2">
         <v>100</v>
       </c>
       <c r="J52" s="2">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K52" s="2">
         <v>100</v>
@@ -3404,7 +3413,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>47</v>
@@ -3416,22 +3425,22 @@
         <v>13</v>
       </c>
       <c r="E53" s="3">
-        <v>45609</v>
+        <v>45562</v>
       </c>
       <c r="F53" s="3">
-        <v>48165</v>
+        <v>47388</v>
       </c>
       <c r="G53" s="2">
         <v>6</v>
       </c>
       <c r="H53" s="3">
-        <v>48165</v>
+        <v>47388</v>
       </c>
       <c r="I53" s="2">
         <v>100</v>
       </c>
       <c r="J53" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K53" s="2">
         <v>100</v>
@@ -3442,7 +3451,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>47</v>
@@ -3454,22 +3463,22 @@
         <v>13</v>
       </c>
       <c r="E54" s="3">
-        <v>45609</v>
+        <v>45562</v>
       </c>
       <c r="F54" s="3">
-        <v>47070</v>
+        <v>46657</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
       </c>
       <c r="H54" s="3">
-        <v>47070</v>
+        <v>46657</v>
       </c>
       <c r="I54" s="2">
         <v>100</v>
       </c>
       <c r="J54" s="2">
-        <v>6.25E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K54" s="2">
         <v>100</v>
@@ -3480,7 +3489,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>47</v>
@@ -3492,22 +3501,22 @@
         <v>13</v>
       </c>
       <c r="E55" s="3">
-        <v>44316</v>
+        <v>45609</v>
       </c>
       <c r="F55" s="3">
-        <v>46507</v>
+        <v>48165</v>
       </c>
       <c r="G55" s="2">
         <v>6</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>101</v>
+      <c r="H55" s="3">
+        <v>48165</v>
+      </c>
+      <c r="I55" s="2">
+        <v>100</v>
       </c>
       <c r="J55" s="2">
-        <v>9.1249999999999998E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K55" s="2">
         <v>100</v>
@@ -3518,7 +3527,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>47</v>
@@ -3530,22 +3539,22 @@
         <v>13</v>
       </c>
       <c r="E56" s="3">
-        <v>45412</v>
+        <v>45609</v>
       </c>
       <c r="F56" s="3">
-        <v>48334</v>
+        <v>47070</v>
       </c>
       <c r="G56" s="2">
         <v>6</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>90</v>
+      <c r="H56" s="3">
+        <v>47070</v>
+      </c>
+      <c r="I56" s="2">
+        <v>100</v>
       </c>
       <c r="J56" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K56" s="2">
         <v>100</v>
@@ -3556,10 +3565,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -3568,22 +3577,22 @@
         <v>13</v>
       </c>
       <c r="E57" s="3">
-        <v>45569</v>
+        <v>44316</v>
       </c>
       <c r="F57" s="3">
-        <v>47030</v>
+        <v>46507</v>
       </c>
       <c r="G57" s="2">
         <v>6</v>
       </c>
-      <c r="H57" s="3">
-        <v>47030</v>
-      </c>
-      <c r="I57" s="2">
-        <v>100</v>
+      <c r="H57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="J57" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>9.1249999999999998E-2</v>
       </c>
       <c r="K57" s="2">
         <v>100</v>
@@ -3594,10 +3603,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -3606,22 +3615,22 @@
         <v>13</v>
       </c>
       <c r="E58" s="3">
-        <v>45050</v>
+        <v>45412</v>
       </c>
       <c r="F58" s="3">
-        <v>45965</v>
+        <v>48334</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
       </c>
-      <c r="H58" s="3">
-        <v>45965</v>
-      </c>
-      <c r="I58" s="2">
-        <v>100</v>
+      <c r="H58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J58" s="2">
-        <v>0.05</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K58" s="2">
         <v>100</v>
@@ -3632,34 +3641,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E59" s="3">
-        <v>45545</v>
+        <v>45569</v>
       </c>
       <c r="F59" s="3">
-        <v>48101</v>
+        <v>47030</v>
       </c>
       <c r="G59" s="2">
         <v>6</v>
       </c>
       <c r="H59" s="3">
-        <v>48101</v>
+        <v>47030</v>
       </c>
       <c r="I59" s="2">
         <v>100</v>
       </c>
       <c r="J59" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K59" s="2">
         <v>100</v>
@@ -3670,34 +3679,34 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E60" s="3">
-        <v>45642</v>
+        <v>45050</v>
       </c>
       <c r="F60" s="3">
-        <v>49294</v>
+        <v>45965</v>
       </c>
       <c r="G60" s="2">
         <v>6</v>
       </c>
       <c r="H60" s="3">
-        <v>49294</v>
+        <v>45965</v>
       </c>
       <c r="I60" s="2">
         <v>100</v>
       </c>
       <c r="J60" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K60" s="2">
         <v>100</v>
@@ -3708,7 +3717,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>55</v>
@@ -3720,22 +3729,22 @@
         <v>19</v>
       </c>
       <c r="E61" s="3">
-        <v>44903</v>
+        <v>45545</v>
       </c>
       <c r="F61" s="3">
-        <v>46364</v>
+        <v>48101</v>
       </c>
       <c r="G61" s="2">
         <v>6</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>90</v>
+      <c r="H61" s="3">
+        <v>48101</v>
+      </c>
+      <c r="I61" s="2">
+        <v>100</v>
       </c>
       <c r="J61" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K61" s="2">
         <v>100</v>
@@ -3746,86 +3755,86 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E62" s="3">
-        <v>45412</v>
+        <v>45642</v>
       </c>
       <c r="F62" s="3">
-        <v>46507</v>
+        <v>49294</v>
       </c>
       <c r="G62" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H62" s="3">
-        <v>46507</v>
+        <v>49294</v>
       </c>
       <c r="I62" s="2">
         <v>100</v>
       </c>
       <c r="J62" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K62" s="2">
         <v>100</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E63" s="3">
-        <v>45622</v>
+        <v>44903</v>
       </c>
       <c r="F63" s="3">
-        <v>45989</v>
+        <v>46364</v>
       </c>
       <c r="G63" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="J63" s="2">
-        <v>6.25E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K63" s="2">
         <v>100</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -3834,36 +3843,36 @@
         <v>13</v>
       </c>
       <c r="E64" s="3">
-        <v>45404</v>
+        <v>45412</v>
       </c>
       <c r="F64" s="3">
-        <v>46134</v>
+        <v>46507</v>
       </c>
       <c r="G64" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H64" s="3">
-        <v>46134</v>
+        <v>46507</v>
       </c>
       <c r="I64" s="2">
         <v>100</v>
       </c>
       <c r="J64" s="2">
-        <v>0.06</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="K64" s="2">
         <v>100</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -3872,33 +3881,33 @@
         <v>13</v>
       </c>
       <c r="E65" s="3">
-        <v>45589</v>
+        <v>45622</v>
       </c>
       <c r="F65" s="3">
-        <v>47415</v>
+        <v>45989</v>
       </c>
       <c r="G65" s="2">
-        <v>6</v>
-      </c>
-      <c r="H65" s="3">
-        <v>47415</v>
-      </c>
-      <c r="I65" s="2">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J65" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K65" s="2">
         <v>100</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>60</v>
@@ -3910,22 +3919,22 @@
         <v>13</v>
       </c>
       <c r="E66" s="3">
-        <v>45589</v>
+        <v>45404</v>
       </c>
       <c r="F66" s="3">
-        <v>46684</v>
+        <v>46134</v>
       </c>
       <c r="G66" s="2">
         <v>6</v>
       </c>
       <c r="H66" s="3">
-        <v>46684</v>
+        <v>46134</v>
       </c>
       <c r="I66" s="2">
         <v>100</v>
       </c>
       <c r="J66" s="2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="K66" s="2">
         <v>100</v>
@@ -3936,34 +3945,34 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E67" s="3">
-        <v>45679</v>
+        <v>45589</v>
       </c>
       <c r="F67" s="3">
-        <v>48601</v>
+        <v>47415</v>
       </c>
       <c r="G67" s="2">
         <v>6</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>90</v>
+      <c r="H67" s="3">
+        <v>47415</v>
+      </c>
+      <c r="I67" s="2">
+        <v>100</v>
       </c>
       <c r="J67" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K67" s="2">
         <v>100</v>
@@ -3974,34 +3983,34 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E68" s="3">
-        <v>45309</v>
+        <v>45589</v>
       </c>
       <c r="F68" s="3">
-        <v>46221</v>
+        <v>46684</v>
       </c>
       <c r="G68" s="2">
         <v>6</v>
       </c>
       <c r="H68" s="3">
-        <v>46221</v>
+        <v>46684</v>
       </c>
       <c r="I68" s="2">
         <v>100</v>
       </c>
       <c r="J68" s="2">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="K68" s="2">
         <v>100</v>
@@ -4012,110 +4021,110 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E69" s="3">
-        <v>45840</v>
+        <v>45679</v>
       </c>
       <c r="F69" s="3">
-        <v>46570</v>
+        <v>48601</v>
       </c>
       <c r="G69" s="2">
-        <v>3</v>
-      </c>
-      <c r="H69" s="3">
-        <v>46570</v>
-      </c>
-      <c r="I69" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J69" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K69" s="2">
         <v>100</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E70" s="3">
-        <v>45624</v>
+        <v>45309</v>
       </c>
       <c r="F70" s="3">
-        <v>47085</v>
+        <v>46221</v>
       </c>
       <c r="G70" s="2">
         <v>6</v>
       </c>
       <c r="H70" s="3">
-        <v>47085</v>
+        <v>46221</v>
       </c>
       <c r="I70" s="2">
         <v>100</v>
       </c>
       <c r="J70" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K70" s="2">
         <v>100</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E71" s="3">
-        <v>45491</v>
+        <v>45840</v>
       </c>
       <c r="F71" s="3">
-        <v>48047</v>
+        <v>46570</v>
       </c>
       <c r="G71" s="2">
-        <v>6</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>90</v>
+        <v>3</v>
+      </c>
+      <c r="H71" s="3">
+        <v>46570</v>
+      </c>
+      <c r="I71" s="2">
+        <v>100</v>
       </c>
       <c r="J71" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K71" s="2">
         <v>100</v>
@@ -4126,124 +4135,124 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E72" s="3">
-        <v>45497</v>
+        <v>45624</v>
       </c>
       <c r="F72" s="3">
-        <v>48053</v>
+        <v>47085</v>
       </c>
       <c r="G72" s="2">
         <v>6</v>
       </c>
       <c r="H72" s="3">
-        <v>48053</v>
+        <v>47085</v>
       </c>
       <c r="I72" s="2">
         <v>100</v>
       </c>
       <c r="J72" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K72" s="2">
         <v>100</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E73" s="3">
-        <v>45803</v>
+        <v>45491</v>
       </c>
       <c r="F73" s="3">
-        <v>45987</v>
+        <v>48047</v>
       </c>
       <c r="G73" s="2">
         <v>6</v>
       </c>
-      <c r="H73" s="3">
-        <v>45987</v>
-      </c>
-      <c r="I73" s="2">
-        <v>100</v>
+      <c r="H73" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J73" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K73" s="2">
         <v>100</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E74" s="3">
-        <v>45415</v>
+        <v>45497</v>
       </c>
       <c r="F74" s="3">
-        <v>47241</v>
+        <v>48053</v>
       </c>
       <c r="G74" s="2">
         <v>6</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>106</v>
+      <c r="H74" s="3">
+        <v>48053</v>
+      </c>
+      <c r="I74" s="2">
+        <v>100</v>
       </c>
       <c r="J74" s="2">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K74" s="2">
         <v>100</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -4252,33 +4261,33 @@
         <v>13</v>
       </c>
       <c r="E75" s="3">
-        <v>45723</v>
+        <v>45803</v>
       </c>
       <c r="F75" s="3">
-        <v>47549</v>
+        <v>45987</v>
       </c>
       <c r="G75" s="2">
         <v>6</v>
       </c>
       <c r="H75" s="3">
-        <v>47549</v>
+        <v>45987</v>
       </c>
       <c r="I75" s="2">
         <v>100</v>
       </c>
       <c r="J75" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K75" s="2">
         <v>100</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>72</v>
@@ -4290,22 +4299,22 @@
         <v>13</v>
       </c>
       <c r="E76" s="3">
-        <v>45575</v>
+        <v>45415</v>
       </c>
       <c r="F76" s="3">
-        <v>48131</v>
+        <v>47241</v>
       </c>
       <c r="G76" s="2">
         <v>6</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="J76" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K76" s="2">
         <v>100</v>
@@ -4316,7 +4325,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>72</v>
@@ -4328,16 +4337,16 @@
         <v>13</v>
       </c>
       <c r="E77" s="3">
-        <v>45818</v>
+        <v>45723</v>
       </c>
       <c r="F77" s="3">
-        <v>48740</v>
+        <v>47549</v>
       </c>
       <c r="G77" s="2">
         <v>6</v>
       </c>
       <c r="H77" s="3">
-        <v>48740</v>
+        <v>47549</v>
       </c>
       <c r="I77" s="2">
         <v>100</v>
@@ -4354,34 +4363,34 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E78" s="3">
-        <v>45636</v>
+        <v>45575</v>
       </c>
       <c r="F78" s="3">
-        <v>49653</v>
+        <v>48131</v>
       </c>
       <c r="G78" s="2">
         <v>6</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J78" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K78" s="2">
         <v>100</v>
@@ -4392,34 +4401,34 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E79" s="3">
-        <v>43671</v>
+        <v>45818</v>
       </c>
       <c r="F79" s="3">
-        <v>46228</v>
+        <v>48740</v>
       </c>
       <c r="G79" s="2">
         <v>6</v>
       </c>
       <c r="H79" s="3">
-        <v>46228</v>
+        <v>48740</v>
       </c>
       <c r="I79" s="2">
         <v>100</v>
       </c>
       <c r="J79" s="2">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K79" s="2">
         <v>100</v>
@@ -4430,34 +4439,34 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E80" s="3">
-        <v>45349</v>
+        <v>45636</v>
       </c>
       <c r="F80" s="3">
-        <v>46445</v>
+        <v>49653</v>
       </c>
       <c r="G80" s="2">
         <v>6</v>
       </c>
-      <c r="H80" s="3">
-        <v>46445</v>
-      </c>
-      <c r="I80" s="2">
-        <v>100</v>
+      <c r="H80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J80" s="2">
-        <v>0.06</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K80" s="2">
         <v>100</v>
@@ -4468,34 +4477,34 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E81" s="3">
-        <v>45456</v>
+        <v>43671</v>
       </c>
       <c r="F81" s="3">
-        <v>46551</v>
+        <v>46228</v>
       </c>
       <c r="G81" s="2">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+      <c r="H81" s="3">
+        <v>46228</v>
+      </c>
+      <c r="I81" s="2">
+        <v>100</v>
       </c>
       <c r="J81" s="2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K81" s="2">
         <v>100</v>
@@ -4506,34 +4515,34 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E82" s="3">
-        <v>45581</v>
+        <v>45349</v>
       </c>
       <c r="F82" s="3">
-        <v>48503</v>
+        <v>46445</v>
       </c>
       <c r="G82" s="2">
         <v>6</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>90</v>
+      <c r="H82" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I82" s="2">
+        <v>100</v>
       </c>
       <c r="J82" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K82" s="2">
         <v>100</v>
@@ -4544,7 +4553,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>158</v>
@@ -4556,22 +4565,22 @@
         <v>13</v>
       </c>
       <c r="E83" s="3">
-        <v>45618</v>
+        <v>45456</v>
       </c>
       <c r="F83" s="3">
-        <v>46348</v>
+        <v>46551</v>
       </c>
       <c r="G83" s="2">
-        <v>6</v>
-      </c>
-      <c r="H83" s="3">
-        <v>46348</v>
-      </c>
-      <c r="I83" s="2">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J83" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K83" s="2">
         <v>100</v>
@@ -4582,34 +4591,34 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E84" s="3">
-        <v>45618</v>
+        <v>45581</v>
       </c>
       <c r="F84" s="3">
-        <v>47079</v>
+        <v>48503</v>
       </c>
       <c r="G84" s="2">
-        <v>3</v>
-      </c>
-      <c r="H84" s="3">
-        <v>47079</v>
-      </c>
-      <c r="I84" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="J84" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K84" s="2">
         <v>100</v>
@@ -4620,7 +4629,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>158</v>
@@ -4632,22 +4641,22 @@
         <v>13</v>
       </c>
       <c r="E85" s="3">
-        <v>45797</v>
+        <v>45618</v>
       </c>
       <c r="F85" s="3">
-        <v>46527</v>
+        <v>46348</v>
       </c>
       <c r="G85" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H85" s="3">
-        <v>46527</v>
+        <v>46348</v>
       </c>
       <c r="I85" s="2">
         <v>100</v>
       </c>
       <c r="J85" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="K85" s="2">
         <v>100</v>
@@ -4658,10 +4667,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -4670,22 +4679,22 @@
         <v>13</v>
       </c>
       <c r="E86" s="3">
-        <v>45090</v>
+        <v>45618</v>
       </c>
       <c r="F86" s="3">
-        <v>46066</v>
+        <v>47079</v>
       </c>
       <c r="G86" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H86" s="3">
-        <v>46066</v>
+        <v>47079</v>
       </c>
       <c r="I86" s="2">
         <v>100</v>
       </c>
       <c r="J86" s="2">
-        <v>0.05</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K86" s="2">
         <v>100</v>
@@ -4696,10 +4705,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -4708,22 +4717,22 @@
         <v>13</v>
       </c>
       <c r="E87" s="3">
-        <v>45624</v>
+        <v>45797</v>
       </c>
       <c r="F87" s="3">
-        <v>46170</v>
+        <v>46527</v>
       </c>
       <c r="G87" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H87" s="3">
-        <v>46170</v>
+        <v>46527</v>
       </c>
       <c r="I87" s="2">
         <v>100</v>
       </c>
       <c r="J87" s="2">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K87" s="2">
         <v>100</v>
@@ -4734,7 +4743,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>77</v>
@@ -4746,22 +4755,22 @@
         <v>13</v>
       </c>
       <c r="E88" s="3">
-        <v>45715</v>
+        <v>45090</v>
       </c>
       <c r="F88" s="3">
-        <v>46445</v>
+        <v>46066</v>
       </c>
       <c r="G88" s="2">
         <v>6</v>
       </c>
       <c r="H88" s="3">
-        <v>46445</v>
+        <v>46066</v>
       </c>
       <c r="I88" s="2">
         <v>100</v>
       </c>
       <c r="J88" s="2">
-        <v>6.25E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K88" s="2">
         <v>100</v>
@@ -4772,7 +4781,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>77</v>
@@ -4784,22 +4793,22 @@
         <v>13</v>
       </c>
       <c r="E89" s="3">
-        <v>45784</v>
+        <v>45624</v>
       </c>
       <c r="F89" s="3">
-        <v>46514</v>
+        <v>46170</v>
       </c>
       <c r="G89" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H89" s="3">
-        <v>46514</v>
+        <v>46170</v>
       </c>
       <c r="I89" s="2">
         <v>100</v>
       </c>
       <c r="J89" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K89" s="2">
         <v>100</v>
@@ -4810,7 +4819,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>77</v>
@@ -4822,22 +4831,22 @@
         <v>13</v>
       </c>
       <c r="E90" s="3">
-        <v>45860</v>
+        <v>45715</v>
       </c>
       <c r="F90" s="3">
-        <v>46590</v>
+        <v>46445</v>
       </c>
       <c r="G90" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H90" s="3">
-        <v>46590</v>
+        <v>46445</v>
       </c>
       <c r="I90" s="2">
         <v>100</v>
       </c>
       <c r="J90" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K90" s="2">
         <v>100</v>
@@ -4848,34 +4857,34 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E91" s="3">
-        <v>44239</v>
+        <v>45784</v>
       </c>
       <c r="F91" s="3">
-        <v>47299</v>
+        <v>46514</v>
       </c>
       <c r="G91" s="2">
-        <v>6</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>46514</v>
+      </c>
+      <c r="I91" s="2">
+        <v>100</v>
       </c>
       <c r="J91" s="2">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K91" s="2">
         <v>100</v>
@@ -4886,7 +4895,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -4898,22 +4907,22 @@
         <v>13</v>
       </c>
       <c r="E92" s="3">
-        <v>45575</v>
+        <v>45860</v>
       </c>
       <c r="F92" s="3">
-        <v>47036</v>
+        <v>46590</v>
       </c>
       <c r="G92" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H92" s="3">
-        <v>47036</v>
+        <v>46590</v>
       </c>
       <c r="I92" s="2">
         <v>100</v>
       </c>
       <c r="J92" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K92" s="2">
         <v>100</v>
@@ -4924,34 +4933,34 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E93" s="3">
-        <v>45860</v>
+        <v>44239</v>
       </c>
       <c r="F93" s="3">
-        <v>47686</v>
+        <v>47299</v>
       </c>
       <c r="G93" s="2">
         <v>6</v>
       </c>
-      <c r="H93" s="3">
-        <v>47686</v>
-      </c>
-      <c r="I93" s="2">
-        <v>100</v>
+      <c r="H93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J93" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K93" s="2">
         <v>100</v>
@@ -4962,34 +4971,34 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E94" s="3">
-        <v>47372</v>
+        <v>45575</v>
       </c>
       <c r="F94" s="3">
-        <v>48102</v>
+        <v>47036</v>
       </c>
       <c r="G94" s="2">
         <v>6</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>90</v>
+      <c r="H94" s="3">
+        <v>47036</v>
+      </c>
+      <c r="I94" s="2">
+        <v>100</v>
       </c>
       <c r="J94" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K94" s="2">
         <v>100</v>
@@ -5000,34 +5009,34 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E95" s="3">
-        <v>45674</v>
+        <v>45860</v>
       </c>
       <c r="F95" s="3">
-        <v>48961</v>
+        <v>47686</v>
       </c>
       <c r="G95" s="2">
         <v>6</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>90</v>
+      <c r="H95" s="3">
+        <v>47686</v>
+      </c>
+      <c r="I95" s="2">
+        <v>100</v>
       </c>
       <c r="J95" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K95" s="2">
         <v>100</v>
@@ -5038,7 +5047,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
@@ -5050,32 +5059,108 @@
         <v>19</v>
       </c>
       <c r="E96" s="3">
+        <v>47372</v>
+      </c>
+      <c r="F96" s="3">
+        <v>48102</v>
+      </c>
+      <c r="G96" s="2">
+        <v>6</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J96" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K96" s="2">
+        <v>100</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F97" s="3">
+        <v>48961</v>
+      </c>
+      <c r="G97" s="2">
+        <v>6</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J97" s="2">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K97" s="2">
+        <v>100</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="3">
         <v>45199</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F98" s="3">
         <v>48852</v>
       </c>
-      <c r="G96" s="2">
-        <v>6</v>
-      </c>
-      <c r="H96" s="3" t="s">
+      <c r="G98" s="2">
+        <v>6</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J98" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K96" s="2">
-        <v>100</v>
-      </c>
-      <c r="L96" s="2" t="s">
+      <c r="K98" s="2">
+        <v>100</v>
+      </c>
+      <c r="L98" s="2" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678A20A6-1259-467B-A46B-00B9E169067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCCD771-AED7-4F89-B293-B56DFF7F7F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$100</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10000"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="1000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="187">
   <si>
     <t>name</t>
   </si>
@@ -82,9 +82,6 @@
     <t>CCL</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>NPCBD</t>
   </si>
   <si>
@@ -569,6 +566,24 @@
   </si>
   <si>
     <t>BYCRD</t>
+  </si>
+  <si>
+    <t>PLC4D</t>
+  </si>
+  <si>
+    <t>PLUSPETROL</t>
+  </si>
+  <si>
+    <t>HBCAD</t>
+  </si>
+  <si>
+    <t>HIPOTECARIO</t>
+  </si>
+  <si>
+    <t>AA-</t>
+  </si>
+  <si>
+    <t>NY</t>
   </si>
 </sst>
 </file>
@@ -1413,13 +1428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1467,18 +1482,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1508,15 +1523,15 @@
         <v>100</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1546,15 +1561,15 @@
         <v>100</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1584,15 +1599,15 @@
         <v>100</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1610,10 +1625,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J5" s="2">
         <v>7.0000000000000007E-2</v>
@@ -1622,15 +1637,15 @@
         <v>100</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1648,10 +1663,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" s="2">
         <v>6.25E-2</v>
@@ -1660,15 +1675,15 @@
         <v>100</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1698,21 +1713,21 @@
         <v>100</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="E8" s="3">
         <v>45869</v>
@@ -1724,10 +1739,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="J8" s="2">
         <v>7.5999999999999998E-2</v>
@@ -1736,15 +1751,15 @@
         <v>100</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1762,10 +1777,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="J9" s="2">
         <v>8.2500000000000004E-2</v>
@@ -1774,15 +1789,15 @@
         <v>100</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1812,15 +1827,15 @@
         <v>100</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1850,7 +1865,7 @@
         <v>100</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1888,12 +1903,12 @@
         <v>100</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1926,7 +1941,7 @@
         <v>100</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1964,7 +1979,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2002,12 +2017,12 @@
         <v>100</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
@@ -2016,7 +2031,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="E16" s="3">
         <v>45216</v>
@@ -2040,15 +2055,15 @@
         <v>100</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -2078,15 +2093,15 @@
         <v>100</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -2116,15 +2131,15 @@
         <v>100</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -2154,15 +2169,15 @@
         <v>100</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -2192,15 +2207,15 @@
         <v>100</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -2230,15 +2245,15 @@
         <v>100</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -2268,21 +2283,21 @@
         <v>100</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="E23" s="3">
         <v>45589</v>
@@ -2294,10 +2309,10 @@
         <v>6</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2">
         <v>9.7500000000000003E-2</v>
@@ -2306,21 +2321,21 @@
         <v>100</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="E24" s="3">
         <v>44441</v>
@@ -2332,10 +2347,10 @@
         <v>6</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J24" s="2">
         <v>8.7499999999999994E-2</v>
@@ -2344,15 +2359,15 @@
         <v>100</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -2382,15 +2397,15 @@
         <v>100</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -2420,21 +2435,21 @@
         <v>100</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="E27" s="3">
         <v>45575</v>
@@ -2458,15 +2473,15 @@
         <v>100</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -2496,15 +2511,15 @@
         <v>100</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -2534,15 +2549,15 @@
         <v>100</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -2572,15 +2587,15 @@
         <v>100</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -2610,15 +2625,15 @@
         <v>100</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -2627,36 +2642,36 @@
         <v>13</v>
       </c>
       <c r="E32" s="3">
-        <v>45084</v>
+        <v>45891</v>
       </c>
       <c r="F32" s="3">
-        <v>45998</v>
+        <v>46256</v>
       </c>
       <c r="G32" s="2">
         <v>6</v>
       </c>
       <c r="H32" s="3">
-        <v>45998</v>
+        <v>46256</v>
       </c>
       <c r="I32" s="2">
         <v>100</v>
       </c>
       <c r="J32" s="2">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K32" s="2">
         <v>100</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -2665,36 +2680,36 @@
         <v>13</v>
       </c>
       <c r="E33" s="3">
-        <v>45453</v>
+        <v>45084</v>
       </c>
       <c r="F33" s="3">
-        <v>46183</v>
+        <v>45998</v>
       </c>
       <c r="G33" s="2">
         <v>6</v>
       </c>
       <c r="H33" s="3">
-        <v>46183</v>
+        <v>45998</v>
       </c>
       <c r="I33" s="2">
         <v>100</v>
       </c>
       <c r="J33" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K33" s="2">
         <v>100</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -2703,188 +2718,188 @@
         <v>13</v>
       </c>
       <c r="E34" s="3">
-        <v>45350</v>
+        <v>45453</v>
       </c>
       <c r="F34" s="3">
-        <v>46446</v>
+        <v>46183</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
       </c>
       <c r="H34" s="3">
-        <v>46446</v>
+        <v>46183</v>
       </c>
       <c r="I34" s="2">
         <v>100</v>
       </c>
       <c r="J34" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K34" s="2">
         <v>100</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E35" s="3">
-        <v>44720</v>
+        <v>45350</v>
       </c>
       <c r="F35" s="3">
-        <v>46926</v>
+        <v>46446</v>
       </c>
       <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>98</v>
+      <c r="H35" s="3">
+        <v>46446</v>
+      </c>
+      <c r="I35" s="2">
+        <v>100</v>
       </c>
       <c r="J35" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K35" s="2">
         <v>100</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E36" s="3">
-        <v>45588</v>
+        <v>44720</v>
       </c>
       <c r="F36" s="3">
-        <v>46683</v>
+        <v>46926</v>
       </c>
       <c r="G36" s="2">
         <v>6</v>
       </c>
-      <c r="H36" s="3">
-        <v>46683</v>
-      </c>
-      <c r="I36" s="2">
-        <v>100</v>
+      <c r="H36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="J36" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K36" s="2">
         <v>100</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E37" s="3">
-        <v>45747</v>
+        <v>45588</v>
       </c>
       <c r="F37" s="3">
-        <v>49399</v>
+        <v>46683</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>90</v>
+      <c r="H37" s="3">
+        <v>46683</v>
+      </c>
+      <c r="I37" s="2">
+        <v>100</v>
       </c>
       <c r="J37" s="2">
-        <v>0.08</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K37" s="2">
         <v>100</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E38" s="3">
-        <v>45588</v>
+        <v>45747</v>
       </c>
       <c r="F38" s="3">
-        <v>47414</v>
+        <v>49399</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
-      <c r="H38" s="3">
-        <v>47414</v>
-      </c>
-      <c r="I38" s="2">
-        <v>100</v>
+      <c r="H38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J38" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K38" s="2">
         <v>100</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -2893,36 +2908,36 @@
         <v>13</v>
       </c>
       <c r="E39" s="3">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="F39" s="3">
-        <v>46316</v>
+        <v>47414</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
       <c r="H39" s="3">
-        <v>46316</v>
+        <v>47414</v>
       </c>
       <c r="I39" s="2">
         <v>100</v>
       </c>
       <c r="J39" s="2">
-        <v>0.05</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K39" s="2">
         <v>100</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -2934,33 +2949,33 @@
         <v>45586</v>
       </c>
       <c r="F40" s="3">
-        <v>47047</v>
+        <v>46316</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
       <c r="H40" s="3">
-        <v>47047</v>
+        <v>46316</v>
       </c>
       <c r="I40" s="2">
         <v>100</v>
       </c>
       <c r="J40" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K40" s="2">
         <v>100</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -2969,36 +2984,36 @@
         <v>13</v>
       </c>
       <c r="E41" s="3">
-        <v>45674</v>
+        <v>45586</v>
       </c>
       <c r="F41" s="3">
-        <v>46769</v>
+        <v>47047</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
       <c r="H41" s="3">
-        <v>46769</v>
+        <v>47047</v>
       </c>
       <c r="I41" s="2">
         <v>100</v>
       </c>
       <c r="J41" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K41" s="2">
         <v>100</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -3007,36 +3022,36 @@
         <v>13</v>
       </c>
       <c r="E42" s="3">
-        <v>45804</v>
+        <v>45674</v>
       </c>
       <c r="F42" s="3">
-        <v>46534</v>
+        <v>46769</v>
       </c>
       <c r="G42" s="2">
         <v>6</v>
       </c>
       <c r="H42" s="3">
-        <v>46534</v>
+        <v>46769</v>
       </c>
       <c r="I42" s="2">
         <v>100</v>
       </c>
       <c r="J42" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K42" s="2">
         <v>100</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -3045,36 +3060,36 @@
         <v>13</v>
       </c>
       <c r="E43" s="3">
-        <v>45863</v>
+        <v>45804</v>
       </c>
       <c r="F43" s="3">
-        <v>46593</v>
+        <v>46534</v>
       </c>
       <c r="G43" s="2">
         <v>6</v>
       </c>
       <c r="H43" s="3">
-        <v>46593</v>
+        <v>46534</v>
       </c>
       <c r="I43" s="2">
         <v>100</v>
       </c>
       <c r="J43" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K43" s="2">
         <v>100</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -3083,36 +3098,36 @@
         <v>13</v>
       </c>
       <c r="E44" s="3">
-        <v>45098</v>
+        <v>45863</v>
       </c>
       <c r="F44" s="3">
-        <v>46012</v>
+        <v>46593</v>
       </c>
       <c r="G44" s="2">
         <v>6</v>
       </c>
       <c r="H44" s="3">
-        <v>46012</v>
+        <v>46593</v>
       </c>
       <c r="I44" s="2">
         <v>100</v>
       </c>
       <c r="J44" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K44" s="2">
         <v>100</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -3121,36 +3136,36 @@
         <v>13</v>
       </c>
       <c r="E45" s="3">
-        <v>45180</v>
+        <v>45098</v>
       </c>
       <c r="F45" s="3">
-        <v>46092</v>
+        <v>46012</v>
       </c>
       <c r="G45" s="2">
         <v>6</v>
       </c>
       <c r="H45" s="3">
-        <v>46092</v>
+        <v>46012</v>
       </c>
       <c r="I45" s="2">
         <v>100</v>
       </c>
       <c r="J45" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K45" s="2">
         <v>100</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -3159,54 +3174,54 @@
         <v>13</v>
       </c>
       <c r="E46" s="3">
-        <v>45862</v>
+        <v>45180</v>
       </c>
       <c r="F46" s="3">
-        <v>46592</v>
+        <v>46092</v>
       </c>
       <c r="G46" s="2">
         <v>6</v>
       </c>
       <c r="H46" s="3">
-        <v>46592</v>
+        <v>46092</v>
       </c>
       <c r="I46" s="2">
         <v>100</v>
       </c>
       <c r="J46" s="2">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K46" s="2">
         <v>100</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E47" s="3">
-        <v>45831</v>
+        <v>45862</v>
       </c>
       <c r="F47" s="3">
-        <v>47292</v>
+        <v>46592</v>
       </c>
       <c r="G47" s="2">
         <v>6</v>
       </c>
       <c r="H47" s="3">
-        <v>47292</v>
+        <v>46592</v>
       </c>
       <c r="I47" s="2">
         <v>100</v>
@@ -3218,129 +3233,129 @@
         <v>100</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E48" s="3">
-        <v>45363</v>
+        <v>45831</v>
       </c>
       <c r="F48" s="3">
-        <v>46093</v>
+        <v>47292</v>
       </c>
       <c r="G48" s="2">
         <v>6</v>
       </c>
       <c r="H48" s="3">
-        <v>46093</v>
+        <v>47292</v>
       </c>
       <c r="I48" s="2">
         <v>100</v>
       </c>
       <c r="J48" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K48" s="2">
         <v>100</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E49" s="3">
-        <v>45631</v>
+        <v>45363</v>
       </c>
       <c r="F49" s="3">
-        <v>47822</v>
+        <v>46093</v>
       </c>
       <c r="G49" s="2">
         <v>6</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>168</v>
+      <c r="H49" s="3">
+        <v>46093</v>
+      </c>
+      <c r="I49" s="2">
+        <v>100</v>
       </c>
       <c r="J49" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K49" s="2">
         <v>100</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E50" s="3">
-        <v>45124</v>
+        <v>45631</v>
       </c>
       <c r="F50" s="3">
-        <v>46220</v>
+        <v>47822</v>
       </c>
       <c r="G50" s="2">
         <v>6</v>
       </c>
-      <c r="H50" s="3">
-        <v>46220</v>
-      </c>
-      <c r="I50" s="2">
-        <v>100</v>
+      <c r="H50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="J50" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K50" s="2">
         <v>100</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -3349,36 +3364,36 @@
         <v>13</v>
       </c>
       <c r="E51" s="3">
-        <v>45496</v>
+        <v>45124</v>
       </c>
       <c r="F51" s="3">
-        <v>46591</v>
+        <v>46220</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
       </c>
       <c r="H51" s="3">
-        <v>46591</v>
+        <v>46220</v>
       </c>
       <c r="I51" s="2">
         <v>100</v>
       </c>
       <c r="J51" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K51" s="2">
         <v>100</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -3387,22 +3402,22 @@
         <v>13</v>
       </c>
       <c r="E52" s="3">
-        <v>45699</v>
+        <v>45496</v>
       </c>
       <c r="F52" s="3">
-        <v>46610</v>
+        <v>46591</v>
       </c>
       <c r="G52" s="2">
         <v>6</v>
       </c>
       <c r="H52" s="3">
-        <v>46610</v>
+        <v>46591</v>
       </c>
       <c r="I52" s="2">
         <v>100</v>
       </c>
       <c r="J52" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K52" s="2">
         <v>100</v>
@@ -3413,10 +3428,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -3425,36 +3440,36 @@
         <v>13</v>
       </c>
       <c r="E53" s="3">
-        <v>45562</v>
+        <v>45699</v>
       </c>
       <c r="F53" s="3">
-        <v>47388</v>
+        <v>46610</v>
       </c>
       <c r="G53" s="2">
         <v>6</v>
       </c>
       <c r="H53" s="3">
-        <v>47388</v>
+        <v>46610</v>
       </c>
       <c r="I53" s="2">
         <v>100</v>
       </c>
       <c r="J53" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K53" s="2">
         <v>100</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
@@ -3466,33 +3481,33 @@
         <v>45562</v>
       </c>
       <c r="F54" s="3">
-        <v>46657</v>
+        <v>47388</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
       </c>
       <c r="H54" s="3">
-        <v>46657</v>
+        <v>47388</v>
       </c>
       <c r="I54" s="2">
         <v>100</v>
       </c>
       <c r="J54" s="2">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K54" s="2">
         <v>100</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -3501,36 +3516,36 @@
         <v>13</v>
       </c>
       <c r="E55" s="3">
-        <v>45609</v>
+        <v>45562</v>
       </c>
       <c r="F55" s="3">
-        <v>48165</v>
+        <v>46657</v>
       </c>
       <c r="G55" s="2">
         <v>6</v>
       </c>
       <c r="H55" s="3">
-        <v>48165</v>
+        <v>46657</v>
       </c>
       <c r="I55" s="2">
         <v>100</v>
       </c>
       <c r="J55" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K55" s="2">
         <v>100</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -3542,33 +3557,33 @@
         <v>45609</v>
       </c>
       <c r="F56" s="3">
-        <v>47070</v>
+        <v>48165</v>
       </c>
       <c r="G56" s="2">
         <v>6</v>
       </c>
       <c r="H56" s="3">
-        <v>47070</v>
+        <v>48165</v>
       </c>
       <c r="I56" s="2">
         <v>100</v>
       </c>
       <c r="J56" s="2">
-        <v>6.25E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K56" s="2">
         <v>100</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -3577,36 +3592,36 @@
         <v>13</v>
       </c>
       <c r="E57" s="3">
-        <v>44316</v>
+        <v>45609</v>
       </c>
       <c r="F57" s="3">
-        <v>46507</v>
+        <v>47070</v>
       </c>
       <c r="G57" s="2">
         <v>6</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>101</v>
+      <c r="H57" s="3">
+        <v>47070</v>
+      </c>
+      <c r="I57" s="2">
+        <v>100</v>
       </c>
       <c r="J57" s="2">
-        <v>9.1249999999999998E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K57" s="2">
         <v>100</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -3615,36 +3630,36 @@
         <v>13</v>
       </c>
       <c r="E58" s="3">
-        <v>45412</v>
+        <v>44316</v>
       </c>
       <c r="F58" s="3">
-        <v>48334</v>
+        <v>46507</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J58" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>9.1249999999999998E-2</v>
       </c>
       <c r="K58" s="2">
         <v>100</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -3653,36 +3668,36 @@
         <v>13</v>
       </c>
       <c r="E59" s="3">
-        <v>45569</v>
+        <v>45412</v>
       </c>
       <c r="F59" s="3">
-        <v>47030</v>
+        <v>48334</v>
       </c>
       <c r="G59" s="2">
         <v>6</v>
       </c>
-      <c r="H59" s="3">
-        <v>47030</v>
-      </c>
-      <c r="I59" s="2">
-        <v>100</v>
+      <c r="H59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J59" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K59" s="2">
         <v>100</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -3691,226 +3706,226 @@
         <v>13</v>
       </c>
       <c r="E60" s="3">
-        <v>45050</v>
+        <v>45569</v>
       </c>
       <c r="F60" s="3">
-        <v>45965</v>
+        <v>47030</v>
       </c>
       <c r="G60" s="2">
         <v>6</v>
       </c>
       <c r="H60" s="3">
-        <v>45965</v>
+        <v>47030</v>
       </c>
       <c r="I60" s="2">
         <v>100</v>
       </c>
       <c r="J60" s="2">
-        <v>0.05</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K60" s="2">
         <v>100</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E61" s="3">
-        <v>45545</v>
+        <v>45050</v>
       </c>
       <c r="F61" s="3">
-        <v>48101</v>
+        <v>45965</v>
       </c>
       <c r="G61" s="2">
         <v>6</v>
       </c>
       <c r="H61" s="3">
-        <v>48101</v>
+        <v>45965</v>
       </c>
       <c r="I61" s="2">
         <v>100</v>
       </c>
       <c r="J61" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K61" s="2">
         <v>100</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="E62" s="3">
-        <v>45642</v>
+        <v>45545</v>
       </c>
       <c r="F62" s="3">
-        <v>49294</v>
+        <v>48101</v>
       </c>
       <c r="G62" s="2">
         <v>6</v>
       </c>
       <c r="H62" s="3">
-        <v>49294</v>
+        <v>48101</v>
       </c>
       <c r="I62" s="2">
         <v>100</v>
       </c>
       <c r="J62" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K62" s="2">
         <v>100</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="E63" s="3">
-        <v>44903</v>
+        <v>45642</v>
       </c>
       <c r="F63" s="3">
-        <v>46364</v>
+        <v>49294</v>
       </c>
       <c r="G63" s="2">
         <v>6</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>90</v>
+      <c r="H63" s="3">
+        <v>49294</v>
+      </c>
+      <c r="I63" s="2">
+        <v>100</v>
       </c>
       <c r="J63" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K63" s="2">
         <v>100</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E64" s="3">
-        <v>45412</v>
+        <v>44903</v>
       </c>
       <c r="F64" s="3">
-        <v>46507</v>
+        <v>46364</v>
       </c>
       <c r="G64" s="2">
-        <v>3</v>
-      </c>
-      <c r="H64" s="3">
-        <v>46507</v>
-      </c>
-      <c r="I64" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J64" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K64" s="2">
         <v>100</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E65" s="3">
-        <v>45622</v>
+        <v>45838</v>
       </c>
       <c r="F65" s="3">
-        <v>45989</v>
+        <v>48364</v>
       </c>
       <c r="G65" s="2">
-        <v>3</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+      <c r="H65" s="3">
+        <v>48364</v>
+      </c>
+      <c r="I65" s="2">
+        <v>100</v>
       </c>
       <c r="J65" s="2">
-        <v>6.25E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K65" s="2">
         <v>100</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -3919,36 +3934,36 @@
         <v>13</v>
       </c>
       <c r="E66" s="3">
-        <v>45404</v>
+        <v>45412</v>
       </c>
       <c r="F66" s="3">
-        <v>46134</v>
+        <v>46507</v>
       </c>
       <c r="G66" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H66" s="3">
-        <v>46134</v>
+        <v>46507</v>
       </c>
       <c r="I66" s="2">
         <v>100</v>
       </c>
       <c r="J66" s="2">
-        <v>0.06</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="K66" s="2">
         <v>100</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
@@ -3957,36 +3972,36 @@
         <v>13</v>
       </c>
       <c r="E67" s="3">
-        <v>45589</v>
+        <v>45622</v>
       </c>
       <c r="F67" s="3">
-        <v>47415</v>
+        <v>45989</v>
       </c>
       <c r="G67" s="2">
-        <v>6</v>
-      </c>
-      <c r="H67" s="3">
-        <v>47415</v>
-      </c>
-      <c r="I67" s="2">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="J67" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K67" s="2">
         <v>100</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -3995,326 +4010,326 @@
         <v>13</v>
       </c>
       <c r="E68" s="3">
-        <v>45589</v>
+        <v>45404</v>
       </c>
       <c r="F68" s="3">
-        <v>46684</v>
+        <v>46134</v>
       </c>
       <c r="G68" s="2">
         <v>6</v>
       </c>
       <c r="H68" s="3">
-        <v>46684</v>
+        <v>46134</v>
       </c>
       <c r="I68" s="2">
         <v>100</v>
       </c>
       <c r="J68" s="2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="K68" s="2">
         <v>100</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E69" s="3">
-        <v>45679</v>
+        <v>45589</v>
       </c>
       <c r="F69" s="3">
-        <v>48601</v>
+        <v>47415</v>
       </c>
       <c r="G69" s="2">
         <v>6</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>90</v>
+      <c r="H69" s="3">
+        <v>47415</v>
+      </c>
+      <c r="I69" s="2">
+        <v>100</v>
       </c>
       <c r="J69" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K69" s="2">
         <v>100</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E70" s="3">
-        <v>45309</v>
+        <v>45589</v>
       </c>
       <c r="F70" s="3">
-        <v>46221</v>
+        <v>46684</v>
       </c>
       <c r="G70" s="2">
         <v>6</v>
       </c>
       <c r="H70" s="3">
-        <v>46221</v>
+        <v>46684</v>
       </c>
       <c r="I70" s="2">
         <v>100</v>
       </c>
       <c r="J70" s="2">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="K70" s="2">
         <v>100</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E71" s="3">
-        <v>45840</v>
+        <v>45679</v>
       </c>
       <c r="F71" s="3">
-        <v>46570</v>
+        <v>48601</v>
       </c>
       <c r="G71" s="2">
-        <v>3</v>
-      </c>
-      <c r="H71" s="3">
-        <v>46570</v>
-      </c>
-      <c r="I71" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J71" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K71" s="2">
         <v>100</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E72" s="3">
-        <v>45624</v>
+        <v>45309</v>
       </c>
       <c r="F72" s="3">
-        <v>47085</v>
+        <v>46221</v>
       </c>
       <c r="G72" s="2">
         <v>6</v>
       </c>
       <c r="H72" s="3">
-        <v>47085</v>
+        <v>46221</v>
       </c>
       <c r="I72" s="2">
         <v>100</v>
       </c>
       <c r="J72" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K72" s="2">
         <v>100</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E73" s="3">
-        <v>45491</v>
+        <v>45840</v>
       </c>
       <c r="F73" s="3">
-        <v>48047</v>
+        <v>46570</v>
       </c>
       <c r="G73" s="2">
-        <v>6</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>90</v>
+        <v>3</v>
+      </c>
+      <c r="H73" s="3">
+        <v>46570</v>
+      </c>
+      <c r="I73" s="2">
+        <v>100</v>
       </c>
       <c r="J73" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K73" s="2">
         <v>100</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E74" s="3">
-        <v>45497</v>
+        <v>45624</v>
       </c>
       <c r="F74" s="3">
-        <v>48053</v>
+        <v>47085</v>
       </c>
       <c r="G74" s="2">
         <v>6</v>
       </c>
       <c r="H74" s="3">
-        <v>48053</v>
+        <v>47085</v>
       </c>
       <c r="I74" s="2">
         <v>100</v>
       </c>
       <c r="J74" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K74" s="2">
         <v>100</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E75" s="3">
-        <v>45803</v>
+        <v>45491</v>
       </c>
       <c r="F75" s="3">
-        <v>45987</v>
+        <v>48047</v>
       </c>
       <c r="G75" s="2">
         <v>6</v>
       </c>
-      <c r="H75" s="3">
-        <v>45987</v>
-      </c>
-      <c r="I75" s="2">
-        <v>100</v>
+      <c r="H75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J75" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K75" s="2">
         <v>100</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E76" s="3">
-        <v>45415</v>
+        <v>45497</v>
       </c>
       <c r="F76" s="3">
-        <v>47241</v>
+        <v>48053</v>
       </c>
       <c r="G76" s="2">
         <v>6</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>106</v>
+      <c r="H76" s="3">
+        <v>48053</v>
+      </c>
+      <c r="I76" s="2">
+        <v>100</v>
       </c>
       <c r="J76" s="2">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K76" s="2">
         <v>100</v>
@@ -4325,10 +4340,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -4337,36 +4352,36 @@
         <v>13</v>
       </c>
       <c r="E77" s="3">
-        <v>45723</v>
+        <v>45803</v>
       </c>
       <c r="F77" s="3">
-        <v>47549</v>
+        <v>45987</v>
       </c>
       <c r="G77" s="2">
         <v>6</v>
       </c>
       <c r="H77" s="3">
-        <v>47549</v>
+        <v>45987</v>
       </c>
       <c r="I77" s="2">
         <v>100</v>
       </c>
       <c r="J77" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K77" s="2">
         <v>100</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -4375,36 +4390,36 @@
         <v>13</v>
       </c>
       <c r="E78" s="3">
-        <v>45575</v>
+        <v>45415</v>
       </c>
       <c r="F78" s="3">
-        <v>48131</v>
+        <v>47241</v>
       </c>
       <c r="G78" s="2">
         <v>6</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="J78" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K78" s="2">
         <v>100</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -4413,16 +4428,16 @@
         <v>13</v>
       </c>
       <c r="E79" s="3">
-        <v>45818</v>
+        <v>45723</v>
       </c>
       <c r="F79" s="3">
-        <v>48740</v>
+        <v>47549</v>
       </c>
       <c r="G79" s="2">
         <v>6</v>
       </c>
       <c r="H79" s="3">
-        <v>48740</v>
+        <v>47549</v>
       </c>
       <c r="I79" s="2">
         <v>100</v>
@@ -4434,282 +4449,282 @@
         <v>100</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E80" s="3">
-        <v>45636</v>
+        <v>45575</v>
       </c>
       <c r="F80" s="3">
-        <v>49653</v>
+        <v>48131</v>
       </c>
       <c r="G80" s="2">
         <v>6</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J80" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K80" s="2">
         <v>100</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E81" s="3">
-        <v>43671</v>
+        <v>45818</v>
       </c>
       <c r="F81" s="3">
-        <v>46228</v>
+        <v>48740</v>
       </c>
       <c r="G81" s="2">
         <v>6</v>
       </c>
       <c r="H81" s="3">
-        <v>46228</v>
+        <v>48740</v>
       </c>
       <c r="I81" s="2">
         <v>100</v>
       </c>
       <c r="J81" s="2">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K81" s="2">
         <v>100</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E82" s="3">
-        <v>45349</v>
+        <v>45636</v>
       </c>
       <c r="F82" s="3">
-        <v>46445</v>
+        <v>49653</v>
       </c>
       <c r="G82" s="2">
         <v>6</v>
       </c>
-      <c r="H82" s="3">
-        <v>46445</v>
-      </c>
-      <c r="I82" s="2">
-        <v>100</v>
+      <c r="H82" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J82" s="2">
-        <v>0.06</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K82" s="2">
         <v>100</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E83" s="3">
-        <v>45456</v>
+        <v>43671</v>
       </c>
       <c r="F83" s="3">
-        <v>46551</v>
+        <v>46228</v>
       </c>
       <c r="G83" s="2">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+      <c r="H83" s="3">
+        <v>46228</v>
+      </c>
+      <c r="I83" s="2">
+        <v>100</v>
       </c>
       <c r="J83" s="2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K83" s="2">
         <v>100</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E84" s="3">
-        <v>45581</v>
+        <v>45349</v>
       </c>
       <c r="F84" s="3">
-        <v>48503</v>
+        <v>46445</v>
       </c>
       <c r="G84" s="2">
         <v>6</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>90</v>
+      <c r="H84" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I84" s="2">
+        <v>100</v>
       </c>
       <c r="J84" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K84" s="2">
         <v>100</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="3">
+        <v>45456</v>
+      </c>
+      <c r="F85" s="3">
+        <v>46551</v>
+      </c>
+      <c r="G85" s="2">
+        <v>3</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="3">
-        <v>45618</v>
-      </c>
-      <c r="F85" s="3">
-        <v>46348</v>
-      </c>
-      <c r="G85" s="2">
-        <v>6</v>
-      </c>
-      <c r="H85" s="3">
-        <v>46348</v>
-      </c>
-      <c r="I85" s="2">
-        <v>100</v>
+      <c r="I85" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="J85" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K85" s="2">
         <v>100</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E86" s="3">
-        <v>45618</v>
+        <v>45581</v>
       </c>
       <c r="F86" s="3">
-        <v>47079</v>
+        <v>48503</v>
       </c>
       <c r="G86" s="2">
-        <v>3</v>
-      </c>
-      <c r="H86" s="3">
-        <v>47079</v>
-      </c>
-      <c r="I86" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J86" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K86" s="2">
         <v>100</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
@@ -4717,36 +4732,36 @@
         <v>13</v>
       </c>
       <c r="E87" s="3">
-        <v>45797</v>
+        <v>45618</v>
       </c>
       <c r="F87" s="3">
-        <v>46527</v>
+        <v>46348</v>
       </c>
       <c r="G87" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H87" s="3">
-        <v>46527</v>
+        <v>46348</v>
       </c>
       <c r="I87" s="2">
         <v>100</v>
       </c>
       <c r="J87" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="K87" s="2">
         <v>100</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -4755,36 +4770,36 @@
         <v>13</v>
       </c>
       <c r="E88" s="3">
-        <v>45090</v>
+        <v>45618</v>
       </c>
       <c r="F88" s="3">
-        <v>46066</v>
+        <v>47079</v>
       </c>
       <c r="G88" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H88" s="3">
-        <v>46066</v>
+        <v>47079</v>
       </c>
       <c r="I88" s="2">
         <v>100</v>
       </c>
       <c r="J88" s="2">
-        <v>0.05</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K88" s="2">
         <v>100</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -4793,36 +4808,36 @@
         <v>13</v>
       </c>
       <c r="E89" s="3">
-        <v>45624</v>
+        <v>45797</v>
       </c>
       <c r="F89" s="3">
-        <v>46170</v>
+        <v>46527</v>
       </c>
       <c r="G89" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>46170</v>
+        <v>46527</v>
       </c>
       <c r="I89" s="2">
         <v>100</v>
       </c>
       <c r="J89" s="2">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K89" s="2">
         <v>100</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -4831,36 +4846,36 @@
         <v>13</v>
       </c>
       <c r="E90" s="3">
-        <v>45715</v>
+        <v>45090</v>
       </c>
       <c r="F90" s="3">
-        <v>46445</v>
+        <v>46066</v>
       </c>
       <c r="G90" s="2">
         <v>6</v>
       </c>
       <c r="H90" s="3">
-        <v>46445</v>
+        <v>46066</v>
       </c>
       <c r="I90" s="2">
         <v>100</v>
       </c>
       <c r="J90" s="2">
-        <v>6.25E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K90" s="2">
         <v>100</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -4869,36 +4884,36 @@
         <v>13</v>
       </c>
       <c r="E91" s="3">
-        <v>45784</v>
+        <v>45624</v>
       </c>
       <c r="F91" s="3">
-        <v>46514</v>
+        <v>46170</v>
       </c>
       <c r="G91" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H91" s="3">
-        <v>46514</v>
+        <v>46170</v>
       </c>
       <c r="I91" s="2">
         <v>100</v>
       </c>
       <c r="J91" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K91" s="2">
         <v>100</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -4907,74 +4922,74 @@
         <v>13</v>
       </c>
       <c r="E92" s="3">
-        <v>45860</v>
+        <v>45715</v>
       </c>
       <c r="F92" s="3">
-        <v>46590</v>
+        <v>46445</v>
       </c>
       <c r="G92" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H92" s="3">
-        <v>46590</v>
+        <v>46445</v>
       </c>
       <c r="I92" s="2">
         <v>100</v>
       </c>
       <c r="J92" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K92" s="2">
         <v>100</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E93" s="3">
-        <v>44239</v>
+        <v>45784</v>
       </c>
       <c r="F93" s="3">
-        <v>47299</v>
+        <v>46514</v>
       </c>
       <c r="G93" s="2">
-        <v>6</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="H93" s="3">
+        <v>46514</v>
+      </c>
+      <c r="I93" s="2">
+        <v>100</v>
       </c>
       <c r="J93" s="2">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K93" s="2">
         <v>100</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -4983,184 +4998,260 @@
         <v>13</v>
       </c>
       <c r="E94" s="3">
-        <v>45575</v>
+        <v>45860</v>
       </c>
       <c r="F94" s="3">
-        <v>47036</v>
+        <v>46590</v>
       </c>
       <c r="G94" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>47036</v>
+        <v>46590</v>
       </c>
       <c r="I94" s="2">
         <v>100</v>
       </c>
       <c r="J94" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K94" s="2">
         <v>100</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E95" s="3">
-        <v>45860</v>
+        <v>44239</v>
       </c>
       <c r="F95" s="3">
-        <v>47686</v>
+        <v>47299</v>
       </c>
       <c r="G95" s="2">
         <v>6</v>
       </c>
-      <c r="H95" s="3">
-        <v>47686</v>
-      </c>
-      <c r="I95" s="2">
-        <v>100</v>
+      <c r="H95" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="J95" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K95" s="2">
         <v>100</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E96" s="3">
-        <v>47372</v>
+        <v>45575</v>
       </c>
       <c r="F96" s="3">
-        <v>48102</v>
+        <v>47036</v>
       </c>
       <c r="G96" s="2">
         <v>6</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>90</v>
+      <c r="H96" s="3">
+        <v>47036</v>
+      </c>
+      <c r="I96" s="2">
+        <v>100</v>
       </c>
       <c r="J96" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K96" s="2">
         <v>100</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E97" s="3">
-        <v>45674</v>
+        <v>45860</v>
       </c>
       <c r="F97" s="3">
-        <v>48961</v>
+        <v>47686</v>
       </c>
       <c r="G97" s="2">
         <v>6</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>90</v>
+      <c r="H97" s="3">
+        <v>47686</v>
+      </c>
+      <c r="I97" s="2">
+        <v>100</v>
       </c>
       <c r="J97" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K97" s="2">
         <v>100</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="E98" s="3">
+        <v>47372</v>
+      </c>
+      <c r="F98" s="3">
+        <v>48102</v>
+      </c>
+      <c r="G98" s="2">
+        <v>6</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J98" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K98" s="2">
+        <v>100</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F99" s="3">
+        <v>48961</v>
+      </c>
+      <c r="G99" s="2">
+        <v>6</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J99" s="2">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K99" s="2">
+        <v>100</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100" s="3">
         <v>45199</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F100" s="3">
         <v>48852</v>
       </c>
-      <c r="G98" s="2">
-        <v>6</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J98" s="2">
+      <c r="G100" s="2">
+        <v>6</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J100" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K98" s="2">
-        <v>100</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>115</v>
+      <c r="K100" s="2">
+        <v>100</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCCD771-AED7-4F89-B293-B56DFF7F7F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1676419-1889-4F4C-A26A-606E74C9C48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$100</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="191029" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -1074,49 +1074,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Millares" xfId="42" builtinId="3"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,9 +1132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1172,7 +1172,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1278,7 +1278,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1420,7 +1420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1431,13 +1431,13 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="2" width="26.25" style="1" bestFit="1" customWidth="1"/>
@@ -1450,7 +1450,7 @@
     <col min="13" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>175</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>170</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>178</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>120</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>123</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>127</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>124</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>133</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>136</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>134</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>180</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>172</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>46942</v>
       </c>
       <c r="G31" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H31" s="3">
         <v>46942</v>
@@ -2628,7 +2628,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>143</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>144</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>145</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>146</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>177</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>164</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>165</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>148</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>149</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>45</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>47</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>48</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>49</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>50</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>51</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>52</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>53</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>55</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>56</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>57</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>90</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>181</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>161</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>162</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>58</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>60</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>61</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>62</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>63</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>65</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>66</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>67</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>68</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>138</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>70</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>72</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>73</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>74</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>75</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>150</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>151</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>152</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>153</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>154</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>155</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>156</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>77</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>78</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>79</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>80</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>81</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>82</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>83</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>84</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>85</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>86</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>87</v>
       </c>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1676419-1889-4F4C-A26A-606E74C9C48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F6EE3-E33E-4E43-9B44-345840FF77C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1434,7 +1434,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F6EE3-E33E-4E43-9B44-345840FF77C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0E830-F984-400A-B5C7-1370C67F8913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$102</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="192">
   <si>
     <t>name</t>
   </si>
@@ -584,6 +584,21 @@
   </si>
   <si>
     <t>NY</t>
+  </si>
+  <si>
+    <t>CAC5D</t>
+  </si>
+  <si>
+    <t>CAC8D</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>25/2/2025;25/8/2025;25/2/2026;25/8/2026;25/2/2027;25/8/2027;25/2/2028;25/8/2029</t>
+  </si>
+  <si>
+    <t>12,5;12,5;12,5;12,5;12,5;12,5;12,5;12,5</t>
   </si>
 </sst>
 </file>
@@ -1074,49 +1089,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="42" builtinId="3"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="42" builtinId="3"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,9 +1147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1172,7 +1187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1278,7 +1293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1420,7 +1435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1428,16 +1443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="2" width="26.25" style="1" bestFit="1" customWidth="1"/>
@@ -1450,7 +1465,7 @@
     <col min="13" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1503,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
@@ -1526,7 +1541,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>175</v>
       </c>
@@ -1564,7 +1579,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>170</v>
       </c>
@@ -1602,7 +1617,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -1640,7 +1655,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>178</v>
       </c>
@@ -1678,7 +1693,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>120</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>123</v>
       </c>
@@ -1754,7 +1769,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>127</v>
       </c>
@@ -1792,7 +1807,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>124</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
@@ -1868,7 +1883,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1906,7 +1921,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -1944,74 +1959,74 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E14" s="3">
-        <v>45709</v>
+        <v>45163</v>
       </c>
       <c r="F14" s="3">
-        <v>46439</v>
+        <v>46990</v>
       </c>
       <c r="G14" s="2">
         <v>6</v>
       </c>
-      <c r="H14" s="3">
-        <v>46439</v>
-      </c>
-      <c r="I14" s="2">
-        <v>100</v>
+      <c r="H14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="J14" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="K14" s="2">
         <v>100</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="3">
-        <v>45183</v>
+        <v>45411</v>
       </c>
       <c r="F15" s="3">
-        <v>46095</v>
+        <v>46202</v>
       </c>
       <c r="G15" s="2">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3">
-        <v>46095</v>
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>46202</v>
       </c>
       <c r="I15" s="2">
         <v>100</v>
       </c>
       <c r="J15" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="K15" s="2">
         <v>100</v>
@@ -2020,123 +2035,123 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45709</v>
+      </c>
+      <c r="F16" s="3">
+        <v>46439</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6</v>
+      </c>
+      <c r="H16" s="3">
+        <v>46439</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>100</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45183</v>
+      </c>
+      <c r="F17" s="3">
+        <v>46095</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>46095</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+      <c r="J17" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>100</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E18" s="3">
         <v>45216</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F18" s="3">
         <v>45947</v>
       </c>
-      <c r="G16" s="2">
-        <v>6</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G18" s="2">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3">
         <v>45947</v>
       </c>
-      <c r="I16" s="2">
-        <v>100</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+      <c r="J18" s="2">
         <v>0.1</v>
       </c>
-      <c r="K16" s="2">
-        <v>100</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="K18" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3">
-        <v>44750</v>
-      </c>
-      <c r="F17" s="3">
-        <v>46084</v>
-      </c>
-      <c r="G17" s="2">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3">
-        <v>46084</v>
-      </c>
-      <c r="I17" s="2">
-        <v>100</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="K17" s="2">
-        <v>100</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45308</v>
-      </c>
-      <c r="F18" s="3">
-        <v>46404</v>
-      </c>
-      <c r="G18" s="2">
-        <v>6</v>
-      </c>
-      <c r="H18" s="3">
-        <v>46404</v>
-      </c>
-      <c r="I18" s="2">
-        <v>100</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="K18" s="2">
-        <v>100</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -2148,136 +2163,136 @@
         <v>13</v>
       </c>
       <c r="E19" s="3">
+        <v>44750</v>
+      </c>
+      <c r="F19" s="3">
+        <v>46084</v>
+      </c>
+      <c r="G19" s="2">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>46084</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="K19" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45308</v>
+      </c>
+      <c r="F20" s="3">
+        <v>46404</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>46404</v>
+      </c>
+      <c r="I20" s="2">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K20" s="2">
+        <v>100</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3">
         <v>45611</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F21" s="3">
         <v>47072</v>
       </c>
-      <c r="G19" s="2">
-        <v>6</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G21" s="2">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
         <v>47072</v>
       </c>
-      <c r="I19" s="2">
-        <v>100</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I21" s="2">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K19" s="2">
-        <v>100</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="K21" s="2">
+        <v>100</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45876</v>
-      </c>
-      <c r="F20" s="3">
-        <v>46241</v>
-      </c>
-      <c r="G20" s="2">
-        <v>6</v>
-      </c>
-      <c r="H20" s="3">
-        <v>46241</v>
-      </c>
-      <c r="I20" s="2">
-        <v>100</v>
-      </c>
-      <c r="J20" s="2">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K20" s="2">
-        <v>100</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45358</v>
-      </c>
-      <c r="F21" s="3">
-        <v>46348</v>
-      </c>
-      <c r="G21" s="2">
-        <v>6</v>
-      </c>
-      <c r="H21" s="3">
-        <v>46348</v>
-      </c>
-      <c r="I21" s="2">
-        <v>100</v>
-      </c>
-      <c r="J21" s="2">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="K21" s="2">
-        <v>100</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="3">
-        <v>45509</v>
+        <v>45876</v>
       </c>
       <c r="F22" s="3">
-        <v>46970</v>
+        <v>46241</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
       </c>
       <c r="H22" s="3">
-        <v>46970</v>
+        <v>46241</v>
       </c>
       <c r="I22" s="2">
         <v>100</v>
       </c>
       <c r="J22" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K22" s="2">
         <v>100</v>
@@ -2286,33 +2301,33 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E23" s="3">
-        <v>45589</v>
+        <v>45358</v>
       </c>
       <c r="F23" s="3">
-        <v>47780</v>
+        <v>46348</v>
       </c>
       <c r="G23" s="2">
         <v>6</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>89</v>
+      <c r="H23" s="3">
+        <v>46348</v>
+      </c>
+      <c r="I23" s="2">
+        <v>100</v>
       </c>
       <c r="J23" s="2">
         <v>9.7500000000000003E-2</v>
@@ -2324,112 +2339,112 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45509</v>
+      </c>
+      <c r="F24" s="3">
+        <v>46970</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6</v>
+      </c>
+      <c r="H24" s="3">
+        <v>46970</v>
+      </c>
+      <c r="I24" s="2">
+        <v>100</v>
+      </c>
+      <c r="J24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>100</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45589</v>
+      </c>
+      <c r="F25" s="3">
+        <v>47780</v>
+      </c>
+      <c r="G25" s="2">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="2">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>100</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="3">
-        <v>44441</v>
-      </c>
-      <c r="F24" s="3">
-        <v>46632</v>
-      </c>
-      <c r="G24" s="2">
-        <v>6</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="2">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="K24" s="2">
-        <v>100</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45721</v>
-      </c>
-      <c r="F25" s="3">
-        <v>46817</v>
-      </c>
-      <c r="G25" s="2">
-        <v>6</v>
-      </c>
-      <c r="H25" s="3">
-        <v>46817</v>
-      </c>
-      <c r="I25" s="2">
-        <v>100</v>
-      </c>
-      <c r="J25" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K25" s="2">
-        <v>100</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E26" s="3">
-        <v>45582</v>
+        <v>44441</v>
       </c>
       <c r="F26" s="3">
-        <v>47043</v>
+        <v>46632</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="3">
-        <v>47043</v>
-      </c>
-      <c r="I26" s="2">
-        <v>100</v>
+      <c r="H26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="J26" s="2">
-        <v>0.06</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K26" s="2">
         <v>100</v>
@@ -2438,112 +2453,112 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45721</v>
+      </c>
+      <c r="F27" s="3">
+        <v>46817</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3">
+        <v>46817</v>
+      </c>
+      <c r="I27" s="2">
+        <v>100</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K27" s="2">
+        <v>100</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45582</v>
+      </c>
+      <c r="F28" s="3">
+        <v>47043</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3">
+        <v>47043</v>
+      </c>
+      <c r="I28" s="2">
+        <v>100</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K28" s="2">
+        <v>100</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="3">
-        <v>45575</v>
-      </c>
-      <c r="F27" s="3">
-        <v>47036</v>
-      </c>
-      <c r="G27" s="2">
-        <v>6</v>
-      </c>
-      <c r="H27" s="3">
-        <v>47036</v>
-      </c>
-      <c r="I27" s="2">
-        <v>100</v>
-      </c>
-      <c r="J27" s="2">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="K27" s="2">
-        <v>100</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="3">
-        <v>45883</v>
-      </c>
-      <c r="F28" s="3">
-        <v>46265</v>
-      </c>
-      <c r="G28" s="2">
-        <v>6</v>
-      </c>
-      <c r="H28" s="3">
-        <v>46265</v>
-      </c>
-      <c r="I28" s="2">
-        <v>100</v>
-      </c>
-      <c r="J28" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K28" s="2">
-        <v>100</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E29" s="3">
-        <v>45804</v>
+        <v>45575</v>
       </c>
       <c r="F29" s="3">
-        <v>46021</v>
+        <v>47036</v>
       </c>
       <c r="G29" s="2">
         <v>6</v>
       </c>
       <c r="H29" s="3">
-        <v>46021</v>
+        <v>47036</v>
       </c>
       <c r="I29" s="2">
         <v>100</v>
       </c>
       <c r="J29" s="2">
-        <v>0.04</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="K29" s="2">
         <v>100</v>
@@ -2552,199 +2567,199 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F30" s="3">
+        <v>46265</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6</v>
+      </c>
+      <c r="H30" s="3">
+        <v>46265</v>
+      </c>
+      <c r="I30" s="2">
+        <v>100</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>100</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45804</v>
+      </c>
+      <c r="F31" s="3">
+        <v>46021</v>
+      </c>
+      <c r="G31" s="2">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>46021</v>
+      </c>
+      <c r="I31" s="2">
+        <v>100</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="K31" s="2">
+        <v>100</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="3">
         <v>45785</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F32" s="3">
         <v>45989</v>
       </c>
-      <c r="G30" s="2">
-        <v>6</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G32" s="2">
+        <v>6</v>
+      </c>
+      <c r="H32" s="3">
         <v>45989</v>
       </c>
-      <c r="I30" s="2">
-        <v>100</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="I32" s="2">
+        <v>100</v>
+      </c>
+      <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="2">
-        <v>100</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="K32" s="2">
+        <v>100</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3">
         <v>45846</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F33" s="3">
         <v>46942</v>
       </c>
-      <c r="G31" s="2">
-        <v>3</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G33" s="2">
+        <v>6</v>
+      </c>
+      <c r="H33" s="3">
         <v>46942</v>
       </c>
-      <c r="I31" s="2">
-        <v>100</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I33" s="2">
+        <v>100</v>
+      </c>
+      <c r="J33" s="2">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K31" s="2">
-        <v>100</v>
-      </c>
-      <c r="L31" s="2" t="s">
+      <c r="K33" s="2">
+        <v>100</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="3">
         <v>45891</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F34" s="3">
         <v>46256</v>
       </c>
-      <c r="G32" s="2">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G34" s="2">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3">
         <v>46256</v>
       </c>
-      <c r="I32" s="2">
-        <v>100</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="I34" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K32" s="2">
-        <v>100</v>
-      </c>
-      <c r="L32" s="2" t="s">
+      <c r="K34" s="2">
+        <v>100</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="3">
-        <v>45084</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45998</v>
-      </c>
-      <c r="G33" s="2">
-        <v>6</v>
-      </c>
-      <c r="H33" s="3">
-        <v>45998</v>
-      </c>
-      <c r="I33" s="2">
-        <v>100</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K33" s="2">
-        <v>100</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="3">
-        <v>45453</v>
-      </c>
-      <c r="F34" s="3">
-        <v>46183</v>
-      </c>
-      <c r="G34" s="2">
-        <v>6</v>
-      </c>
-      <c r="H34" s="3">
-        <v>46183</v>
-      </c>
-      <c r="I34" s="2">
-        <v>100</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="K34" s="2">
-        <v>100</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -2756,22 +2771,22 @@
         <v>13</v>
       </c>
       <c r="E35" s="3">
-        <v>45350</v>
+        <v>45084</v>
       </c>
       <c r="F35" s="3">
-        <v>46446</v>
+        <v>45998</v>
       </c>
       <c r="G35" s="2">
         <v>6</v>
       </c>
       <c r="H35" s="3">
-        <v>46446</v>
+        <v>45998</v>
       </c>
       <c r="I35" s="2">
         <v>100</v>
       </c>
       <c r="J35" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K35" s="2">
         <v>100</v>
@@ -2780,36 +2795,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E36" s="3">
-        <v>44720</v>
+        <v>45453</v>
       </c>
       <c r="F36" s="3">
-        <v>46926</v>
+        <v>46183</v>
       </c>
       <c r="G36" s="2">
         <v>6</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>97</v>
+      <c r="H36" s="3">
+        <v>46183</v>
+      </c>
+      <c r="I36" s="2">
+        <v>100</v>
       </c>
       <c r="J36" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K36" s="2">
         <v>100</v>
@@ -2818,9 +2833,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
@@ -2832,22 +2847,22 @@
         <v>13</v>
       </c>
       <c r="E37" s="3">
-        <v>45588</v>
+        <v>45350</v>
       </c>
       <c r="F37" s="3">
-        <v>46683</v>
+        <v>46446</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
       </c>
       <c r="H37" s="3">
-        <v>46683</v>
+        <v>46446</v>
       </c>
       <c r="I37" s="2">
         <v>100</v>
       </c>
       <c r="J37" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K37" s="2">
         <v>100</v>
@@ -2856,9 +2871,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>34</v>
@@ -2870,22 +2885,22 @@
         <v>186</v>
       </c>
       <c r="E38" s="3">
-        <v>45747</v>
+        <v>44720</v>
       </c>
       <c r="F38" s="3">
-        <v>49399</v>
+        <v>46926</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J38" s="2">
-        <v>0.08</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K38" s="2">
         <v>100</v>
@@ -2894,9 +2909,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>34</v>
@@ -2911,106 +2926,106 @@
         <v>45588</v>
       </c>
       <c r="F39" s="3">
+        <v>46683</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6</v>
+      </c>
+      <c r="H39" s="3">
+        <v>46683</v>
+      </c>
+      <c r="I39" s="2">
+        <v>100</v>
+      </c>
+      <c r="J39" s="2">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>100</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45747</v>
+      </c>
+      <c r="F40" s="3">
+        <v>49399</v>
+      </c>
+      <c r="G40" s="2">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="K40" s="2">
+        <v>100</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45588</v>
+      </c>
+      <c r="F41" s="3">
         <v>47414</v>
       </c>
-      <c r="G39" s="2">
-        <v>6</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="G41" s="2">
+        <v>6</v>
+      </c>
+      <c r="H41" s="3">
         <v>47414</v>
       </c>
-      <c r="I39" s="2">
-        <v>100</v>
-      </c>
-      <c r="J39" s="2">
+      <c r="I41" s="2">
+        <v>100</v>
+      </c>
+      <c r="J41" s="2">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="K39" s="2">
-        <v>100</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="K41" s="2">
+        <v>100</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="3">
-        <v>45586</v>
-      </c>
-      <c r="F40" s="3">
-        <v>46316</v>
-      </c>
-      <c r="G40" s="2">
-        <v>6</v>
-      </c>
-      <c r="H40" s="3">
-        <v>46316</v>
-      </c>
-      <c r="I40" s="2">
-        <v>100</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K40" s="2">
-        <v>100</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="3">
-        <v>45586</v>
-      </c>
-      <c r="F41" s="3">
-        <v>47047</v>
-      </c>
-      <c r="G41" s="2">
-        <v>6</v>
-      </c>
-      <c r="H41" s="3">
-        <v>47047</v>
-      </c>
-      <c r="I41" s="2">
-        <v>100</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="K41" s="2">
-        <v>100</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>141</v>
@@ -3022,22 +3037,22 @@
         <v>13</v>
       </c>
       <c r="E42" s="3">
-        <v>45674</v>
+        <v>45586</v>
       </c>
       <c r="F42" s="3">
-        <v>46769</v>
+        <v>46316</v>
       </c>
       <c r="G42" s="2">
         <v>6</v>
       </c>
       <c r="H42" s="3">
-        <v>46769</v>
+        <v>46316</v>
       </c>
       <c r="I42" s="2">
         <v>100</v>
       </c>
       <c r="J42" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K42" s="2">
         <v>100</v>
@@ -3046,9 +3061,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>141</v>
@@ -3060,22 +3075,22 @@
         <v>13</v>
       </c>
       <c r="E43" s="3">
-        <v>45804</v>
+        <v>45586</v>
       </c>
       <c r="F43" s="3">
-        <v>46534</v>
+        <v>47047</v>
       </c>
       <c r="G43" s="2">
         <v>6</v>
       </c>
       <c r="H43" s="3">
-        <v>46534</v>
+        <v>47047</v>
       </c>
       <c r="I43" s="2">
         <v>100</v>
       </c>
       <c r="J43" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K43" s="2">
         <v>100</v>
@@ -3084,9 +3099,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>141</v>
@@ -3098,22 +3113,22 @@
         <v>13</v>
       </c>
       <c r="E44" s="3">
-        <v>45863</v>
+        <v>45674</v>
       </c>
       <c r="F44" s="3">
-        <v>46593</v>
+        <v>46769</v>
       </c>
       <c r="G44" s="2">
         <v>6</v>
       </c>
       <c r="H44" s="3">
-        <v>46593</v>
+        <v>46769</v>
       </c>
       <c r="I44" s="2">
         <v>100</v>
       </c>
       <c r="J44" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K44" s="2">
         <v>100</v>
@@ -3122,85 +3137,85 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45804</v>
+      </c>
+      <c r="F45" s="3">
+        <v>46534</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6</v>
+      </c>
+      <c r="H45" s="3">
+        <v>46534</v>
+      </c>
+      <c r="I45" s="2">
+        <v>100</v>
+      </c>
+      <c r="J45" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K45" s="2">
+        <v>100</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45863</v>
+      </c>
+      <c r="F46" s="3">
+        <v>46593</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3">
+        <v>46593</v>
+      </c>
+      <c r="I46" s="2">
+        <v>100</v>
+      </c>
+      <c r="J46" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K46" s="2">
+        <v>100</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="3">
-        <v>45098</v>
-      </c>
-      <c r="F45" s="3">
-        <v>46012</v>
-      </c>
-      <c r="G45" s="2">
-        <v>6</v>
-      </c>
-      <c r="H45" s="3">
-        <v>46012</v>
-      </c>
-      <c r="I45" s="2">
-        <v>100</v>
-      </c>
-      <c r="J45" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K45" s="2">
-        <v>100</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="3">
-        <v>45180</v>
-      </c>
-      <c r="F46" s="3">
-        <v>46092</v>
-      </c>
-      <c r="G46" s="2">
-        <v>6</v>
-      </c>
-      <c r="H46" s="3">
-        <v>46092</v>
-      </c>
-      <c r="I46" s="2">
-        <v>100</v>
-      </c>
-      <c r="J46" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K46" s="2">
-        <v>100</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>42</v>
@@ -3212,112 +3227,112 @@
         <v>13</v>
       </c>
       <c r="E47" s="3">
+        <v>45098</v>
+      </c>
+      <c r="F47" s="3">
+        <v>46012</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6</v>
+      </c>
+      <c r="H47" s="3">
+        <v>46012</v>
+      </c>
+      <c r="I47" s="2">
+        <v>100</v>
+      </c>
+      <c r="J47" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K47" s="2">
+        <v>100</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45180</v>
+      </c>
+      <c r="F48" s="3">
+        <v>46092</v>
+      </c>
+      <c r="G48" s="2">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3">
+        <v>46092</v>
+      </c>
+      <c r="I48" s="2">
+        <v>100</v>
+      </c>
+      <c r="J48" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K48" s="2">
+        <v>100</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="3">
         <v>45862</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F49" s="3">
         <v>46592</v>
       </c>
-      <c r="G47" s="2">
-        <v>6</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G49" s="2">
+        <v>6</v>
+      </c>
+      <c r="H49" s="3">
         <v>46592</v>
       </c>
-      <c r="I47" s="2">
-        <v>100</v>
-      </c>
-      <c r="J47" s="2">
+      <c r="I49" s="2">
+        <v>100</v>
+      </c>
+      <c r="J49" s="2">
         <v>0.08</v>
       </c>
-      <c r="K47" s="2">
-        <v>100</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+      <c r="K49" s="2">
+        <v>100</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="3">
-        <v>45831</v>
-      </c>
-      <c r="F48" s="3">
-        <v>47292</v>
-      </c>
-      <c r="G48" s="2">
-        <v>6</v>
-      </c>
-      <c r="H48" s="3">
-        <v>47292</v>
-      </c>
-      <c r="I48" s="2">
-        <v>100</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="K48" s="2">
-        <v>100</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="3">
-        <v>45363</v>
-      </c>
-      <c r="F49" s="3">
-        <v>46093</v>
-      </c>
-      <c r="G49" s="2">
-        <v>6</v>
-      </c>
-      <c r="H49" s="3">
-        <v>46093</v>
-      </c>
-      <c r="I49" s="2">
-        <v>100</v>
-      </c>
-      <c r="J49" s="2">
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="K49" s="2">
-        <v>100</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
@@ -3326,36 +3341,36 @@
         <v>186</v>
       </c>
       <c r="E50" s="3">
-        <v>45631</v>
+        <v>45831</v>
       </c>
       <c r="F50" s="3">
-        <v>47822</v>
+        <v>47292</v>
       </c>
       <c r="G50" s="2">
         <v>6</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>167</v>
+      <c r="H50" s="3">
+        <v>47292</v>
+      </c>
+      <c r="I50" s="2">
+        <v>100</v>
       </c>
       <c r="J50" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K50" s="2">
         <v>100</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -3364,22 +3379,22 @@
         <v>13</v>
       </c>
       <c r="E51" s="3">
-        <v>45124</v>
+        <v>45363</v>
       </c>
       <c r="F51" s="3">
-        <v>46220</v>
+        <v>46093</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
       </c>
       <c r="H51" s="3">
-        <v>46220</v>
+        <v>46093</v>
       </c>
       <c r="I51" s="2">
         <v>100</v>
       </c>
       <c r="J51" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K51" s="2">
         <v>100</v>
@@ -3388,36 +3403,36 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E52" s="3">
-        <v>45496</v>
+        <v>45631</v>
       </c>
       <c r="F52" s="3">
-        <v>46591</v>
+        <v>47822</v>
       </c>
       <c r="G52" s="2">
         <v>6</v>
       </c>
-      <c r="H52" s="3">
-        <v>46591</v>
-      </c>
-      <c r="I52" s="2">
-        <v>100</v>
+      <c r="H52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="J52" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K52" s="2">
         <v>100</v>
@@ -3426,12 +3441,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -3440,16 +3455,16 @@
         <v>13</v>
       </c>
       <c r="E53" s="3">
-        <v>45699</v>
+        <v>45124</v>
       </c>
       <c r="F53" s="3">
-        <v>46610</v>
+        <v>46220</v>
       </c>
       <c r="G53" s="2">
         <v>6</v>
       </c>
       <c r="H53" s="3">
-        <v>46610</v>
+        <v>46220</v>
       </c>
       <c r="I53" s="2">
         <v>100</v>
@@ -3461,15 +3476,15 @@
         <v>100</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
@@ -3478,33 +3493,33 @@
         <v>13</v>
       </c>
       <c r="E54" s="3">
-        <v>45562</v>
+        <v>45496</v>
       </c>
       <c r="F54" s="3">
-        <v>47388</v>
+        <v>46591</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
       </c>
       <c r="H54" s="3">
-        <v>47388</v>
+        <v>46591</v>
       </c>
       <c r="I54" s="2">
         <v>100</v>
       </c>
       <c r="J54" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K54" s="2">
         <v>100</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>46</v>
@@ -3516,22 +3531,22 @@
         <v>13</v>
       </c>
       <c r="E55" s="3">
-        <v>45562</v>
+        <v>45699</v>
       </c>
       <c r="F55" s="3">
-        <v>46657</v>
+        <v>46610</v>
       </c>
       <c r="G55" s="2">
         <v>6</v>
       </c>
       <c r="H55" s="3">
-        <v>46657</v>
+        <v>46610</v>
       </c>
       <c r="I55" s="2">
         <v>100</v>
       </c>
       <c r="J55" s="2">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K55" s="2">
         <v>100</v>
@@ -3540,9 +3555,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>46</v>
@@ -3554,22 +3569,22 @@
         <v>13</v>
       </c>
       <c r="E56" s="3">
-        <v>45609</v>
+        <v>45562</v>
       </c>
       <c r="F56" s="3">
-        <v>48165</v>
+        <v>47388</v>
       </c>
       <c r="G56" s="2">
         <v>6</v>
       </c>
       <c r="H56" s="3">
-        <v>48165</v>
+        <v>47388</v>
       </c>
       <c r="I56" s="2">
         <v>100</v>
       </c>
       <c r="J56" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K56" s="2">
         <v>100</v>
@@ -3578,9 +3593,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>46</v>
@@ -3592,22 +3607,22 @@
         <v>13</v>
       </c>
       <c r="E57" s="3">
-        <v>45609</v>
+        <v>45562</v>
       </c>
       <c r="F57" s="3">
-        <v>47070</v>
+        <v>46657</v>
       </c>
       <c r="G57" s="2">
         <v>6</v>
       </c>
       <c r="H57" s="3">
-        <v>47070</v>
+        <v>46657</v>
       </c>
       <c r="I57" s="2">
         <v>100</v>
       </c>
       <c r="J57" s="2">
-        <v>6.25E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K57" s="2">
         <v>100</v>
@@ -3616,9 +3631,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>46</v>
@@ -3630,22 +3645,22 @@
         <v>13</v>
       </c>
       <c r="E58" s="3">
-        <v>44316</v>
+        <v>45609</v>
       </c>
       <c r="F58" s="3">
-        <v>46507</v>
+        <v>48165</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="H58" s="3">
+        <v>48165</v>
+      </c>
+      <c r="I58" s="2">
         <v>100</v>
       </c>
       <c r="J58" s="2">
-        <v>9.1249999999999998E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K58" s="2">
         <v>100</v>
@@ -3654,9 +3669,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>46</v>
@@ -3668,136 +3683,136 @@
         <v>13</v>
       </c>
       <c r="E59" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F59" s="3">
+        <v>47070</v>
+      </c>
+      <c r="G59" s="2">
+        <v>6</v>
+      </c>
+      <c r="H59" s="3">
+        <v>47070</v>
+      </c>
+      <c r="I59" s="2">
+        <v>100</v>
+      </c>
+      <c r="J59" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K59" s="2">
+        <v>100</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44316</v>
+      </c>
+      <c r="F60" s="3">
+        <v>46507</v>
+      </c>
+      <c r="G60" s="2">
+        <v>6</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J60" s="2">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="K60" s="2">
+        <v>100</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3">
         <v>45412</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F61" s="3">
         <v>48334</v>
       </c>
-      <c r="G59" s="2">
-        <v>6</v>
-      </c>
-      <c r="H59" s="3" t="s">
+      <c r="G61" s="2">
+        <v>6</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J61" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K59" s="2">
-        <v>100</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+      <c r="K61" s="2">
+        <v>100</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="3">
-        <v>45569</v>
-      </c>
-      <c r="F60" s="3">
-        <v>47030</v>
-      </c>
-      <c r="G60" s="2">
-        <v>6</v>
-      </c>
-      <c r="H60" s="3">
-        <v>47030</v>
-      </c>
-      <c r="I60" s="2">
-        <v>100</v>
-      </c>
-      <c r="J60" s="2">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="K60" s="2">
-        <v>100</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="3">
-        <v>45050</v>
-      </c>
-      <c r="F61" s="3">
-        <v>45965</v>
-      </c>
-      <c r="G61" s="2">
-        <v>6</v>
-      </c>
-      <c r="H61" s="3">
-        <v>45965</v>
-      </c>
-      <c r="I61" s="2">
-        <v>100</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K61" s="2">
-        <v>100</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E62" s="3">
-        <v>45545</v>
+        <v>45569</v>
       </c>
       <c r="F62" s="3">
-        <v>48101</v>
+        <v>47030</v>
       </c>
       <c r="G62" s="2">
         <v>6</v>
       </c>
       <c r="H62" s="3">
-        <v>48101</v>
+        <v>47030</v>
       </c>
       <c r="I62" s="2">
         <v>100</v>
       </c>
       <c r="J62" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K62" s="2">
         <v>100</v>
@@ -3806,36 +3821,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E63" s="3">
-        <v>45642</v>
+        <v>45050</v>
       </c>
       <c r="F63" s="3">
-        <v>49294</v>
+        <v>45965</v>
       </c>
       <c r="G63" s="2">
         <v>6</v>
       </c>
       <c r="H63" s="3">
-        <v>49294</v>
+        <v>45965</v>
       </c>
       <c r="I63" s="2">
         <v>100</v>
       </c>
       <c r="J63" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K63" s="2">
         <v>100</v>
@@ -3844,9 +3859,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>54</v>
@@ -3858,22 +3873,22 @@
         <v>186</v>
       </c>
       <c r="E64" s="3">
-        <v>44903</v>
+        <v>45545</v>
       </c>
       <c r="F64" s="3">
-        <v>46364</v>
+        <v>48101</v>
       </c>
       <c r="G64" s="2">
         <v>6</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>89</v>
+      <c r="H64" s="3">
+        <v>48101</v>
+      </c>
+      <c r="I64" s="2">
+        <v>100</v>
       </c>
       <c r="J64" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K64" s="2">
         <v>100</v>
@@ -3882,12 +3897,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>18</v>
@@ -3896,185 +3911,185 @@
         <v>186</v>
       </c>
       <c r="E65" s="3">
+        <v>45642</v>
+      </c>
+      <c r="F65" s="3">
+        <v>49294</v>
+      </c>
+      <c r="G65" s="2">
+        <v>6</v>
+      </c>
+      <c r="H65" s="3">
+        <v>49294</v>
+      </c>
+      <c r="I65" s="2">
+        <v>100</v>
+      </c>
+      <c r="J65" s="2">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="K65" s="2">
+        <v>100</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44903</v>
+      </c>
+      <c r="F66" s="3">
+        <v>46364</v>
+      </c>
+      <c r="G66" s="2">
+        <v>6</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K66" s="2">
+        <v>100</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="3">
         <v>45838</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F67" s="3">
         <v>48364</v>
       </c>
-      <c r="G65" s="2">
-        <v>6</v>
-      </c>
-      <c r="H65" s="3">
+      <c r="G67" s="2">
+        <v>6</v>
+      </c>
+      <c r="H67" s="3">
         <v>48364</v>
       </c>
-      <c r="I65" s="2">
-        <v>100</v>
-      </c>
-      <c r="J65" s="2">
+      <c r="I67" s="2">
+        <v>100</v>
+      </c>
+      <c r="J67" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K65" s="2">
-        <v>100</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+      <c r="K67" s="2">
+        <v>100</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="3">
         <v>45412</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F68" s="3">
         <v>46507</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G68" s="2">
         <v>3</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H68" s="3">
         <v>46507</v>
       </c>
-      <c r="I66" s="2">
-        <v>100</v>
-      </c>
-      <c r="J66" s="2">
+      <c r="I68" s="2">
+        <v>100</v>
+      </c>
+      <c r="J68" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="K66" s="2">
-        <v>100</v>
-      </c>
-      <c r="L66" s="2" t="s">
+      <c r="K68" s="2">
+        <v>100</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="3">
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="3">
         <v>45622</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F69" s="3">
         <v>45989</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G69" s="2">
         <v>3</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J69" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="K67" s="2">
-        <v>100</v>
-      </c>
-      <c r="L67" s="2" t="s">
+      <c r="K69" s="2">
+        <v>100</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="3">
-        <v>45404</v>
-      </c>
-      <c r="F68" s="3">
-        <v>46134</v>
-      </c>
-      <c r="G68" s="2">
-        <v>6</v>
-      </c>
-      <c r="H68" s="3">
-        <v>46134</v>
-      </c>
-      <c r="I68" s="2">
-        <v>100</v>
-      </c>
-      <c r="J68" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="K68" s="2">
-        <v>100</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="3">
-        <v>45589</v>
-      </c>
-      <c r="F69" s="3">
-        <v>47415</v>
-      </c>
-      <c r="G69" s="2">
-        <v>6</v>
-      </c>
-      <c r="H69" s="3">
-        <v>47415</v>
-      </c>
-      <c r="I69" s="2">
-        <v>100</v>
-      </c>
-      <c r="J69" s="2">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K69" s="2">
-        <v>100</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>59</v>
@@ -4086,22 +4101,22 @@
         <v>13</v>
       </c>
       <c r="E70" s="3">
-        <v>45589</v>
+        <v>45404</v>
       </c>
       <c r="F70" s="3">
-        <v>46684</v>
+        <v>46134</v>
       </c>
       <c r="G70" s="2">
         <v>6</v>
       </c>
       <c r="H70" s="3">
-        <v>46684</v>
+        <v>46134</v>
       </c>
       <c r="I70" s="2">
         <v>100</v>
       </c>
       <c r="J70" s="2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="K70" s="2">
         <v>100</v>
@@ -4110,188 +4125,188 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="3">
+        <v>45589</v>
+      </c>
+      <c r="F71" s="3">
+        <v>47415</v>
+      </c>
+      <c r="G71" s="2">
+        <v>6</v>
+      </c>
+      <c r="H71" s="3">
+        <v>47415</v>
+      </c>
+      <c r="I71" s="2">
+        <v>100</v>
+      </c>
+      <c r="J71" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K71" s="2">
+        <v>100</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="3">
+        <v>45589</v>
+      </c>
+      <c r="F72" s="3">
+        <v>46684</v>
+      </c>
+      <c r="G72" s="2">
+        <v>6</v>
+      </c>
+      <c r="H72" s="3">
+        <v>46684</v>
+      </c>
+      <c r="I72" s="2">
+        <v>100</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K72" s="2">
+        <v>100</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E73" s="3">
         <v>45679</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F73" s="3">
         <v>48601</v>
       </c>
-      <c r="G71" s="2">
-        <v>6</v>
-      </c>
-      <c r="H71" s="3" t="s">
+      <c r="G73" s="2">
+        <v>6</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J73" s="2">
         <v>7.6249999999999998E-2</v>
       </c>
-      <c r="K71" s="2">
-        <v>100</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+      <c r="K73" s="2">
+        <v>100</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="3">
-        <v>45309</v>
-      </c>
-      <c r="F72" s="3">
-        <v>46221</v>
-      </c>
-      <c r="G72" s="2">
-        <v>6</v>
-      </c>
-      <c r="H72" s="3">
-        <v>46221</v>
-      </c>
-      <c r="I72" s="2">
-        <v>100</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="K72" s="2">
-        <v>100</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="3">
-        <v>45840</v>
-      </c>
-      <c r="F73" s="3">
-        <v>46570</v>
-      </c>
-      <c r="G73" s="2">
-        <v>3</v>
-      </c>
-      <c r="H73" s="3">
-        <v>46570</v>
-      </c>
-      <c r="I73" s="2">
-        <v>100</v>
-      </c>
-      <c r="J73" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K73" s="2">
-        <v>100</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E74" s="3">
-        <v>45624</v>
+        <v>45309</v>
       </c>
       <c r="F74" s="3">
-        <v>47085</v>
+        <v>46221</v>
       </c>
       <c r="G74" s="2">
         <v>6</v>
       </c>
       <c r="H74" s="3">
-        <v>47085</v>
+        <v>46221</v>
       </c>
       <c r="I74" s="2">
         <v>100</v>
       </c>
       <c r="J74" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K74" s="2">
         <v>100</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E75" s="3">
-        <v>45491</v>
+        <v>45840</v>
       </c>
       <c r="F75" s="3">
-        <v>48047</v>
+        <v>46570</v>
       </c>
       <c r="G75" s="2">
-        <v>6</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="H75" s="3">
+        <v>46570</v>
+      </c>
+      <c r="I75" s="2">
+        <v>100</v>
       </c>
       <c r="J75" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K75" s="2">
         <v>100</v>
@@ -4300,161 +4315,161 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45624</v>
+      </c>
+      <c r="F76" s="3">
+        <v>47085</v>
+      </c>
+      <c r="G76" s="2">
+        <v>6</v>
+      </c>
+      <c r="H76" s="3">
+        <v>47085</v>
+      </c>
+      <c r="I76" s="2">
+        <v>100</v>
+      </c>
+      <c r="J76" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K76" s="2">
+        <v>100</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E77" s="3">
+        <v>45491</v>
+      </c>
+      <c r="F77" s="3">
+        <v>48047</v>
+      </c>
+      <c r="G77" s="2">
+        <v>6</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J77" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K77" s="2">
+        <v>100</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E78" s="3">
         <v>45497</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F78" s="3">
         <v>48053</v>
       </c>
-      <c r="G76" s="2">
-        <v>6</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="G78" s="2">
+        <v>6</v>
+      </c>
+      <c r="H78" s="3">
         <v>48053</v>
       </c>
-      <c r="I76" s="2">
-        <v>100</v>
-      </c>
-      <c r="J76" s="2">
+      <c r="I78" s="2">
+        <v>100</v>
+      </c>
+      <c r="J78" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K76" s="2">
-        <v>100</v>
-      </c>
-      <c r="L76" s="2" t="s">
+      <c r="K78" s="2">
+        <v>100</v>
+      </c>
+      <c r="L78" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="3">
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="3">
         <v>45803</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F79" s="3">
         <v>45987</v>
       </c>
-      <c r="G77" s="2">
-        <v>6</v>
-      </c>
-      <c r="H77" s="3">
+      <c r="G79" s="2">
+        <v>6</v>
+      </c>
+      <c r="H79" s="3">
         <v>45987</v>
       </c>
-      <c r="I77" s="2">
-        <v>100</v>
-      </c>
-      <c r="J77" s="2">
+      <c r="I79" s="2">
+        <v>100</v>
+      </c>
+      <c r="J79" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K77" s="2">
-        <v>100</v>
-      </c>
-      <c r="L77" s="2" t="s">
+      <c r="K79" s="2">
+        <v>100</v>
+      </c>
+      <c r="L79" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="3">
-        <v>45415</v>
-      </c>
-      <c r="F78" s="3">
-        <v>47241</v>
-      </c>
-      <c r="G78" s="2">
-        <v>6</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J78" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="K78" s="2">
-        <v>100</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="3">
-        <v>45723</v>
-      </c>
-      <c r="F79" s="3">
-        <v>47549</v>
-      </c>
-      <c r="G79" s="2">
-        <v>6</v>
-      </c>
-      <c r="H79" s="3">
-        <v>47549</v>
-      </c>
-      <c r="I79" s="2">
-        <v>100</v>
-      </c>
-      <c r="J79" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K79" s="2">
-        <v>100</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>71</v>
@@ -4466,22 +4481,22 @@
         <v>13</v>
       </c>
       <c r="E80" s="3">
-        <v>45575</v>
+        <v>45415</v>
       </c>
       <c r="F80" s="3">
-        <v>48131</v>
+        <v>47241</v>
       </c>
       <c r="G80" s="2">
         <v>6</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="J80" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K80" s="2">
         <v>100</v>
@@ -4490,9 +4505,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>71</v>
@@ -4504,16 +4519,16 @@
         <v>13</v>
       </c>
       <c r="E81" s="3">
-        <v>45818</v>
+        <v>45723</v>
       </c>
       <c r="F81" s="3">
-        <v>48740</v>
+        <v>47549</v>
       </c>
       <c r="G81" s="2">
         <v>6</v>
       </c>
       <c r="H81" s="3">
-        <v>48740</v>
+        <v>47549</v>
       </c>
       <c r="I81" s="2">
         <v>100</v>
@@ -4528,150 +4543,150 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E82" s="3">
-        <v>45636</v>
+        <v>45575</v>
       </c>
       <c r="F82" s="3">
-        <v>49653</v>
+        <v>48131</v>
       </c>
       <c r="G82" s="2">
         <v>6</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>89</v>
       </c>
       <c r="J82" s="2">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="K82" s="2">
+        <v>100</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="3">
+        <v>45818</v>
+      </c>
+      <c r="F83" s="3">
+        <v>48740</v>
+      </c>
+      <c r="G83" s="2">
+        <v>6</v>
+      </c>
+      <c r="H83" s="3">
+        <v>48740</v>
+      </c>
+      <c r="I83" s="2">
+        <v>100</v>
+      </c>
+      <c r="J83" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K83" s="2">
+        <v>100</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" s="3">
+        <v>45636</v>
+      </c>
+      <c r="F84" s="3">
+        <v>49653</v>
+      </c>
+      <c r="G84" s="2">
+        <v>6</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J84" s="2">
         <v>7.6249999999999998E-2</v>
       </c>
-      <c r="K82" s="2">
-        <v>100</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
+      <c r="K84" s="2">
+        <v>100</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E83" s="3">
-        <v>43671</v>
-      </c>
-      <c r="F83" s="3">
-        <v>46228</v>
-      </c>
-      <c r="G83" s="2">
-        <v>6</v>
-      </c>
-      <c r="H83" s="3">
-        <v>46228</v>
-      </c>
-      <c r="I83" s="2">
-        <v>100</v>
-      </c>
-      <c r="J83" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K83" s="2">
-        <v>100</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="3">
-        <v>45349</v>
-      </c>
-      <c r="F84" s="3">
-        <v>46445</v>
-      </c>
-      <c r="G84" s="2">
-        <v>6</v>
-      </c>
-      <c r="H84" s="3">
-        <v>46445</v>
-      </c>
-      <c r="I84" s="2">
-        <v>100</v>
-      </c>
-      <c r="J84" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="K84" s="2">
-        <v>100</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E85" s="3">
-        <v>45456</v>
+        <v>43671</v>
       </c>
       <c r="F85" s="3">
-        <v>46551</v>
+        <v>46228</v>
       </c>
       <c r="G85" s="2">
-        <v>3</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>159</v>
+        <v>6</v>
+      </c>
+      <c r="H85" s="3">
+        <v>46228</v>
+      </c>
+      <c r="I85" s="2">
+        <v>100</v>
       </c>
       <c r="J85" s="2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K85" s="2">
         <v>100</v>
@@ -4680,36 +4695,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E86" s="3">
-        <v>45581</v>
+        <v>45349</v>
       </c>
       <c r="F86" s="3">
-        <v>48503</v>
+        <v>46445</v>
       </c>
       <c r="G86" s="2">
         <v>6</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>89</v>
+      <c r="H86" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I86" s="2">
+        <v>100</v>
       </c>
       <c r="J86" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K86" s="2">
         <v>100</v>
@@ -4718,9 +4733,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>157</v>
@@ -4732,22 +4747,22 @@
         <v>13</v>
       </c>
       <c r="E87" s="3">
-        <v>45618</v>
+        <v>45456</v>
       </c>
       <c r="F87" s="3">
-        <v>46348</v>
+        <v>46551</v>
       </c>
       <c r="G87" s="2">
-        <v>6</v>
-      </c>
-      <c r="H87" s="3">
-        <v>46348</v>
-      </c>
-      <c r="I87" s="2">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="J87" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K87" s="2">
         <v>100</v>
@@ -4756,36 +4771,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E88" s="3">
-        <v>45618</v>
+        <v>45581</v>
       </c>
       <c r="F88" s="3">
-        <v>47079</v>
+        <v>48503</v>
       </c>
       <c r="G88" s="2">
-        <v>3</v>
-      </c>
-      <c r="H88" s="3">
-        <v>47079</v>
-      </c>
-      <c r="I88" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J88" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K88" s="2">
         <v>100</v>
@@ -4794,9 +4809,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>157</v>
@@ -4808,109 +4823,109 @@
         <v>13</v>
       </c>
       <c r="E89" s="3">
+        <v>45618</v>
+      </c>
+      <c r="F89" s="3">
+        <v>46348</v>
+      </c>
+      <c r="G89" s="2">
+        <v>6</v>
+      </c>
+      <c r="H89" s="3">
+        <v>46348</v>
+      </c>
+      <c r="I89" s="2">
+        <v>100</v>
+      </c>
+      <c r="J89" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="K89" s="2">
+        <v>100</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="3">
+        <v>45618</v>
+      </c>
+      <c r="F90" s="3">
+        <v>47079</v>
+      </c>
+      <c r="G90" s="2">
+        <v>3</v>
+      </c>
+      <c r="H90" s="3">
+        <v>47079</v>
+      </c>
+      <c r="I90" s="2">
+        <v>100</v>
+      </c>
+      <c r="J90" s="2">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="K90" s="2">
+        <v>100</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="3">
         <v>45797</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F91" s="3">
         <v>46527</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G91" s="2">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H91" s="3">
         <v>46527</v>
       </c>
-      <c r="I89" s="2">
-        <v>100</v>
-      </c>
-      <c r="J89" s="2">
+      <c r="I91" s="2">
+        <v>100</v>
+      </c>
+      <c r="J91" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K89" s="2">
-        <v>100</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
+      <c r="K91" s="2">
+        <v>100</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="3">
-        <v>45090</v>
-      </c>
-      <c r="F90" s="3">
-        <v>46066</v>
-      </c>
-      <c r="G90" s="2">
-        <v>6</v>
-      </c>
-      <c r="H90" s="3">
-        <v>46066</v>
-      </c>
-      <c r="I90" s="2">
-        <v>100</v>
-      </c>
-      <c r="J90" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K90" s="2">
-        <v>100</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="3">
-        <v>45624</v>
-      </c>
-      <c r="F91" s="3">
-        <v>46170</v>
-      </c>
-      <c r="G91" s="2">
-        <v>6</v>
-      </c>
-      <c r="H91" s="3">
-        <v>46170</v>
-      </c>
-      <c r="I91" s="2">
-        <v>100</v>
-      </c>
-      <c r="J91" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="K91" s="2">
-        <v>100</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>76</v>
@@ -4922,22 +4937,22 @@
         <v>13</v>
       </c>
       <c r="E92" s="3">
-        <v>45715</v>
+        <v>45090</v>
       </c>
       <c r="F92" s="3">
-        <v>46445</v>
+        <v>46066</v>
       </c>
       <c r="G92" s="2">
         <v>6</v>
       </c>
       <c r="H92" s="3">
-        <v>46445</v>
+        <v>46066</v>
       </c>
       <c r="I92" s="2">
         <v>100</v>
       </c>
       <c r="J92" s="2">
-        <v>6.25E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K92" s="2">
         <v>100</v>
@@ -4946,9 +4961,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>76</v>
@@ -4960,22 +4975,22 @@
         <v>13</v>
       </c>
       <c r="E93" s="3">
-        <v>45784</v>
+        <v>45624</v>
       </c>
       <c r="F93" s="3">
-        <v>46514</v>
+        <v>46170</v>
       </c>
       <c r="G93" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H93" s="3">
-        <v>46514</v>
+        <v>46170</v>
       </c>
       <c r="I93" s="2">
         <v>100</v>
       </c>
       <c r="J93" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K93" s="2">
         <v>100</v>
@@ -4984,9 +4999,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>76</v>
@@ -4998,22 +5013,22 @@
         <v>13</v>
       </c>
       <c r="E94" s="3">
-        <v>45860</v>
+        <v>45715</v>
       </c>
       <c r="F94" s="3">
-        <v>46590</v>
+        <v>46445</v>
       </c>
       <c r="G94" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H94" s="3">
-        <v>46590</v>
+        <v>46445</v>
       </c>
       <c r="I94" s="2">
         <v>100</v>
       </c>
       <c r="J94" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K94" s="2">
         <v>100</v>
@@ -5022,36 +5037,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E95" s="3">
-        <v>44239</v>
+        <v>45784</v>
       </c>
       <c r="F95" s="3">
-        <v>47299</v>
+        <v>46514</v>
       </c>
       <c r="G95" s="2">
-        <v>6</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>109</v>
+        <v>3</v>
+      </c>
+      <c r="H95" s="3">
+        <v>46514</v>
+      </c>
+      <c r="I95" s="2">
+        <v>100</v>
       </c>
       <c r="J95" s="2">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K95" s="2">
         <v>100</v>
@@ -5060,9 +5075,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>76</v>
@@ -5074,22 +5089,22 @@
         <v>13</v>
       </c>
       <c r="E96" s="3">
-        <v>45575</v>
+        <v>45860</v>
       </c>
       <c r="F96" s="3">
-        <v>47036</v>
+        <v>46590</v>
       </c>
       <c r="G96" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H96" s="3">
-        <v>47036</v>
+        <v>46590</v>
       </c>
       <c r="I96" s="2">
         <v>100</v>
       </c>
       <c r="J96" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K96" s="2">
         <v>100</v>
@@ -5098,36 +5113,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E97" s="3">
-        <v>45860</v>
+        <v>44239</v>
       </c>
       <c r="F97" s="3">
-        <v>47686</v>
+        <v>47299</v>
       </c>
       <c r="G97" s="2">
         <v>6</v>
       </c>
-      <c r="H97" s="3">
-        <v>47686</v>
-      </c>
-      <c r="I97" s="2">
-        <v>100</v>
+      <c r="H97" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="J97" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K97" s="2">
         <v>100</v>
@@ -5136,36 +5151,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E98" s="3">
-        <v>47372</v>
+        <v>45575</v>
       </c>
       <c r="F98" s="3">
-        <v>48102</v>
+        <v>47036</v>
       </c>
       <c r="G98" s="2">
         <v>6</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>89</v>
+      <c r="H98" s="3">
+        <v>47036</v>
+      </c>
+      <c r="I98" s="2">
+        <v>100</v>
       </c>
       <c r="J98" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K98" s="2">
         <v>100</v>
@@ -5174,36 +5189,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E99" s="3">
-        <v>45674</v>
+        <v>45860</v>
       </c>
       <c r="F99" s="3">
-        <v>48961</v>
+        <v>47686</v>
       </c>
       <c r="G99" s="2">
         <v>6</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>89</v>
+      <c r="H99" s="3">
+        <v>47686</v>
+      </c>
+      <c r="I99" s="2">
+        <v>100</v>
       </c>
       <c r="J99" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K99" s="2">
         <v>100</v>
@@ -5212,9 +5227,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>76</v>
@@ -5226,32 +5241,108 @@
         <v>186</v>
       </c>
       <c r="E100" s="3">
+        <v>47372</v>
+      </c>
+      <c r="F100" s="3">
+        <v>48102</v>
+      </c>
+      <c r="G100" s="2">
+        <v>6</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J100" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K100" s="2">
+        <v>100</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F101" s="3">
+        <v>48961</v>
+      </c>
+      <c r="G101" s="2">
+        <v>6</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J101" s="2">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K101" s="2">
+        <v>100</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E102" s="3">
         <v>45199</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F102" s="3">
         <v>48852</v>
       </c>
-      <c r="G100" s="2">
-        <v>6</v>
-      </c>
-      <c r="H100" s="3" t="s">
+      <c r="G102" s="2">
+        <v>6</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J102" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K100" s="2">
-        <v>100</v>
-      </c>
-      <c r="L100" s="2" t="s">
+      <c r="K102" s="2">
+        <v>100</v>
+      </c>
+      <c r="L102" s="2" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0E830-F984-400A-B5C7-1370C67F8913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225F6B6C-EB23-4552-93D8-3926F166E0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,7 +598,7 @@
     <t>25/2/2025;25/8/2025;25/2/2026;25/8/2026;25/2/2027;25/8/2027;25/2/2028;25/8/2029</t>
   </si>
   <si>
-    <t>12,5;12,5;12,5;12,5;12,5;12,5;12,5;12,5</t>
+    <t>12,5;12,5;12,5;12,5;12,5;12,5;12,5;12,5;12,5</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1449,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225F6B6C-EB23-4552-93D8-3926F166E0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2D894E-6CFB-4E47-830F-D0DB23648F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10000"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="1000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="194">
   <si>
     <t>name</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>12,5;12,5;12,5;12,5;12,5;12,5;12,5;12,5;12,5</t>
+  </si>
+  <si>
+    <t>TLCPD</t>
+  </si>
+  <si>
+    <t>28/5/2032;28/5/2033</t>
   </si>
 </sst>
 </file>
@@ -1443,13 +1449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="L77" sqref="L77:L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4393,10 +4399,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>18</v>
@@ -4405,74 +4411,74 @@
         <v>186</v>
       </c>
       <c r="E78" s="3">
-        <v>45497</v>
+        <v>45805</v>
       </c>
       <c r="F78" s="3">
-        <v>48053</v>
+        <v>48727</v>
       </c>
       <c r="G78" s="2">
         <v>6</v>
       </c>
-      <c r="H78" s="3">
-        <v>48053</v>
-      </c>
-      <c r="I78" s="2">
-        <v>100</v>
+      <c r="H78" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="J78" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K78" s="2">
         <v>100</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E79" s="3">
-        <v>45803</v>
+        <v>45497</v>
       </c>
       <c r="F79" s="3">
-        <v>45987</v>
+        <v>48053</v>
       </c>
       <c r="G79" s="2">
         <v>6</v>
       </c>
       <c r="H79" s="3">
-        <v>45987</v>
+        <v>48053</v>
       </c>
       <c r="I79" s="2">
         <v>100</v>
       </c>
       <c r="J79" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K79" s="2">
         <v>100</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -4481,33 +4487,33 @@
         <v>13</v>
       </c>
       <c r="E80" s="3">
-        <v>45415</v>
+        <v>45803</v>
       </c>
       <c r="F80" s="3">
-        <v>47241</v>
+        <v>45987</v>
       </c>
       <c r="G80" s="2">
         <v>6</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>105</v>
+      <c r="H80" s="3">
+        <v>45987</v>
+      </c>
+      <c r="I80" s="2">
+        <v>100</v>
       </c>
       <c r="J80" s="2">
-        <v>0.08</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K80" s="2">
         <v>100</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>71</v>
@@ -4519,22 +4525,22 @@
         <v>13</v>
       </c>
       <c r="E81" s="3">
-        <v>45723</v>
+        <v>45415</v>
       </c>
       <c r="F81" s="3">
-        <v>47549</v>
+        <v>47241</v>
       </c>
       <c r="G81" s="2">
         <v>6</v>
       </c>
-      <c r="H81" s="3">
-        <v>47549</v>
-      </c>
-      <c r="I81" s="2">
-        <v>100</v>
+      <c r="H81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J81" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K81" s="2">
         <v>100</v>
@@ -4545,7 +4551,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>71</v>
@@ -4557,22 +4563,22 @@
         <v>13</v>
       </c>
       <c r="E82" s="3">
-        <v>45575</v>
+        <v>45723</v>
       </c>
       <c r="F82" s="3">
-        <v>48131</v>
+        <v>47549</v>
       </c>
       <c r="G82" s="2">
         <v>6</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>89</v>
+      <c r="H82" s="3">
+        <v>47549</v>
+      </c>
+      <c r="I82" s="2">
+        <v>100</v>
       </c>
       <c r="J82" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K82" s="2">
         <v>100</v>
@@ -4583,7 +4589,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>71</v>
@@ -4595,22 +4601,22 @@
         <v>13</v>
       </c>
       <c r="E83" s="3">
-        <v>45818</v>
+        <v>45575</v>
       </c>
       <c r="F83" s="3">
-        <v>48740</v>
+        <v>48131</v>
       </c>
       <c r="G83" s="2">
         <v>6</v>
       </c>
-      <c r="H83" s="3">
-        <v>48740</v>
-      </c>
-      <c r="I83" s="2">
-        <v>100</v>
+      <c r="H83" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J83" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K83" s="2">
         <v>100</v>
@@ -4621,34 +4627,34 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E84" s="3">
-        <v>45636</v>
+        <v>45818</v>
       </c>
       <c r="F84" s="3">
-        <v>49653</v>
+        <v>48740</v>
       </c>
       <c r="G84" s="2">
         <v>6</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>89</v>
+      <c r="H84" s="3">
+        <v>48740</v>
+      </c>
+      <c r="I84" s="2">
+        <v>100</v>
       </c>
       <c r="J84" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K84" s="2">
         <v>100</v>
@@ -4659,10 +4665,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>18</v>
@@ -4671,22 +4677,22 @@
         <v>186</v>
       </c>
       <c r="E85" s="3">
-        <v>43671</v>
+        <v>45636</v>
       </c>
       <c r="F85" s="3">
-        <v>46228</v>
+        <v>49653</v>
       </c>
       <c r="G85" s="2">
         <v>6</v>
       </c>
-      <c r="H85" s="3">
-        <v>46228</v>
-      </c>
-      <c r="I85" s="2">
-        <v>100</v>
+      <c r="H85" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J85" s="2">
-        <v>0.1</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K85" s="2">
         <v>100</v>
@@ -4697,34 +4703,34 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E86" s="3">
-        <v>45349</v>
+        <v>43671</v>
       </c>
       <c r="F86" s="3">
-        <v>46445</v>
+        <v>46228</v>
       </c>
       <c r="G86" s="2">
         <v>6</v>
       </c>
       <c r="H86" s="3">
-        <v>46445</v>
+        <v>46228</v>
       </c>
       <c r="I86" s="2">
         <v>100</v>
       </c>
       <c r="J86" s="2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K86" s="2">
         <v>100</v>
@@ -4735,7 +4741,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>157</v>
@@ -4747,19 +4753,19 @@
         <v>13</v>
       </c>
       <c r="E87" s="3">
-        <v>45456</v>
+        <v>45349</v>
       </c>
       <c r="F87" s="3">
-        <v>46551</v>
+        <v>46445</v>
       </c>
       <c r="G87" s="2">
-        <v>3</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>159</v>
+        <v>6</v>
+      </c>
+      <c r="H87" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I87" s="2">
+        <v>100</v>
       </c>
       <c r="J87" s="2">
         <v>0.06</v>
@@ -4773,34 +4779,34 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E88" s="3">
-        <v>45581</v>
+        <v>45456</v>
       </c>
       <c r="F88" s="3">
-        <v>48503</v>
+        <v>46551</v>
       </c>
       <c r="G88" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="J88" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K88" s="2">
         <v>100</v>
@@ -4811,34 +4817,34 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E89" s="3">
-        <v>45618</v>
+        <v>45581</v>
       </c>
       <c r="F89" s="3">
-        <v>46348</v>
+        <v>48503</v>
       </c>
       <c r="G89" s="2">
         <v>6</v>
       </c>
-      <c r="H89" s="3">
-        <v>46348</v>
-      </c>
-      <c r="I89" s="2">
-        <v>100</v>
+      <c r="H89" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J89" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K89" s="2">
         <v>100</v>
@@ -4849,7 +4855,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>157</v>
@@ -4864,19 +4870,19 @@
         <v>45618</v>
       </c>
       <c r="F90" s="3">
-        <v>47079</v>
+        <v>46348</v>
       </c>
       <c r="G90" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H90" s="3">
-        <v>47079</v>
+        <v>46348</v>
       </c>
       <c r="I90" s="2">
         <v>100</v>
       </c>
       <c r="J90" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="K90" s="2">
         <v>100</v>
@@ -4887,7 +4893,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>157</v>
@@ -4899,22 +4905,22 @@
         <v>13</v>
       </c>
       <c r="E91" s="3">
-        <v>45797</v>
+        <v>45618</v>
       </c>
       <c r="F91" s="3">
-        <v>46527</v>
+        <v>47079</v>
       </c>
       <c r="G91" s="2">
         <v>3</v>
       </c>
       <c r="H91" s="3">
-        <v>46527</v>
+        <v>47079</v>
       </c>
       <c r="I91" s="2">
         <v>100</v>
       </c>
       <c r="J91" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K91" s="2">
         <v>100</v>
@@ -4925,10 +4931,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -4937,22 +4943,22 @@
         <v>13</v>
       </c>
       <c r="E92" s="3">
-        <v>45090</v>
+        <v>45797</v>
       </c>
       <c r="F92" s="3">
-        <v>46066</v>
+        <v>46527</v>
       </c>
       <c r="G92" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H92" s="3">
-        <v>46066</v>
+        <v>46527</v>
       </c>
       <c r="I92" s="2">
         <v>100</v>
       </c>
       <c r="J92" s="2">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K92" s="2">
         <v>100</v>
@@ -4963,7 +4969,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>76</v>
@@ -4975,22 +4981,22 @@
         <v>13</v>
       </c>
       <c r="E93" s="3">
-        <v>45624</v>
+        <v>45090</v>
       </c>
       <c r="F93" s="3">
-        <v>46170</v>
+        <v>46066</v>
       </c>
       <c r="G93" s="2">
         <v>6</v>
       </c>
       <c r="H93" s="3">
-        <v>46170</v>
+        <v>46066</v>
       </c>
       <c r="I93" s="2">
         <v>100</v>
       </c>
       <c r="J93" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K93" s="2">
         <v>100</v>
@@ -5001,7 +5007,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>76</v>
@@ -5013,22 +5019,22 @@
         <v>13</v>
       </c>
       <c r="E94" s="3">
-        <v>45715</v>
+        <v>45624</v>
       </c>
       <c r="F94" s="3">
-        <v>46445</v>
+        <v>46170</v>
       </c>
       <c r="G94" s="2">
         <v>6</v>
       </c>
       <c r="H94" s="3">
-        <v>46445</v>
+        <v>46170</v>
       </c>
       <c r="I94" s="2">
         <v>100</v>
       </c>
       <c r="J94" s="2">
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K94" s="2">
         <v>100</v>
@@ -5039,7 +5045,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>76</v>
@@ -5051,22 +5057,22 @@
         <v>13</v>
       </c>
       <c r="E95" s="3">
-        <v>45784</v>
+        <v>45715</v>
       </c>
       <c r="F95" s="3">
-        <v>46514</v>
+        <v>46445</v>
       </c>
       <c r="G95" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H95" s="3">
-        <v>46514</v>
+        <v>46445</v>
       </c>
       <c r="I95" s="2">
         <v>100</v>
       </c>
       <c r="J95" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K95" s="2">
         <v>100</v>
@@ -5077,7 +5083,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>76</v>
@@ -5089,22 +5095,22 @@
         <v>13</v>
       </c>
       <c r="E96" s="3">
-        <v>45860</v>
+        <v>45784</v>
       </c>
       <c r="F96" s="3">
-        <v>46590</v>
+        <v>46514</v>
       </c>
       <c r="G96" s="2">
         <v>3</v>
       </c>
       <c r="H96" s="3">
-        <v>46590</v>
+        <v>46514</v>
       </c>
       <c r="I96" s="2">
         <v>100</v>
       </c>
       <c r="J96" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K96" s="2">
         <v>100</v>
@@ -5115,34 +5121,34 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E97" s="3">
-        <v>44239</v>
+        <v>45860</v>
       </c>
       <c r="F97" s="3">
-        <v>47299</v>
+        <v>46590</v>
       </c>
       <c r="G97" s="2">
-        <v>6</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>109</v>
+        <v>3</v>
+      </c>
+      <c r="H97" s="3">
+        <v>46590</v>
+      </c>
+      <c r="I97" s="2">
+        <v>100</v>
       </c>
       <c r="J97" s="2">
-        <v>0.09</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K97" s="2">
         <v>100</v>
@@ -5153,34 +5159,34 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E98" s="3">
-        <v>45575</v>
+        <v>44239</v>
       </c>
       <c r="F98" s="3">
-        <v>47036</v>
+        <v>47299</v>
       </c>
       <c r="G98" s="2">
         <v>6</v>
       </c>
-      <c r="H98" s="3">
-        <v>47036</v>
-      </c>
-      <c r="I98" s="2">
-        <v>100</v>
+      <c r="H98" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="J98" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K98" s="2">
         <v>100</v>
@@ -5191,7 +5197,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>76</v>
@@ -5203,22 +5209,22 @@
         <v>13</v>
       </c>
       <c r="E99" s="3">
-        <v>45860</v>
+        <v>45575</v>
       </c>
       <c r="F99" s="3">
-        <v>47686</v>
+        <v>47036</v>
       </c>
       <c r="G99" s="2">
         <v>6</v>
       </c>
       <c r="H99" s="3">
-        <v>47686</v>
+        <v>47036</v>
       </c>
       <c r="I99" s="2">
         <v>100</v>
       </c>
       <c r="J99" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K99" s="2">
         <v>100</v>
@@ -5229,31 +5235,31 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E100" s="3">
-        <v>47372</v>
+        <v>45860</v>
       </c>
       <c r="F100" s="3">
-        <v>48102</v>
+        <v>47686</v>
       </c>
       <c r="G100" s="2">
         <v>6</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>89</v>
+      <c r="H100" s="3">
+        <v>47686</v>
+      </c>
+      <c r="I100" s="2">
+        <v>100</v>
       </c>
       <c r="J100" s="2">
         <v>8.7499999999999994E-2</v>
@@ -5267,7 +5273,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>76</v>
@@ -5279,22 +5285,22 @@
         <v>186</v>
       </c>
       <c r="E101" s="3">
-        <v>45674</v>
+        <v>47372</v>
       </c>
       <c r="F101" s="3">
-        <v>48961</v>
+        <v>48102</v>
       </c>
       <c r="G101" s="2">
         <v>6</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>89</v>
       </c>
       <c r="J101" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K101" s="2">
         <v>100</v>
@@ -5305,7 +5311,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>76</v>
@@ -5317,32 +5323,70 @@
         <v>186</v>
       </c>
       <c r="E102" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F102" s="3">
+        <v>48961</v>
+      </c>
+      <c r="G102" s="2">
+        <v>6</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J102" s="2">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K102" s="2">
+        <v>100</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" s="3">
         <v>45199</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F103" s="3">
         <v>48852</v>
       </c>
-      <c r="G102" s="2">
-        <v>6</v>
-      </c>
-      <c r="H102" s="3" t="s">
+      <c r="G103" s="2">
+        <v>6</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J103" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K102" s="2">
-        <v>100</v>
-      </c>
-      <c r="L102" s="2" t="s">
+      <c r="K103" s="2">
+        <v>100</v>
+      </c>
+      <c r="L103" s="2" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E82FB24-B7F0-4CEE-B524-46E6F9D496AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F4B675-137C-443C-946B-22DEE1B092AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="931">
   <si>
     <t>name</t>
   </si>
@@ -3667,10 +3667,10 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4021,9 +4021,15 @@
       <c r="A9" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="3">
         <v>45936</v>
       </c>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F4B675-137C-443C-946B-22DEE1B092AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B98B925-56A6-424F-951A-99939A5FA79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$L$239</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="932">
   <si>
     <t>name</t>
   </si>
@@ -2818,6 +2818,9 @@
   </si>
   <si>
     <t>RC2CD</t>
+  </si>
+  <si>
+    <t>YM41D</t>
   </si>
 </sst>
 </file>
@@ -3664,13 +3667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7829,34 +7832,34 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>85</v>
+        <v>931</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E102" s="3">
-        <v>47372</v>
+        <v>45938</v>
       </c>
       <c r="F102" s="3">
-        <v>48102</v>
+        <v>46454</v>
       </c>
       <c r="G102" s="2">
-        <v>6</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
+        <v>46454</v>
+      </c>
+      <c r="I102" s="2">
+        <v>100</v>
       </c>
       <c r="J102" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K102" s="2">
         <v>100</v>
@@ -7864,13 +7867,10 @@
       <c r="L102" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M102" s="1" t="s">
-        <v>384</v>
-      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>76</v>
@@ -7882,22 +7882,22 @@
         <v>186</v>
       </c>
       <c r="E103" s="3">
-        <v>45674</v>
+        <v>47372</v>
       </c>
       <c r="F103" s="3">
-        <v>48961</v>
+        <v>48102</v>
       </c>
       <c r="G103" s="2">
         <v>6</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>89</v>
       </c>
       <c r="J103" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K103" s="2">
         <v>100</v>
@@ -7906,12 +7906,12 @@
         <v>114</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>76</v>
@@ -7923,22 +7923,22 @@
         <v>186</v>
       </c>
       <c r="E104" s="3">
-        <v>45199</v>
+        <v>45674</v>
       </c>
       <c r="F104" s="3">
-        <v>48852</v>
+        <v>48961</v>
       </c>
       <c r="G104" s="2">
         <v>6</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J104" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K104" s="2">
         <v>100</v>
@@ -7947,6 +7947,47 @@
         <v>114</v>
       </c>
       <c r="M104" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E105" s="3">
+        <v>45199</v>
+      </c>
+      <c r="F105" s="3">
+        <v>48852</v>
+      </c>
+      <c r="G105" s="2">
+        <v>6</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J105" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K105" s="2">
+        <v>100</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M105" s="1" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7960,8 +8001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C489D74-554C-4D83-ACF2-F2DDD81A84A1}">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G204" sqref="G204"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17279,11 +17320,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{4C489D74-554C-4D83-ACF2-F2DDD81A84A1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L261">
-      <sortCondition ref="D1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B98B925-56A6-424F-951A-99939A5FA79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C613C-AA48-4C68-9A3F-A248CFED9F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
@@ -3670,10 +3670,10 @@
   <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
+      <selection pane="bottomRight" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C613C-AA48-4C68-9A3F-A248CFED9F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4DAB6D-867A-4777-B6E5-ADBCBB339E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$L$239</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="933">
   <si>
     <t>name</t>
   </si>
@@ -2821,6 +2821,9 @@
   </si>
   <si>
     <t>YM41D</t>
+  </si>
+  <si>
+    <t>BPCSD</t>
   </si>
 </sst>
 </file>
@@ -3667,13 +3670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F102" sqref="F102"/>
+      <selection pane="bottomRight" activeCell="L81" sqref="L81:L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7012,10 +7015,10 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>70</v>
+        <v>932</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -7024,36 +7027,33 @@
         <v>13</v>
       </c>
       <c r="E82" s="3">
-        <v>45415</v>
+        <v>45895</v>
       </c>
       <c r="F82" s="3">
-        <v>47241</v>
+        <v>46260</v>
       </c>
       <c r="G82" s="2">
         <v>6</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>105</v>
+      <c r="H82" s="3">
+        <v>46260</v>
+      </c>
+      <c r="I82" s="2">
+        <v>100</v>
       </c>
       <c r="J82" s="2">
-        <v>0.08</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K82" s="2">
         <v>100</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>848</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>71</v>
@@ -7065,22 +7065,22 @@
         <v>13</v>
       </c>
       <c r="E83" s="3">
-        <v>45723</v>
+        <v>45415</v>
       </c>
       <c r="F83" s="3">
-        <v>47549</v>
+        <v>47241</v>
       </c>
       <c r="G83" s="2">
         <v>6</v>
       </c>
-      <c r="H83" s="3">
-        <v>47549</v>
-      </c>
-      <c r="I83" s="2">
-        <v>100</v>
+      <c r="H83" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J83" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K83" s="2">
         <v>100</v>
@@ -7089,12 +7089,12 @@
         <v>114</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>71</v>
@@ -7106,22 +7106,22 @@
         <v>13</v>
       </c>
       <c r="E84" s="3">
-        <v>45575</v>
+        <v>45723</v>
       </c>
       <c r="F84" s="3">
-        <v>48131</v>
+        <v>47549</v>
       </c>
       <c r="G84" s="2">
         <v>6</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>89</v>
+      <c r="H84" s="3">
+        <v>47549</v>
+      </c>
+      <c r="I84" s="2">
+        <v>100</v>
       </c>
       <c r="J84" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K84" s="2">
         <v>100</v>
@@ -7130,12 +7130,12 @@
         <v>114</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>71</v>
@@ -7147,22 +7147,22 @@
         <v>13</v>
       </c>
       <c r="E85" s="3">
-        <v>45818</v>
+        <v>45575</v>
       </c>
       <c r="F85" s="3">
-        <v>48740</v>
+        <v>48131</v>
       </c>
       <c r="G85" s="2">
         <v>6</v>
       </c>
-      <c r="H85" s="3">
-        <v>48740</v>
-      </c>
-      <c r="I85" s="2">
-        <v>100</v>
+      <c r="H85" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J85" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K85" s="2">
         <v>100</v>
@@ -7171,39 +7171,39 @@
         <v>114</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>347</v>
+        <v>857</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E86" s="3">
-        <v>45636</v>
+        <v>45818</v>
       </c>
       <c r="F86" s="3">
-        <v>49653</v>
+        <v>48740</v>
       </c>
       <c r="G86" s="2">
         <v>6</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>89</v>
+      <c r="H86" s="3">
+        <v>48740</v>
+      </c>
+      <c r="I86" s="2">
+        <v>100</v>
       </c>
       <c r="J86" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K86" s="2">
         <v>100</v>
@@ -7212,15 +7212,15 @@
         <v>114</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>18</v>
@@ -7229,22 +7229,22 @@
         <v>186</v>
       </c>
       <c r="E87" s="3">
-        <v>43671</v>
+        <v>45636</v>
       </c>
       <c r="F87" s="3">
-        <v>46228</v>
+        <v>49653</v>
       </c>
       <c r="G87" s="2">
         <v>6</v>
       </c>
-      <c r="H87" s="3">
-        <v>46228</v>
-      </c>
-      <c r="I87" s="2">
-        <v>100</v>
+      <c r="H87" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J87" s="2">
-        <v>0.1</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K87" s="2">
         <v>100</v>
@@ -7252,40 +7252,40 @@
       <c r="L87" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M87" s="1" t="e">
-        <v>#N/A</v>
+      <c r="M87" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E88" s="3">
-        <v>45349</v>
+        <v>43671</v>
       </c>
       <c r="F88" s="3">
-        <v>46445</v>
+        <v>46228</v>
       </c>
       <c r="G88" s="2">
         <v>6</v>
       </c>
       <c r="H88" s="3">
-        <v>46445</v>
+        <v>46228</v>
       </c>
       <c r="I88" s="2">
         <v>100</v>
       </c>
       <c r="J88" s="2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K88" s="2">
         <v>100</v>
@@ -7293,13 +7293,13 @@
       <c r="L88" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M88" s="1" t="s">
-        <v>542</v>
+      <c r="M88" s="1" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>157</v>
@@ -7311,19 +7311,19 @@
         <v>13</v>
       </c>
       <c r="E89" s="3">
-        <v>45456</v>
+        <v>45349</v>
       </c>
       <c r="F89" s="3">
-        <v>46551</v>
+        <v>46445</v>
       </c>
       <c r="G89" s="2">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>159</v>
+        <v>6</v>
+      </c>
+      <c r="H89" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I89" s="2">
+        <v>100</v>
       </c>
       <c r="J89" s="2">
         <v>0.06</v>
@@ -7335,39 +7335,39 @@
         <v>114</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>881</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E90" s="3">
-        <v>45581</v>
+        <v>45456</v>
       </c>
       <c r="F90" s="3">
-        <v>48503</v>
+        <v>46551</v>
       </c>
       <c r="G90" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="J90" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K90" s="2">
         <v>100</v>
@@ -7376,39 +7376,39 @@
         <v>114</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>356</v>
+        <v>881</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E91" s="3">
-        <v>45618</v>
+        <v>45581</v>
       </c>
       <c r="F91" s="3">
-        <v>46348</v>
+        <v>48503</v>
       </c>
       <c r="G91" s="2">
         <v>6</v>
       </c>
-      <c r="H91" s="3">
-        <v>46348</v>
-      </c>
-      <c r="I91" s="2">
-        <v>100</v>
+      <c r="H91" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J91" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K91" s="2">
         <v>100</v>
@@ -7417,12 +7417,12 @@
         <v>114</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>592</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>157</v>
@@ -7437,19 +7437,19 @@
         <v>45618</v>
       </c>
       <c r="F92" s="3">
-        <v>47079</v>
+        <v>46348</v>
       </c>
       <c r="G92" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H92" s="3">
-        <v>47079</v>
+        <v>46348</v>
       </c>
       <c r="I92" s="2">
         <v>100</v>
       </c>
       <c r="J92" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="K92" s="2">
         <v>100</v>
@@ -7458,12 +7458,12 @@
         <v>114</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>884</v>
+        <v>592</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>157</v>
@@ -7475,22 +7475,22 @@
         <v>13</v>
       </c>
       <c r="E93" s="3">
-        <v>45797</v>
+        <v>45618</v>
       </c>
       <c r="F93" s="3">
-        <v>46527</v>
+        <v>47079</v>
       </c>
       <c r="G93" s="2">
         <v>3</v>
       </c>
       <c r="H93" s="3">
-        <v>46527</v>
+        <v>47079</v>
       </c>
       <c r="I93" s="2">
         <v>100</v>
       </c>
       <c r="J93" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K93" s="2">
         <v>100</v>
@@ -7499,15 +7499,15 @@
         <v>114</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -7516,22 +7516,22 @@
         <v>13</v>
       </c>
       <c r="E94" s="3">
-        <v>45090</v>
+        <v>45797</v>
       </c>
       <c r="F94" s="3">
-        <v>46066</v>
+        <v>46527</v>
       </c>
       <c r="G94" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>46066</v>
+        <v>46527</v>
       </c>
       <c r="I94" s="2">
         <v>100</v>
       </c>
       <c r="J94" s="2">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K94" s="2">
         <v>100</v>
@@ -7540,12 +7540,12 @@
         <v>114</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>76</v>
@@ -7557,22 +7557,22 @@
         <v>13</v>
       </c>
       <c r="E95" s="3">
-        <v>45624</v>
+        <v>45090</v>
       </c>
       <c r="F95" s="3">
-        <v>46170</v>
+        <v>46066</v>
       </c>
       <c r="G95" s="2">
         <v>6</v>
       </c>
       <c r="H95" s="3">
-        <v>46170</v>
+        <v>46066</v>
       </c>
       <c r="I95" s="2">
         <v>100</v>
       </c>
       <c r="J95" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K95" s="2">
         <v>100</v>
@@ -7581,12 +7581,12 @@
         <v>114</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>76</v>
@@ -7598,22 +7598,22 @@
         <v>13</v>
       </c>
       <c r="E96" s="3">
-        <v>45715</v>
+        <v>45624</v>
       </c>
       <c r="F96" s="3">
-        <v>46445</v>
+        <v>46170</v>
       </c>
       <c r="G96" s="2">
         <v>6</v>
       </c>
       <c r="H96" s="3">
-        <v>46445</v>
+        <v>46170</v>
       </c>
       <c r="I96" s="2">
         <v>100</v>
       </c>
       <c r="J96" s="2">
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K96" s="2">
         <v>100</v>
@@ -7622,12 +7622,12 @@
         <v>114</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>542</v>
+        <v>896</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>76</v>
@@ -7639,22 +7639,22 @@
         <v>13</v>
       </c>
       <c r="E97" s="3">
-        <v>45784</v>
+        <v>45715</v>
       </c>
       <c r="F97" s="3">
-        <v>46514</v>
+        <v>46445</v>
       </c>
       <c r="G97" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H97" s="3">
-        <v>46514</v>
+        <v>46445</v>
       </c>
       <c r="I97" s="2">
         <v>100</v>
       </c>
       <c r="J97" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K97" s="2">
         <v>100</v>
@@ -7663,12 +7663,12 @@
         <v>114</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>911</v>
+        <v>542</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>76</v>
@@ -7680,22 +7680,22 @@
         <v>13</v>
       </c>
       <c r="E98" s="3">
-        <v>45860</v>
+        <v>45784</v>
       </c>
       <c r="F98" s="3">
-        <v>46590</v>
+        <v>46514</v>
       </c>
       <c r="G98" s="2">
         <v>3</v>
       </c>
       <c r="H98" s="3">
-        <v>46590</v>
+        <v>46514</v>
       </c>
       <c r="I98" s="2">
         <v>100</v>
       </c>
       <c r="J98" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K98" s="2">
         <v>100</v>
@@ -7704,39 +7704,39 @@
         <v>114</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E99" s="3">
-        <v>44239</v>
+        <v>45860</v>
       </c>
       <c r="F99" s="3">
-        <v>47299</v>
+        <v>46590</v>
       </c>
       <c r="G99" s="2">
-        <v>6</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>109</v>
+        <v>3</v>
+      </c>
+      <c r="H99" s="3">
+        <v>46590</v>
+      </c>
+      <c r="I99" s="2">
+        <v>100</v>
       </c>
       <c r="J99" s="2">
-        <v>0.09</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K99" s="2">
         <v>100</v>
@@ -7745,39 +7745,39 @@
         <v>114</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>375</v>
+        <v>914</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E100" s="3">
-        <v>45575</v>
+        <v>44239</v>
       </c>
       <c r="F100" s="3">
-        <v>47036</v>
+        <v>47299</v>
       </c>
       <c r="G100" s="2">
         <v>6</v>
       </c>
-      <c r="H100" s="3">
-        <v>47036</v>
-      </c>
-      <c r="I100" s="2">
-        <v>100</v>
+      <c r="H100" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="J100" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K100" s="2">
         <v>100</v>
@@ -7786,12 +7786,12 @@
         <v>114</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>923</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>76</v>
@@ -7803,22 +7803,22 @@
         <v>13</v>
       </c>
       <c r="E101" s="3">
-        <v>45860</v>
+        <v>45575</v>
       </c>
       <c r="F101" s="3">
-        <v>47686</v>
+        <v>47036</v>
       </c>
       <c r="G101" s="2">
         <v>6</v>
       </c>
       <c r="H101" s="3">
-        <v>47686</v>
+        <v>47036</v>
       </c>
       <c r="I101" s="2">
         <v>100</v>
       </c>
       <c r="J101" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K101" s="2">
         <v>100</v>
@@ -7827,12 +7827,12 @@
         <v>114</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>931</v>
+        <v>84</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>76</v>
@@ -7844,22 +7844,22 @@
         <v>13</v>
       </c>
       <c r="E102" s="3">
-        <v>45938</v>
+        <v>45860</v>
       </c>
       <c r="F102" s="3">
-        <v>46454</v>
+        <v>47686</v>
       </c>
       <c r="G102" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H102" s="3">
-        <v>46454</v>
+        <v>47686</v>
       </c>
       <c r="I102" s="2">
         <v>100</v>
       </c>
       <c r="J102" s="2">
-        <v>6.25E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K102" s="2">
         <v>100</v>
@@ -7867,37 +7867,40 @@
       <c r="L102" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="M102" s="1" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>85</v>
+        <v>931</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E103" s="3">
-        <v>47372</v>
+        <v>45938</v>
       </c>
       <c r="F103" s="3">
-        <v>48102</v>
+        <v>46454</v>
       </c>
       <c r="G103" s="2">
-        <v>6</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="H103" s="3">
+        <v>46454</v>
+      </c>
+      <c r="I103" s="2">
+        <v>100</v>
       </c>
       <c r="J103" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K103" s="2">
         <v>100</v>
@@ -7905,13 +7908,10 @@
       <c r="L103" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M103" s="1" t="s">
-        <v>384</v>
-      </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>76</v>
@@ -7923,22 +7923,22 @@
         <v>186</v>
       </c>
       <c r="E104" s="3">
-        <v>45674</v>
+        <v>47372</v>
       </c>
       <c r="F104" s="3">
-        <v>48961</v>
+        <v>48102</v>
       </c>
       <c r="G104" s="2">
         <v>6</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>89</v>
       </c>
       <c r="J104" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K104" s="2">
         <v>100</v>
@@ -7947,12 +7947,12 @@
         <v>114</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>76</v>
@@ -7964,22 +7964,22 @@
         <v>186</v>
       </c>
       <c r="E105" s="3">
-        <v>45199</v>
+        <v>45674</v>
       </c>
       <c r="F105" s="3">
-        <v>48852</v>
+        <v>48961</v>
       </c>
       <c r="G105" s="2">
         <v>6</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J105" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K105" s="2">
         <v>100</v>
@@ -7988,6 +7988,47 @@
         <v>114</v>
       </c>
       <c r="M105" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E106" s="3">
+        <v>45199</v>
+      </c>
+      <c r="F106" s="3">
+        <v>48852</v>
+      </c>
+      <c r="G106" s="2">
+        <v>6</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J106" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K106" s="2">
+        <v>100</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M106" s="1" t="s">
         <v>378</v>
       </c>
     </row>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4DAB6D-867A-4777-B6E5-ADBCBB339E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D88538-33B5-4256-BF54-FAE982C1226F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$L$239</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10000"/>
 </workbook>
 </file>
 
@@ -3673,10 +3673,10 @@
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L81" sqref="L81:L82"/>
+      <selection pane="bottomRight" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7900,7 +7900,7 @@
         <v>100</v>
       </c>
       <c r="J103" s="2">
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K103" s="2">
         <v>100</v>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarzano\Documents\Modelos - Calculadora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F5C340-30FB-4C81-9B05-C3ABFA799434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AECB6FDB-20D9-47C1-B122-F8B8CAAABF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,24 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="1000"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="936">
   <si>
     <t>name</t>
   </si>
@@ -2821,6 +2834,18 @@
   </si>
   <si>
     <t>BPCSD</t>
+  </si>
+  <si>
+    <t>PQCRD</t>
+  </si>
+  <si>
+    <t>Petroquímica Comodoro Rivadavia</t>
+  </si>
+  <si>
+    <t>PQCTD</t>
+  </si>
+  <si>
+    <t>PQCSD</t>
   </si>
 </sst>
 </file>
@@ -3313,49 +3338,49 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Millares" xfId="42" builtinId="3"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3371,9 +3396,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3411,7 +3436,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3517,7 +3542,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3659,7 +3684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3667,16 +3692,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="2" width="26.25" style="1" bestFit="1" customWidth="1"/>
@@ -3692,7 +3717,7 @@
     <col min="16" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3758,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>173</v>
       </c>
@@ -3774,7 +3799,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>174</v>
       </c>
@@ -3815,7 +3840,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
@@ -3856,7 +3881,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>118</v>
       </c>
@@ -3897,7 +3922,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -3938,7 +3963,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
@@ -3979,7 +4004,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>122</v>
       </c>
@@ -4020,7 +4045,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>929</v>
       </c>
@@ -4058,7 +4083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>126</v>
       </c>
@@ -4099,7 +4124,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>123</v>
       </c>
@@ -4140,7 +4165,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>124</v>
       </c>
@@ -4181,7 +4206,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -4222,7 +4247,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -4263,7 +4288,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>186</v>
       </c>
@@ -4304,7 +4329,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>187</v>
       </c>
@@ -4345,7 +4370,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -4386,7 +4411,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -4427,7 +4452,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -4468,7 +4493,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -4509,7 +4534,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -4550,7 +4575,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -4591,7 +4616,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -4632,7 +4657,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -4673,7 +4698,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -4714,7 +4739,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -4755,7 +4780,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -4796,7 +4821,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -4837,7 +4862,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>132</v>
       </c>
@@ -4878,7 +4903,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>135</v>
       </c>
@@ -4919,7 +4944,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>133</v>
       </c>
@@ -4960,7 +4985,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>179</v>
       </c>
@@ -5001,7 +5026,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>171</v>
       </c>
@@ -5042,7 +5067,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>182</v>
       </c>
@@ -5083,7 +5108,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -5124,7 +5149,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -5165,7 +5190,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -5206,7 +5231,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -5247,7 +5272,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -5288,7 +5313,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -5329,7 +5354,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -5370,7 +5395,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>141</v>
       </c>
@@ -5411,7 +5436,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>142</v>
       </c>
@@ -5452,7 +5477,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>143</v>
       </c>
@@ -5493,7 +5518,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>144</v>
       </c>
@@ -5534,7 +5559,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>145</v>
       </c>
@@ -5575,7 +5600,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
@@ -5616,7 +5641,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
@@ -5657,7 +5682,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
@@ -5698,7 +5723,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>176</v>
       </c>
@@ -5739,7 +5764,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>163</v>
       </c>
@@ -5780,7 +5805,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>164</v>
       </c>
@@ -5821,7 +5846,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>147</v>
       </c>
@@ -5862,7 +5887,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -5903,7 +5928,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -5944,7 +5969,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
@@ -5985,7 +6010,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>47</v>
       </c>
@@ -6026,7 +6051,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
@@ -6067,7 +6092,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
@@ -6108,7 +6133,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>50</v>
       </c>
@@ -6149,7 +6174,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>51</v>
       </c>
@@ -6190,7 +6215,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>52</v>
       </c>
@@ -6231,7 +6256,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>54</v>
       </c>
@@ -6272,7 +6297,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>55</v>
       </c>
@@ -6313,7 +6338,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>56</v>
       </c>
@@ -6354,7 +6379,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>89</v>
       </c>
@@ -6395,53 +6420,51 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>180</v>
+        <v>932</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>181</v>
+        <v>933</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E67" s="3">
-        <v>45838</v>
+        <v>45587</v>
       </c>
       <c r="F67" s="3">
-        <v>48364</v>
+        <v>47048</v>
       </c>
       <c r="G67" s="2">
         <v>6</v>
       </c>
       <c r="H67" s="3">
-        <v>48364</v>
+        <f>F67</f>
+        <v>47048</v>
       </c>
       <c r="I67" s="2">
         <v>100</v>
       </c>
       <c r="J67" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K67" s="2">
         <v>100</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>160</v>
+        <v>934</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>162</v>
+        <v>933</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -6450,22 +6473,23 @@
         <v>13</v>
       </c>
       <c r="E68" s="3">
-        <v>45412</v>
+        <v>45859</v>
       </c>
       <c r="F68" s="3">
-        <v>46507</v>
+        <v>46955</v>
       </c>
       <c r="G68" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H68" s="3">
-        <v>46507</v>
+        <f>F68</f>
+        <v>46955</v>
       </c>
       <c r="I68" s="2">
         <v>100</v>
       </c>
       <c r="J68" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K68" s="2">
         <v>100</v>
@@ -6473,16 +6497,13 @@
       <c r="L68" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>161</v>
+        <v>935</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>162</v>
+        <v>933</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
@@ -6491,22 +6512,23 @@
         <v>13</v>
       </c>
       <c r="E69" s="3">
-        <v>45622</v>
+        <v>45705</v>
       </c>
       <c r="F69" s="3">
-        <v>45989</v>
+        <v>47896</v>
       </c>
       <c r="G69" s="2">
-        <v>3</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>158</v>
+        <v>6</v>
+      </c>
+      <c r="H69" s="3">
+        <f>F69</f>
+        <v>47896</v>
+      </c>
+      <c r="I69" s="2">
+        <v>100</v>
       </c>
       <c r="J69" s="2">
-        <v>6.25E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K69" s="2">
         <v>100</v>
@@ -6514,40 +6536,37 @@
       <c r="L69" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E70" s="3">
-        <v>45404</v>
+        <v>45838</v>
       </c>
       <c r="F70" s="3">
-        <v>46134</v>
+        <v>48364</v>
       </c>
       <c r="G70" s="2">
         <v>6</v>
       </c>
       <c r="H70" s="3">
-        <v>46134</v>
+        <v>48364</v>
       </c>
       <c r="I70" s="2">
         <v>100</v>
       </c>
       <c r="J70" s="2">
-        <v>0.06</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K70" s="2">
         <v>100</v>
@@ -6556,15 +6575,15 @@
         <v>113</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -6573,39 +6592,39 @@
         <v>13</v>
       </c>
       <c r="E71" s="3">
-        <v>45589</v>
+        <v>45412</v>
       </c>
       <c r="F71" s="3">
-        <v>47415</v>
+        <v>46507</v>
       </c>
       <c r="G71" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H71" s="3">
-        <v>47415</v>
+        <v>46507</v>
       </c>
       <c r="I71" s="2">
         <v>100</v>
       </c>
       <c r="J71" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="K71" s="2">
         <v>100</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -6614,63 +6633,63 @@
         <v>13</v>
       </c>
       <c r="E72" s="3">
-        <v>45589</v>
+        <v>45622</v>
       </c>
       <c r="F72" s="3">
-        <v>46684</v>
+        <v>45989</v>
       </c>
       <c r="G72" s="2">
-        <v>6</v>
-      </c>
-      <c r="H72" s="3">
-        <v>46684</v>
-      </c>
-      <c r="I72" s="2">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J72" s="2">
-        <v>0.05</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K72" s="2">
         <v>100</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E73" s="3">
-        <v>45679</v>
+        <v>45404</v>
       </c>
       <c r="F73" s="3">
-        <v>48601</v>
+        <v>46134</v>
       </c>
       <c r="G73" s="2">
         <v>6</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>88</v>
+      <c r="H73" s="3">
+        <v>46134</v>
+      </c>
+      <c r="I73" s="2">
+        <v>100</v>
       </c>
       <c r="J73" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K73" s="2">
         <v>100</v>
@@ -6679,39 +6698,39 @@
         <v>113</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E74" s="3">
-        <v>45309</v>
+        <v>45589</v>
       </c>
       <c r="F74" s="3">
-        <v>46221</v>
+        <v>47415</v>
       </c>
       <c r="G74" s="2">
         <v>6</v>
       </c>
       <c r="H74" s="3">
-        <v>46221</v>
+        <v>47415</v>
       </c>
       <c r="I74" s="2">
         <v>100</v>
       </c>
       <c r="J74" s="2">
-        <v>0.08</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K74" s="2">
         <v>100</v>
@@ -6720,15 +6739,15 @@
         <v>113</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -6737,77 +6756,77 @@
         <v>13</v>
       </c>
       <c r="E75" s="3">
-        <v>45840</v>
+        <v>45589</v>
       </c>
       <c r="F75" s="3">
-        <v>46570</v>
+        <v>46684</v>
       </c>
       <c r="G75" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H75" s="3">
-        <v>46570</v>
+        <v>46684</v>
       </c>
       <c r="I75" s="2">
         <v>100</v>
       </c>
       <c r="J75" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K75" s="2">
         <v>100</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E76" s="3">
-        <v>45624</v>
+        <v>45679</v>
       </c>
       <c r="F76" s="3">
-        <v>47085</v>
+        <v>48601</v>
       </c>
       <c r="G76" s="2">
         <v>6</v>
       </c>
-      <c r="H76" s="3">
-        <v>47085</v>
-      </c>
-      <c r="I76" s="2">
-        <v>100</v>
+      <c r="H76" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J76" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K76" s="2">
         <v>100</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>63</v>
@@ -6819,63 +6838,63 @@
         <v>185</v>
       </c>
       <c r="E77" s="3">
-        <v>45491</v>
+        <v>45309</v>
       </c>
       <c r="F77" s="3">
-        <v>48047</v>
+        <v>46221</v>
       </c>
       <c r="G77" s="2">
         <v>6</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>88</v>
+      <c r="H77" s="3">
+        <v>46221</v>
+      </c>
+      <c r="I77" s="2">
+        <v>100</v>
       </c>
       <c r="J77" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K77" s="2">
         <v>100</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E78" s="3">
-        <v>45805</v>
+        <v>45840</v>
       </c>
       <c r="F78" s="3">
-        <v>48727</v>
+        <v>46570</v>
       </c>
       <c r="G78" s="2">
-        <v>6</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>158</v>
+        <v>3</v>
+      </c>
+      <c r="H78" s="3">
+        <v>46570</v>
+      </c>
+      <c r="I78" s="2">
+        <v>100</v>
       </c>
       <c r="J78" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K78" s="2">
         <v>100</v>
@@ -6884,176 +6903,179 @@
         <v>117</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E79" s="3">
-        <v>45497</v>
+        <v>45624</v>
       </c>
       <c r="F79" s="3">
-        <v>48053</v>
+        <v>47085</v>
       </c>
       <c r="G79" s="2">
         <v>6</v>
       </c>
       <c r="H79" s="3">
-        <v>48053</v>
+        <v>47085</v>
       </c>
       <c r="I79" s="2">
         <v>100</v>
       </c>
       <c r="J79" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K79" s="2">
         <v>100</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E80" s="3">
-        <v>45803</v>
+        <v>45491</v>
       </c>
       <c r="F80" s="3">
-        <v>45987</v>
+        <v>48047</v>
       </c>
       <c r="G80" s="2">
         <v>6</v>
       </c>
-      <c r="H80" s="3">
-        <v>45987</v>
-      </c>
-      <c r="I80" s="2">
-        <v>100</v>
+      <c r="H80" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J80" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K80" s="2">
         <v>100</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>931</v>
+        <v>191</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E81" s="3">
-        <v>45895</v>
+        <v>45805</v>
       </c>
       <c r="F81" s="3">
-        <v>46260</v>
+        <v>48727</v>
       </c>
       <c r="G81" s="2">
         <v>6</v>
       </c>
-      <c r="H81" s="3">
-        <v>46260</v>
-      </c>
-      <c r="I81" s="2">
-        <v>100</v>
+      <c r="H81" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J81" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K81" s="2">
         <v>100</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E82" s="3">
-        <v>45415</v>
+        <v>45497</v>
       </c>
       <c r="F82" s="3">
-        <v>47241</v>
+        <v>48053</v>
       </c>
       <c r="G82" s="2">
         <v>6</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>104</v>
+      <c r="H82" s="3">
+        <v>48053</v>
+      </c>
+      <c r="I82" s="2">
+        <v>100</v>
       </c>
       <c r="J82" s="2">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K82" s="2">
         <v>100</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -7062,39 +7084,39 @@
         <v>13</v>
       </c>
       <c r="E83" s="3">
-        <v>45723</v>
+        <v>45803</v>
       </c>
       <c r="F83" s="3">
-        <v>47549</v>
+        <v>45987</v>
       </c>
       <c r="G83" s="2">
         <v>6</v>
       </c>
       <c r="H83" s="3">
-        <v>47549</v>
+        <v>45987</v>
       </c>
       <c r="I83" s="2">
         <v>100</v>
       </c>
       <c r="J83" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K83" s="2">
         <v>100</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>72</v>
+        <v>931</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -7103,36 +7125,33 @@
         <v>13</v>
       </c>
       <c r="E84" s="3">
-        <v>45575</v>
+        <v>45895</v>
       </c>
       <c r="F84" s="3">
-        <v>48131</v>
+        <v>46260</v>
       </c>
       <c r="G84" s="2">
         <v>6</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>88</v>
+      <c r="H84" s="3">
+        <v>46260</v>
+      </c>
+      <c r="I84" s="2">
+        <v>100</v>
       </c>
       <c r="J84" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K84" s="2">
         <v>100</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>70</v>
@@ -7144,22 +7163,22 @@
         <v>13</v>
       </c>
       <c r="E85" s="3">
-        <v>45818</v>
+        <v>45415</v>
       </c>
       <c r="F85" s="3">
-        <v>48740</v>
+        <v>47241</v>
       </c>
       <c r="G85" s="2">
         <v>6</v>
       </c>
-      <c r="H85" s="3">
-        <v>48740</v>
-      </c>
-      <c r="I85" s="2">
-        <v>100</v>
+      <c r="H85" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J85" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K85" s="2">
         <v>100</v>
@@ -7168,39 +7187,39 @@
         <v>113</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E86" s="3">
-        <v>45636</v>
+        <v>45723</v>
       </c>
       <c r="F86" s="3">
-        <v>49653</v>
+        <v>47549</v>
       </c>
       <c r="G86" s="2">
         <v>6</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>88</v>
+      <c r="H86" s="3">
+        <v>47549</v>
+      </c>
+      <c r="I86" s="2">
+        <v>100</v>
       </c>
       <c r="J86" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K86" s="2">
         <v>100</v>
@@ -7209,39 +7228,39 @@
         <v>113</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E87" s="3">
-        <v>43671</v>
+        <v>45575</v>
       </c>
       <c r="F87" s="3">
-        <v>46228</v>
+        <v>48131</v>
       </c>
       <c r="G87" s="2">
         <v>6</v>
       </c>
-      <c r="H87" s="3">
-        <v>46228</v>
-      </c>
-      <c r="I87" s="2">
-        <v>100</v>
+      <c r="H87" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J87" s="2">
-        <v>0.1</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K87" s="2">
         <v>100</v>
@@ -7249,16 +7268,16 @@
       <c r="L87" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M87" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -7267,22 +7286,22 @@
         <v>13</v>
       </c>
       <c r="E88" s="3">
-        <v>45349</v>
+        <v>45818</v>
       </c>
       <c r="F88" s="3">
-        <v>46445</v>
+        <v>48740</v>
       </c>
       <c r="G88" s="2">
         <v>6</v>
       </c>
       <c r="H88" s="3">
-        <v>46445</v>
+        <v>48740</v>
       </c>
       <c r="I88" s="2">
         <v>100</v>
       </c>
       <c r="J88" s="2">
-        <v>0.06</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K88" s="2">
         <v>100</v>
@@ -7291,39 +7310,39 @@
         <v>113</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E89" s="3">
-        <v>45456</v>
+        <v>45636</v>
       </c>
       <c r="F89" s="3">
-        <v>46551</v>
+        <v>49653</v>
       </c>
       <c r="G89" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="J89" s="2">
-        <v>0.06</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K89" s="2">
         <v>100</v>
@@ -7332,12 +7351,12 @@
         <v>113</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>156</v>
@@ -7349,22 +7368,22 @@
         <v>185</v>
       </c>
       <c r="E90" s="3">
-        <v>45581</v>
+        <v>43671</v>
       </c>
       <c r="F90" s="3">
-        <v>48503</v>
+        <v>46228</v>
       </c>
       <c r="G90" s="2">
         <v>6</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>88</v>
+      <c r="H90" s="3">
+        <v>46228</v>
+      </c>
+      <c r="I90" s="2">
+        <v>100</v>
       </c>
       <c r="J90" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K90" s="2">
         <v>100</v>
@@ -7372,13 +7391,13 @@
       <c r="L90" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M90" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M90" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>156</v>
@@ -7390,22 +7409,22 @@
         <v>13</v>
       </c>
       <c r="E91" s="3">
-        <v>45618</v>
+        <v>45349</v>
       </c>
       <c r="F91" s="3">
-        <v>46348</v>
+        <v>46445</v>
       </c>
       <c r="G91" s="2">
         <v>6</v>
       </c>
       <c r="H91" s="3">
-        <v>46348</v>
+        <v>46445</v>
       </c>
       <c r="I91" s="2">
         <v>100</v>
       </c>
       <c r="J91" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K91" s="2">
         <v>100</v>
@@ -7414,12 +7433,12 @@
         <v>113</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>156</v>
@@ -7431,22 +7450,22 @@
         <v>13</v>
       </c>
       <c r="E92" s="3">
-        <v>45618</v>
+        <v>45456</v>
       </c>
       <c r="F92" s="3">
-        <v>47079</v>
+        <v>46551</v>
       </c>
       <c r="G92" s="2">
         <v>3</v>
       </c>
-      <c r="H92" s="3">
-        <v>47079</v>
-      </c>
-      <c r="I92" s="2">
-        <v>100</v>
+      <c r="H92" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J92" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K92" s="2">
         <v>100</v>
@@ -7455,39 +7474,39 @@
         <v>113</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E93" s="3">
-        <v>45797</v>
+        <v>45581</v>
       </c>
       <c r="F93" s="3">
-        <v>46527</v>
+        <v>48503</v>
       </c>
       <c r="G93" s="2">
-        <v>3</v>
-      </c>
-      <c r="H93" s="3">
-        <v>46527</v>
-      </c>
-      <c r="I93" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J93" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K93" s="2">
         <v>100</v>
@@ -7496,15 +7515,15 @@
         <v>113</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -7513,22 +7532,22 @@
         <v>13</v>
       </c>
       <c r="E94" s="3">
-        <v>45090</v>
+        <v>45618</v>
       </c>
       <c r="F94" s="3">
-        <v>46066</v>
+        <v>46348</v>
       </c>
       <c r="G94" s="2">
         <v>6</v>
       </c>
       <c r="H94" s="3">
-        <v>46066</v>
+        <v>46348</v>
       </c>
       <c r="I94" s="2">
         <v>100</v>
       </c>
       <c r="J94" s="2">
-        <v>0.05</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="K94" s="2">
         <v>100</v>
@@ -7537,15 +7556,15 @@
         <v>113</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -7554,22 +7573,22 @@
         <v>13</v>
       </c>
       <c r="E95" s="3">
-        <v>45624</v>
+        <v>45618</v>
       </c>
       <c r="F95" s="3">
-        <v>46170</v>
+        <v>47079</v>
       </c>
       <c r="G95" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H95" s="3">
-        <v>46170</v>
+        <v>47079</v>
       </c>
       <c r="I95" s="2">
         <v>100</v>
       </c>
       <c r="J95" s="2">
-        <v>0.06</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K95" s="2">
         <v>100</v>
@@ -7578,15 +7597,15 @@
         <v>113</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -7595,22 +7614,22 @@
         <v>13</v>
       </c>
       <c r="E96" s="3">
-        <v>45715</v>
+        <v>45797</v>
       </c>
       <c r="F96" s="3">
-        <v>46445</v>
+        <v>46527</v>
       </c>
       <c r="G96" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H96" s="3">
-        <v>46445</v>
+        <v>46527</v>
       </c>
       <c r="I96" s="2">
         <v>100</v>
       </c>
       <c r="J96" s="2">
-        <v>6.25E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K96" s="2">
         <v>100</v>
@@ -7619,12 +7638,12 @@
         <v>113</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>75</v>
@@ -7636,22 +7655,22 @@
         <v>13</v>
       </c>
       <c r="E97" s="3">
-        <v>45784</v>
+        <v>45090</v>
       </c>
       <c r="F97" s="3">
-        <v>46514</v>
+        <v>46066</v>
       </c>
       <c r="G97" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H97" s="3">
-        <v>46514</v>
+        <v>46066</v>
       </c>
       <c r="I97" s="2">
         <v>100</v>
       </c>
       <c r="J97" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K97" s="2">
         <v>100</v>
@@ -7660,12 +7679,12 @@
         <v>113</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>75</v>
@@ -7677,22 +7696,22 @@
         <v>13</v>
       </c>
       <c r="E98" s="3">
-        <v>45860</v>
+        <v>45624</v>
       </c>
       <c r="F98" s="3">
-        <v>46590</v>
+        <v>46170</v>
       </c>
       <c r="G98" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H98" s="3">
-        <v>46590</v>
+        <v>46170</v>
       </c>
       <c r="I98" s="2">
         <v>100</v>
       </c>
       <c r="J98" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K98" s="2">
         <v>100</v>
@@ -7701,39 +7720,39 @@
         <v>113</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E99" s="3">
-        <v>44239</v>
+        <v>45715</v>
       </c>
       <c r="F99" s="3">
-        <v>47299</v>
+        <v>46445</v>
       </c>
       <c r="G99" s="2">
         <v>6</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>108</v>
+      <c r="H99" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I99" s="2">
+        <v>100</v>
       </c>
       <c r="J99" s="2">
-        <v>0.09</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K99" s="2">
         <v>100</v>
@@ -7742,12 +7761,12 @@
         <v>113</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>75</v>
@@ -7759,22 +7778,22 @@
         <v>13</v>
       </c>
       <c r="E100" s="3">
-        <v>45575</v>
+        <v>45784</v>
       </c>
       <c r="F100" s="3">
-        <v>47036</v>
+        <v>46514</v>
       </c>
       <c r="G100" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>47036</v>
+        <v>46514</v>
       </c>
       <c r="I100" s="2">
         <v>100</v>
       </c>
       <c r="J100" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K100" s="2">
         <v>100</v>
@@ -7783,12 +7802,12 @@
         <v>113</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>75</v>
@@ -7803,19 +7822,19 @@
         <v>45860</v>
       </c>
       <c r="F101" s="3">
-        <v>47686</v>
+        <v>46590</v>
       </c>
       <c r="G101" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H101" s="3">
-        <v>47686</v>
+        <v>46590</v>
       </c>
       <c r="I101" s="2">
         <v>100</v>
       </c>
       <c r="J101" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K101" s="2">
         <v>100</v>
@@ -7824,39 +7843,39 @@
         <v>113</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>930</v>
+        <v>81</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E102" s="3">
-        <v>45938</v>
+        <v>44239</v>
       </c>
       <c r="F102" s="3">
-        <v>46454</v>
+        <v>47299</v>
       </c>
       <c r="G102" s="2">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3">
-        <v>46454</v>
-      </c>
-      <c r="I102" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="J102" s="2">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="K102" s="2">
         <v>100</v>
@@ -7864,37 +7883,40 @@
       <c r="L102" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M102" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E103" s="3">
-        <v>47372</v>
+        <v>45575</v>
       </c>
       <c r="F103" s="3">
-        <v>48102</v>
+        <v>47036</v>
       </c>
       <c r="G103" s="2">
         <v>6</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>88</v>
+      <c r="H103" s="3">
+        <v>47036</v>
+      </c>
+      <c r="I103" s="2">
+        <v>100</v>
       </c>
       <c r="J103" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K103" s="2">
         <v>100</v>
@@ -7903,39 +7925,39 @@
         <v>113</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E104" s="3">
-        <v>45674</v>
+        <v>45860</v>
       </c>
       <c r="F104" s="3">
-        <v>48961</v>
+        <v>47686</v>
       </c>
       <c r="G104" s="2">
         <v>6</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>88</v>
+      <c r="H104" s="3">
+        <v>47686</v>
+      </c>
+      <c r="I104" s="2">
+        <v>100</v>
       </c>
       <c r="J104" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K104" s="2">
         <v>100</v>
@@ -7944,39 +7966,39 @@
         <v>113</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>86</v>
+        <v>930</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E105" s="3">
-        <v>45199</v>
+        <v>45938</v>
       </c>
       <c r="F105" s="3">
-        <v>48852</v>
+        <v>46454</v>
       </c>
       <c r="G105" s="2">
-        <v>6</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>104</v>
+        <v>3</v>
+      </c>
+      <c r="H105" s="3">
+        <v>46454</v>
+      </c>
+      <c r="I105" s="2">
+        <v>100</v>
       </c>
       <c r="J105" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K105" s="2">
         <v>100</v>
@@ -7984,7 +8006,127 @@
       <c r="L105" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M105" s="1" t="s">
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E106" s="3">
+        <v>47372</v>
+      </c>
+      <c r="F106" s="3">
+        <v>48102</v>
+      </c>
+      <c r="G106" s="2">
+        <v>6</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J106" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K106" s="2">
+        <v>100</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F107" s="3">
+        <v>48961</v>
+      </c>
+      <c r="G107" s="2">
+        <v>6</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J107" s="2">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K107" s="2">
+        <v>100</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E108" s="3">
+        <v>45199</v>
+      </c>
+      <c r="F108" s="3">
+        <v>48852</v>
+      </c>
+      <c r="G108" s="2">
+        <v>6</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J108" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K108" s="2">
+        <v>100</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M108" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8002,14 +8144,14 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>194</v>
       </c>
@@ -8050,7 +8192,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>776</v>
       </c>
@@ -8091,7 +8233,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>271</v>
       </c>
@@ -8132,7 +8274,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>288</v>
       </c>
@@ -8170,7 +8312,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -8208,7 +8350,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>512</v>
       </c>
@@ -8246,7 +8388,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>776</v>
       </c>
@@ -8284,7 +8426,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -8322,7 +8464,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>210</v>
       </c>
@@ -8360,7 +8502,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>253</v>
       </c>
@@ -8398,7 +8540,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>352</v>
       </c>
@@ -8439,7 +8581,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>679</v>
       </c>
@@ -8480,7 +8622,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>410</v>
       </c>
@@ -8518,7 +8660,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -8559,7 +8701,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>654</v>
       </c>
@@ -8600,7 +8742,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>359</v>
       </c>
@@ -8641,7 +8783,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>311</v>
       </c>
@@ -8682,7 +8824,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>288</v>
       </c>
@@ -8720,7 +8862,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>359</v>
       </c>
@@ -8761,7 +8903,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>359</v>
       </c>
@@ -8799,7 +8941,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>359</v>
       </c>
@@ -8837,7 +8979,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>237</v>
       </c>
@@ -8875,7 +9017,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>483</v>
       </c>
@@ -8913,7 +9055,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>288</v>
       </c>
@@ -8951,7 +9093,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -8989,7 +9131,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>596</v>
       </c>
@@ -9030,7 +9172,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>654</v>
       </c>
@@ -9071,7 +9213,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>679</v>
       </c>
@@ -9112,7 +9254,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>264</v>
       </c>
@@ -9153,7 +9295,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>244</v>
       </c>
@@ -9194,7 +9336,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -9232,7 +9374,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>305</v>
       </c>
@@ -9270,7 +9412,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>679</v>
       </c>
@@ -9308,7 +9450,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>558</v>
       </c>
@@ -9346,7 +9488,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>359</v>
       </c>
@@ -9384,7 +9526,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>776</v>
       </c>
@@ -9422,7 +9564,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -9460,7 +9602,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>654</v>
       </c>
@@ -9498,7 +9640,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>311</v>
       </c>
@@ -9536,7 +9678,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>483</v>
       </c>
@@ -9574,7 +9716,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -9612,7 +9754,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>340</v>
       </c>
@@ -9650,7 +9792,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>311</v>
       </c>
@@ -9691,7 +9833,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>253</v>
       </c>
@@ -9732,7 +9874,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>512</v>
       </c>
@@ -9770,7 +9912,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>464</v>
       </c>
@@ -9808,7 +9950,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>596</v>
       </c>
@@ -9846,7 +9988,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>237</v>
       </c>
@@ -9884,7 +10026,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>359</v>
       </c>
@@ -9922,7 +10064,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>288</v>
       </c>
@@ -9960,7 +10102,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>596</v>
       </c>
@@ -9998,7 +10140,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>695</v>
       </c>
@@ -10036,7 +10178,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>311</v>
       </c>
@@ -10074,7 +10216,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>311</v>
       </c>
@@ -10112,7 +10254,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>210</v>
       </c>
@@ -10150,7 +10292,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>210</v>
       </c>
@@ -10188,7 +10330,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>246</v>
       </c>
@@ -10226,7 +10368,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>428</v>
       </c>
@@ -10264,7 +10406,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>558</v>
       </c>
@@ -10302,7 +10444,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>483</v>
       </c>
@@ -10340,7 +10482,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -10381,7 +10523,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>512</v>
       </c>
@@ -10422,7 +10564,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -10460,7 +10602,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>210</v>
       </c>
@@ -10498,7 +10640,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>237</v>
       </c>
@@ -10536,7 +10678,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>352</v>
       </c>
@@ -10574,7 +10716,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -10612,7 +10754,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>359</v>
       </c>
@@ -10650,7 +10792,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>288</v>
       </c>
@@ -10691,7 +10833,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>654</v>
       </c>
@@ -10732,7 +10874,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -10770,7 +10912,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>225</v>
       </c>
@@ -10808,7 +10950,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>596</v>
       </c>
@@ -10846,7 +10988,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>695</v>
       </c>
@@ -10884,7 +11026,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>311</v>
       </c>
@@ -10922,7 +11064,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>246</v>
       </c>
@@ -10960,7 +11102,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>352</v>
       </c>
@@ -10998,7 +11140,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -11036,7 +11178,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>271</v>
       </c>
@@ -11074,7 +11216,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>271</v>
       </c>
@@ -11112,7 +11254,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>428</v>
       </c>
@@ -11153,7 +11295,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>558</v>
       </c>
@@ -11194,7 +11336,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>558</v>
       </c>
@@ -11232,7 +11374,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>428</v>
       </c>
@@ -11273,7 +11415,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>428</v>
       </c>
@@ -11314,7 +11456,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>428</v>
       </c>
@@ -11352,7 +11494,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>428</v>
       </c>
@@ -11390,7 +11532,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>288</v>
       </c>
@@ -11428,7 +11570,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>526</v>
       </c>
@@ -11466,7 +11608,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>237</v>
       </c>
@@ -11504,7 +11646,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>352</v>
       </c>
@@ -11542,7 +11684,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>352</v>
       </c>
@@ -11580,7 +11722,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>359</v>
       </c>
@@ -11618,7 +11760,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -11656,7 +11798,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>340</v>
       </c>
@@ -11694,7 +11836,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>340</v>
       </c>
@@ -11732,7 +11874,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>596</v>
       </c>
@@ -11770,7 +11912,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>311</v>
       </c>
@@ -11808,7 +11950,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>464</v>
       </c>
@@ -11849,7 +11991,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>359</v>
       </c>
@@ -11890,7 +12032,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>288</v>
       </c>
@@ -11928,7 +12070,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>288</v>
       </c>
@@ -11966,7 +12108,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>776</v>
       </c>
@@ -12004,7 +12146,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>359</v>
       </c>
@@ -12042,7 +12184,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>202</v>
       </c>
@@ -12080,7 +12222,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>596</v>
       </c>
@@ -12118,7 +12260,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>352</v>
       </c>
@@ -12156,7 +12298,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>654</v>
       </c>
@@ -12197,7 +12339,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>352</v>
       </c>
@@ -12238,7 +12380,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>311</v>
       </c>
@@ -12276,7 +12418,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>288</v>
       </c>
@@ -12314,7 +12456,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>237</v>
       </c>
@@ -12352,7 +12494,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>558</v>
       </c>
@@ -12393,7 +12535,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>359</v>
       </c>
@@ -12434,7 +12576,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>359</v>
       </c>
@@ -12475,7 +12617,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>359</v>
       </c>
@@ -12516,7 +12658,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>695</v>
       </c>
@@ -12554,7 +12696,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>679</v>
       </c>
@@ -12592,7 +12734,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>654</v>
       </c>
@@ -12630,7 +12772,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>288</v>
       </c>
@@ -12668,7 +12810,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>512</v>
       </c>
@@ -12706,7 +12848,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>596</v>
       </c>
@@ -12744,7 +12886,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>596</v>
       </c>
@@ -12782,7 +12924,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>558</v>
       </c>
@@ -12823,7 +12965,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>410</v>
       </c>
@@ -12864,7 +13006,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>237</v>
       </c>
@@ -12902,7 +13044,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>288</v>
       </c>
@@ -12940,7 +13082,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -12978,7 +13120,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>305</v>
       </c>
@@ -13016,7 +13158,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>410</v>
       </c>
@@ -13054,7 +13196,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>271</v>
       </c>
@@ -13092,7 +13234,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>654</v>
       </c>
@@ -13130,7 +13272,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>298</v>
       </c>
@@ -13168,7 +13310,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>311</v>
       </c>
@@ -13206,7 +13348,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>340</v>
       </c>
@@ -13244,7 +13386,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>596</v>
       </c>
@@ -13285,7 +13427,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>464</v>
       </c>
@@ -13326,7 +13468,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>298</v>
       </c>
@@ -13364,7 +13506,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>237</v>
       </c>
@@ -13402,7 +13544,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>253</v>
       </c>
@@ -13440,7 +13582,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>253</v>
       </c>
@@ -13481,7 +13623,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>340</v>
       </c>
@@ -13522,7 +13664,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>634</v>
       </c>
@@ -13560,7 +13702,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>558</v>
       </c>
@@ -13598,7 +13740,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>596</v>
       </c>
@@ -13636,7 +13778,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>246</v>
       </c>
@@ -13674,7 +13816,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>271</v>
       </c>
@@ -13712,7 +13854,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>288</v>
       </c>
@@ -13750,7 +13892,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>340</v>
       </c>
@@ -13788,7 +13930,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>237</v>
       </c>
@@ -13829,7 +13971,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>237</v>
       </c>
@@ -13870,7 +14012,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>359</v>
       </c>
@@ -13908,7 +14050,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>359</v>
       </c>
@@ -13946,7 +14088,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>271</v>
       </c>
@@ -13984,7 +14126,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>359</v>
       </c>
@@ -14025,7 +14167,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>359</v>
       </c>
@@ -14066,7 +14208,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>210</v>
       </c>
@@ -14104,7 +14246,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>210</v>
       </c>
@@ -14142,7 +14284,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>464</v>
       </c>
@@ -14180,7 +14322,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>596</v>
       </c>
@@ -14218,7 +14360,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>654</v>
       </c>
@@ -14256,7 +14398,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>428</v>
       </c>
@@ -14297,7 +14439,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>359</v>
       </c>
@@ -14338,7 +14480,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>288</v>
       </c>
@@ -14379,7 +14521,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>558</v>
       </c>
@@ -14420,7 +14562,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>352</v>
       </c>
@@ -14458,7 +14600,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>311</v>
       </c>
@@ -14496,7 +14638,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>695</v>
       </c>
@@ -14534,7 +14676,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>340</v>
       </c>
@@ -14575,7 +14717,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>225</v>
       </c>
@@ -14613,7 +14755,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>225</v>
       </c>
@@ -14651,7 +14793,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>359</v>
       </c>
@@ -14689,7 +14831,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>359</v>
       </c>
@@ -14727,7 +14869,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>359</v>
       </c>
@@ -14765,7 +14907,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>359</v>
       </c>
@@ -14803,7 +14945,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>244</v>
       </c>
@@ -14844,7 +14986,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>288</v>
       </c>
@@ -14885,7 +15027,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>288</v>
       </c>
@@ -14923,7 +15065,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>253</v>
       </c>
@@ -14961,7 +15103,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>305</v>
       </c>
@@ -14999,7 +15141,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>298</v>
       </c>
@@ -15037,7 +15179,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>340</v>
       </c>
@@ -15075,7 +15217,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>359</v>
       </c>
@@ -15113,7 +15255,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>246</v>
       </c>
@@ -15151,7 +15293,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>246</v>
       </c>
@@ -15189,7 +15331,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>264</v>
       </c>
@@ -15227,7 +15369,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>264</v>
       </c>
@@ -15265,7 +15407,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>359</v>
       </c>
@@ -15303,7 +15445,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>359</v>
       </c>
@@ -15341,7 +15483,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>288</v>
       </c>
@@ -15382,7 +15524,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>311</v>
       </c>
@@ -15423,7 +15565,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>311</v>
       </c>
@@ -15464,7 +15606,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>333</v>
       </c>
@@ -15505,7 +15647,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>333</v>
       </c>
@@ -15543,7 +15685,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>428</v>
       </c>
@@ -15581,7 +15723,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>428</v>
       </c>
@@ -15619,7 +15761,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>428</v>
       </c>
@@ -15657,7 +15799,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>340</v>
       </c>
@@ -15695,7 +15837,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>271</v>
       </c>
@@ -15733,7 +15875,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>271</v>
       </c>
@@ -15771,7 +15913,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>359</v>
       </c>
@@ -15809,7 +15951,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>359</v>
       </c>
@@ -15847,7 +15989,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>340</v>
       </c>
@@ -15885,7 +16027,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>288</v>
       </c>
@@ -15926,7 +16068,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>596</v>
       </c>
@@ -15967,7 +16109,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>352</v>
       </c>
@@ -16005,7 +16147,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>288</v>
       </c>
@@ -16046,7 +16188,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>428</v>
       </c>
@@ -16087,7 +16229,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>410</v>
       </c>
@@ -16125,7 +16267,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>288</v>
       </c>
@@ -16163,7 +16305,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>288</v>
       </c>
@@ -16201,7 +16343,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>298</v>
       </c>
@@ -16239,7 +16381,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>298</v>
       </c>
@@ -16277,7 +16419,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>359</v>
       </c>
@@ -16315,7 +16457,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>352</v>
       </c>
@@ -16353,7 +16495,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>352</v>
       </c>
@@ -16394,7 +16536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>695</v>
       </c>
@@ -16435,7 +16577,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>305</v>
       </c>
@@ -16473,7 +16615,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>305</v>
       </c>
@@ -16511,7 +16653,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>596</v>
       </c>
@@ -16549,7 +16691,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>311</v>
       </c>
@@ -16587,7 +16729,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>311</v>
       </c>
@@ -16625,7 +16767,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>340</v>
       </c>
@@ -16666,7 +16808,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>340</v>
       </c>
@@ -16707,7 +16849,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>202</v>
       </c>
@@ -16748,7 +16890,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>202</v>
       </c>
@@ -16789,7 +16931,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>359</v>
       </c>
@@ -16830,7 +16972,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>359</v>
       </c>
@@ -16868,7 +17010,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>359</v>
       </c>
@@ -16909,7 +17051,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>359</v>
       </c>
@@ -16950,7 +17092,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>271</v>
       </c>
@@ -16991,7 +17133,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>271</v>
       </c>
@@ -17032,7 +17174,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>253</v>
       </c>
@@ -17070,7 +17212,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>253</v>
       </c>
@@ -17111,7 +17253,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>340</v>
       </c>
@@ -17152,7 +17294,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>340</v>
       </c>
@@ -17193,7 +17335,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>359</v>
       </c>
@@ -17234,7 +17376,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>359</v>
       </c>
@@ -17275,7 +17417,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>311</v>
       </c>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AECB6FDB-20D9-47C1-B122-F8B8CAAABF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5D8D63-09C7-4E81-8242-D7ECDABBAE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$L$239</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="937">
   <si>
     <t>name</t>
   </si>
@@ -2846,6 +2846,9 @@
   </si>
   <si>
     <t>PQCSD</t>
+  </si>
+  <si>
+    <t>TTCBD</t>
   </si>
 </sst>
 </file>
@@ -3692,13 +3695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomRight" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -6826,34 +6829,35 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>62</v>
+        <v>936</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E77" s="3">
-        <v>45309</v>
+        <v>45946</v>
       </c>
       <c r="F77" s="3">
-        <v>46221</v>
+        <v>46676</v>
       </c>
       <c r="G77" s="2">
         <v>6</v>
       </c>
       <c r="H77" s="3">
-        <v>46221</v>
+        <f>F77</f>
+        <v>46676</v>
       </c>
       <c r="I77" s="2">
         <v>100</v>
       </c>
       <c r="J77" s="2">
-        <v>0.08</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K77" s="2">
         <v>100</v>
@@ -6861,54 +6865,51 @@
       <c r="L77" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M77" s="1" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E78" s="3">
-        <v>45840</v>
+        <v>45309</v>
       </c>
       <c r="F78" s="3">
-        <v>46570</v>
+        <v>46221</v>
       </c>
       <c r="G78" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H78" s="3">
-        <v>46570</v>
+        <v>46221</v>
       </c>
       <c r="I78" s="2">
         <v>100</v>
       </c>
       <c r="J78" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K78" s="2">
         <v>100</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>814</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>63</v>
@@ -6920,22 +6921,22 @@
         <v>13</v>
       </c>
       <c r="E79" s="3">
-        <v>45624</v>
+        <v>45840</v>
       </c>
       <c r="F79" s="3">
-        <v>47085</v>
+        <v>46570</v>
       </c>
       <c r="G79" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H79" s="3">
-        <v>47085</v>
+        <v>46570</v>
       </c>
       <c r="I79" s="2">
         <v>100</v>
       </c>
       <c r="J79" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K79" s="2">
         <v>100</v>
@@ -6944,39 +6945,39 @@
         <v>117</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E80" s="3">
-        <v>45491</v>
+        <v>45624</v>
       </c>
       <c r="F80" s="3">
-        <v>48047</v>
+        <v>47085</v>
       </c>
       <c r="G80" s="2">
         <v>6</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>88</v>
+      <c r="H80" s="3">
+        <v>47085</v>
+      </c>
+      <c r="I80" s="2">
+        <v>100</v>
       </c>
       <c r="J80" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K80" s="2">
         <v>100</v>
@@ -6985,12 +6986,12 @@
         <v>117</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>319</v>
+        <v>820</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>63</v>
@@ -7002,19 +7003,19 @@
         <v>185</v>
       </c>
       <c r="E81" s="3">
-        <v>45805</v>
+        <v>45491</v>
       </c>
       <c r="F81" s="3">
-        <v>48727</v>
+        <v>48047</v>
       </c>
       <c r="G81" s="2">
         <v>6</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="J81" s="2">
         <v>9.5000000000000001E-2</v>
@@ -7026,15 +7027,15 @@
         <v>117</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
@@ -7043,77 +7044,77 @@
         <v>185</v>
       </c>
       <c r="E82" s="3">
-        <v>45497</v>
+        <v>45805</v>
       </c>
       <c r="F82" s="3">
-        <v>48053</v>
+        <v>48727</v>
       </c>
       <c r="G82" s="2">
         <v>6</v>
       </c>
-      <c r="H82" s="3">
-        <v>48053</v>
-      </c>
-      <c r="I82" s="2">
-        <v>100</v>
+      <c r="H82" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J82" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K82" s="2">
         <v>100</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E83" s="3">
-        <v>45803</v>
+        <v>45497</v>
       </c>
       <c r="F83" s="3">
-        <v>45987</v>
+        <v>48053</v>
       </c>
       <c r="G83" s="2">
         <v>6</v>
       </c>
       <c r="H83" s="3">
-        <v>45987</v>
+        <v>48053</v>
       </c>
       <c r="I83" s="2">
         <v>100</v>
       </c>
       <c r="J83" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K83" s="2">
         <v>100</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>515</v>
+        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>931</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>138</v>
@@ -7125,22 +7126,22 @@
         <v>13</v>
       </c>
       <c r="E84" s="3">
-        <v>45895</v>
+        <v>45803</v>
       </c>
       <c r="F84" s="3">
-        <v>46260</v>
+        <v>45987</v>
       </c>
       <c r="G84" s="2">
         <v>6</v>
       </c>
       <c r="H84" s="3">
-        <v>46260</v>
+        <v>45987</v>
       </c>
       <c r="I84" s="2">
         <v>100</v>
       </c>
       <c r="J84" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K84" s="2">
         <v>100</v>
@@ -7148,13 +7149,16 @@
       <c r="L84" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="M84" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>69</v>
+        <v>931</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -7163,36 +7167,33 @@
         <v>13</v>
       </c>
       <c r="E85" s="3">
-        <v>45415</v>
+        <v>45895</v>
       </c>
       <c r="F85" s="3">
-        <v>47241</v>
+        <v>46260</v>
       </c>
       <c r="G85" s="2">
         <v>6</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>104</v>
+      <c r="H85" s="3">
+        <v>46260</v>
+      </c>
+      <c r="I85" s="2">
+        <v>100</v>
       </c>
       <c r="J85" s="2">
-        <v>0.08</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K85" s="2">
         <v>100</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>847</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>70</v>
@@ -7204,22 +7205,22 @@
         <v>13</v>
       </c>
       <c r="E86" s="3">
-        <v>45723</v>
+        <v>45415</v>
       </c>
       <c r="F86" s="3">
-        <v>47549</v>
+        <v>47241</v>
       </c>
       <c r="G86" s="2">
         <v>6</v>
       </c>
-      <c r="H86" s="3">
-        <v>47549</v>
-      </c>
-      <c r="I86" s="2">
-        <v>100</v>
+      <c r="H86" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J86" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K86" s="2">
         <v>100</v>
@@ -7228,12 +7229,12 @@
         <v>113</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>70</v>
@@ -7245,22 +7246,22 @@
         <v>13</v>
       </c>
       <c r="E87" s="3">
-        <v>45575</v>
+        <v>45723</v>
       </c>
       <c r="F87" s="3">
-        <v>48131</v>
+        <v>47549</v>
       </c>
       <c r="G87" s="2">
         <v>6</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>88</v>
+      <c r="H87" s="3">
+        <v>47549</v>
+      </c>
+      <c r="I87" s="2">
+        <v>100</v>
       </c>
       <c r="J87" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K87" s="2">
         <v>100</v>
@@ -7269,12 +7270,12 @@
         <v>113</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>70</v>
@@ -7286,22 +7287,22 @@
         <v>13</v>
       </c>
       <c r="E88" s="3">
-        <v>45818</v>
+        <v>45575</v>
       </c>
       <c r="F88" s="3">
-        <v>48740</v>
+        <v>48131</v>
       </c>
       <c r="G88" s="2">
         <v>6</v>
       </c>
-      <c r="H88" s="3">
-        <v>48740</v>
-      </c>
-      <c r="I88" s="2">
-        <v>100</v>
+      <c r="H88" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J88" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K88" s="2">
         <v>100</v>
@@ -7310,39 +7311,39 @@
         <v>113</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>346</v>
+        <v>856</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E89" s="3">
-        <v>45636</v>
+        <v>45818</v>
       </c>
       <c r="F89" s="3">
-        <v>49653</v>
+        <v>48740</v>
       </c>
       <c r="G89" s="2">
         <v>6</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>88</v>
+      <c r="H89" s="3">
+        <v>48740</v>
+      </c>
+      <c r="I89" s="2">
+        <v>100</v>
       </c>
       <c r="J89" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K89" s="2">
         <v>100</v>
@@ -7351,15 +7352,15 @@
         <v>113</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
@@ -7368,22 +7369,22 @@
         <v>185</v>
       </c>
       <c r="E90" s="3">
-        <v>43671</v>
+        <v>45636</v>
       </c>
       <c r="F90" s="3">
-        <v>46228</v>
+        <v>49653</v>
       </c>
       <c r="G90" s="2">
         <v>6</v>
       </c>
-      <c r="H90" s="3">
-        <v>46228</v>
-      </c>
-      <c r="I90" s="2">
-        <v>100</v>
+      <c r="H90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J90" s="2">
-        <v>0.1</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K90" s="2">
         <v>100</v>
@@ -7391,40 +7392,40 @@
       <c r="L90" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M90" s="1" t="e">
-        <v>#N/A</v>
+      <c r="M90" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E91" s="3">
-        <v>45349</v>
+        <v>43671</v>
       </c>
       <c r="F91" s="3">
-        <v>46445</v>
+        <v>46228</v>
       </c>
       <c r="G91" s="2">
         <v>6</v>
       </c>
       <c r="H91" s="3">
-        <v>46445</v>
+        <v>46228</v>
       </c>
       <c r="I91" s="2">
         <v>100</v>
       </c>
       <c r="J91" s="2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K91" s="2">
         <v>100</v>
@@ -7432,13 +7433,13 @@
       <c r="L91" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M91" s="1" t="s">
-        <v>541</v>
+      <c r="M91" s="1" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>156</v>
@@ -7450,19 +7451,19 @@
         <v>13</v>
       </c>
       <c r="E92" s="3">
-        <v>45456</v>
+        <v>45349</v>
       </c>
       <c r="F92" s="3">
-        <v>46551</v>
+        <v>46445</v>
       </c>
       <c r="G92" s="2">
-        <v>3</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>158</v>
+        <v>6</v>
+      </c>
+      <c r="H92" s="3">
+        <v>46445</v>
+      </c>
+      <c r="I92" s="2">
+        <v>100</v>
       </c>
       <c r="J92" s="2">
         <v>0.06</v>
@@ -7474,39 +7475,39 @@
         <v>113</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>880</v>
+        <v>541</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E93" s="3">
-        <v>45581</v>
+        <v>45456</v>
       </c>
       <c r="F93" s="3">
-        <v>48503</v>
+        <v>46551</v>
       </c>
       <c r="G93" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="J93" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K93" s="2">
         <v>100</v>
@@ -7515,39 +7516,39 @@
         <v>113</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>355</v>
+        <v>880</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E94" s="3">
-        <v>45618</v>
+        <v>45581</v>
       </c>
       <c r="F94" s="3">
-        <v>46348</v>
+        <v>48503</v>
       </c>
       <c r="G94" s="2">
         <v>6</v>
       </c>
-      <c r="H94" s="3">
-        <v>46348</v>
-      </c>
-      <c r="I94" s="2">
-        <v>100</v>
+      <c r="H94" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J94" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K94" s="2">
         <v>100</v>
@@ -7556,12 +7557,12 @@
         <v>113</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>591</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>156</v>
@@ -7576,19 +7577,19 @@
         <v>45618</v>
       </c>
       <c r="F95" s="3">
-        <v>47079</v>
+        <v>46348</v>
       </c>
       <c r="G95" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H95" s="3">
-        <v>47079</v>
+        <v>46348</v>
       </c>
       <c r="I95" s="2">
         <v>100</v>
       </c>
       <c r="J95" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="K95" s="2">
         <v>100</v>
@@ -7597,12 +7598,12 @@
         <v>113</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>883</v>
+        <v>591</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>156</v>
@@ -7614,22 +7615,22 @@
         <v>13</v>
       </c>
       <c r="E96" s="3">
-        <v>45797</v>
+        <v>45618</v>
       </c>
       <c r="F96" s="3">
-        <v>46527</v>
+        <v>47079</v>
       </c>
       <c r="G96" s="2">
         <v>3</v>
       </c>
       <c r="H96" s="3">
-        <v>46527</v>
+        <v>47079</v>
       </c>
       <c r="I96" s="2">
         <v>100</v>
       </c>
       <c r="J96" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K96" s="2">
         <v>100</v>
@@ -7638,15 +7639,15 @@
         <v>113</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -7655,22 +7656,22 @@
         <v>13</v>
       </c>
       <c r="E97" s="3">
-        <v>45090</v>
+        <v>45797</v>
       </c>
       <c r="F97" s="3">
-        <v>46066</v>
+        <v>46527</v>
       </c>
       <c r="G97" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H97" s="3">
-        <v>46066</v>
+        <v>46527</v>
       </c>
       <c r="I97" s="2">
         <v>100</v>
       </c>
       <c r="J97" s="2">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K97" s="2">
         <v>100</v>
@@ -7679,12 +7680,12 @@
         <v>113</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>75</v>
@@ -7696,22 +7697,22 @@
         <v>13</v>
       </c>
       <c r="E98" s="3">
-        <v>45624</v>
+        <v>45090</v>
       </c>
       <c r="F98" s="3">
-        <v>46170</v>
+        <v>46066</v>
       </c>
       <c r="G98" s="2">
         <v>6</v>
       </c>
       <c r="H98" s="3">
-        <v>46170</v>
+        <v>46066</v>
       </c>
       <c r="I98" s="2">
         <v>100</v>
       </c>
       <c r="J98" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K98" s="2">
         <v>100</v>
@@ -7720,12 +7721,12 @@
         <v>113</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>75</v>
@@ -7737,22 +7738,22 @@
         <v>13</v>
       </c>
       <c r="E99" s="3">
-        <v>45715</v>
+        <v>45624</v>
       </c>
       <c r="F99" s="3">
-        <v>46445</v>
+        <v>46170</v>
       </c>
       <c r="G99" s="2">
         <v>6</v>
       </c>
       <c r="H99" s="3">
-        <v>46445</v>
+        <v>46170</v>
       </c>
       <c r="I99" s="2">
         <v>100</v>
       </c>
       <c r="J99" s="2">
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K99" s="2">
         <v>100</v>
@@ -7761,12 +7762,12 @@
         <v>113</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>541</v>
+        <v>895</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>75</v>
@@ -7778,22 +7779,22 @@
         <v>13</v>
       </c>
       <c r="E100" s="3">
-        <v>45784</v>
+        <v>45715</v>
       </c>
       <c r="F100" s="3">
-        <v>46514</v>
+        <v>46445</v>
       </c>
       <c r="G100" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H100" s="3">
-        <v>46514</v>
+        <v>46445</v>
       </c>
       <c r="I100" s="2">
         <v>100</v>
       </c>
       <c r="J100" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K100" s="2">
         <v>100</v>
@@ -7802,12 +7803,12 @@
         <v>113</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>910</v>
+        <v>541</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>75</v>
@@ -7819,22 +7820,22 @@
         <v>13</v>
       </c>
       <c r="E101" s="3">
-        <v>45860</v>
+        <v>45784</v>
       </c>
       <c r="F101" s="3">
-        <v>46590</v>
+        <v>46514</v>
       </c>
       <c r="G101" s="2">
         <v>3</v>
       </c>
       <c r="H101" s="3">
-        <v>46590</v>
+        <v>46514</v>
       </c>
       <c r="I101" s="2">
         <v>100</v>
       </c>
       <c r="J101" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K101" s="2">
         <v>100</v>
@@ -7843,39 +7844,39 @@
         <v>113</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E102" s="3">
-        <v>44239</v>
+        <v>45860</v>
       </c>
       <c r="F102" s="3">
-        <v>47299</v>
+        <v>46590</v>
       </c>
       <c r="G102" s="2">
-        <v>6</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
+        <v>46590</v>
+      </c>
+      <c r="I102" s="2">
+        <v>100</v>
       </c>
       <c r="J102" s="2">
-        <v>0.09</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K102" s="2">
         <v>100</v>
@@ -7884,39 +7885,39 @@
         <v>113</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>374</v>
+        <v>913</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E103" s="3">
-        <v>45575</v>
+        <v>44239</v>
       </c>
       <c r="F103" s="3">
-        <v>47036</v>
+        <v>47299</v>
       </c>
       <c r="G103" s="2">
         <v>6</v>
       </c>
-      <c r="H103" s="3">
-        <v>47036</v>
-      </c>
-      <c r="I103" s="2">
-        <v>100</v>
+      <c r="H103" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="J103" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K103" s="2">
         <v>100</v>
@@ -7925,12 +7926,12 @@
         <v>113</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>922</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>75</v>
@@ -7942,22 +7943,22 @@
         <v>13</v>
       </c>
       <c r="E104" s="3">
-        <v>45860</v>
+        <v>45575</v>
       </c>
       <c r="F104" s="3">
-        <v>47686</v>
+        <v>47036</v>
       </c>
       <c r="G104" s="2">
         <v>6</v>
       </c>
       <c r="H104" s="3">
-        <v>47686</v>
+        <v>47036</v>
       </c>
       <c r="I104" s="2">
         <v>100</v>
       </c>
       <c r="J104" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K104" s="2">
         <v>100</v>
@@ -7966,12 +7967,12 @@
         <v>113</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>930</v>
+        <v>83</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>75</v>
@@ -7983,22 +7984,22 @@
         <v>13</v>
       </c>
       <c r="E105" s="3">
-        <v>45938</v>
+        <v>45860</v>
       </c>
       <c r="F105" s="3">
-        <v>46454</v>
+        <v>47686</v>
       </c>
       <c r="G105" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H105" s="3">
-        <v>46454</v>
+        <v>47686</v>
       </c>
       <c r="I105" s="2">
         <v>100</v>
       </c>
       <c r="J105" s="2">
-        <v>0.06</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K105" s="2">
         <v>100</v>
@@ -8006,37 +8007,40 @@
       <c r="L105" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="M105" s="1" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>84</v>
+        <v>930</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="E106" s="3">
-        <v>47372</v>
+        <v>45938</v>
       </c>
       <c r="F106" s="3">
-        <v>48102</v>
+        <v>46454</v>
       </c>
       <c r="G106" s="2">
-        <v>6</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="H106" s="3">
+        <v>46454</v>
+      </c>
+      <c r="I106" s="2">
+        <v>100</v>
       </c>
       <c r="J106" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K106" s="2">
         <v>100</v>
@@ -8044,13 +8048,10 @@
       <c r="L106" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M106" s="1" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>75</v>
@@ -8062,22 +8063,22 @@
         <v>185</v>
       </c>
       <c r="E107" s="3">
-        <v>45674</v>
+        <v>47372</v>
       </c>
       <c r="F107" s="3">
-        <v>48961</v>
+        <v>48102</v>
       </c>
       <c r="G107" s="2">
         <v>6</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>88</v>
       </c>
       <c r="J107" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K107" s="2">
         <v>100</v>
@@ -8086,12 +8087,12 @@
         <v>113</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>75</v>
@@ -8103,22 +8104,22 @@
         <v>185</v>
       </c>
       <c r="E108" s="3">
-        <v>45199</v>
+        <v>45674</v>
       </c>
       <c r="F108" s="3">
-        <v>48852</v>
+        <v>48961</v>
       </c>
       <c r="G108" s="2">
         <v>6</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="J108" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K108" s="2">
         <v>100</v>
@@ -8127,6 +8128,47 @@
         <v>113</v>
       </c>
       <c r="M108" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E109" s="3">
+        <v>45199</v>
+      </c>
+      <c r="F109" s="3">
+        <v>48852</v>
+      </c>
+      <c r="G109" s="2">
+        <v>6</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J109" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K109" s="2">
+        <v>100</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M109" s="1" t="s">
         <v>377</v>
       </c>
     </row>

--- a/listado_ons.xlsx
+++ b/listado_ons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{3ACB296D-4AD1-4F65-9EC6-AE6099F56D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297BCBC1-3E4C-4F41-B84C-32F4E357BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_ons" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listado_ons!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="218">
   <si>
     <t>name</t>
   </si>
@@ -645,18 +644,6 @@
     <t>TTCDD</t>
   </si>
   <si>
-    <t>CO32D</t>
-  </si>
-  <si>
-    <t>2/7/2030;2/7/2031;2/7/2032</t>
-  </si>
-  <si>
-    <t>CCC+</t>
-  </si>
-  <si>
-    <t>CÓRDOBA</t>
-  </si>
-  <si>
     <t>TSC4D</t>
   </si>
   <si>
@@ -682,6 +669,27 @@
   </si>
   <si>
     <t>CS45D</t>
+  </si>
+  <si>
+    <t>2/12/2031;2/12/2032;2/12/2033</t>
+  </si>
+  <si>
+    <t>GN49D</t>
+  </si>
+  <si>
+    <t>YFCOD</t>
+  </si>
+  <si>
+    <t>YM42D</t>
+  </si>
+  <si>
+    <t>PN41D</t>
+  </si>
+  <si>
+    <t>PN42D</t>
+  </si>
+  <si>
+    <t>CS50D</t>
   </si>
 </sst>
 </file>
@@ -1530,13 +1538,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -1708,13 +1716,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -2050,7 +2058,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -2278,7 +2286,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -2392,7 +2400,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
@@ -2468,7 +2476,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>20</v>
@@ -2506,7 +2514,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>20</v>
@@ -2544,40 +2552,40 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E27" s="3">
-        <v>45840</v>
+        <v>46001</v>
       </c>
       <c r="F27" s="3">
-        <v>48397</v>
+        <v>47187</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>88</v>
+      <c r="H27" s="3">
+        <v>47187</v>
+      </c>
+      <c r="I27" s="2">
+        <v>100</v>
       </c>
       <c r="J27" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K27" s="2">
-        <v>725</v>
+        <v>29</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2772,37 +2780,37 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E33" s="3">
-        <v>45721</v>
+        <v>45993</v>
       </c>
       <c r="F33" s="3">
-        <v>46817</v>
+        <v>48915</v>
       </c>
       <c r="G33" s="2">
         <v>6</v>
       </c>
-      <c r="H33" s="3">
-        <v>46817</v>
-      </c>
-      <c r="I33" s="2">
-        <v>100</v>
+      <c r="H33" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J33" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="K33" s="2">
-        <v>27</v>
+        <v>400</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>117</v>
@@ -2810,7 +2818,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>29</v>
@@ -2822,25 +2830,25 @@
         <v>13</v>
       </c>
       <c r="E34" s="3">
-        <v>45582</v>
+        <v>45721</v>
       </c>
       <c r="F34" s="3">
-        <v>47043</v>
+        <v>46817</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
       </c>
       <c r="H34" s="3">
-        <v>47043</v>
+        <v>46817</v>
       </c>
       <c r="I34" s="2">
         <v>100</v>
       </c>
       <c r="J34" s="2">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K34" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>117</v>
@@ -2848,75 +2856,75 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E35" s="3">
-        <v>45575</v>
+        <v>45582</v>
       </c>
       <c r="F35" s="3">
-        <v>47036</v>
+        <v>47043</v>
       </c>
       <c r="G35" s="2">
         <v>6</v>
       </c>
       <c r="H35" s="3">
-        <v>47036</v>
+        <v>47043</v>
       </c>
       <c r="I35" s="2">
         <v>100</v>
       </c>
       <c r="J35" s="2">
-        <v>7.7499999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K35" s="2">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E36" s="3">
-        <v>45883</v>
+        <v>45575</v>
       </c>
       <c r="F36" s="3">
-        <v>46265</v>
+        <v>47036</v>
       </c>
       <c r="G36" s="2">
         <v>6</v>
       </c>
       <c r="H36" s="3">
-        <v>46265</v>
+        <v>47036</v>
       </c>
       <c r="I36" s="2">
         <v>100</v>
       </c>
       <c r="J36" s="2">
-        <v>6.25E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="K36" s="2">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>113</v>
@@ -2924,7 +2932,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>133</v>
@@ -2936,25 +2944,25 @@
         <v>13</v>
       </c>
       <c r="E37" s="3">
-        <v>45804</v>
+        <v>45883</v>
       </c>
       <c r="F37" s="3">
-        <v>46021</v>
+        <v>46265</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
       </c>
       <c r="H37" s="3">
-        <v>46021</v>
+        <v>46265</v>
       </c>
       <c r="I37" s="2">
         <v>100</v>
       </c>
       <c r="J37" s="2">
-        <v>0.04</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K37" s="2">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>113</v>
@@ -2962,37 +2970,37 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="3">
-        <v>45785</v>
+        <v>45804</v>
       </c>
       <c r="F38" s="3">
-        <v>45989</v>
+        <v>46021</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="H38" s="3">
-        <v>45989</v>
+        <v>46021</v>
       </c>
       <c r="I38" s="2">
         <v>100</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K38" s="2">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>113</v>
@@ -3000,48 +3008,48 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="3">
-        <v>45846</v>
+        <v>45785</v>
       </c>
       <c r="F39" s="3">
-        <v>46942</v>
+        <v>45989</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
       <c r="H39" s="3">
-        <v>46942</v>
+        <v>45989</v>
       </c>
       <c r="I39" s="2">
         <v>100</v>
       </c>
       <c r="J39" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -3050,36 +3058,36 @@
         <v>13</v>
       </c>
       <c r="E40" s="3">
-        <v>45891</v>
+        <v>45846</v>
       </c>
       <c r="F40" s="3">
-        <v>46256</v>
+        <v>46942</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
       <c r="H40" s="3">
-        <v>46256</v>
+        <v>46942</v>
       </c>
       <c r="I40" s="2">
         <v>100</v>
       </c>
       <c r="J40" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K40" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -3088,33 +3096,33 @@
         <v>13</v>
       </c>
       <c r="E41" s="3">
-        <v>45084</v>
+        <v>45891</v>
       </c>
       <c r="F41" s="3">
-        <v>45998</v>
+        <v>46256</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
       <c r="H41" s="3">
-        <v>45998</v>
+        <v>46256</v>
       </c>
       <c r="I41" s="2">
         <v>100</v>
       </c>
       <c r="J41" s="2">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K41" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>33</v>
@@ -3126,25 +3134,25 @@
         <v>13</v>
       </c>
       <c r="E42" s="3">
-        <v>45453</v>
+        <v>45084</v>
       </c>
       <c r="F42" s="3">
-        <v>46183</v>
+        <v>45998</v>
       </c>
       <c r="G42" s="2">
         <v>6</v>
       </c>
       <c r="H42" s="3">
-        <v>46183</v>
+        <v>45998</v>
       </c>
       <c r="I42" s="2">
         <v>100</v>
       </c>
       <c r="J42" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K42" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>113</v>
@@ -3152,7 +3160,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>33</v>
@@ -3164,25 +3172,25 @@
         <v>13</v>
       </c>
       <c r="E43" s="3">
-        <v>45350</v>
+        <v>45453</v>
       </c>
       <c r="F43" s="3">
-        <v>46446</v>
+        <v>46183</v>
       </c>
       <c r="G43" s="2">
         <v>6</v>
       </c>
       <c r="H43" s="3">
-        <v>46446</v>
+        <v>46183</v>
       </c>
       <c r="I43" s="2">
         <v>100</v>
       </c>
       <c r="J43" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K43" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>113</v>
@@ -3190,37 +3198,37 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E44" s="3">
-        <v>44720</v>
+        <v>45350</v>
       </c>
       <c r="F44" s="3">
-        <v>46926</v>
+        <v>46446</v>
       </c>
       <c r="G44" s="2">
         <v>6</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>96</v>
+      <c r="H44" s="3">
+        <v>46446</v>
+      </c>
+      <c r="I44" s="2">
+        <v>100</v>
       </c>
       <c r="J44" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K44" s="2">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>113</v>
@@ -3228,37 +3236,37 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E45" s="3">
-        <v>45588</v>
+        <v>44720</v>
       </c>
       <c r="F45" s="3">
-        <v>46683</v>
+        <v>46926</v>
       </c>
       <c r="G45" s="2">
         <v>6</v>
       </c>
-      <c r="H45" s="3">
-        <v>46683</v>
-      </c>
-      <c r="I45" s="2">
-        <v>100</v>
+      <c r="H45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="J45" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="K45" s="2">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>113</v>
@@ -3266,37 +3274,37 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E46" s="3">
-        <v>45747</v>
+        <v>45588</v>
       </c>
       <c r="F46" s="3">
-        <v>49399</v>
+        <v>46683</v>
       </c>
       <c r="G46" s="2">
         <v>6</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>88</v>
+      <c r="H46" s="3">
+        <v>46683</v>
+      </c>
+      <c r="I46" s="2">
+        <v>100</v>
       </c>
       <c r="J46" s="2">
-        <v>0.08</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K46" s="2">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>113</v>
@@ -3304,37 +3312,37 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E47" s="3">
-        <v>45588</v>
+        <v>45747</v>
       </c>
       <c r="F47" s="3">
-        <v>47414</v>
+        <v>49399</v>
       </c>
       <c r="G47" s="2">
         <v>6</v>
       </c>
-      <c r="H47" s="3">
-        <v>47414</v>
-      </c>
-      <c r="I47" s="2">
-        <v>100</v>
+      <c r="H47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J47" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K47" s="2">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>113</v>
@@ -3342,10 +3350,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -3354,33 +3362,33 @@
         <v>13</v>
       </c>
       <c r="E48" s="3">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="F48" s="3">
-        <v>46316</v>
+        <v>47414</v>
       </c>
       <c r="G48" s="2">
         <v>6</v>
       </c>
       <c r="H48" s="3">
-        <v>46316</v>
+        <v>47414</v>
       </c>
       <c r="I48" s="2">
         <v>100</v>
       </c>
       <c r="J48" s="2">
-        <v>0.05</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K48" s="2">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>139</v>
@@ -3395,22 +3403,22 @@
         <v>45586</v>
       </c>
       <c r="F49" s="3">
-        <v>47047</v>
+        <v>46316</v>
       </c>
       <c r="G49" s="2">
         <v>6</v>
       </c>
       <c r="H49" s="3">
-        <v>47047</v>
+        <v>46316</v>
       </c>
       <c r="I49" s="2">
         <v>100</v>
       </c>
       <c r="J49" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K49" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>115</v>
@@ -3418,7 +3426,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>139</v>
@@ -3430,25 +3438,25 @@
         <v>13</v>
       </c>
       <c r="E50" s="3">
-        <v>45674</v>
+        <v>45586</v>
       </c>
       <c r="F50" s="3">
-        <v>46769</v>
+        <v>47047</v>
       </c>
       <c r="G50" s="2">
         <v>6</v>
       </c>
       <c r="H50" s="3">
-        <v>46769</v>
+        <v>47047</v>
       </c>
       <c r="I50" s="2">
         <v>100</v>
       </c>
       <c r="J50" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K50" s="2">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>115</v>
@@ -3456,7 +3464,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>139</v>
@@ -3468,25 +3476,25 @@
         <v>13</v>
       </c>
       <c r="E51" s="3">
-        <v>45804</v>
+        <v>45674</v>
       </c>
       <c r="F51" s="3">
-        <v>46534</v>
+        <v>46769</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
       </c>
       <c r="H51" s="3">
-        <v>46534</v>
+        <v>46769</v>
       </c>
       <c r="I51" s="2">
         <v>100</v>
       </c>
       <c r="J51" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K51" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>115</v>
@@ -3494,7 +3502,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>139</v>
@@ -3506,25 +3514,25 @@
         <v>13</v>
       </c>
       <c r="E52" s="3">
-        <v>45863</v>
+        <v>45804</v>
       </c>
       <c r="F52" s="3">
-        <v>46593</v>
+        <v>46534</v>
       </c>
       <c r="G52" s="2">
         <v>6</v>
       </c>
       <c r="H52" s="3">
-        <v>46593</v>
+        <v>46534</v>
       </c>
       <c r="I52" s="2">
         <v>100</v>
       </c>
       <c r="J52" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K52" s="2">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>115</v>
@@ -3532,10 +3540,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -3544,33 +3552,33 @@
         <v>13</v>
       </c>
       <c r="E53" s="3">
-        <v>45098</v>
+        <v>45863</v>
       </c>
       <c r="F53" s="3">
-        <v>46012</v>
+        <v>46593</v>
       </c>
       <c r="G53" s="2">
         <v>6</v>
       </c>
       <c r="H53" s="3">
-        <v>46012</v>
+        <v>46593</v>
       </c>
       <c r="I53" s="2">
         <v>100</v>
       </c>
       <c r="J53" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K53" s="2">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>41</v>
@@ -3582,25 +3590,25 @@
         <v>13</v>
       </c>
       <c r="E54" s="3">
-        <v>45180</v>
+        <v>45098</v>
       </c>
       <c r="F54" s="3">
-        <v>46092</v>
+        <v>46012</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
       </c>
       <c r="H54" s="3">
-        <v>46092</v>
+        <v>46012</v>
       </c>
       <c r="I54" s="2">
         <v>100</v>
       </c>
       <c r="J54" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K54" s="2">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>113</v>
@@ -3608,7 +3616,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>41</v>
@@ -3620,25 +3628,25 @@
         <v>13</v>
       </c>
       <c r="E55" s="3">
-        <v>45862</v>
+        <v>45180</v>
       </c>
       <c r="F55" s="3">
-        <v>46592</v>
+        <v>46092</v>
       </c>
       <c r="G55" s="2">
         <v>6</v>
       </c>
       <c r="H55" s="3">
-        <v>46592</v>
+        <v>46092</v>
       </c>
       <c r="I55" s="2">
         <v>100</v>
       </c>
       <c r="J55" s="2">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K55" s="2">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>113</v>
@@ -3646,28 +3654,28 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3">
-        <v>45831</v>
+        <v>45862</v>
       </c>
       <c r="F56" s="3">
-        <v>47292</v>
+        <v>46592</v>
       </c>
       <c r="G56" s="2">
         <v>6</v>
       </c>
       <c r="H56" s="3">
-        <v>47292</v>
+        <v>46592</v>
       </c>
       <c r="I56" s="2">
         <v>100</v>
@@ -3676,83 +3684,83 @@
         <v>0.08</v>
       </c>
       <c r="K56" s="2">
-        <v>530</v>
+        <v>112</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E57" s="3">
-        <v>45363</v>
+        <v>45831</v>
       </c>
       <c r="F57" s="3">
-        <v>46093</v>
+        <v>47292</v>
       </c>
       <c r="G57" s="2">
         <v>6</v>
       </c>
       <c r="H57" s="3">
-        <v>46093</v>
+        <v>47292</v>
       </c>
       <c r="I57" s="2">
         <v>100</v>
       </c>
       <c r="J57" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K57" s="2">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E58" s="3">
-        <v>45631</v>
+        <v>45363</v>
       </c>
       <c r="F58" s="3">
-        <v>47822</v>
+        <v>46093</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>164</v>
+      <c r="H58" s="3">
+        <v>46093</v>
+      </c>
+      <c r="I58" s="2">
+        <v>100</v>
       </c>
       <c r="J58" s="2">
-        <v>9.7500000000000003E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K58" s="2">
-        <v>400</v>
+        <v>13</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>114</v>
@@ -3760,37 +3768,37 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E59" s="3">
-        <v>45124</v>
+        <v>45631</v>
       </c>
       <c r="F59" s="3">
-        <v>46220</v>
+        <v>47822</v>
       </c>
       <c r="G59" s="2">
         <v>6</v>
       </c>
-      <c r="H59" s="3">
-        <v>46220</v>
-      </c>
-      <c r="I59" s="2">
-        <v>100</v>
+      <c r="H59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="J59" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K59" s="2">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>114</v>
@@ -3798,7 +3806,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>145</v>
@@ -3810,25 +3818,25 @@
         <v>13</v>
       </c>
       <c r="E60" s="3">
-        <v>45496</v>
+        <v>45124</v>
       </c>
       <c r="F60" s="3">
-        <v>46591</v>
+        <v>46220</v>
       </c>
       <c r="G60" s="2">
         <v>6</v>
       </c>
       <c r="H60" s="3">
-        <v>46591</v>
+        <v>46220</v>
       </c>
       <c r="I60" s="2">
         <v>100</v>
       </c>
       <c r="J60" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K60" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>114</v>
@@ -3836,10 +3844,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -3848,33 +3856,33 @@
         <v>13</v>
       </c>
       <c r="E61" s="3">
-        <v>45699</v>
+        <v>45496</v>
       </c>
       <c r="F61" s="3">
-        <v>46610</v>
+        <v>46591</v>
       </c>
       <c r="G61" s="2">
         <v>6</v>
       </c>
       <c r="H61" s="3">
-        <v>46610</v>
+        <v>46591</v>
       </c>
       <c r="I61" s="2">
         <v>100</v>
       </c>
       <c r="J61" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K61" s="5">
-        <v>120</v>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K61" s="2">
+        <v>33</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>45</v>
@@ -3886,25 +3894,25 @@
         <v>13</v>
       </c>
       <c r="E62" s="3">
-        <v>45562</v>
+        <v>45947</v>
       </c>
       <c r="F62" s="3">
-        <v>47388</v>
+        <v>46494</v>
       </c>
       <c r="G62" s="2">
         <v>6</v>
       </c>
       <c r="H62" s="3">
-        <v>47388</v>
+        <v>46494</v>
       </c>
       <c r="I62" s="2">
         <v>100</v>
       </c>
       <c r="J62" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K62" s="5">
-        <v>176</v>
+        <v>0.06</v>
+      </c>
+      <c r="K62" s="2">
+        <v>56</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>113</v>
@@ -3912,7 +3920,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>45</v>
@@ -3924,25 +3932,25 @@
         <v>13</v>
       </c>
       <c r="E63" s="3">
-        <v>45562</v>
+        <v>45896</v>
       </c>
       <c r="F63" s="3">
-        <v>46657</v>
+        <v>47357</v>
       </c>
       <c r="G63" s="2">
         <v>6</v>
       </c>
       <c r="H63" s="3">
-        <v>46657</v>
+        <v>47357</v>
       </c>
       <c r="I63" s="2">
         <v>100</v>
       </c>
       <c r="J63" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K63" s="5">
-        <v>23</v>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K63" s="2">
+        <v>85</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>113</v>
@@ -3950,7 +3958,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>45</v>
@@ -3962,25 +3970,25 @@
         <v>13</v>
       </c>
       <c r="E64" s="3">
-        <v>45609</v>
+        <v>45699</v>
       </c>
       <c r="F64" s="3">
-        <v>48165</v>
+        <v>46610</v>
       </c>
       <c r="G64" s="2">
         <v>6</v>
       </c>
       <c r="H64" s="3">
-        <v>48165</v>
+        <v>46610</v>
       </c>
       <c r="I64" s="2">
         <v>100</v>
       </c>
       <c r="J64" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K64" s="5">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>113</v>
@@ -3988,7 +3996,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>45</v>
@@ -4000,25 +4008,25 @@
         <v>13</v>
       </c>
       <c r="E65" s="3">
-        <v>45609</v>
+        <v>45562</v>
       </c>
       <c r="F65" s="3">
-        <v>47070</v>
+        <v>47388</v>
       </c>
       <c r="G65" s="2">
         <v>6</v>
       </c>
       <c r="H65" s="3">
-        <v>47070</v>
+        <v>47388</v>
       </c>
       <c r="I65" s="2">
         <v>100</v>
       </c>
       <c r="J65" s="2">
-        <v>6.25E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K65" s="5">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>113</v>
@@ -4026,7 +4034,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>45</v>
@@ -4038,25 +4046,25 @@
         <v>13</v>
       </c>
       <c r="E66" s="3">
-        <v>44316</v>
+        <v>45562</v>
       </c>
       <c r="F66" s="3">
-        <v>46507</v>
+        <v>46657</v>
       </c>
       <c r="G66" s="2">
         <v>6</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>99</v>
+      <c r="H66" s="3">
+        <v>46657</v>
+      </c>
+      <c r="I66" s="2">
+        <v>100</v>
       </c>
       <c r="J66" s="2">
-        <v>9.1249999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K66" s="5">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>113</v>
@@ -4064,7 +4072,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>45</v>
@@ -4076,25 +4084,25 @@
         <v>13</v>
       </c>
       <c r="E67" s="3">
-        <v>45412</v>
+        <v>45609</v>
       </c>
       <c r="F67" s="3">
-        <v>48334</v>
+        <v>48165</v>
       </c>
       <c r="G67" s="2">
         <v>6</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>88</v>
+      <c r="H67" s="3">
+        <v>48165</v>
+      </c>
+      <c r="I67" s="2">
+        <v>100</v>
       </c>
       <c r="J67" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K67" s="5">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>113</v>
@@ -4102,10 +4110,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -4114,25 +4122,25 @@
         <v>13</v>
       </c>
       <c r="E68" s="3">
-        <v>45569</v>
+        <v>45609</v>
       </c>
       <c r="F68" s="3">
-        <v>47030</v>
+        <v>47070</v>
       </c>
       <c r="G68" s="2">
         <v>6</v>
       </c>
       <c r="H68" s="3">
-        <v>47030</v>
+        <v>47070</v>
       </c>
       <c r="I68" s="2">
         <v>100</v>
       </c>
       <c r="J68" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K68" s="5">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>113</v>
@@ -4140,10 +4148,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
@@ -4152,25 +4160,25 @@
         <v>13</v>
       </c>
       <c r="E69" s="3">
-        <v>45050</v>
+        <v>44316</v>
       </c>
       <c r="F69" s="3">
-        <v>45965</v>
+        <v>46507</v>
       </c>
       <c r="G69" s="2">
         <v>6</v>
       </c>
-      <c r="H69" s="3">
-        <v>45965</v>
-      </c>
-      <c r="I69" s="2">
-        <v>100</v>
+      <c r="H69" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="J69" s="2">
-        <v>0.05</v>
+        <v>9.1249999999999998E-2</v>
       </c>
       <c r="K69" s="5">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>113</v>
@@ -4178,37 +4186,37 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E70" s="3">
-        <v>45545</v>
+        <v>45412</v>
       </c>
       <c r="F70" s="3">
-        <v>48101</v>
+        <v>48334</v>
       </c>
       <c r="G70" s="2">
         <v>6</v>
       </c>
-      <c r="H70" s="3">
-        <v>48101</v>
-      </c>
-      <c r="I70" s="2">
-        <v>100</v>
+      <c r="H70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J70" s="2">
-        <v>7.9500000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K70" s="5">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>113</v>
@@ -4216,37 +4224,37 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E71" s="3">
-        <v>45642</v>
+        <v>45569</v>
       </c>
       <c r="F71" s="3">
-        <v>49294</v>
+        <v>47030</v>
       </c>
       <c r="G71" s="2">
         <v>6</v>
       </c>
       <c r="H71" s="3">
-        <v>49294</v>
+        <v>47030</v>
       </c>
       <c r="I71" s="2">
         <v>100</v>
       </c>
       <c r="J71" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K71" s="5">
-        <v>700</v>
+        <v>83</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>113</v>
@@ -4254,37 +4262,37 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E72" s="3">
-        <v>45975</v>
+        <v>45050</v>
       </c>
       <c r="F72" s="3">
-        <v>50358</v>
+        <v>45965</v>
       </c>
       <c r="G72" s="2">
         <v>6</v>
       </c>
       <c r="H72" s="3">
-        <v>50358</v>
+        <v>45965</v>
       </c>
       <c r="I72" s="2">
         <v>100</v>
       </c>
       <c r="J72" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K72" s="5">
-        <v>450</v>
+        <v>55</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>113</v>
@@ -4292,7 +4300,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>53</v>
@@ -4304,25 +4312,25 @@
         <v>182</v>
       </c>
       <c r="E73" s="3">
-        <v>45875</v>
+        <v>45545</v>
       </c>
       <c r="F73" s="3">
-        <v>46971</v>
+        <v>48101</v>
       </c>
       <c r="G73" s="2">
         <v>6</v>
       </c>
       <c r="H73" s="3">
-        <v>46971</v>
+        <v>48101</v>
       </c>
       <c r="I73" s="2">
         <v>100</v>
       </c>
       <c r="J73" s="2">
-        <v>7.2499999999999995E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="K73" s="5">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>113</v>
@@ -4330,7 +4338,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>53</v>
@@ -4342,25 +4350,25 @@
         <v>182</v>
       </c>
       <c r="E74" s="3">
-        <v>44903</v>
+        <v>45642</v>
       </c>
       <c r="F74" s="3">
-        <v>46364</v>
+        <v>49294</v>
       </c>
       <c r="G74" s="2">
         <v>6</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>88</v>
+      <c r="H74" s="3">
+        <v>49294</v>
+      </c>
+      <c r="I74" s="2">
+        <v>100</v>
       </c>
       <c r="J74" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K74" s="5">
-        <v>196</v>
+        <v>700</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>113</v>
@@ -4368,165 +4376,163 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E75" s="3">
-        <v>45587</v>
+        <v>45975</v>
       </c>
       <c r="F75" s="3">
-        <v>47048</v>
+        <v>50358</v>
       </c>
       <c r="G75" s="2">
         <v>6</v>
       </c>
       <c r="H75" s="3">
-        <f>F75</f>
-        <v>47048</v>
+        <v>50358</v>
       </c>
       <c r="I75" s="2">
         <v>100</v>
       </c>
       <c r="J75" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K75" s="5">
-        <v>46</v>
+        <v>450</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E76" s="3">
-        <v>45859</v>
+        <v>45875</v>
       </c>
       <c r="F76" s="3">
-        <v>46955</v>
+        <v>46971</v>
       </c>
       <c r="G76" s="2">
         <v>6</v>
       </c>
       <c r="H76" s="3">
-        <f>F76</f>
-        <v>46955</v>
+        <v>46971</v>
       </c>
       <c r="I76" s="2">
         <v>100</v>
       </c>
       <c r="J76" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="K76" s="5">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="3">
+        <v>44903</v>
+      </c>
+      <c r="F77" s="3">
+        <v>46364</v>
+      </c>
+      <c r="G77" s="2">
+        <v>6</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J77" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K77" s="5">
         <v>196</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="3">
-        <v>45705</v>
-      </c>
-      <c r="F77" s="3">
-        <v>47896</v>
-      </c>
-      <c r="G77" s="2">
-        <v>6</v>
-      </c>
-      <c r="H77" s="3">
-        <f>F77</f>
-        <v>47896</v>
-      </c>
-      <c r="I77" s="2">
-        <v>100</v>
-      </c>
-      <c r="J77" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="K77" s="5">
-        <v>65</v>
-      </c>
       <c r="L77" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E78" s="3">
-        <v>45838</v>
+        <v>45587</v>
       </c>
       <c r="F78" s="3">
-        <v>48364</v>
+        <v>47048</v>
       </c>
       <c r="G78" s="2">
         <v>6</v>
       </c>
       <c r="H78" s="3">
-        <v>48364</v>
+        <f>F78</f>
+        <v>47048</v>
       </c>
       <c r="I78" s="2">
         <v>100</v>
       </c>
       <c r="J78" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K78" s="5">
-        <v>650</v>
+        <v>46</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -4535,25 +4541,26 @@
         <v>13</v>
       </c>
       <c r="E79" s="3">
-        <v>45412</v>
+        <v>45859</v>
       </c>
       <c r="F79" s="3">
-        <v>46507</v>
+        <v>46955</v>
       </c>
       <c r="G79" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H79" s="3">
-        <v>46507</v>
+        <f>F79</f>
+        <v>46955</v>
       </c>
       <c r="I79" s="2">
         <v>100</v>
       </c>
       <c r="J79" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K79" s="5">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>115</v>
@@ -4561,10 +4568,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -4573,63 +4580,64 @@
         <v>13</v>
       </c>
       <c r="E80" s="3">
-        <v>45404</v>
+        <v>45705</v>
       </c>
       <c r="F80" s="3">
-        <v>46134</v>
+        <v>47896</v>
       </c>
       <c r="G80" s="2">
         <v>6</v>
       </c>
       <c r="H80" s="3">
-        <v>46134</v>
+        <f>F80</f>
+        <v>47896</v>
       </c>
       <c r="I80" s="2">
         <v>100</v>
       </c>
       <c r="J80" s="2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="K80" s="5">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E81" s="3">
-        <v>45589</v>
+        <v>45838</v>
       </c>
       <c r="F81" s="3">
-        <v>47415</v>
+        <v>48364</v>
       </c>
       <c r="G81" s="2">
         <v>6</v>
       </c>
       <c r="H81" s="3">
-        <v>47415</v>
+        <v>48364</v>
       </c>
       <c r="I81" s="2">
         <v>100</v>
       </c>
       <c r="J81" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K81" s="5">
-        <v>80</v>
+        <v>650</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>113</v>
@@ -4637,10 +4645,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -4649,63 +4657,63 @@
         <v>13</v>
       </c>
       <c r="E82" s="3">
-        <v>45589</v>
+        <v>45412</v>
       </c>
       <c r="F82" s="3">
-        <v>46684</v>
+        <v>46507</v>
       </c>
       <c r="G82" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H82" s="3">
-        <v>46684</v>
+        <v>46507</v>
       </c>
       <c r="I82" s="2">
         <v>100</v>
       </c>
       <c r="J82" s="2">
-        <v>0.05</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="K82" s="5">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E83" s="3">
-        <v>45679</v>
+        <v>45404</v>
       </c>
       <c r="F83" s="3">
-        <v>48601</v>
+        <v>46134</v>
       </c>
       <c r="G83" s="2">
         <v>6</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>88</v>
+      <c r="H83" s="3">
+        <v>46134</v>
+      </c>
+      <c r="I83" s="2">
+        <v>100</v>
       </c>
       <c r="J83" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K83" s="5">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>113</v>
@@ -4713,7 +4721,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>58</v>
@@ -4725,26 +4733,25 @@
         <v>13</v>
       </c>
       <c r="E84" s="3">
-        <v>45946</v>
+        <v>45589</v>
       </c>
       <c r="F84" s="3">
-        <v>46676</v>
+        <v>47415</v>
       </c>
       <c r="G84" s="2">
         <v>6</v>
       </c>
       <c r="H84" s="3">
-        <f>F84</f>
-        <v>46676</v>
+        <v>47415</v>
       </c>
       <c r="I84" s="2">
         <v>100</v>
       </c>
       <c r="J84" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K84" s="5">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>113</v>
@@ -4752,37 +4759,37 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E85" s="3">
-        <v>45964</v>
+        <v>45589</v>
       </c>
       <c r="F85" s="3">
-        <v>47790</v>
+        <v>46684</v>
       </c>
       <c r="G85" s="2">
         <v>6</v>
       </c>
       <c r="H85" s="3">
-        <v>47790</v>
+        <v>46684</v>
       </c>
       <c r="I85" s="2">
         <v>100</v>
       </c>
       <c r="J85" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K85" s="5">
-        <v>750</v>
+        <v>67</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>113</v>
@@ -4790,10 +4797,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>18</v>
@@ -4802,25 +4809,25 @@
         <v>182</v>
       </c>
       <c r="E86" s="3">
-        <v>45309</v>
+        <v>45679</v>
       </c>
       <c r="F86" s="3">
-        <v>46221</v>
+        <v>48601</v>
       </c>
       <c r="G86" s="2">
         <v>6</v>
       </c>
-      <c r="H86" s="3">
-        <v>46221</v>
-      </c>
-      <c r="I86" s="2">
-        <v>100</v>
+      <c r="H86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J86" s="2">
-        <v>0.08</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K86" s="5">
-        <v>284</v>
+        <v>400</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>113</v>
@@ -4828,10 +4835,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -4840,71 +4847,72 @@
         <v>13</v>
       </c>
       <c r="E87" s="3">
-        <v>45840</v>
+        <v>45946</v>
       </c>
       <c r="F87" s="3">
-        <v>46570</v>
+        <v>46676</v>
       </c>
       <c r="G87" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H87" s="3">
-        <v>46570</v>
+        <f>F87</f>
+        <v>46676</v>
       </c>
       <c r="I87" s="2">
         <v>100</v>
       </c>
       <c r="J87" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K87" s="5">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E88" s="3">
-        <v>45624</v>
+        <v>45964</v>
       </c>
       <c r="F88" s="3">
-        <v>47085</v>
+        <v>47790</v>
       </c>
       <c r="G88" s="2">
         <v>6</v>
       </c>
       <c r="H88" s="3">
-        <v>47085</v>
+        <v>47790</v>
       </c>
       <c r="I88" s="2">
         <v>100</v>
       </c>
       <c r="J88" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K88" s="5">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
@@ -4916,25 +4924,25 @@
         <v>182</v>
       </c>
       <c r="E89" s="3">
-        <v>45491</v>
+        <v>45309</v>
       </c>
       <c r="F89" s="3">
-        <v>48047</v>
+        <v>46221</v>
       </c>
       <c r="G89" s="2">
         <v>6</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>88</v>
+      <c r="H89" s="3">
+        <v>46221</v>
+      </c>
+      <c r="I89" s="2">
+        <v>100</v>
       </c>
       <c r="J89" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K89" s="5">
-        <v>817</v>
+        <v>284</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>117</v>
@@ -4942,37 +4950,37 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E90" s="3">
-        <v>45805</v>
+        <v>45840</v>
       </c>
       <c r="F90" s="3">
-        <v>48727</v>
+        <v>46570</v>
       </c>
       <c r="G90" s="2">
-        <v>6</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>157</v>
+        <v>3</v>
+      </c>
+      <c r="H90" s="3">
+        <v>46570</v>
+      </c>
+      <c r="I90" s="2">
+        <v>100</v>
       </c>
       <c r="J90" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K90" s="5">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>117</v>
@@ -4980,48 +4988,48 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E91" s="3">
-        <v>45497</v>
+        <v>45624</v>
       </c>
       <c r="F91" s="3">
-        <v>48053</v>
+        <v>47085</v>
       </c>
       <c r="G91" s="2">
         <v>6</v>
       </c>
       <c r="H91" s="3">
-        <v>48053</v>
+        <v>47085</v>
       </c>
       <c r="I91" s="2">
         <v>100</v>
       </c>
       <c r="J91" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K91" s="5">
-        <v>490</v>
+        <v>75</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
@@ -5030,150 +5038,150 @@
         <v>182</v>
       </c>
       <c r="E92" s="3">
-        <v>45981</v>
+        <v>45491</v>
       </c>
       <c r="F92" s="3">
-        <v>49633</v>
+        <v>48047</v>
       </c>
       <c r="G92" s="2">
         <v>6</v>
       </c>
-      <c r="H92" s="3">
-        <v>49633</v>
-      </c>
-      <c r="I92" s="2">
-        <v>100</v>
+      <c r="H92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J92" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K92" s="5">
-        <v>1030</v>
+        <v>817</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E93" s="3">
-        <v>45803</v>
+        <v>45805</v>
       </c>
       <c r="F93" s="3">
-        <v>45987</v>
+        <v>48727</v>
       </c>
       <c r="G93" s="2">
         <v>6</v>
       </c>
-      <c r="H93" s="3">
-        <v>45987</v>
-      </c>
-      <c r="I93" s="2">
-        <v>100</v>
+      <c r="H93" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J93" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K93" s="5">
-        <v>59</v>
+        <v>1000</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E94" s="3">
-        <v>45895</v>
+        <v>45497</v>
       </c>
       <c r="F94" s="3">
-        <v>46260</v>
+        <v>48053</v>
       </c>
       <c r="G94" s="2">
         <v>6</v>
       </c>
       <c r="H94" s="3">
-        <v>46260</v>
+        <v>48053</v>
       </c>
       <c r="I94" s="2">
         <v>100</v>
       </c>
       <c r="J94" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K94" s="5">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E95" s="3">
-        <v>45415</v>
+        <v>45981</v>
       </c>
       <c r="F95" s="3">
-        <v>47241</v>
+        <v>49633</v>
       </c>
       <c r="G95" s="2">
         <v>6</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>104</v>
+      <c r="H95" s="3">
+        <v>49633</v>
+      </c>
+      <c r="I95" s="2">
+        <v>100</v>
       </c>
       <c r="J95" s="2">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K95" s="5">
-        <v>46</v>
+        <v>1030</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -5182,36 +5190,36 @@
         <v>13</v>
       </c>
       <c r="E96" s="3">
-        <v>45723</v>
+        <v>45803</v>
       </c>
       <c r="F96" s="3">
-        <v>47549</v>
+        <v>45987</v>
       </c>
       <c r="G96" s="2">
         <v>6</v>
       </c>
       <c r="H96" s="3">
-        <v>47549</v>
+        <v>45987</v>
       </c>
       <c r="I96" s="2">
         <v>100</v>
       </c>
       <c r="J96" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K96" s="5">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -5220,63 +5228,63 @@
         <v>13</v>
       </c>
       <c r="E97" s="3">
-        <v>45575</v>
+        <v>45895</v>
       </c>
       <c r="F97" s="3">
-        <v>48131</v>
+        <v>46260</v>
       </c>
       <c r="G97" s="2">
         <v>6</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>88</v>
+      <c r="H97" s="3">
+        <v>46260</v>
+      </c>
+      <c r="I97" s="2">
+        <v>100</v>
       </c>
       <c r="J97" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K97" s="5">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E98" s="3">
-        <v>45818</v>
+        <v>45415</v>
       </c>
       <c r="F98" s="3">
-        <v>48740</v>
+        <v>47241</v>
       </c>
       <c r="G98" s="2">
         <v>6</v>
       </c>
-      <c r="H98" s="3">
-        <v>48740</v>
-      </c>
-      <c r="I98" s="2">
-        <v>100</v>
+      <c r="H98" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J98" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K98" s="5">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>113</v>
@@ -5284,37 +5292,37 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E99" s="3">
-        <v>45636</v>
+        <v>45723</v>
       </c>
       <c r="F99" s="3">
-        <v>49653</v>
+        <v>47549</v>
       </c>
       <c r="G99" s="2">
         <v>6</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>88</v>
+      <c r="H99" s="3">
+        <v>47549</v>
+      </c>
+      <c r="I99" s="2">
+        <v>100</v>
       </c>
       <c r="J99" s="2">
-        <v>7.6249999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K99" s="5">
-        <v>600</v>
+        <v>92</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>113</v>
@@ -5322,7 +5330,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>70</v>
@@ -5334,25 +5342,25 @@
         <v>13</v>
       </c>
       <c r="E100" s="3">
-        <v>45945</v>
+        <v>45575</v>
       </c>
       <c r="F100" s="3">
-        <v>46492</v>
+        <v>48131</v>
       </c>
       <c r="G100" s="2">
         <v>6</v>
       </c>
-      <c r="H100" s="3">
-        <v>46492</v>
-      </c>
-      <c r="I100" s="2">
-        <v>100</v>
+      <c r="H100" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J100" s="2">
-        <v>0.06</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K100" s="5">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>113</v>
@@ -5360,10 +5368,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>18</v>
@@ -5372,25 +5380,25 @@
         <v>182</v>
       </c>
       <c r="E101" s="3">
-        <v>43671</v>
+        <v>45818</v>
       </c>
       <c r="F101" s="3">
-        <v>46228</v>
+        <v>48740</v>
       </c>
       <c r="G101" s="2">
         <v>6</v>
       </c>
       <c r="H101" s="3">
-        <v>46228</v>
+        <v>48740</v>
       </c>
       <c r="I101" s="2">
         <v>100</v>
       </c>
       <c r="J101" s="2">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K101" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>113</v>
@@ -5398,37 +5406,37 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E102" s="3">
-        <v>45349</v>
+        <v>45636</v>
       </c>
       <c r="F102" s="3">
-        <v>46445</v>
+        <v>49653</v>
       </c>
       <c r="G102" s="2">
         <v>6</v>
       </c>
-      <c r="H102" s="3">
-        <v>46445</v>
-      </c>
-      <c r="I102" s="2">
-        <v>100</v>
+      <c r="H102" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J102" s="2">
-        <v>0.06</v>
+        <v>7.6249999999999998E-2</v>
       </c>
       <c r="K102" s="5">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>113</v>
@@ -5436,10 +5444,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -5448,25 +5456,25 @@
         <v>13</v>
       </c>
       <c r="E103" s="3">
-        <v>45456</v>
+        <v>45945</v>
       </c>
       <c r="F103" s="3">
-        <v>46551</v>
+        <v>46492</v>
       </c>
       <c r="G103" s="2">
-        <v>3</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>157</v>
+        <v>6</v>
+      </c>
+      <c r="H103" s="3">
+        <v>46492</v>
+      </c>
+      <c r="I103" s="2">
+        <v>100</v>
       </c>
       <c r="J103" s="2">
         <v>0.06</v>
       </c>
       <c r="K103" s="5">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>113</v>
@@ -5474,7 +5482,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>155</v>
@@ -5486,25 +5494,25 @@
         <v>182</v>
       </c>
       <c r="E104" s="3">
-        <v>45581</v>
+        <v>43671</v>
       </c>
       <c r="F104" s="3">
-        <v>48503</v>
+        <v>46228</v>
       </c>
       <c r="G104" s="2">
         <v>6</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>88</v>
+      <c r="H104" s="3">
+        <v>46228</v>
+      </c>
+      <c r="I104" s="2">
+        <v>100</v>
       </c>
       <c r="J104" s="2">
-        <v>7.8750000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K104" s="5">
-        <v>123</v>
+        <v>400</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>113</v>
@@ -5512,7 +5520,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>155</v>
@@ -5524,25 +5532,25 @@
         <v>13</v>
       </c>
       <c r="E105" s="3">
-        <v>45618</v>
+        <v>45349</v>
       </c>
       <c r="F105" s="3">
-        <v>46348</v>
+        <v>46445</v>
       </c>
       <c r="G105" s="2">
         <v>6</v>
       </c>
       <c r="H105" s="3">
-        <v>46348</v>
+        <v>46445</v>
       </c>
       <c r="I105" s="2">
         <v>100</v>
       </c>
       <c r="J105" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K105" s="5">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>113</v>
@@ -5550,7 +5558,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>155</v>
@@ -5562,25 +5570,25 @@
         <v>13</v>
       </c>
       <c r="E106" s="3">
-        <v>45618</v>
+        <v>45456</v>
       </c>
       <c r="F106" s="3">
-        <v>47079</v>
+        <v>46551</v>
       </c>
       <c r="G106" s="2">
         <v>3</v>
       </c>
-      <c r="H106" s="3">
-        <v>47079</v>
-      </c>
-      <c r="I106" s="2">
-        <v>100</v>
+      <c r="H106" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J106" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K106" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>113</v>
@@ -5588,37 +5596,37 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E107" s="3">
-        <v>45797</v>
+        <v>45581</v>
       </c>
       <c r="F107" s="3">
-        <v>46527</v>
+        <v>48503</v>
       </c>
       <c r="G107" s="2">
-        <v>3</v>
-      </c>
-      <c r="H107" s="3">
-        <v>46527</v>
-      </c>
-      <c r="I107" s="2">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="J107" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.8750000000000001E-2</v>
       </c>
       <c r="K107" s="5">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>113</v>
@@ -5626,37 +5634,37 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E108" s="3">
-        <v>45575</v>
+        <v>45618</v>
       </c>
       <c r="F108" s="3">
-        <v>47036</v>
+        <v>46348</v>
       </c>
       <c r="G108" s="2">
         <v>6</v>
       </c>
       <c r="H108" s="3">
-        <v>47036</v>
+        <v>46348</v>
       </c>
       <c r="I108" s="2">
         <v>100</v>
       </c>
       <c r="J108" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="K108" s="5">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>113</v>
@@ -5664,10 +5672,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -5676,25 +5684,25 @@
         <v>13</v>
       </c>
       <c r="E109" s="3">
-        <v>45090</v>
+        <v>45618</v>
       </c>
       <c r="F109" s="3">
-        <v>46066</v>
+        <v>47079</v>
       </c>
       <c r="G109" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H109" s="3">
-        <v>46066</v>
+        <v>47079</v>
       </c>
       <c r="I109" s="2">
         <v>100</v>
       </c>
       <c r="J109" s="2">
-        <v>0.05</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K109" s="5">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>113</v>
@@ -5702,10 +5710,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
@@ -5714,25 +5722,25 @@
         <v>13</v>
       </c>
       <c r="E110" s="3">
-        <v>45624</v>
+        <v>45797</v>
       </c>
       <c r="F110" s="3">
-        <v>46170</v>
+        <v>46527</v>
       </c>
       <c r="G110" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H110" s="3">
-        <v>46170</v>
+        <v>46527</v>
       </c>
       <c r="I110" s="2">
         <v>100</v>
       </c>
       <c r="J110" s="2">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K110" s="5">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>113</v>
@@ -5740,10 +5748,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -5752,25 +5760,25 @@
         <v>13</v>
       </c>
       <c r="E111" s="3">
-        <v>45715</v>
+        <v>46006</v>
       </c>
       <c r="F111" s="3">
-        <v>46445</v>
+        <v>47102</v>
       </c>
       <c r="G111" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H111" s="3">
-        <v>46445</v>
+        <v>47102</v>
       </c>
       <c r="I111" s="2">
         <v>100</v>
       </c>
       <c r="J111" s="2">
-        <v>6.25E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K111" s="5">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>113</v>
@@ -5778,28 +5786,28 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E112" s="3">
-        <v>45784</v>
+        <v>45575</v>
       </c>
       <c r="F112" s="3">
-        <v>46514</v>
+        <v>47036</v>
       </c>
       <c r="G112" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H112" s="3">
-        <v>46514</v>
+        <v>47036</v>
       </c>
       <c r="I112" s="2">
         <v>100</v>
@@ -5808,7 +5816,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K112" s="5">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>113</v>
@@ -5816,7 +5824,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>75</v>
@@ -5828,25 +5836,25 @@
         <v>13</v>
       </c>
       <c r="E113" s="3">
-        <v>45860</v>
+        <v>45090</v>
       </c>
       <c r="F113" s="3">
-        <v>46590</v>
+        <v>46066</v>
       </c>
       <c r="G113" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H113" s="3">
-        <v>46590</v>
+        <v>46066</v>
       </c>
       <c r="I113" s="2">
         <v>100</v>
       </c>
       <c r="J113" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K113" s="5">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>113</v>
@@ -5854,37 +5862,37 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E114" s="3">
-        <v>44239</v>
+        <v>45624</v>
       </c>
       <c r="F114" s="3">
-        <v>47299</v>
+        <v>46170</v>
       </c>
       <c r="G114" s="2">
         <v>6</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>108</v>
+      <c r="H114" s="3">
+        <v>46170</v>
+      </c>
+      <c r="I114" s="2">
+        <v>100</v>
       </c>
       <c r="J114" s="2">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="K114" s="5">
-        <v>747</v>
+        <v>177</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>113</v>
@@ -5892,7 +5900,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>75</v>
@@ -5904,25 +5912,25 @@
         <v>13</v>
       </c>
       <c r="E115" s="3">
-        <v>45575</v>
+        <v>45715</v>
       </c>
       <c r="F115" s="3">
-        <v>47036</v>
+        <v>46445</v>
       </c>
       <c r="G115" s="2">
         <v>6</v>
       </c>
       <c r="H115" s="3">
-        <v>47036</v>
+        <v>46445</v>
       </c>
       <c r="I115" s="2">
         <v>100</v>
       </c>
       <c r="J115" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K115" s="5">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>113</v>
@@ -5930,7 +5938,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>75</v>
@@ -5942,25 +5950,25 @@
         <v>13</v>
       </c>
       <c r="E116" s="3">
-        <v>45860</v>
+        <v>45784</v>
       </c>
       <c r="F116" s="3">
-        <v>47686</v>
+        <v>46514</v>
       </c>
       <c r="G116" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H116" s="3">
-        <v>47686</v>
+        <v>46514</v>
       </c>
       <c r="I116" s="2">
         <v>100</v>
       </c>
       <c r="J116" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K116" s="5">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>113</v>
@@ -5968,7 +5976,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
@@ -5980,25 +5988,25 @@
         <v>13</v>
       </c>
       <c r="E117" s="3">
-        <v>45938</v>
+        <v>45860</v>
       </c>
       <c r="F117" s="3">
-        <v>46454</v>
+        <v>46590</v>
       </c>
       <c r="G117" s="2">
         <v>3</v>
       </c>
       <c r="H117" s="3">
-        <v>46454</v>
+        <v>46590</v>
       </c>
       <c r="I117" s="2">
         <v>100</v>
       </c>
       <c r="J117" s="2">
-        <v>0.06</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K117" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>113</v>
@@ -6006,7 +6014,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>75</v>
@@ -6018,25 +6026,25 @@
         <v>182</v>
       </c>
       <c r="E118" s="3">
-        <v>47372</v>
+        <v>44239</v>
       </c>
       <c r="F118" s="3">
-        <v>48102</v>
+        <v>47299</v>
       </c>
       <c r="G118" s="2">
         <v>6</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="J118" s="2">
-        <v>8.7499999999999994E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K118" s="5">
-        <v>540</v>
+        <v>747</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>113</v>
@@ -6044,37 +6052,37 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E119" s="3">
-        <v>45674</v>
+        <v>45575</v>
       </c>
       <c r="F119" s="3">
-        <v>48961</v>
+        <v>47036</v>
       </c>
       <c r="G119" s="2">
         <v>6</v>
       </c>
-      <c r="H119" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>88</v>
+      <c r="H119" s="3">
+        <v>47036</v>
+      </c>
+      <c r="I119" s="2">
+        <v>100</v>
       </c>
       <c r="J119" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K119" s="5">
-        <v>1100</v>
+        <v>125</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>113</v>
@@ -6082,39 +6090,229 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="3">
+        <v>45860</v>
+      </c>
+      <c r="F120" s="3">
+        <v>47686</v>
+      </c>
+      <c r="G120" s="2">
+        <v>6</v>
+      </c>
+      <c r="H120" s="3">
+        <v>47686</v>
+      </c>
+      <c r="I120" s="2">
+        <v>100</v>
+      </c>
+      <c r="J120" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K120" s="5">
+        <v>224</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="3">
+        <v>45938</v>
+      </c>
+      <c r="F121" s="3">
+        <v>46454</v>
+      </c>
+      <c r="G121" s="2">
+        <v>3</v>
+      </c>
+      <c r="H121" s="3">
+        <v>46454</v>
+      </c>
+      <c r="I121" s="2">
+        <v>100</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K121" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="3">
+        <v>45993</v>
+      </c>
+      <c r="F122" s="3">
+        <v>47179</v>
+      </c>
+      <c r="G122" s="2">
+        <v>6</v>
+      </c>
+      <c r="H122" s="3">
+        <v>47179</v>
+      </c>
+      <c r="I122" s="2">
+        <v>100</v>
+      </c>
+      <c r="J122" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K122" s="5">
+        <v>194</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E123" s="3">
+        <v>47372</v>
+      </c>
+      <c r="F123" s="3">
+        <v>48102</v>
+      </c>
+      <c r="G123" s="2">
+        <v>6</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J123" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K123" s="5">
+        <v>540</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E124" s="3">
+        <v>45674</v>
+      </c>
+      <c r="F124" s="3">
+        <v>48961</v>
+      </c>
+      <c r="G124" s="2">
+        <v>6</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J124" s="2">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K124" s="5">
+        <v>1100</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E125" s="3">
         <v>45199</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F125" s="3">
         <v>48852</v>
       </c>
-      <c r="G120" s="2">
-        <v>6</v>
-      </c>
-      <c r="H120" s="3" t="s">
+      <c r="G125" s="2">
+        <v>6</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J120" s="2">
+      <c r="J125" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K120" s="5">
+      <c r="K125" s="5">
         <v>575</v>
       </c>
-      <c r="L120" s="2" t="s">
+      <c r="L125" s="2" t="s">
         <v>113</v>
       </c>
     </row>
